--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D63E070-F988-4751-9815-5AF81E5361D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2AA3B1-0A99-454F-B91B-85B07E26E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -102,6 +102,183 @@
   </si>
   <si>
     <t>Gispert Camrubí</t>
+  </si>
+  <si>
+    <t>Gene Pujades</t>
+  </si>
+  <si>
+    <t>Crespo Roige</t>
+  </si>
+  <si>
+    <t>Gispert Marti</t>
+  </si>
+  <si>
+    <t>Balcells Boldu</t>
+  </si>
+  <si>
+    <t>Agulló Clop</t>
+  </si>
+  <si>
+    <t>Cascalló Mases</t>
+  </si>
+  <si>
+    <t>Botines Martí</t>
+  </si>
+  <si>
+    <t>Cascalló Clop</t>
+  </si>
+  <si>
+    <t>Jovell Torrent</t>
+  </si>
+  <si>
+    <t>Pedrós Vilamajó</t>
+  </si>
+  <si>
+    <t>Mas Vallés</t>
+  </si>
+  <si>
+    <t>Esteve Ribes</t>
+  </si>
+  <si>
+    <t>Roca Camrubi</t>
+  </si>
+  <si>
+    <t>Pasqual Curcó</t>
+  </si>
+  <si>
+    <t>Solà Blanco</t>
+  </si>
+  <si>
+    <t>Claver Mas</t>
+  </si>
+  <si>
+    <t>Balcells Ortis</t>
+  </si>
+  <si>
+    <t>Riu Vallés</t>
+  </si>
+  <si>
+    <t>Torrent Roiger</t>
+  </si>
+  <si>
+    <t>Trepat Fabregat</t>
+  </si>
+  <si>
+    <t>Coca Batlle</t>
+  </si>
+  <si>
+    <t>Roca ¿?</t>
+  </si>
+  <si>
+    <t>Cardona Coll</t>
+  </si>
+  <si>
+    <t>Domenjo Pallerola</t>
+  </si>
+  <si>
+    <t>Sunyé Civit</t>
+  </si>
+  <si>
+    <t>Torrades Vergé</t>
+  </si>
+  <si>
+    <t>Teixiné Huguet</t>
+  </si>
+  <si>
+    <t>Roig Bonell</t>
+  </si>
+  <si>
+    <t>Farell Pujol</t>
+  </si>
+  <si>
+    <t>Piulats Mas</t>
+  </si>
+  <si>
+    <t>Trepat Vallés</t>
+  </si>
+  <si>
+    <t>Bresolí Galceràn</t>
+  </si>
+  <si>
+    <t>Vall Martí</t>
+  </si>
+  <si>
+    <t>Coll Farré</t>
+  </si>
+  <si>
+    <t>Sol Martí</t>
+  </si>
+  <si>
+    <t>Viladrich Pujol</t>
+  </si>
+  <si>
+    <t>Gené Ginesta</t>
+  </si>
+  <si>
+    <t>Vergé Roige</t>
+  </si>
+  <si>
+    <t>Pedra Vallés</t>
+  </si>
+  <si>
+    <t>Solsona Cercós</t>
+  </si>
+  <si>
+    <t>Vila Jové</t>
+  </si>
+  <si>
+    <t>Masot Torres</t>
+  </si>
+  <si>
+    <t>Padulles Nabau</t>
+  </si>
+  <si>
+    <t>Niubó Roigé</t>
+  </si>
+  <si>
+    <t>Fabregat Duart</t>
+  </si>
+  <si>
+    <t>Pedrós Pedrós</t>
+  </si>
+  <si>
+    <t>Balagué Farré</t>
+  </si>
+  <si>
+    <t>Viola Serra</t>
+  </si>
+  <si>
+    <t>Bonell Balagué</t>
+  </si>
+  <si>
+    <t>Bonell Mas</t>
+  </si>
+  <si>
+    <t>Valentines Gené</t>
+  </si>
+  <si>
+    <t>Colell Pedrós</t>
+  </si>
+  <si>
+    <t>Monfà Pujol</t>
+  </si>
+  <si>
+    <t>Mas Vergé</t>
+  </si>
+  <si>
+    <t>Solsona Mas</t>
+  </si>
+  <si>
+    <t>Mosset Falcó</t>
+  </si>
+  <si>
+    <t>Plasa Boladeres</t>
+  </si>
+  <si>
+    <t>Martí Palou</t>
+  </si>
+  <si>
+    <t>Valles Roma</t>
   </si>
 </sst>
 </file>
@@ -453,16 +630,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="3" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -644,13 +822,728 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1758</v>
+        <v>1858</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1858</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1858</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1858</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1858</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1858</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1858</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1858</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1859</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1859</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1859</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1859</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1859</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1859</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1859</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1859</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1860</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1860</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1860</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1860</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1860</v>
+      </c>
+      <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1860</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1860</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1860</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1860</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1860</v>
+      </c>
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1860</v>
+      </c>
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1860</v>
+      </c>
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1860</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1860</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1860</v>
+      </c>
+      <c r="B45">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1860</v>
+      </c>
+      <c r="B46">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1860</v>
+      </c>
+      <c r="B47">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1861</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1861</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1861</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1861</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1861</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1861</v>
+      </c>
+      <c r="B53">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1861</v>
+      </c>
+      <c r="B54">
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1861</v>
+      </c>
+      <c r="B55">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1861</v>
+      </c>
+      <c r="B56">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1861</v>
+      </c>
+      <c r="B57">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1861</v>
+      </c>
+      <c r="B58">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1862</v>
+      </c>
+      <c r="B59">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1862</v>
+      </c>
+      <c r="B60">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1862</v>
+      </c>
+      <c r="B61">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1862</v>
+      </c>
+      <c r="B62">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1862</v>
+      </c>
+      <c r="B63">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1862</v>
+      </c>
+      <c r="B64">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1862</v>
+      </c>
+      <c r="B65">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1862</v>
+      </c>
+      <c r="B66">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1863</v>
+      </c>
+      <c r="B67">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1863</v>
+      </c>
+      <c r="B68">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1863</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1863</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1863</v>
+      </c>
+      <c r="B71">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1863</v>
+      </c>
+      <c r="B72">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1863</v>
+      </c>
+      <c r="B73">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1863</v>
+      </c>
+      <c r="B74">
+        <v>54</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1863</v>
+      </c>
+      <c r="B75">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1863</v>
+      </c>
+      <c r="B76">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1863</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1863</v>
+      </c>
+      <c r="B78">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1863</v>
+      </c>
+      <c r="B79">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1863</v>
+      </c>
+      <c r="B80">
+        <v>55</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2AA3B1-0A99-454F-B91B-85B07E26E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D62E6C1-D24D-4B95-A520-310B65D37F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="102">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -279,6 +282,69 @@
   </si>
   <si>
     <t>Valles Roma</t>
+  </si>
+  <si>
+    <t>Vallés Roig</t>
+  </si>
+  <si>
+    <t>Camarasa Novell</t>
+  </si>
+  <si>
+    <t>Trepat Ginesta</t>
+  </si>
+  <si>
+    <t>Perera Ripoll</t>
+  </si>
+  <si>
+    <t>Darba Colell</t>
+  </si>
+  <si>
+    <t>Pinós Martí</t>
+  </si>
+  <si>
+    <t>Civit Martí</t>
+  </si>
+  <si>
+    <t>Pujades Droguet</t>
+  </si>
+  <si>
+    <t>Arderiu Vilaltella</t>
+  </si>
+  <si>
+    <t>Ginestà Prats</t>
+  </si>
+  <si>
+    <t>Planes Pujol</t>
+  </si>
+  <si>
+    <t>Vallés Mas</t>
+  </si>
+  <si>
+    <t>Escolà Formiguera</t>
+  </si>
+  <si>
+    <t>Martí Martí</t>
+  </si>
+  <si>
+    <t>Projecte</t>
+  </si>
+  <si>
+    <t>Rollo</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>Anys</t>
+  </si>
+  <si>
+    <t>SPN 2,02 C</t>
+  </si>
+  <si>
+    <t>A,6</t>
+  </si>
+  <si>
+    <t>1857-1865</t>
   </si>
 </sst>
 </file>
@@ -630,16 +696,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -648,7 +714,7 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -676,8 +742,20 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1857</v>
       </c>
@@ -687,8 +765,20 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1857</v>
       </c>
@@ -698,8 +788,20 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1857</v>
       </c>
@@ -709,8 +811,20 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1857</v>
       </c>
@@ -720,8 +834,20 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1857</v>
       </c>
@@ -731,8 +857,20 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1857</v>
       </c>
@@ -742,8 +880,20 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1857</v>
       </c>
@@ -753,8 +903,20 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1857</v>
       </c>
@@ -764,8 +926,20 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1857</v>
       </c>
@@ -775,8 +949,20 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1857</v>
       </c>
@@ -786,8 +972,20 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1857</v>
       </c>
@@ -797,8 +995,20 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1857</v>
       </c>
@@ -808,8 +1018,20 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1857</v>
       </c>
@@ -819,8 +1041,20 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1858</v>
       </c>
@@ -830,8 +1064,20 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15">
+        <v>47</v>
+      </c>
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1858</v>
       </c>
@@ -841,8 +1087,20 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16">
+        <v>47</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1858</v>
       </c>
@@ -852,8 +1110,20 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1858</v>
       </c>
@@ -863,8 +1133,20 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1858</v>
       </c>
@@ -874,8 +1156,20 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19">
+        <v>47</v>
+      </c>
+      <c r="L19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1858</v>
       </c>
@@ -885,8 +1179,20 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1858</v>
       </c>
@@ -896,8 +1202,20 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1858</v>
       </c>
@@ -907,8 +1225,20 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1859</v>
       </c>
@@ -918,8 +1248,20 @@
       <c r="C23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23">
+        <v>47</v>
+      </c>
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1859</v>
       </c>
@@ -929,8 +1271,20 @@
       <c r="C24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24">
+        <v>47</v>
+      </c>
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1859</v>
       </c>
@@ -940,8 +1294,20 @@
       <c r="C25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25">
+        <v>47</v>
+      </c>
+      <c r="L25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1859</v>
       </c>
@@ -951,8 +1317,20 @@
       <c r="C26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1859</v>
       </c>
@@ -962,8 +1340,20 @@
       <c r="C27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27">
+        <v>47</v>
+      </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1859</v>
       </c>
@@ -973,8 +1363,20 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1859</v>
       </c>
@@ -984,8 +1386,20 @@
       <c r="C29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1859</v>
       </c>
@@ -995,8 +1409,20 @@
       <c r="C30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1860</v>
       </c>
@@ -1006,8 +1432,20 @@
       <c r="C31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31">
+        <v>47</v>
+      </c>
+      <c r="L31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1860</v>
       </c>
@@ -1017,8 +1455,20 @@
       <c r="C32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32">
+        <v>47</v>
+      </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1860</v>
       </c>
@@ -1028,8 +1478,20 @@
       <c r="C33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1860</v>
       </c>
@@ -1039,8 +1501,20 @@
       <c r="C34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34">
+        <v>47</v>
+      </c>
+      <c r="L34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1860</v>
       </c>
@@ -1050,8 +1524,20 @@
       <c r="C35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35">
+        <v>47</v>
+      </c>
+      <c r="L35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1860</v>
       </c>
@@ -1061,8 +1547,20 @@
       <c r="C36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1860</v>
       </c>
@@ -1072,8 +1570,20 @@
       <c r="C37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1860</v>
       </c>
@@ -1083,8 +1593,20 @@
       <c r="C38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38">
+        <v>47</v>
+      </c>
+      <c r="L38" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1860</v>
       </c>
@@ -1094,8 +1616,20 @@
       <c r="C39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39">
+        <v>47</v>
+      </c>
+      <c r="L39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1860</v>
       </c>
@@ -1105,8 +1639,20 @@
       <c r="C40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>47</v>
+      </c>
+      <c r="L40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -1116,8 +1662,20 @@
       <c r="C41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
+        <v>100</v>
+      </c>
+      <c r="M41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1860</v>
       </c>
@@ -1127,8 +1685,20 @@
       <c r="C42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42">
+        <v>47</v>
+      </c>
+      <c r="L42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1860</v>
       </c>
@@ -1138,8 +1708,20 @@
       <c r="C43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43">
+        <v>47</v>
+      </c>
+      <c r="L43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1860</v>
       </c>
@@ -1149,8 +1731,20 @@
       <c r="C44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44">
+        <v>47</v>
+      </c>
+      <c r="L44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1860</v>
       </c>
@@ -1160,8 +1754,20 @@
       <c r="C45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45">
+        <v>47</v>
+      </c>
+      <c r="L45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1860</v>
       </c>
@@ -1171,8 +1777,20 @@
       <c r="C46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46">
+        <v>47</v>
+      </c>
+      <c r="L46" t="s">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1860</v>
       </c>
@@ -1182,8 +1800,20 @@
       <c r="C47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47">
+        <v>47</v>
+      </c>
+      <c r="L47" t="s">
+        <v>100</v>
+      </c>
+      <c r="M47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1861</v>
       </c>
@@ -1193,8 +1823,20 @@
       <c r="C48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1861</v>
       </c>
@@ -1204,8 +1846,20 @@
       <c r="C49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>47</v>
+      </c>
+      <c r="L49" t="s">
+        <v>100</v>
+      </c>
+      <c r="M49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1861</v>
       </c>
@@ -1215,8 +1869,20 @@
       <c r="C50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50">
+        <v>47</v>
+      </c>
+      <c r="L50" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1861</v>
       </c>
@@ -1226,8 +1892,20 @@
       <c r="C51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>99</v>
+      </c>
+      <c r="K51">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>100</v>
+      </c>
+      <c r="M51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1861</v>
       </c>
@@ -1237,8 +1915,20 @@
       <c r="C52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52">
+        <v>47</v>
+      </c>
+      <c r="L52" t="s">
+        <v>100</v>
+      </c>
+      <c r="M52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1861</v>
       </c>
@@ -1248,8 +1938,20 @@
       <c r="C53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53">
+        <v>47</v>
+      </c>
+      <c r="L53" t="s">
+        <v>100</v>
+      </c>
+      <c r="M53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1861</v>
       </c>
@@ -1259,8 +1961,20 @@
       <c r="C54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54">
+        <v>47</v>
+      </c>
+      <c r="L54" t="s">
+        <v>100</v>
+      </c>
+      <c r="M54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1861</v>
       </c>
@@ -1270,8 +1984,20 @@
       <c r="C55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>99</v>
+      </c>
+      <c r="K55">
+        <v>47</v>
+      </c>
+      <c r="L55" t="s">
+        <v>100</v>
+      </c>
+      <c r="M55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1861</v>
       </c>
@@ -1281,8 +2007,20 @@
       <c r="C56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>99</v>
+      </c>
+      <c r="K56">
+        <v>47</v>
+      </c>
+      <c r="L56" t="s">
+        <v>100</v>
+      </c>
+      <c r="M56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1861</v>
       </c>
@@ -1292,8 +2030,20 @@
       <c r="C57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>99</v>
+      </c>
+      <c r="K57">
+        <v>47</v>
+      </c>
+      <c r="L57" t="s">
+        <v>100</v>
+      </c>
+      <c r="M57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1861</v>
       </c>
@@ -1303,8 +2053,20 @@
       <c r="C58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>99</v>
+      </c>
+      <c r="K58">
+        <v>47</v>
+      </c>
+      <c r="L58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1862</v>
       </c>
@@ -1314,8 +2076,20 @@
       <c r="C59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+      <c r="K59">
+        <v>47</v>
+      </c>
+      <c r="L59" t="s">
+        <v>100</v>
+      </c>
+      <c r="M59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1862</v>
       </c>
@@ -1325,8 +2099,20 @@
       <c r="C60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+      <c r="K60">
+        <v>47</v>
+      </c>
+      <c r="L60" t="s">
+        <v>100</v>
+      </c>
+      <c r="M60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1862</v>
       </c>
@@ -1336,8 +2122,20 @@
       <c r="C61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61">
+        <v>47</v>
+      </c>
+      <c r="L61" t="s">
+        <v>100</v>
+      </c>
+      <c r="M61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1862</v>
       </c>
@@ -1347,8 +2145,20 @@
       <c r="C62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+      <c r="K62">
+        <v>47</v>
+      </c>
+      <c r="L62" t="s">
+        <v>100</v>
+      </c>
+      <c r="M62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1862</v>
       </c>
@@ -1358,8 +2168,20 @@
       <c r="C63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+      <c r="K63">
+        <v>47</v>
+      </c>
+      <c r="L63" t="s">
+        <v>100</v>
+      </c>
+      <c r="M63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1862</v>
       </c>
@@ -1369,8 +2191,20 @@
       <c r="C64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+      <c r="K64">
+        <v>47</v>
+      </c>
+      <c r="L64" t="s">
+        <v>100</v>
+      </c>
+      <c r="M64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1862</v>
       </c>
@@ -1380,8 +2214,20 @@
       <c r="C65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+      <c r="K65">
+        <v>47</v>
+      </c>
+      <c r="L65" t="s">
+        <v>100</v>
+      </c>
+      <c r="M65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1862</v>
       </c>
@@ -1391,8 +2237,20 @@
       <c r="C66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+      <c r="K66">
+        <v>47</v>
+      </c>
+      <c r="L66" t="s">
+        <v>100</v>
+      </c>
+      <c r="M66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1863</v>
       </c>
@@ -1402,8 +2260,20 @@
       <c r="C67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+      <c r="K67">
+        <v>47</v>
+      </c>
+      <c r="L67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1863</v>
       </c>
@@ -1413,8 +2283,20 @@
       <c r="C68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+      <c r="K68">
+        <v>47</v>
+      </c>
+      <c r="L68" t="s">
+        <v>100</v>
+      </c>
+      <c r="M68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1863</v>
       </c>
@@ -1424,8 +2306,20 @@
       <c r="C69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+      <c r="K69">
+        <v>47</v>
+      </c>
+      <c r="L69" t="s">
+        <v>100</v>
+      </c>
+      <c r="M69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1863</v>
       </c>
@@ -1435,8 +2329,20 @@
       <c r="C70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70">
+        <v>47</v>
+      </c>
+      <c r="L70" t="s">
+        <v>100</v>
+      </c>
+      <c r="M70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1863</v>
       </c>
@@ -1446,8 +2352,20 @@
       <c r="C71" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+      <c r="K71">
+        <v>47</v>
+      </c>
+      <c r="L71" t="s">
+        <v>100</v>
+      </c>
+      <c r="M71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1863</v>
       </c>
@@ -1457,8 +2375,20 @@
       <c r="C72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72">
+        <v>47</v>
+      </c>
+      <c r="L72" t="s">
+        <v>100</v>
+      </c>
+      <c r="M72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1863</v>
       </c>
@@ -1468,8 +2398,20 @@
       <c r="C73" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+      <c r="K73">
+        <v>47</v>
+      </c>
+      <c r="L73" t="s">
+        <v>100</v>
+      </c>
+      <c r="M73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1863</v>
       </c>
@@ -1479,8 +2421,20 @@
       <c r="C74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>99</v>
+      </c>
+      <c r="K74">
+        <v>47</v>
+      </c>
+      <c r="L74" t="s">
+        <v>100</v>
+      </c>
+      <c r="M74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1863</v>
       </c>
@@ -1490,8 +2444,20 @@
       <c r="C75" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>99</v>
+      </c>
+      <c r="K75">
+        <v>47</v>
+      </c>
+      <c r="L75" t="s">
+        <v>100</v>
+      </c>
+      <c r="M75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1863</v>
       </c>
@@ -1501,8 +2467,20 @@
       <c r="C76" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>99</v>
+      </c>
+      <c r="K76">
+        <v>47</v>
+      </c>
+      <c r="L76" t="s">
+        <v>100</v>
+      </c>
+      <c r="M76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1863</v>
       </c>
@@ -1512,8 +2490,20 @@
       <c r="C77" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K77">
+        <v>47</v>
+      </c>
+      <c r="L77" t="s">
+        <v>100</v>
+      </c>
+      <c r="M77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1863</v>
       </c>
@@ -1523,8 +2513,20 @@
       <c r="C78" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>99</v>
+      </c>
+      <c r="K78">
+        <v>47</v>
+      </c>
+      <c r="L78" t="s">
+        <v>100</v>
+      </c>
+      <c r="M78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1863</v>
       </c>
@@ -1534,8 +2536,20 @@
       <c r="C79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>99</v>
+      </c>
+      <c r="K79">
+        <v>47</v>
+      </c>
+      <c r="L79" t="s">
+        <v>100</v>
+      </c>
+      <c r="M79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1863</v>
       </c>
@@ -1545,8 +2559,366 @@
       <c r="C80" t="s">
         <v>80</v>
       </c>
+      <c r="J80" t="s">
+        <v>99</v>
+      </c>
+      <c r="K80">
+        <v>47</v>
+      </c>
+      <c r="L80" t="s">
+        <v>100</v>
+      </c>
+      <c r="M80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1864</v>
+      </c>
+      <c r="B81">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81">
+        <v>47</v>
+      </c>
+      <c r="L81" t="s">
+        <v>100</v>
+      </c>
+      <c r="M81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1864</v>
+      </c>
+      <c r="B82">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" t="s">
+        <v>99</v>
+      </c>
+      <c r="K82">
+        <v>47</v>
+      </c>
+      <c r="L82" t="s">
+        <v>100</v>
+      </c>
+      <c r="M82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1864</v>
+      </c>
+      <c r="B83">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s">
+        <v>99</v>
+      </c>
+      <c r="K83">
+        <v>47</v>
+      </c>
+      <c r="L83" t="s">
+        <v>100</v>
+      </c>
+      <c r="M83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1864</v>
+      </c>
+      <c r="B84">
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s">
+        <v>99</v>
+      </c>
+      <c r="K84">
+        <v>47</v>
+      </c>
+      <c r="L84" t="s">
+        <v>100</v>
+      </c>
+      <c r="M84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1864</v>
+      </c>
+      <c r="B85">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85" t="s">
+        <v>99</v>
+      </c>
+      <c r="K85">
+        <v>47</v>
+      </c>
+      <c r="L85" t="s">
+        <v>100</v>
+      </c>
+      <c r="M85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1865</v>
+      </c>
+      <c r="B86">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s">
+        <v>99</v>
+      </c>
+      <c r="K86">
+        <v>47</v>
+      </c>
+      <c r="L86" t="s">
+        <v>100</v>
+      </c>
+      <c r="M86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1865</v>
+      </c>
+      <c r="B87">
+        <v>57</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87">
+        <v>47</v>
+      </c>
+      <c r="L87" t="s">
+        <v>100</v>
+      </c>
+      <c r="M87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1865</v>
+      </c>
+      <c r="B88">
+        <v>58</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88">
+        <v>47</v>
+      </c>
+      <c r="L88" t="s">
+        <v>100</v>
+      </c>
+      <c r="M88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1865</v>
+      </c>
+      <c r="B89">
+        <v>58</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s">
+        <v>99</v>
+      </c>
+      <c r="K89">
+        <v>47</v>
+      </c>
+      <c r="L89" t="s">
+        <v>100</v>
+      </c>
+      <c r="M89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1865</v>
+      </c>
+      <c r="B90">
+        <v>58</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90" t="s">
+        <v>99</v>
+      </c>
+      <c r="K90">
+        <v>47</v>
+      </c>
+      <c r="L90" t="s">
+        <v>100</v>
+      </c>
+      <c r="M90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1865</v>
+      </c>
+      <c r="B91">
+        <v>58</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s">
+        <v>99</v>
+      </c>
+      <c r="K91">
+        <v>47</v>
+      </c>
+      <c r="L91" t="s">
+        <v>100</v>
+      </c>
+      <c r="M91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1865</v>
+      </c>
+      <c r="B92">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92" t="s">
+        <v>99</v>
+      </c>
+      <c r="K92">
+        <v>47</v>
+      </c>
+      <c r="L92" t="s">
+        <v>100</v>
+      </c>
+      <c r="M92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1865</v>
+      </c>
+      <c r="B93">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="J93" t="s">
+        <v>99</v>
+      </c>
+      <c r="K93">
+        <v>47</v>
+      </c>
+      <c r="L93" t="s">
+        <v>100</v>
+      </c>
+      <c r="M93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1865</v>
+      </c>
+      <c r="B94">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="J94" t="s">
+        <v>99</v>
+      </c>
+      <c r="K94">
+        <v>47</v>
+      </c>
+      <c r="L94" t="s">
+        <v>100</v>
+      </c>
+      <c r="M94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1865</v>
+      </c>
+      <c r="B95">
+        <v>59</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s">
+        <v>99</v>
+      </c>
+      <c r="K95">
+        <v>47</v>
+      </c>
+      <c r="L95" t="s">
+        <v>100</v>
+      </c>
+      <c r="M95" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D62E6C1-D24D-4B95-A520-310B65D37F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA04F7E8-D9D8-4B59-8594-7E59023EEBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="150">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -345,6 +345,150 @@
   </si>
   <si>
     <t>1857-1865</t>
+  </si>
+  <si>
+    <t>1852-1856</t>
+  </si>
+  <si>
+    <t>A,5</t>
+  </si>
+  <si>
+    <t>Pasqual Gilavert</t>
+  </si>
+  <si>
+    <t>Majoral Fiquera</t>
+  </si>
+  <si>
+    <t>Majoral Vergé</t>
+  </si>
+  <si>
+    <t>Gormiguera Ginestà</t>
+  </si>
+  <si>
+    <t>Formiguera Martí</t>
+  </si>
+  <si>
+    <t>Varniol Castelló</t>
+  </si>
+  <si>
+    <t>Prenafeta Torres</t>
+  </si>
+  <si>
+    <t>Gomà Galceran</t>
+  </si>
+  <si>
+    <t>Cava Codina</t>
+  </si>
+  <si>
+    <t>Oliva Trepat</t>
+  </si>
+  <si>
+    <t>Cercós Martí</t>
+  </si>
+  <si>
+    <t>Centena Mata</t>
+  </si>
+  <si>
+    <t>Ribes Martí</t>
+  </si>
+  <si>
+    <t>Palou Mas</t>
+  </si>
+  <si>
+    <t>Palou Mosset</t>
+  </si>
+  <si>
+    <t>Bellet Pedrós</t>
+  </si>
+  <si>
+    <t>Labaquial Figuera</t>
+  </si>
+  <si>
+    <t>Roma Civit</t>
+  </si>
+  <si>
+    <t>Binefa Martí</t>
+  </si>
+  <si>
+    <t>Formiiguera Bellet</t>
+  </si>
+  <si>
+    <t>Fabregat Mosset</t>
+  </si>
+  <si>
+    <t>Cascallo Mosset</t>
+  </si>
+  <si>
+    <t>Cisteró Nabau</t>
+  </si>
+  <si>
+    <t>Riart Rosell</t>
+  </si>
+  <si>
+    <t>Roige Pasqual</t>
+  </si>
+  <si>
+    <t>Solsona Majoral</t>
+  </si>
+  <si>
+    <t>Gili Pujol</t>
+  </si>
+  <si>
+    <t>Martí Fradevia</t>
+  </si>
+  <si>
+    <t>Moset Mas</t>
+  </si>
+  <si>
+    <t>Martí Gené</t>
+  </si>
+  <si>
+    <t>Pallerola Solé</t>
+  </si>
+  <si>
+    <t>Pedrós Mas</t>
+  </si>
+  <si>
+    <t>Cascalló Vallés</t>
+  </si>
+  <si>
+    <t>Llovera Sales</t>
+  </si>
+  <si>
+    <t>Niubó Mas</t>
+  </si>
+  <si>
+    <t>Fabregat Arderiu</t>
+  </si>
+  <si>
+    <t>Colell Farré</t>
+  </si>
+  <si>
+    <t>Martí Gene</t>
+  </si>
+  <si>
+    <t>Bellet Escolà</t>
+  </si>
+  <si>
+    <t>Renyé Pujol</t>
+  </si>
+  <si>
+    <t>Pasqual Ribes</t>
+  </si>
+  <si>
+    <t>Mas Riart</t>
+  </si>
+  <si>
+    <t>Planes Agulló</t>
+  </si>
+  <si>
+    <t>Pedrós Bonet</t>
+  </si>
+  <si>
+    <t>Simó Mata</t>
+  </si>
+  <si>
+    <t>Torra Civit</t>
   </si>
 </sst>
 </file>
@@ -696,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,6 +3061,1110 @@
         <v>101</v>
       </c>
     </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1852</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="J96" t="s">
+        <v>99</v>
+      </c>
+      <c r="K96">
+        <v>47</v>
+      </c>
+      <c r="L96" t="s">
+        <v>103</v>
+      </c>
+      <c r="M96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1852</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="J97" t="s">
+        <v>99</v>
+      </c>
+      <c r="K97">
+        <v>47</v>
+      </c>
+      <c r="L97" t="s">
+        <v>103</v>
+      </c>
+      <c r="M97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1852</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="J98" t="s">
+        <v>99</v>
+      </c>
+      <c r="K98">
+        <v>47</v>
+      </c>
+      <c r="L98" t="s">
+        <v>103</v>
+      </c>
+      <c r="M98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1852</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="J99" t="s">
+        <v>99</v>
+      </c>
+      <c r="K99">
+        <v>47</v>
+      </c>
+      <c r="L99" t="s">
+        <v>103</v>
+      </c>
+      <c r="M99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1852</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="J100" t="s">
+        <v>99</v>
+      </c>
+      <c r="K100">
+        <v>47</v>
+      </c>
+      <c r="L100" t="s">
+        <v>103</v>
+      </c>
+      <c r="M100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1852</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="J101" t="s">
+        <v>99</v>
+      </c>
+      <c r="K101">
+        <v>47</v>
+      </c>
+      <c r="L101" t="s">
+        <v>103</v>
+      </c>
+      <c r="M101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1852</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="J102" t="s">
+        <v>99</v>
+      </c>
+      <c r="K102">
+        <v>47</v>
+      </c>
+      <c r="L102" t="s">
+        <v>103</v>
+      </c>
+      <c r="M102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1852</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="J103" t="s">
+        <v>99</v>
+      </c>
+      <c r="K103">
+        <v>47</v>
+      </c>
+      <c r="L103" t="s">
+        <v>103</v>
+      </c>
+      <c r="M103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1853</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="J104" t="s">
+        <v>99</v>
+      </c>
+      <c r="K104">
+        <v>47</v>
+      </c>
+      <c r="L104" t="s">
+        <v>103</v>
+      </c>
+      <c r="M104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1853</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J105" t="s">
+        <v>99</v>
+      </c>
+      <c r="K105">
+        <v>47</v>
+      </c>
+      <c r="L105" t="s">
+        <v>103</v>
+      </c>
+      <c r="M105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1853</v>
+      </c>
+      <c r="B106">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="J106" t="s">
+        <v>99</v>
+      </c>
+      <c r="K106">
+        <v>47</v>
+      </c>
+      <c r="L106" t="s">
+        <v>103</v>
+      </c>
+      <c r="M106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1853</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="J107" t="s">
+        <v>99</v>
+      </c>
+      <c r="K107">
+        <v>47</v>
+      </c>
+      <c r="L107" t="s">
+        <v>103</v>
+      </c>
+      <c r="M107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1853</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>115</v>
+      </c>
+      <c r="J108" t="s">
+        <v>99</v>
+      </c>
+      <c r="K108">
+        <v>47</v>
+      </c>
+      <c r="L108" t="s">
+        <v>103</v>
+      </c>
+      <c r="M108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1853</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="J109" t="s">
+        <v>99</v>
+      </c>
+      <c r="K109">
+        <v>47</v>
+      </c>
+      <c r="L109" t="s">
+        <v>103</v>
+      </c>
+      <c r="M109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1854</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="J110" t="s">
+        <v>99</v>
+      </c>
+      <c r="K110">
+        <v>47</v>
+      </c>
+      <c r="L110" t="s">
+        <v>103</v>
+      </c>
+      <c r="M110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1854</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="J111" t="s">
+        <v>99</v>
+      </c>
+      <c r="K111">
+        <v>47</v>
+      </c>
+      <c r="L111" t="s">
+        <v>103</v>
+      </c>
+      <c r="M111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1854</v>
+      </c>
+      <c r="B112">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
+      <c r="J112" t="s">
+        <v>99</v>
+      </c>
+      <c r="K112">
+        <v>47</v>
+      </c>
+      <c r="L112" t="s">
+        <v>103</v>
+      </c>
+      <c r="M112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1854</v>
+      </c>
+      <c r="B113">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+      <c r="J113" t="s">
+        <v>99</v>
+      </c>
+      <c r="K113">
+        <v>47</v>
+      </c>
+      <c r="L113" t="s">
+        <v>103</v>
+      </c>
+      <c r="M113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1854</v>
+      </c>
+      <c r="B114">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>121</v>
+      </c>
+      <c r="J114" t="s">
+        <v>99</v>
+      </c>
+      <c r="K114">
+        <v>47</v>
+      </c>
+      <c r="L114" t="s">
+        <v>103</v>
+      </c>
+      <c r="M114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1854</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>122</v>
+      </c>
+      <c r="J115" t="s">
+        <v>99</v>
+      </c>
+      <c r="K115">
+        <v>47</v>
+      </c>
+      <c r="L115" t="s">
+        <v>103</v>
+      </c>
+      <c r="M115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1854</v>
+      </c>
+      <c r="B116">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>123</v>
+      </c>
+      <c r="J116" t="s">
+        <v>99</v>
+      </c>
+      <c r="K116">
+        <v>47</v>
+      </c>
+      <c r="L116" t="s">
+        <v>103</v>
+      </c>
+      <c r="M116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1854</v>
+      </c>
+      <c r="B117">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>124</v>
+      </c>
+      <c r="J117" t="s">
+        <v>99</v>
+      </c>
+      <c r="K117">
+        <v>47</v>
+      </c>
+      <c r="L117" t="s">
+        <v>103</v>
+      </c>
+      <c r="M117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1854</v>
+      </c>
+      <c r="B118">
+        <v>27</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="J118" t="s">
+        <v>99</v>
+      </c>
+      <c r="K118">
+        <v>47</v>
+      </c>
+      <c r="L118" t="s">
+        <v>103</v>
+      </c>
+      <c r="M118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1855</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+      <c r="J119" t="s">
+        <v>99</v>
+      </c>
+      <c r="K119">
+        <v>47</v>
+      </c>
+      <c r="L119" t="s">
+        <v>103</v>
+      </c>
+      <c r="M119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1855</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+      <c r="J120" t="s">
+        <v>99</v>
+      </c>
+      <c r="K120">
+        <v>47</v>
+      </c>
+      <c r="L120" t="s">
+        <v>103</v>
+      </c>
+      <c r="M120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1855</v>
+      </c>
+      <c r="B121">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>128</v>
+      </c>
+      <c r="J121" t="s">
+        <v>99</v>
+      </c>
+      <c r="K121">
+        <v>47</v>
+      </c>
+      <c r="L121" t="s">
+        <v>103</v>
+      </c>
+      <c r="M121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1855</v>
+      </c>
+      <c r="B122">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+      <c r="J122" t="s">
+        <v>99</v>
+      </c>
+      <c r="K122">
+        <v>47</v>
+      </c>
+      <c r="L122" t="s">
+        <v>103</v>
+      </c>
+      <c r="M122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1855</v>
+      </c>
+      <c r="B123">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+      <c r="J123" t="s">
+        <v>99</v>
+      </c>
+      <c r="K123">
+        <v>47</v>
+      </c>
+      <c r="L123" t="s">
+        <v>103</v>
+      </c>
+      <c r="M123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1855</v>
+      </c>
+      <c r="B124">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+      <c r="J124" t="s">
+        <v>99</v>
+      </c>
+      <c r="K124">
+        <v>47</v>
+      </c>
+      <c r="L124" t="s">
+        <v>103</v>
+      </c>
+      <c r="M124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1855</v>
+      </c>
+      <c r="B125">
+        <v>34</v>
+      </c>
+      <c r="C125" t="s">
+        <v>132</v>
+      </c>
+      <c r="J125" t="s">
+        <v>99</v>
+      </c>
+      <c r="K125">
+        <v>47</v>
+      </c>
+      <c r="L125" t="s">
+        <v>103</v>
+      </c>
+      <c r="M125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1855</v>
+      </c>
+      <c r="B126">
+        <v>35</v>
+      </c>
+      <c r="C126" t="s">
+        <v>133</v>
+      </c>
+      <c r="J126" t="s">
+        <v>99</v>
+      </c>
+      <c r="K126">
+        <v>47</v>
+      </c>
+      <c r="L126" t="s">
+        <v>103</v>
+      </c>
+      <c r="M126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1855</v>
+      </c>
+      <c r="B127">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>134</v>
+      </c>
+      <c r="J127" t="s">
+        <v>99</v>
+      </c>
+      <c r="K127">
+        <v>47</v>
+      </c>
+      <c r="L127" t="s">
+        <v>103</v>
+      </c>
+      <c r="M127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1855</v>
+      </c>
+      <c r="B128">
+        <v>37</v>
+      </c>
+      <c r="C128" t="s">
+        <v>135</v>
+      </c>
+      <c r="J128" t="s">
+        <v>99</v>
+      </c>
+      <c r="K128">
+        <v>47</v>
+      </c>
+      <c r="L128" t="s">
+        <v>103</v>
+      </c>
+      <c r="M128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1855</v>
+      </c>
+      <c r="B129">
+        <v>38</v>
+      </c>
+      <c r="C129" t="s">
+        <v>136</v>
+      </c>
+      <c r="J129" t="s">
+        <v>99</v>
+      </c>
+      <c r="K129">
+        <v>47</v>
+      </c>
+      <c r="L129" t="s">
+        <v>103</v>
+      </c>
+      <c r="M129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1855</v>
+      </c>
+      <c r="B130">
+        <v>39</v>
+      </c>
+      <c r="C130" t="s">
+        <v>137</v>
+      </c>
+      <c r="J130" t="s">
+        <v>99</v>
+      </c>
+      <c r="K130">
+        <v>47</v>
+      </c>
+      <c r="L130" t="s">
+        <v>103</v>
+      </c>
+      <c r="M130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1856</v>
+      </c>
+      <c r="B131">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>138</v>
+      </c>
+      <c r="J131" t="s">
+        <v>99</v>
+      </c>
+      <c r="K131">
+        <v>47</v>
+      </c>
+      <c r="L131" t="s">
+        <v>103</v>
+      </c>
+      <c r="M131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1856</v>
+      </c>
+      <c r="B132">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s">
+        <v>139</v>
+      </c>
+      <c r="J132" t="s">
+        <v>99</v>
+      </c>
+      <c r="K132">
+        <v>47</v>
+      </c>
+      <c r="L132" t="s">
+        <v>103</v>
+      </c>
+      <c r="M132" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1856</v>
+      </c>
+      <c r="B133">
+        <v>41</v>
+      </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
+      <c r="J133" t="s">
+        <v>99</v>
+      </c>
+      <c r="K133">
+        <v>47</v>
+      </c>
+      <c r="L133" t="s">
+        <v>103</v>
+      </c>
+      <c r="M133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1856</v>
+      </c>
+      <c r="B134">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>141</v>
+      </c>
+      <c r="J134" t="s">
+        <v>99</v>
+      </c>
+      <c r="K134">
+        <v>47</v>
+      </c>
+      <c r="L134" t="s">
+        <v>103</v>
+      </c>
+      <c r="M134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1856</v>
+      </c>
+      <c r="B135">
+        <v>42</v>
+      </c>
+      <c r="C135" t="s">
+        <v>87</v>
+      </c>
+      <c r="J135" t="s">
+        <v>99</v>
+      </c>
+      <c r="K135">
+        <v>47</v>
+      </c>
+      <c r="L135" t="s">
+        <v>103</v>
+      </c>
+      <c r="M135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1856</v>
+      </c>
+      <c r="B136">
+        <v>43</v>
+      </c>
+      <c r="C136" t="s">
+        <v>142</v>
+      </c>
+      <c r="J136" t="s">
+        <v>99</v>
+      </c>
+      <c r="K136">
+        <v>47</v>
+      </c>
+      <c r="L136" t="s">
+        <v>103</v>
+      </c>
+      <c r="M136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1856</v>
+      </c>
+      <c r="B137">
+        <v>43</v>
+      </c>
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+      <c r="J137" t="s">
+        <v>99</v>
+      </c>
+      <c r="K137">
+        <v>47</v>
+      </c>
+      <c r="L137" t="s">
+        <v>103</v>
+      </c>
+      <c r="M137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1856</v>
+      </c>
+      <c r="B138">
+        <v>44</v>
+      </c>
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+      <c r="J138" t="s">
+        <v>99</v>
+      </c>
+      <c r="K138">
+        <v>47</v>
+      </c>
+      <c r="L138" t="s">
+        <v>103</v>
+      </c>
+      <c r="M138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1856</v>
+      </c>
+      <c r="B139">
+        <v>44</v>
+      </c>
+      <c r="C139" t="s">
+        <v>145</v>
+      </c>
+      <c r="J139" t="s">
+        <v>99</v>
+      </c>
+      <c r="K139">
+        <v>47</v>
+      </c>
+      <c r="L139" t="s">
+        <v>103</v>
+      </c>
+      <c r="M139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1856</v>
+      </c>
+      <c r="B140">
+        <v>45</v>
+      </c>
+      <c r="C140" t="s">
+        <v>146</v>
+      </c>
+      <c r="J140" t="s">
+        <v>99</v>
+      </c>
+      <c r="K140">
+        <v>47</v>
+      </c>
+      <c r="L140" t="s">
+        <v>103</v>
+      </c>
+      <c r="M140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1856</v>
+      </c>
+      <c r="B141">
+        <v>45</v>
+      </c>
+      <c r="C141" t="s">
+        <v>147</v>
+      </c>
+      <c r="J141" t="s">
+        <v>99</v>
+      </c>
+      <c r="K141">
+        <v>47</v>
+      </c>
+      <c r="L141" t="s">
+        <v>103</v>
+      </c>
+      <c r="M141" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1856</v>
+      </c>
+      <c r="B142">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>148</v>
+      </c>
+      <c r="J142" t="s">
+        <v>99</v>
+      </c>
+      <c r="K142">
+        <v>47</v>
+      </c>
+      <c r="L142" t="s">
+        <v>103</v>
+      </c>
+      <c r="M142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1856</v>
+      </c>
+      <c r="B143">
+        <v>46</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+      <c r="J143" t="s">
+        <v>99</v>
+      </c>
+      <c r="K143">
+        <v>47</v>
+      </c>
+      <c r="L143" t="s">
+        <v>103</v>
+      </c>
+      <c r="M143" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA04F7E8-D9D8-4B59-8594-7E59023EEBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEBA10-D168-4956-87CA-99B2B95D9B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="195">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -489,6 +489,141 @@
   </si>
   <si>
     <t>Torra Civit</t>
+  </si>
+  <si>
+    <t>1814-1851</t>
+  </si>
+  <si>
+    <t>A,4</t>
+  </si>
+  <si>
+    <t>Margall Busquets</t>
+  </si>
+  <si>
+    <t>Vilamajor Civit</t>
+  </si>
+  <si>
+    <t>Vilamajor Codina</t>
+  </si>
+  <si>
+    <t>Vinaixa Cascalló</t>
+  </si>
+  <si>
+    <t>Batlle Asqueró</t>
+  </si>
+  <si>
+    <t>Bellet Martí</t>
+  </si>
+  <si>
+    <t>Solsona Jovells</t>
+  </si>
+  <si>
+    <t>Vilaplana Civit</t>
+  </si>
+  <si>
+    <t>Ariatós Giné</t>
+  </si>
+  <si>
+    <t>Roiger Caelles</t>
+  </si>
+  <si>
+    <t>Lamarca Vergé</t>
+  </si>
+  <si>
+    <t>Bertran Farré</t>
+  </si>
+  <si>
+    <t>Ponsarnau Torrent</t>
+  </si>
+  <si>
+    <t>Novell Soler</t>
+  </si>
+  <si>
+    <t>Civit Carrera</t>
+  </si>
+  <si>
+    <t>Boldú Violant</t>
+  </si>
+  <si>
+    <t>Soler Giné</t>
+  </si>
+  <si>
+    <t>Bresolí Cascalló</t>
+  </si>
+  <si>
+    <t>Trepat Giner</t>
+  </si>
+  <si>
+    <t>Giné Pedrós</t>
+  </si>
+  <si>
+    <t>Novell Torrent</t>
+  </si>
+  <si>
+    <t>Berniell Gené</t>
+  </si>
+  <si>
+    <t>Niubó Martí</t>
+  </si>
+  <si>
+    <t>Llas Espervé</t>
+  </si>
+  <si>
+    <t>Sucarrat Mirassó</t>
+  </si>
+  <si>
+    <t>Torrent Cascalló</t>
+  </si>
+  <si>
+    <t>Font Coll</t>
+  </si>
+  <si>
+    <t>Capdevila Mas</t>
+  </si>
+  <si>
+    <t>Soler Mas</t>
+  </si>
+  <si>
+    <t>Rossell Agulló</t>
+  </si>
+  <si>
+    <t>Ginestà Mosset</t>
+  </si>
+  <si>
+    <t>Oromi Roma</t>
+  </si>
+  <si>
+    <t>Mas Viladebait</t>
+  </si>
+  <si>
+    <t>Martí Batlle</t>
+  </si>
+  <si>
+    <t>Cisteré Mosset</t>
+  </si>
+  <si>
+    <t>Planes Pallaas</t>
+  </si>
+  <si>
+    <t>Roig Coll</t>
+  </si>
+  <si>
+    <t>Monyart Bellera</t>
+  </si>
+  <si>
+    <t>Agulló Calderó</t>
+  </si>
+  <si>
+    <t>Civit Mas</t>
+  </si>
+  <si>
+    <t>Batlle Pujol</t>
+  </si>
+  <si>
+    <t>Caelles Mata</t>
+  </si>
+  <si>
+    <t>Mas Bobé</t>
   </si>
 </sst>
 </file>
@@ -840,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,6 +4300,1018 @@
         <v>102</v>
       </c>
     </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1814</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>152</v>
+      </c>
+      <c r="J144" t="s">
+        <v>99</v>
+      </c>
+      <c r="K144">
+        <v>47</v>
+      </c>
+      <c r="L144" t="s">
+        <v>151</v>
+      </c>
+      <c r="M144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1814</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+      <c r="J145" t="s">
+        <v>99</v>
+      </c>
+      <c r="K145">
+        <v>47</v>
+      </c>
+      <c r="L145" t="s">
+        <v>151</v>
+      </c>
+      <c r="M145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1814</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+      <c r="J146" t="s">
+        <v>99</v>
+      </c>
+      <c r="K146">
+        <v>47</v>
+      </c>
+      <c r="L146" t="s">
+        <v>151</v>
+      </c>
+      <c r="M146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1814</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="J147" t="s">
+        <v>99</v>
+      </c>
+      <c r="K147">
+        <v>47</v>
+      </c>
+      <c r="L147" t="s">
+        <v>151</v>
+      </c>
+      <c r="M147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1814</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>156</v>
+      </c>
+      <c r="J148" t="s">
+        <v>99</v>
+      </c>
+      <c r="K148">
+        <v>47</v>
+      </c>
+      <c r="L148" t="s">
+        <v>151</v>
+      </c>
+      <c r="M148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1814</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>157</v>
+      </c>
+      <c r="J149" t="s">
+        <v>99</v>
+      </c>
+      <c r="K149">
+        <v>47</v>
+      </c>
+      <c r="L149" t="s">
+        <v>151</v>
+      </c>
+      <c r="M149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1814</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>158</v>
+      </c>
+      <c r="J150" t="s">
+        <v>99</v>
+      </c>
+      <c r="K150">
+        <v>47</v>
+      </c>
+      <c r="L150" t="s">
+        <v>151</v>
+      </c>
+      <c r="M150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1814</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>159</v>
+      </c>
+      <c r="J151" t="s">
+        <v>99</v>
+      </c>
+      <c r="K151">
+        <v>47</v>
+      </c>
+      <c r="L151" t="s">
+        <v>151</v>
+      </c>
+      <c r="M151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1814</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>160</v>
+      </c>
+      <c r="J152" t="s">
+        <v>99</v>
+      </c>
+      <c r="K152">
+        <v>47</v>
+      </c>
+      <c r="L152" t="s">
+        <v>151</v>
+      </c>
+      <c r="M152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1815</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>161</v>
+      </c>
+      <c r="J153" t="s">
+        <v>99</v>
+      </c>
+      <c r="K153">
+        <v>47</v>
+      </c>
+      <c r="L153" t="s">
+        <v>151</v>
+      </c>
+      <c r="M153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1815</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>162</v>
+      </c>
+      <c r="J154" t="s">
+        <v>99</v>
+      </c>
+      <c r="K154">
+        <v>47</v>
+      </c>
+      <c r="L154" t="s">
+        <v>151</v>
+      </c>
+      <c r="M154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1815</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>163</v>
+      </c>
+      <c r="J155" t="s">
+        <v>99</v>
+      </c>
+      <c r="K155">
+        <v>47</v>
+      </c>
+      <c r="L155" t="s">
+        <v>151</v>
+      </c>
+      <c r="M155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1816</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>164</v>
+      </c>
+      <c r="J156" t="s">
+        <v>99</v>
+      </c>
+      <c r="K156">
+        <v>47</v>
+      </c>
+      <c r="L156" t="s">
+        <v>151</v>
+      </c>
+      <c r="M156" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1816</v>
+      </c>
+      <c r="B157">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>165</v>
+      </c>
+      <c r="J157" t="s">
+        <v>99</v>
+      </c>
+      <c r="K157">
+        <v>47</v>
+      </c>
+      <c r="L157" t="s">
+        <v>151</v>
+      </c>
+      <c r="M157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1816</v>
+      </c>
+      <c r="B158">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>166</v>
+      </c>
+      <c r="J158" t="s">
+        <v>99</v>
+      </c>
+      <c r="K158">
+        <v>47</v>
+      </c>
+      <c r="L158" t="s">
+        <v>151</v>
+      </c>
+      <c r="M158" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1816</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>167</v>
+      </c>
+      <c r="J159" t="s">
+        <v>99</v>
+      </c>
+      <c r="K159">
+        <v>47</v>
+      </c>
+      <c r="L159" t="s">
+        <v>151</v>
+      </c>
+      <c r="M159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1816</v>
+      </c>
+      <c r="B160">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>168</v>
+      </c>
+      <c r="J160" t="s">
+        <v>99</v>
+      </c>
+      <c r="K160">
+        <v>47</v>
+      </c>
+      <c r="L160" t="s">
+        <v>151</v>
+      </c>
+      <c r="M160" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1816</v>
+      </c>
+      <c r="B161">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>169</v>
+      </c>
+      <c r="J161" t="s">
+        <v>99</v>
+      </c>
+      <c r="K161">
+        <v>47</v>
+      </c>
+      <c r="L161" t="s">
+        <v>151</v>
+      </c>
+      <c r="M161" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1816</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>170</v>
+      </c>
+      <c r="J162" t="s">
+        <v>99</v>
+      </c>
+      <c r="K162">
+        <v>47</v>
+      </c>
+      <c r="L162" t="s">
+        <v>151</v>
+      </c>
+      <c r="M162" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1816</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>171</v>
+      </c>
+      <c r="J163" t="s">
+        <v>99</v>
+      </c>
+      <c r="K163">
+        <v>47</v>
+      </c>
+      <c r="L163" t="s">
+        <v>151</v>
+      </c>
+      <c r="M163" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1816</v>
+      </c>
+      <c r="B164">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>172</v>
+      </c>
+      <c r="J164" t="s">
+        <v>99</v>
+      </c>
+      <c r="K164">
+        <v>47</v>
+      </c>
+      <c r="L164" t="s">
+        <v>151</v>
+      </c>
+      <c r="M164" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1817</v>
+      </c>
+      <c r="B165">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>75</v>
+      </c>
+      <c r="J165" t="s">
+        <v>99</v>
+      </c>
+      <c r="K165">
+        <v>47</v>
+      </c>
+      <c r="L165" t="s">
+        <v>151</v>
+      </c>
+      <c r="M165" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1817</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>173</v>
+      </c>
+      <c r="J166" t="s">
+        <v>99</v>
+      </c>
+      <c r="K166">
+        <v>47</v>
+      </c>
+      <c r="L166" t="s">
+        <v>151</v>
+      </c>
+      <c r="M166" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1817</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>174</v>
+      </c>
+      <c r="J167" t="s">
+        <v>99</v>
+      </c>
+      <c r="K167">
+        <v>47</v>
+      </c>
+      <c r="L167" t="s">
+        <v>151</v>
+      </c>
+      <c r="M167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1817</v>
+      </c>
+      <c r="B168">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>175</v>
+      </c>
+      <c r="J168" t="s">
+        <v>99</v>
+      </c>
+      <c r="K168">
+        <v>47</v>
+      </c>
+      <c r="L168" t="s">
+        <v>151</v>
+      </c>
+      <c r="M168" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1817</v>
+      </c>
+      <c r="B169">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>176</v>
+      </c>
+      <c r="J169" t="s">
+        <v>99</v>
+      </c>
+      <c r="K169">
+        <v>47</v>
+      </c>
+      <c r="L169" t="s">
+        <v>151</v>
+      </c>
+      <c r="M169" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1817</v>
+      </c>
+      <c r="B170">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>177</v>
+      </c>
+      <c r="J170" t="s">
+        <v>99</v>
+      </c>
+      <c r="K170">
+        <v>47</v>
+      </c>
+      <c r="L170" t="s">
+        <v>151</v>
+      </c>
+      <c r="M170" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1817</v>
+      </c>
+      <c r="B171">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>178</v>
+      </c>
+      <c r="J171" t="s">
+        <v>99</v>
+      </c>
+      <c r="K171">
+        <v>47</v>
+      </c>
+      <c r="L171" t="s">
+        <v>151</v>
+      </c>
+      <c r="M171" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1818</v>
+      </c>
+      <c r="B172">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>179</v>
+      </c>
+      <c r="J172" t="s">
+        <v>99</v>
+      </c>
+      <c r="K172">
+        <v>47</v>
+      </c>
+      <c r="L172" t="s">
+        <v>151</v>
+      </c>
+      <c r="M172" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1818</v>
+      </c>
+      <c r="B173">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>180</v>
+      </c>
+      <c r="J173" t="s">
+        <v>99</v>
+      </c>
+      <c r="K173">
+        <v>47</v>
+      </c>
+      <c r="L173" t="s">
+        <v>151</v>
+      </c>
+      <c r="M173" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1818</v>
+      </c>
+      <c r="B174">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>181</v>
+      </c>
+      <c r="J174" t="s">
+        <v>99</v>
+      </c>
+      <c r="K174">
+        <v>47</v>
+      </c>
+      <c r="L174" t="s">
+        <v>151</v>
+      </c>
+      <c r="M174" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1818</v>
+      </c>
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>182</v>
+      </c>
+      <c r="J175" t="s">
+        <v>99</v>
+      </c>
+      <c r="K175">
+        <v>47</v>
+      </c>
+      <c r="L175" t="s">
+        <v>151</v>
+      </c>
+      <c r="M175" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1819</v>
+      </c>
+      <c r="B176">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>183</v>
+      </c>
+      <c r="J176" t="s">
+        <v>99</v>
+      </c>
+      <c r="K176">
+        <v>47</v>
+      </c>
+      <c r="L176" t="s">
+        <v>151</v>
+      </c>
+      <c r="M176" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1819</v>
+      </c>
+      <c r="B177">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>184</v>
+      </c>
+      <c r="J177" t="s">
+        <v>99</v>
+      </c>
+      <c r="K177">
+        <v>47</v>
+      </c>
+      <c r="L177" t="s">
+        <v>151</v>
+      </c>
+      <c r="M177" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1819</v>
+      </c>
+      <c r="B178">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>185</v>
+      </c>
+      <c r="J178" t="s">
+        <v>99</v>
+      </c>
+      <c r="K178">
+        <v>47</v>
+      </c>
+      <c r="L178" t="s">
+        <v>151</v>
+      </c>
+      <c r="M178" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1819</v>
+      </c>
+      <c r="B179">
+        <v>17</v>
+      </c>
+      <c r="C179" t="s">
+        <v>186</v>
+      </c>
+      <c r="J179" t="s">
+        <v>99</v>
+      </c>
+      <c r="K179">
+        <v>47</v>
+      </c>
+      <c r="L179" t="s">
+        <v>151</v>
+      </c>
+      <c r="M179" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1819</v>
+      </c>
+      <c r="B180">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>187</v>
+      </c>
+      <c r="J180" t="s">
+        <v>99</v>
+      </c>
+      <c r="K180">
+        <v>47</v>
+      </c>
+      <c r="L180" t="s">
+        <v>151</v>
+      </c>
+      <c r="M180" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1819</v>
+      </c>
+      <c r="B181">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>188</v>
+      </c>
+      <c r="J181" t="s">
+        <v>99</v>
+      </c>
+      <c r="K181">
+        <v>47</v>
+      </c>
+      <c r="L181" t="s">
+        <v>151</v>
+      </c>
+      <c r="M181" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1819</v>
+      </c>
+      <c r="B182">
+        <v>18</v>
+      </c>
+      <c r="C182" t="s">
+        <v>189</v>
+      </c>
+      <c r="J182" t="s">
+        <v>99</v>
+      </c>
+      <c r="K182">
+        <v>47</v>
+      </c>
+      <c r="L182" t="s">
+        <v>151</v>
+      </c>
+      <c r="M182" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1820</v>
+      </c>
+      <c r="B183">
+        <v>19</v>
+      </c>
+      <c r="C183" t="s">
+        <v>190</v>
+      </c>
+      <c r="J183" t="s">
+        <v>99</v>
+      </c>
+      <c r="K183">
+        <v>47</v>
+      </c>
+      <c r="L183" t="s">
+        <v>151</v>
+      </c>
+      <c r="M183" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1820</v>
+      </c>
+      <c r="B184">
+        <v>19</v>
+      </c>
+      <c r="C184" t="s">
+        <v>191</v>
+      </c>
+      <c r="J184" t="s">
+        <v>99</v>
+      </c>
+      <c r="K184">
+        <v>47</v>
+      </c>
+      <c r="L184" t="s">
+        <v>151</v>
+      </c>
+      <c r="M184" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1820</v>
+      </c>
+      <c r="B185">
+        <v>19</v>
+      </c>
+      <c r="C185" t="s">
+        <v>192</v>
+      </c>
+      <c r="J185" t="s">
+        <v>99</v>
+      </c>
+      <c r="K185">
+        <v>47</v>
+      </c>
+      <c r="L185" t="s">
+        <v>151</v>
+      </c>
+      <c r="M185" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1820</v>
+      </c>
+      <c r="B186">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>193</v>
+      </c>
+      <c r="J186" t="s">
+        <v>99</v>
+      </c>
+      <c r="K186">
+        <v>47</v>
+      </c>
+      <c r="L186" t="s">
+        <v>151</v>
+      </c>
+      <c r="M186" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1820</v>
+      </c>
+      <c r="B187">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>194</v>
+      </c>
+      <c r="J187" t="s">
+        <v>99</v>
+      </c>
+      <c r="K187">
+        <v>47</v>
+      </c>
+      <c r="L187" t="s">
+        <v>151</v>
+      </c>
+      <c r="M187" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEBA10-D168-4956-87CA-99B2B95D9B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874738D9-B703-478A-A5FC-8F5914EC1E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$418</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="501">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -624,6 +624,924 @@
   </si>
   <si>
     <t>Mas Bobé</t>
+  </si>
+  <si>
+    <t>Martí Bergadà</t>
+  </si>
+  <si>
+    <t>Pujades Roiger</t>
+  </si>
+  <si>
+    <t>Torrent Martí</t>
+  </si>
+  <si>
+    <t>Castellà Ganyet</t>
+  </si>
+  <si>
+    <t>Martí Roigé</t>
+  </si>
+  <si>
+    <t>Colell Sol</t>
+  </si>
+  <si>
+    <t>Mata Pasqual</t>
+  </si>
+  <si>
+    <t>Roiger Arnau</t>
+  </si>
+  <si>
+    <t>Giné Espervé</t>
+  </si>
+  <si>
+    <t>Morell Novell</t>
+  </si>
+  <si>
+    <t>Caelles Pedrós</t>
+  </si>
+  <si>
+    <t>Gilabert Agulló</t>
+  </si>
+  <si>
+    <t>Just Niubó</t>
+  </si>
+  <si>
+    <t>Cases Fernández</t>
+  </si>
+  <si>
+    <t>Agulló Pujol</t>
+  </si>
+  <si>
+    <t>Querol Falcó</t>
+  </si>
+  <si>
+    <t>Margarid Civit</t>
+  </si>
+  <si>
+    <t>Ballard Solsona</t>
+  </si>
+  <si>
+    <t>Figuera Pedrós</t>
+  </si>
+  <si>
+    <t>Bellet Mata</t>
+  </si>
+  <si>
+    <t>Jové Cases</t>
+  </si>
+  <si>
+    <t>Ignés Cava</t>
+  </si>
+  <si>
+    <t>Ignés Camrubí</t>
+  </si>
+  <si>
+    <t>Planes Martí</t>
+  </si>
+  <si>
+    <t>Civit Majoral</t>
+  </si>
+  <si>
+    <t>Civit Cascaló</t>
+  </si>
+  <si>
+    <t>Roma Duch</t>
+  </si>
+  <si>
+    <t>Giné Coca</t>
+  </si>
+  <si>
+    <t>Roigé Giné</t>
+  </si>
+  <si>
+    <t>Roma Mosset</t>
+  </si>
+  <si>
+    <t>Pedrós Brufau</t>
+  </si>
+  <si>
+    <t>Vallés Pedrós</t>
+  </si>
+  <si>
+    <t>Majoral Cascalló</t>
+  </si>
+  <si>
+    <t>Aldomà Vallés</t>
+  </si>
+  <si>
+    <t>Roiger Serra</t>
+  </si>
+  <si>
+    <t>Martí Coll</t>
+  </si>
+  <si>
+    <t>Torres Caelles</t>
+  </si>
+  <si>
+    <t>Mosset Amargall</t>
+  </si>
+  <si>
+    <t>Agulló Farré</t>
+  </si>
+  <si>
+    <t>Mata Monfort</t>
+  </si>
+  <si>
+    <t>Sans Solsona</t>
+  </si>
+  <si>
+    <t>Figuera Sunyé</t>
+  </si>
+  <si>
+    <t>Mas Civit</t>
+  </si>
+  <si>
+    <t>Sarries Corveró</t>
+  </si>
+  <si>
+    <t>Valles Civit</t>
+  </si>
+  <si>
+    <t>Pereto Armengou</t>
+  </si>
+  <si>
+    <t>Solanes Druet</t>
+  </si>
+  <si>
+    <t>Sunyé Cascalló</t>
+  </si>
+  <si>
+    <t>Niubó Coll</t>
+  </si>
+  <si>
+    <t>Trepat Pedrós</t>
+  </si>
+  <si>
+    <t>Vergés Coll</t>
+  </si>
+  <si>
+    <t>Ginesta Pujol</t>
+  </si>
+  <si>
+    <t>Torrent Giné</t>
+  </si>
+  <si>
+    <t>Jové Roma</t>
+  </si>
+  <si>
+    <t>Arau Cans</t>
+  </si>
+  <si>
+    <t>Pané Mas</t>
+  </si>
+  <si>
+    <t>Ginesta Plasa</t>
+  </si>
+  <si>
+    <t>Giné Fabregat</t>
+  </si>
+  <si>
+    <t>Valles Sucarrat</t>
+  </si>
+  <si>
+    <t>Mata Vallés</t>
+  </si>
+  <si>
+    <t>Rogé Aranés</t>
+  </si>
+  <si>
+    <t>Plasa Pujol</t>
+  </si>
+  <si>
+    <t>Vallés Giné</t>
+  </si>
+  <si>
+    <t>Roigé Torres</t>
+  </si>
+  <si>
+    <t>Roige Borao</t>
+  </si>
+  <si>
+    <t>Gispert Giné</t>
+  </si>
+  <si>
+    <t>Roma Bové</t>
+  </si>
+  <si>
+    <t>Roma Cisteré</t>
+  </si>
+  <si>
+    <t>Teixidó Nabau</t>
+  </si>
+  <si>
+    <t>Torres Nabau</t>
+  </si>
+  <si>
+    <t>Pedrós Lamarca</t>
+  </si>
+  <si>
+    <t>Auberda Galceran</t>
+  </si>
+  <si>
+    <t>Prats Novell</t>
+  </si>
+  <si>
+    <t>Coca Martí</t>
+  </si>
+  <si>
+    <t>Ginestà Druet</t>
+  </si>
+  <si>
+    <t>Ortiz Mosset</t>
+  </si>
+  <si>
+    <t>Carbonell Domenjó</t>
+  </si>
+  <si>
+    <t>Falcó Arderiu</t>
+  </si>
+  <si>
+    <t>Coll Civit</t>
+  </si>
+  <si>
+    <t>Ginestà Roma</t>
+  </si>
+  <si>
+    <t>Bonjorn Mata</t>
+  </si>
+  <si>
+    <t>Pinós Curcó</t>
+  </si>
+  <si>
+    <t>Domenjó Coca</t>
+  </si>
+  <si>
+    <t>Bové Falcó</t>
+  </si>
+  <si>
+    <t>Calceró Vallés</t>
+  </si>
+  <si>
+    <t>Boladeres Giné</t>
+  </si>
+  <si>
+    <t>Roma Vergé</t>
+  </si>
+  <si>
+    <t>Ricart Roigé</t>
+  </si>
+  <si>
+    <t>Fabregat Pujades</t>
+  </si>
+  <si>
+    <t>Pujades Fabregat</t>
+  </si>
+  <si>
+    <t>Cisteré Roma</t>
+  </si>
+  <si>
+    <t>Boreu Roigé</t>
+  </si>
+  <si>
+    <t>Pujades Tarragó</t>
+  </si>
+  <si>
+    <t>Martí Bonjorn</t>
+  </si>
+  <si>
+    <t>Druet Forés</t>
+  </si>
+  <si>
+    <t>Galceran Cascalló</t>
+  </si>
+  <si>
+    <t>Dolcet Cascalló</t>
+  </si>
+  <si>
+    <t>Talarn Gispert</t>
+  </si>
+  <si>
+    <t>Martí Oriola</t>
+  </si>
+  <si>
+    <t>Pedrós Vinasa</t>
+  </si>
+  <si>
+    <t>Huguet Tarragó</t>
+  </si>
+  <si>
+    <t>Palou Giné</t>
+  </si>
+  <si>
+    <t>Droguet Solsona</t>
+  </si>
+  <si>
+    <t>Batlle Serra</t>
+  </si>
+  <si>
+    <t>Guardiola Caelles</t>
+  </si>
+  <si>
+    <t>Mosset Cascalló</t>
+  </si>
+  <si>
+    <t>Pallerola Oliva</t>
+  </si>
+  <si>
+    <t>Colell Cascalló</t>
+  </si>
+  <si>
+    <t>Farré Teixidó</t>
+  </si>
+  <si>
+    <t>Balcells Pedrós</t>
+  </si>
+  <si>
+    <t>Pujol Roma</t>
+  </si>
+  <si>
+    <t>Roig Civit</t>
+  </si>
+  <si>
+    <t>Amargall Vilaplana</t>
+  </si>
+  <si>
+    <t>Sol Roigé</t>
+  </si>
+  <si>
+    <t>Porta Lamarca</t>
+  </si>
+  <si>
+    <t>Civit Serret</t>
+  </si>
+  <si>
+    <t>Coll Martí</t>
+  </si>
+  <si>
+    <t>Domenjo Plasa</t>
+  </si>
+  <si>
+    <t>Roige Ginestà</t>
+  </si>
+  <si>
+    <t>Rives Vallés</t>
+  </si>
+  <si>
+    <t>Berengué Plasa</t>
+  </si>
+  <si>
+    <t>Pedrós Solé</t>
+  </si>
+  <si>
+    <t>Ginestà Carulla</t>
+  </si>
+  <si>
+    <t>Pujol Martí</t>
+  </si>
+  <si>
+    <t>Coll Gené</t>
+  </si>
+  <si>
+    <t>Pedrós Tarragó</t>
+  </si>
+  <si>
+    <t>Farré Serra</t>
+  </si>
+  <si>
+    <t>Ribes Pedrós</t>
+  </si>
+  <si>
+    <t>Planes Ginestà</t>
+  </si>
+  <si>
+    <t>Vallés Morao</t>
+  </si>
+  <si>
+    <t>Corberó Farré</t>
+  </si>
+  <si>
+    <t>Vilamajó Capdevila</t>
+  </si>
+  <si>
+    <t>Mata Mas</t>
+  </si>
+  <si>
+    <t>Bonjorn Druet</t>
+  </si>
+  <si>
+    <t>Vergé Trepat</t>
+  </si>
+  <si>
+    <t>Bori Vergé</t>
+  </si>
+  <si>
+    <t>Bonell Palou</t>
+  </si>
+  <si>
+    <t>Puigfel Vergé</t>
+  </si>
+  <si>
+    <t>Palou Martí</t>
+  </si>
+  <si>
+    <t>Cercós Novell</t>
+  </si>
+  <si>
+    <t>Baró Margai</t>
+  </si>
+  <si>
+    <t>82/83/84</t>
+  </si>
+  <si>
+    <t>Pedrós Sunyé</t>
+  </si>
+  <si>
+    <t>Gatnau Novell</t>
+  </si>
+  <si>
+    <t>Sunyé Oliva</t>
+  </si>
+  <si>
+    <t>Galceran Oriola</t>
+  </si>
+  <si>
+    <t>Carbonell Vilaplana</t>
+  </si>
+  <si>
+    <t>Sucarrat Cisteré</t>
+  </si>
+  <si>
+    <t>Vilaltella Coll</t>
+  </si>
+  <si>
+    <t>Gari Sales</t>
+  </si>
+  <si>
+    <t>Tarragó Mateu</t>
+  </si>
+  <si>
+    <t>Vergé Prats</t>
+  </si>
+  <si>
+    <t>Duart Sucarat</t>
+  </si>
+  <si>
+    <t>Bori Mas</t>
+  </si>
+  <si>
+    <t>Salla Forés</t>
+  </si>
+  <si>
+    <t>Estopa Galceran</t>
+  </si>
+  <si>
+    <t>Arderiu Vinata</t>
+  </si>
+  <si>
+    <t>Moset Roma</t>
+  </si>
+  <si>
+    <t>Rosell Planes</t>
+  </si>
+  <si>
+    <t>Moset Batlle</t>
+  </si>
+  <si>
+    <t>Domenjo Ginesta</t>
+  </si>
+  <si>
+    <t>Solé Brufau</t>
+  </si>
+  <si>
+    <t>Mas Palou</t>
+  </si>
+  <si>
+    <t>Mata Giné</t>
+  </si>
+  <si>
+    <t>Domenjó Cascalló</t>
+  </si>
+  <si>
+    <t>Vila Mata</t>
+  </si>
+  <si>
+    <t>Fusté Serra</t>
+  </si>
+  <si>
+    <t>Centena Moset</t>
+  </si>
+  <si>
+    <t>Roigé Bonjorn</t>
+  </si>
+  <si>
+    <t>Giribet Ginestà</t>
+  </si>
+  <si>
+    <t>Bonjorn Martí</t>
+  </si>
+  <si>
+    <t>Pedrós Selles</t>
+  </si>
+  <si>
+    <t>Moset Boreu</t>
+  </si>
+  <si>
+    <t>Estany Riba</t>
+  </si>
+  <si>
+    <t>Boreu Parri</t>
+  </si>
+  <si>
+    <t>Bonjorn Domenjó</t>
+  </si>
+  <si>
+    <t>Serra Pujol</t>
+  </si>
+  <si>
+    <t>Sales Oriola</t>
+  </si>
+  <si>
+    <t>Monfa Mas</t>
+  </si>
+  <si>
+    <t>Solsona Forés</t>
+  </si>
+  <si>
+    <t>Clua Batlle</t>
+  </si>
+  <si>
+    <t>Fabregat Majoral</t>
+  </si>
+  <si>
+    <t>Arrufat Torrent</t>
+  </si>
+  <si>
+    <t>Formiguera Ginestà</t>
+  </si>
+  <si>
+    <t>Farré Riba</t>
+  </si>
+  <si>
+    <t>Cava Martí</t>
+  </si>
+  <si>
+    <t>Canes Bonjorn</t>
+  </si>
+  <si>
+    <t>Coll Majoral</t>
+  </si>
+  <si>
+    <t>Riba Cohelles</t>
+  </si>
+  <si>
+    <t>Solsona Closa</t>
+  </si>
+  <si>
+    <t>Novell Civit</t>
+  </si>
+  <si>
+    <t>Bros Martí</t>
+  </si>
+  <si>
+    <t>Palomes Piulats</t>
+  </si>
+  <si>
+    <t>Cascalló Giné</t>
+  </si>
+  <si>
+    <t>Tarragó Margall</t>
+  </si>
+  <si>
+    <t>Vilamajó Cases</t>
+  </si>
+  <si>
+    <t>Gambandé Aldomà</t>
+  </si>
+  <si>
+    <t>Escolà Mas</t>
+  </si>
+  <si>
+    <t>Mata Forés</t>
+  </si>
+  <si>
+    <t>Eloi Batlle</t>
+  </si>
+  <si>
+    <t>Colomé Ballés</t>
+  </si>
+  <si>
+    <t>Bonjorn Treveria</t>
+  </si>
+  <si>
+    <t>Mas Sans</t>
+  </si>
+  <si>
+    <t>1771-1813</t>
+  </si>
+  <si>
+    <t>A,3</t>
+  </si>
+  <si>
+    <t>Torrent Argelich</t>
+  </si>
+  <si>
+    <t>Oriola Riasol</t>
+  </si>
+  <si>
+    <t>Carrera Solé</t>
+  </si>
+  <si>
+    <t>Jovell Iglesies</t>
+  </si>
+  <si>
+    <t>Prat Codina</t>
+  </si>
+  <si>
+    <t>Pont Planes</t>
+  </si>
+  <si>
+    <t>Pujol Mosset</t>
+  </si>
+  <si>
+    <t>Batalla Clop</t>
+  </si>
+  <si>
+    <t>Mosset Carrera</t>
+  </si>
+  <si>
+    <t>10/10/1857</t>
+  </si>
+  <si>
+    <t>Damian Pedrós Martí</t>
+  </si>
+  <si>
+    <t>Josepha Galceran Martí</t>
+  </si>
+  <si>
+    <t>Pedrós Galceran</t>
+  </si>
+  <si>
+    <t>Francisco Pedrós i Rosa Martí</t>
+  </si>
+  <si>
+    <t>Josep Galceran (Difunt) (Cabanabona) i Mariangela Martí</t>
+  </si>
+  <si>
+    <t>Pere Lluch (Farmaceutic) i Pere Sans (Viudo)</t>
+  </si>
+  <si>
+    <t>28/07/1860</t>
+  </si>
+  <si>
+    <t>Pagès</t>
+  </si>
+  <si>
+    <t>Ofici</t>
+  </si>
+  <si>
+    <t>Josep Pedrós i Maria Duart</t>
+  </si>
+  <si>
+    <t>Francisco Pedrós Duart (Viudo de Rosa Martí)</t>
+  </si>
+  <si>
+    <t>Mariangela Martí (Viuda de josep Galceran)(Cabana bona)</t>
+  </si>
+  <si>
+    <t>Andreu Martí (Castellnou de seana) i Josepa Ramon (Cabanabona)(Els dos difunts)</t>
+  </si>
+  <si>
+    <t>Jaume Civit i Ignasi Agulló</t>
+  </si>
+  <si>
+    <t>13/02/1830</t>
+  </si>
+  <si>
+    <t>Francisco Pedrós Duart</t>
+  </si>
+  <si>
+    <t>Josep i Maria Duart</t>
+  </si>
+  <si>
+    <t>Maria Rosa Martí Senallosa</t>
+  </si>
+  <si>
+    <t>Antoni Martí i Antonia Senallosa</t>
+  </si>
+  <si>
+    <t>Pau Fabregat i Josep Mata</t>
+  </si>
+  <si>
+    <t>09/02/1833</t>
+  </si>
+  <si>
+    <t>Onofre Martí i Esperansa Pou (Ella del Palau)</t>
+  </si>
+  <si>
+    <t>Ramon Pedrós Duart</t>
+  </si>
+  <si>
+    <t>Rosa Martí Pou</t>
+  </si>
+  <si>
+    <t>Batalla Solé</t>
+  </si>
+  <si>
+    <t>Renyé Solsona</t>
+  </si>
+  <si>
+    <t>Roigé Puig</t>
+  </si>
+  <si>
+    <t>Roigé Serret</t>
+  </si>
+  <si>
+    <t>Espart Civit</t>
+  </si>
+  <si>
+    <t>Castell Mas</t>
+  </si>
+  <si>
+    <t>Ballester Solà</t>
+  </si>
+  <si>
+    <t>Cuberes Roma</t>
+  </si>
+  <si>
+    <t>¿? Folguera</t>
+  </si>
+  <si>
+    <t>Mocelles Mosset</t>
+  </si>
+  <si>
+    <t>Vila Domingo</t>
+  </si>
+  <si>
+    <t>Alexandre Planes</t>
+  </si>
+  <si>
+    <t>Falcó Culleré</t>
+  </si>
+  <si>
+    <t>Argelich Femeny?</t>
+  </si>
+  <si>
+    <t>Sunyé Mas</t>
+  </si>
+  <si>
+    <t>Solanes Fabregat</t>
+  </si>
+  <si>
+    <t>Violant Bové</t>
+  </si>
+  <si>
+    <t>Folguera Galceran</t>
+  </si>
+  <si>
+    <t>Massana Agulló</t>
+  </si>
+  <si>
+    <t>Planes Serret</t>
+  </si>
+  <si>
+    <t>Escaro Niubó</t>
+  </si>
+  <si>
+    <t>Vergé Torrent</t>
+  </si>
+  <si>
+    <t>Pasqual Boldú</t>
+  </si>
+  <si>
+    <t>Giné Carrera</t>
+  </si>
+  <si>
+    <t>Puig Folguera</t>
+  </si>
+  <si>
+    <t>Cascalló Ricart</t>
+  </si>
+  <si>
+    <t>Codina Alexandre</t>
+  </si>
+  <si>
+    <t>Lluch Santacreu</t>
+  </si>
+  <si>
+    <t>Graells Bové</t>
+  </si>
+  <si>
+    <t>Sarries Espervé</t>
+  </si>
+  <si>
+    <t>Pique Cuberes</t>
+  </si>
+  <si>
+    <t>Pont Torrent</t>
+  </si>
+  <si>
+    <t>Boldú Solsona</t>
+  </si>
+  <si>
+    <t>Lamarca Tarragó</t>
+  </si>
+  <si>
+    <t>Palau Mas</t>
+  </si>
+  <si>
+    <t>Pedrós Ganyet</t>
+  </si>
+  <si>
+    <t>Oromi Mosset</t>
+  </si>
+  <si>
+    <t>Sans Giné</t>
+  </si>
+  <si>
+    <t>Solé Vergé</t>
+  </si>
+  <si>
+    <t>Roma Fabregat</t>
+  </si>
+  <si>
+    <t>Bergada Mirassó</t>
+  </si>
+  <si>
+    <t>Colell Solsona</t>
+  </si>
+  <si>
+    <t>Serra Vallés</t>
+  </si>
+  <si>
+    <t>Mosset Duch</t>
+  </si>
+  <si>
+    <t>Rosell Civit</t>
+  </si>
+  <si>
+    <t>Albet Palou</t>
+  </si>
+  <si>
+    <t>Solé Niubó</t>
+  </si>
+  <si>
+    <t>Llombart Agulló</t>
+  </si>
+  <si>
+    <t>Llombart Mosset</t>
+  </si>
+  <si>
+    <t>Civit Batlle</t>
+  </si>
+  <si>
+    <t>Ribes Vallés</t>
+  </si>
+  <si>
+    <t>Capell Pedrós</t>
+  </si>
+  <si>
+    <t>Clop Mas</t>
+  </si>
+  <si>
+    <t>Sabartés Folguera</t>
+  </si>
+  <si>
+    <t>Carrera Pedrós</t>
+  </si>
+  <si>
+    <t>Martí Carrera</t>
+  </si>
+  <si>
+    <t>Duart Cos</t>
+  </si>
+  <si>
+    <t>Mosset Freixes</t>
+  </si>
+  <si>
+    <t>Jové Torres</t>
+  </si>
+  <si>
+    <t>Agulló Martí</t>
+  </si>
+  <si>
+    <t>Manonelles Civit</t>
+  </si>
+  <si>
+    <t>Culleres Trepat</t>
+  </si>
+  <si>
+    <t>Rosell Vergé</t>
+  </si>
+  <si>
+    <t>Coll Bonjorn</t>
+  </si>
+  <si>
+    <t>Solsona Torrent</t>
+  </si>
+  <si>
+    <t>Ginestà Subirà</t>
+  </si>
+  <si>
+    <t>Roig Pallàs</t>
   </si>
 </sst>
 </file>
@@ -659,8 +1577,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +1896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:N486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A487" sqref="A487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +1915,7 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1033,8 +1955,11 @@
       <c r="M1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1857</v>
       </c>
@@ -1057,7 +1982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1857</v>
       </c>
@@ -1080,7 +2005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1857</v>
       </c>
@@ -1103,7 +2028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1857</v>
       </c>
@@ -1126,7 +2051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1857</v>
       </c>
@@ -1149,7 +2074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1857</v>
       </c>
@@ -1172,7 +2097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1857</v>
       </c>
@@ -1195,7 +2120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1857</v>
       </c>
@@ -1218,7 +2143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1857</v>
       </c>
@@ -1241,7 +2166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1857</v>
       </c>
@@ -1249,7 +2174,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>412</v>
+      </c>
+      <c r="D11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" t="s">
+        <v>414</v>
+      </c>
+      <c r="H11" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" t="s">
+        <v>409</v>
       </c>
       <c r="J11" t="s">
         <v>99</v>
@@ -1264,7 +2207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1857</v>
       </c>
@@ -1287,7 +2230,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1857</v>
       </c>
@@ -1310,7 +2253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1857</v>
       </c>
@@ -1333,7 +2276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1858</v>
       </c>
@@ -1356,7 +2299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1858</v>
       </c>
@@ -1747,7 +2690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1860</v>
       </c>
@@ -1770,7 +2713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1860</v>
       </c>
@@ -1793,7 +2736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1860</v>
       </c>
@@ -1816,7 +2759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1860</v>
       </c>
@@ -1839,7 +2782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1860</v>
       </c>
@@ -1849,6 +2792,24 @@
       <c r="C37" t="s">
         <v>18</v>
       </c>
+      <c r="D37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F37" t="s">
+        <v>419</v>
+      </c>
+      <c r="G37" t="s">
+        <v>422</v>
+      </c>
+      <c r="H37" t="s">
+        <v>423</v>
+      </c>
+      <c r="I37" t="s">
+        <v>416</v>
+      </c>
       <c r="J37" t="s">
         <v>99</v>
       </c>
@@ -1861,8 +2822,11 @@
       <c r="M37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1860</v>
       </c>
@@ -1885,7 +2849,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1860</v>
       </c>
@@ -1908,7 +2872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1860</v>
       </c>
@@ -1931,7 +2895,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -1954,7 +2918,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1860</v>
       </c>
@@ -1977,7 +2941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1860</v>
       </c>
@@ -2000,7 +2964,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1860</v>
       </c>
@@ -2023,7 +2987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1860</v>
       </c>
@@ -2046,7 +3010,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1860</v>
       </c>
@@ -2069,7 +3033,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1860</v>
       </c>
@@ -2092,7 +3056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1861</v>
       </c>
@@ -5312,8 +6276,6927 @@
         <v>150</v>
       </c>
     </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1820</v>
+      </c>
+      <c r="B188">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>195</v>
+      </c>
+      <c r="J188" t="s">
+        <v>99</v>
+      </c>
+      <c r="K188">
+        <v>47</v>
+      </c>
+      <c r="L188" t="s">
+        <v>151</v>
+      </c>
+      <c r="M188" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1820</v>
+      </c>
+      <c r="B189">
+        <v>21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>196</v>
+      </c>
+      <c r="J189" t="s">
+        <v>99</v>
+      </c>
+      <c r="K189">
+        <v>47</v>
+      </c>
+      <c r="L189" t="s">
+        <v>151</v>
+      </c>
+      <c r="M189" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1820</v>
+      </c>
+      <c r="B190">
+        <v>22</v>
+      </c>
+      <c r="C190" t="s">
+        <v>197</v>
+      </c>
+      <c r="J190" t="s">
+        <v>99</v>
+      </c>
+      <c r="K190">
+        <v>47</v>
+      </c>
+      <c r="L190" t="s">
+        <v>151</v>
+      </c>
+      <c r="M190" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1820</v>
+      </c>
+      <c r="B191">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s">
+        <v>198</v>
+      </c>
+      <c r="J191" t="s">
+        <v>99</v>
+      </c>
+      <c r="K191">
+        <v>47</v>
+      </c>
+      <c r="L191" t="s">
+        <v>151</v>
+      </c>
+      <c r="M191" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1820</v>
+      </c>
+      <c r="B192">
+        <v>23</v>
+      </c>
+      <c r="C192" t="s">
+        <v>106</v>
+      </c>
+      <c r="J192" t="s">
+        <v>99</v>
+      </c>
+      <c r="K192">
+        <v>47</v>
+      </c>
+      <c r="L192" t="s">
+        <v>151</v>
+      </c>
+      <c r="M192" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1820</v>
+      </c>
+      <c r="B193">
+        <v>23</v>
+      </c>
+      <c r="C193" t="s">
+        <v>199</v>
+      </c>
+      <c r="J193" t="s">
+        <v>99</v>
+      </c>
+      <c r="K193">
+        <v>47</v>
+      </c>
+      <c r="L193" t="s">
+        <v>151</v>
+      </c>
+      <c r="M193" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1820</v>
+      </c>
+      <c r="B194">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>200</v>
+      </c>
+      <c r="J194" t="s">
+        <v>99</v>
+      </c>
+      <c r="K194">
+        <v>47</v>
+      </c>
+      <c r="L194" t="s">
+        <v>151</v>
+      </c>
+      <c r="M194" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1820</v>
+      </c>
+      <c r="B195">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>201</v>
+      </c>
+      <c r="J195" t="s">
+        <v>99</v>
+      </c>
+      <c r="K195">
+        <v>47</v>
+      </c>
+      <c r="L195" t="s">
+        <v>151</v>
+      </c>
+      <c r="M195" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1820</v>
+      </c>
+      <c r="B196">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>202</v>
+      </c>
+      <c r="J196" t="s">
+        <v>99</v>
+      </c>
+      <c r="K196">
+        <v>47</v>
+      </c>
+      <c r="L196" t="s">
+        <v>151</v>
+      </c>
+      <c r="M196" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1821</v>
+      </c>
+      <c r="B197">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s">
+        <v>203</v>
+      </c>
+      <c r="J197" t="s">
+        <v>99</v>
+      </c>
+      <c r="K197">
+        <v>47</v>
+      </c>
+      <c r="L197" t="s">
+        <v>151</v>
+      </c>
+      <c r="M197" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1821</v>
+      </c>
+      <c r="B198">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s">
+        <v>204</v>
+      </c>
+      <c r="J198" t="s">
+        <v>99</v>
+      </c>
+      <c r="K198">
+        <v>47</v>
+      </c>
+      <c r="L198" t="s">
+        <v>151</v>
+      </c>
+      <c r="M198" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1821</v>
+      </c>
+      <c r="B199">
+        <v>26</v>
+      </c>
+      <c r="C199" t="s">
+        <v>205</v>
+      </c>
+      <c r="J199" t="s">
+        <v>99</v>
+      </c>
+      <c r="K199">
+        <v>47</v>
+      </c>
+      <c r="L199" t="s">
+        <v>151</v>
+      </c>
+      <c r="M199" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1821</v>
+      </c>
+      <c r="B200">
+        <v>26</v>
+      </c>
+      <c r="C200" t="s">
+        <v>206</v>
+      </c>
+      <c r="J200" t="s">
+        <v>99</v>
+      </c>
+      <c r="K200">
+        <v>47</v>
+      </c>
+      <c r="L200" t="s">
+        <v>151</v>
+      </c>
+      <c r="M200" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1821</v>
+      </c>
+      <c r="B201">
+        <v>26</v>
+      </c>
+      <c r="C201" t="s">
+        <v>207</v>
+      </c>
+      <c r="J201" t="s">
+        <v>99</v>
+      </c>
+      <c r="K201">
+        <v>47</v>
+      </c>
+      <c r="L201" t="s">
+        <v>151</v>
+      </c>
+      <c r="M201" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1821</v>
+      </c>
+      <c r="B202">
+        <v>27</v>
+      </c>
+      <c r="C202" t="s">
+        <v>208</v>
+      </c>
+      <c r="J202" t="s">
+        <v>99</v>
+      </c>
+      <c r="K202">
+        <v>47</v>
+      </c>
+      <c r="L202" t="s">
+        <v>151</v>
+      </c>
+      <c r="M202" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1821</v>
+      </c>
+      <c r="B203">
+        <v>27</v>
+      </c>
+      <c r="C203" t="s">
+        <v>209</v>
+      </c>
+      <c r="J203" t="s">
+        <v>99</v>
+      </c>
+      <c r="K203">
+        <v>47</v>
+      </c>
+      <c r="L203" t="s">
+        <v>151</v>
+      </c>
+      <c r="M203" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1822</v>
+      </c>
+      <c r="B204">
+        <v>28</v>
+      </c>
+      <c r="C204" t="s">
+        <v>210</v>
+      </c>
+      <c r="J204" t="s">
+        <v>99</v>
+      </c>
+      <c r="K204">
+        <v>47</v>
+      </c>
+      <c r="L204" t="s">
+        <v>151</v>
+      </c>
+      <c r="M204" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1822</v>
+      </c>
+      <c r="B205">
+        <v>28</v>
+      </c>
+      <c r="C205" t="s">
+        <v>211</v>
+      </c>
+      <c r="J205" t="s">
+        <v>99</v>
+      </c>
+      <c r="K205">
+        <v>47</v>
+      </c>
+      <c r="L205" t="s">
+        <v>151</v>
+      </c>
+      <c r="M205" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1822</v>
+      </c>
+      <c r="B206">
+        <v>28</v>
+      </c>
+      <c r="C206" t="s">
+        <v>212</v>
+      </c>
+      <c r="J206" t="s">
+        <v>99</v>
+      </c>
+      <c r="K206">
+        <v>47</v>
+      </c>
+      <c r="L206" t="s">
+        <v>151</v>
+      </c>
+      <c r="M206" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1822</v>
+      </c>
+      <c r="B207">
+        <v>29</v>
+      </c>
+      <c r="C207" t="s">
+        <v>213</v>
+      </c>
+      <c r="J207" t="s">
+        <v>99</v>
+      </c>
+      <c r="K207">
+        <v>47</v>
+      </c>
+      <c r="L207" t="s">
+        <v>151</v>
+      </c>
+      <c r="M207" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1822</v>
+      </c>
+      <c r="B208">
+        <v>29</v>
+      </c>
+      <c r="C208" t="s">
+        <v>214</v>
+      </c>
+      <c r="J208" t="s">
+        <v>99</v>
+      </c>
+      <c r="K208">
+        <v>47</v>
+      </c>
+      <c r="L208" t="s">
+        <v>151</v>
+      </c>
+      <c r="M208" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1822</v>
+      </c>
+      <c r="B209">
+        <v>30</v>
+      </c>
+      <c r="C209" t="s">
+        <v>215</v>
+      </c>
+      <c r="J209" t="s">
+        <v>99</v>
+      </c>
+      <c r="K209">
+        <v>47</v>
+      </c>
+      <c r="L209" t="s">
+        <v>151</v>
+      </c>
+      <c r="M209" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1823</v>
+      </c>
+      <c r="B210">
+        <v>30</v>
+      </c>
+      <c r="C210" t="s">
+        <v>216</v>
+      </c>
+      <c r="J210" t="s">
+        <v>99</v>
+      </c>
+      <c r="K210">
+        <v>47</v>
+      </c>
+      <c r="L210" t="s">
+        <v>151</v>
+      </c>
+      <c r="M210" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1823</v>
+      </c>
+      <c r="B211">
+        <v>30</v>
+      </c>
+      <c r="C211" t="s">
+        <v>217</v>
+      </c>
+      <c r="J211" t="s">
+        <v>99</v>
+      </c>
+      <c r="K211">
+        <v>47</v>
+      </c>
+      <c r="L211" t="s">
+        <v>151</v>
+      </c>
+      <c r="M211" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1823</v>
+      </c>
+      <c r="B212">
+        <v>31</v>
+      </c>
+      <c r="C212" t="s">
+        <v>218</v>
+      </c>
+      <c r="J212" t="s">
+        <v>99</v>
+      </c>
+      <c r="K212">
+        <v>47</v>
+      </c>
+      <c r="L212" t="s">
+        <v>151</v>
+      </c>
+      <c r="M212" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1823</v>
+      </c>
+      <c r="B213">
+        <v>31</v>
+      </c>
+      <c r="C213" t="s">
+        <v>219</v>
+      </c>
+      <c r="J213" t="s">
+        <v>99</v>
+      </c>
+      <c r="K213">
+        <v>47</v>
+      </c>
+      <c r="L213" t="s">
+        <v>151</v>
+      </c>
+      <c r="M213" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1823</v>
+      </c>
+      <c r="B214">
+        <v>31</v>
+      </c>
+      <c r="C214" t="s">
+        <v>220</v>
+      </c>
+      <c r="J214" t="s">
+        <v>99</v>
+      </c>
+      <c r="K214">
+        <v>47</v>
+      </c>
+      <c r="L214" t="s">
+        <v>151</v>
+      </c>
+      <c r="M214" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1823</v>
+      </c>
+      <c r="B215">
+        <v>32</v>
+      </c>
+      <c r="C215" t="s">
+        <v>221</v>
+      </c>
+      <c r="J215" t="s">
+        <v>99</v>
+      </c>
+      <c r="K215">
+        <v>47</v>
+      </c>
+      <c r="L215" t="s">
+        <v>151</v>
+      </c>
+      <c r="M215" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1823</v>
+      </c>
+      <c r="B216">
+        <v>32</v>
+      </c>
+      <c r="C216" t="s">
+        <v>135</v>
+      </c>
+      <c r="J216" t="s">
+        <v>99</v>
+      </c>
+      <c r="K216">
+        <v>47</v>
+      </c>
+      <c r="L216" t="s">
+        <v>151</v>
+      </c>
+      <c r="M216" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1823</v>
+      </c>
+      <c r="B217">
+        <v>32</v>
+      </c>
+      <c r="C217" t="s">
+        <v>222</v>
+      </c>
+      <c r="J217" t="s">
+        <v>99</v>
+      </c>
+      <c r="K217">
+        <v>47</v>
+      </c>
+      <c r="L217" t="s">
+        <v>151</v>
+      </c>
+      <c r="M217" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1823</v>
+      </c>
+      <c r="B218">
+        <v>33</v>
+      </c>
+      <c r="C218" t="s">
+        <v>223</v>
+      </c>
+      <c r="J218" t="s">
+        <v>99</v>
+      </c>
+      <c r="K218">
+        <v>47</v>
+      </c>
+      <c r="L218" t="s">
+        <v>151</v>
+      </c>
+      <c r="M218" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1823</v>
+      </c>
+      <c r="B219">
+        <v>33</v>
+      </c>
+      <c r="C219" t="s">
+        <v>224</v>
+      </c>
+      <c r="J219" t="s">
+        <v>99</v>
+      </c>
+      <c r="K219">
+        <v>47</v>
+      </c>
+      <c r="L219" t="s">
+        <v>151</v>
+      </c>
+      <c r="M219" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1824</v>
+      </c>
+      <c r="B220">
+        <v>33</v>
+      </c>
+      <c r="C220" t="s">
+        <v>225</v>
+      </c>
+      <c r="J220" t="s">
+        <v>99</v>
+      </c>
+      <c r="K220">
+        <v>47</v>
+      </c>
+      <c r="L220" t="s">
+        <v>151</v>
+      </c>
+      <c r="M220" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1824</v>
+      </c>
+      <c r="B221">
+        <v>34</v>
+      </c>
+      <c r="C221" t="s">
+        <v>226</v>
+      </c>
+      <c r="J221" t="s">
+        <v>99</v>
+      </c>
+      <c r="K221">
+        <v>47</v>
+      </c>
+      <c r="L221" t="s">
+        <v>151</v>
+      </c>
+      <c r="M221" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1824</v>
+      </c>
+      <c r="B222">
+        <v>34</v>
+      </c>
+      <c r="C222" t="s">
+        <v>227</v>
+      </c>
+      <c r="J222" t="s">
+        <v>99</v>
+      </c>
+      <c r="K222">
+        <v>47</v>
+      </c>
+      <c r="L222" t="s">
+        <v>151</v>
+      </c>
+      <c r="M222" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1824</v>
+      </c>
+      <c r="B223">
+        <v>34</v>
+      </c>
+      <c r="C223" t="s">
+        <v>228</v>
+      </c>
+      <c r="J223" t="s">
+        <v>99</v>
+      </c>
+      <c r="K223">
+        <v>47</v>
+      </c>
+      <c r="L223" t="s">
+        <v>151</v>
+      </c>
+      <c r="M223" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1824</v>
+      </c>
+      <c r="B224">
+        <v>35</v>
+      </c>
+      <c r="C224" t="s">
+        <v>229</v>
+      </c>
+      <c r="J224" t="s">
+        <v>99</v>
+      </c>
+      <c r="K224">
+        <v>47</v>
+      </c>
+      <c r="L224" t="s">
+        <v>151</v>
+      </c>
+      <c r="M224" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1824</v>
+      </c>
+      <c r="B225">
+        <v>35</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+      <c r="J225" t="s">
+        <v>99</v>
+      </c>
+      <c r="K225">
+        <v>47</v>
+      </c>
+      <c r="L225" t="s">
+        <v>151</v>
+      </c>
+      <c r="M225" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1824</v>
+      </c>
+      <c r="B226">
+        <v>35</v>
+      </c>
+      <c r="C226" t="s">
+        <v>231</v>
+      </c>
+      <c r="J226" t="s">
+        <v>99</v>
+      </c>
+      <c r="K226">
+        <v>47</v>
+      </c>
+      <c r="L226" t="s">
+        <v>151</v>
+      </c>
+      <c r="M226" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1824</v>
+      </c>
+      <c r="B227">
+        <v>36</v>
+      </c>
+      <c r="C227" t="s">
+        <v>232</v>
+      </c>
+      <c r="J227" t="s">
+        <v>99</v>
+      </c>
+      <c r="K227">
+        <v>47</v>
+      </c>
+      <c r="L227" t="s">
+        <v>151</v>
+      </c>
+      <c r="M227" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1824</v>
+      </c>
+      <c r="B228">
+        <v>36</v>
+      </c>
+      <c r="C228" t="s">
+        <v>233</v>
+      </c>
+      <c r="J228" t="s">
+        <v>99</v>
+      </c>
+      <c r="K228">
+        <v>47</v>
+      </c>
+      <c r="L228" t="s">
+        <v>151</v>
+      </c>
+      <c r="M228" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1825</v>
+      </c>
+      <c r="B229">
+        <v>36</v>
+      </c>
+      <c r="C229" t="s">
+        <v>234</v>
+      </c>
+      <c r="J229" t="s">
+        <v>99</v>
+      </c>
+      <c r="K229">
+        <v>47</v>
+      </c>
+      <c r="L229" t="s">
+        <v>151</v>
+      </c>
+      <c r="M229" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1825</v>
+      </c>
+      <c r="B230">
+        <v>37</v>
+      </c>
+      <c r="C230" t="s">
+        <v>235</v>
+      </c>
+      <c r="J230" t="s">
+        <v>99</v>
+      </c>
+      <c r="K230">
+        <v>47</v>
+      </c>
+      <c r="L230" t="s">
+        <v>151</v>
+      </c>
+      <c r="M230" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1825</v>
+      </c>
+      <c r="B231">
+        <v>37</v>
+      </c>
+      <c r="C231" t="s">
+        <v>236</v>
+      </c>
+      <c r="J231" t="s">
+        <v>99</v>
+      </c>
+      <c r="K231">
+        <v>47</v>
+      </c>
+      <c r="L231" t="s">
+        <v>151</v>
+      </c>
+      <c r="M231" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1826</v>
+      </c>
+      <c r="B232">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
+        <v>237</v>
+      </c>
+      <c r="J232" t="s">
+        <v>99</v>
+      </c>
+      <c r="K232">
+        <v>47</v>
+      </c>
+      <c r="L232" t="s">
+        <v>151</v>
+      </c>
+      <c r="M232" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1826</v>
+      </c>
+      <c r="B233">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
+        <v>238</v>
+      </c>
+      <c r="J233" t="s">
+        <v>99</v>
+      </c>
+      <c r="K233">
+        <v>47</v>
+      </c>
+      <c r="L233" t="s">
+        <v>151</v>
+      </c>
+      <c r="M233" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1826</v>
+      </c>
+      <c r="B234">
+        <v>38</v>
+      </c>
+      <c r="C234" t="s">
+        <v>239</v>
+      </c>
+      <c r="J234" t="s">
+        <v>99</v>
+      </c>
+      <c r="K234">
+        <v>47</v>
+      </c>
+      <c r="L234" t="s">
+        <v>151</v>
+      </c>
+      <c r="M234" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1827</v>
+      </c>
+      <c r="B235">
+        <v>39</v>
+      </c>
+      <c r="C235" t="s">
+        <v>240</v>
+      </c>
+      <c r="J235" t="s">
+        <v>99</v>
+      </c>
+      <c r="K235">
+        <v>47</v>
+      </c>
+      <c r="L235" t="s">
+        <v>151</v>
+      </c>
+      <c r="M235" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1827</v>
+      </c>
+      <c r="B236">
+        <v>39</v>
+      </c>
+      <c r="C236" t="s">
+        <v>241</v>
+      </c>
+      <c r="J236" t="s">
+        <v>99</v>
+      </c>
+      <c r="K236">
+        <v>47</v>
+      </c>
+      <c r="L236" t="s">
+        <v>151</v>
+      </c>
+      <c r="M236" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1827</v>
+      </c>
+      <c r="B237">
+        <v>40</v>
+      </c>
+      <c r="C237" t="s">
+        <v>242</v>
+      </c>
+      <c r="J237" t="s">
+        <v>99</v>
+      </c>
+      <c r="K237">
+        <v>47</v>
+      </c>
+      <c r="L237" t="s">
+        <v>151</v>
+      </c>
+      <c r="M237" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1827</v>
+      </c>
+      <c r="B238">
+        <v>40</v>
+      </c>
+      <c r="C238" t="s">
+        <v>243</v>
+      </c>
+      <c r="J238" t="s">
+        <v>99</v>
+      </c>
+      <c r="K238">
+        <v>47</v>
+      </c>
+      <c r="L238" t="s">
+        <v>151</v>
+      </c>
+      <c r="M238" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1827</v>
+      </c>
+      <c r="B239">
+        <v>40</v>
+      </c>
+      <c r="C239" t="s">
+        <v>244</v>
+      </c>
+      <c r="J239" t="s">
+        <v>99</v>
+      </c>
+      <c r="K239">
+        <v>47</v>
+      </c>
+      <c r="L239" t="s">
+        <v>151</v>
+      </c>
+      <c r="M239" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1827</v>
+      </c>
+      <c r="B240">
+        <v>41</v>
+      </c>
+      <c r="C240" t="s">
+        <v>245</v>
+      </c>
+      <c r="J240" t="s">
+        <v>99</v>
+      </c>
+      <c r="K240">
+        <v>47</v>
+      </c>
+      <c r="L240" t="s">
+        <v>151</v>
+      </c>
+      <c r="M240" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1827</v>
+      </c>
+      <c r="B241">
+        <v>41</v>
+      </c>
+      <c r="C241" t="s">
+        <v>246</v>
+      </c>
+      <c r="J241" t="s">
+        <v>99</v>
+      </c>
+      <c r="K241">
+        <v>47</v>
+      </c>
+      <c r="L241" t="s">
+        <v>151</v>
+      </c>
+      <c r="M241" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1827</v>
+      </c>
+      <c r="B242">
+        <v>41</v>
+      </c>
+      <c r="C242" t="s">
+        <v>247</v>
+      </c>
+      <c r="J242" t="s">
+        <v>99</v>
+      </c>
+      <c r="K242">
+        <v>47</v>
+      </c>
+      <c r="L242" t="s">
+        <v>151</v>
+      </c>
+      <c r="M242" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1828</v>
+      </c>
+      <c r="B243">
+        <v>42</v>
+      </c>
+      <c r="C243" t="s">
+        <v>248</v>
+      </c>
+      <c r="J243" t="s">
+        <v>99</v>
+      </c>
+      <c r="K243">
+        <v>47</v>
+      </c>
+      <c r="L243" t="s">
+        <v>151</v>
+      </c>
+      <c r="M243" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1828</v>
+      </c>
+      <c r="B244">
+        <v>42</v>
+      </c>
+      <c r="C244" t="s">
+        <v>249</v>
+      </c>
+      <c r="J244" t="s">
+        <v>99</v>
+      </c>
+      <c r="K244">
+        <v>47</v>
+      </c>
+      <c r="L244" t="s">
+        <v>151</v>
+      </c>
+      <c r="M244" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1828</v>
+      </c>
+      <c r="B245">
+        <v>43</v>
+      </c>
+      <c r="C245" t="s">
+        <v>75</v>
+      </c>
+      <c r="J245" t="s">
+        <v>99</v>
+      </c>
+      <c r="K245">
+        <v>47</v>
+      </c>
+      <c r="L245" t="s">
+        <v>151</v>
+      </c>
+      <c r="M245" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1828</v>
+      </c>
+      <c r="B246">
+        <v>43</v>
+      </c>
+      <c r="C246" t="s">
+        <v>250</v>
+      </c>
+      <c r="J246" t="s">
+        <v>99</v>
+      </c>
+      <c r="K246">
+        <v>47</v>
+      </c>
+      <c r="L246" t="s">
+        <v>151</v>
+      </c>
+      <c r="M246" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1828</v>
+      </c>
+      <c r="B247">
+        <v>43</v>
+      </c>
+      <c r="C247" t="s">
+        <v>251</v>
+      </c>
+      <c r="J247" t="s">
+        <v>99</v>
+      </c>
+      <c r="K247">
+        <v>47</v>
+      </c>
+      <c r="L247" t="s">
+        <v>151</v>
+      </c>
+      <c r="M247" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1828</v>
+      </c>
+      <c r="B248">
+        <v>44</v>
+      </c>
+      <c r="C248" t="s">
+        <v>75</v>
+      </c>
+      <c r="J248" t="s">
+        <v>99</v>
+      </c>
+      <c r="K248">
+        <v>47</v>
+      </c>
+      <c r="L248" t="s">
+        <v>151</v>
+      </c>
+      <c r="M248" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1829</v>
+      </c>
+      <c r="B249">
+        <v>44</v>
+      </c>
+      <c r="C249" t="s">
+        <v>250</v>
+      </c>
+      <c r="J249" t="s">
+        <v>99</v>
+      </c>
+      <c r="K249">
+        <v>47</v>
+      </c>
+      <c r="L249" t="s">
+        <v>151</v>
+      </c>
+      <c r="M249" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1829</v>
+      </c>
+      <c r="B250">
+        <v>44</v>
+      </c>
+      <c r="C250" t="s">
+        <v>251</v>
+      </c>
+      <c r="J250" t="s">
+        <v>99</v>
+      </c>
+      <c r="K250">
+        <v>47</v>
+      </c>
+      <c r="L250" t="s">
+        <v>151</v>
+      </c>
+      <c r="M250" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1829</v>
+      </c>
+      <c r="B251">
+        <v>45</v>
+      </c>
+      <c r="C251" t="s">
+        <v>252</v>
+      </c>
+      <c r="J251" t="s">
+        <v>99</v>
+      </c>
+      <c r="K251">
+        <v>47</v>
+      </c>
+      <c r="L251" t="s">
+        <v>151</v>
+      </c>
+      <c r="M251" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1829</v>
+      </c>
+      <c r="B252">
+        <v>45</v>
+      </c>
+      <c r="C252" t="s">
+        <v>253</v>
+      </c>
+      <c r="J252" t="s">
+        <v>99</v>
+      </c>
+      <c r="K252">
+        <v>47</v>
+      </c>
+      <c r="L252" t="s">
+        <v>151</v>
+      </c>
+      <c r="M252" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1829</v>
+      </c>
+      <c r="B253">
+        <v>45</v>
+      </c>
+      <c r="C253" t="s">
+        <v>254</v>
+      </c>
+      <c r="J253" t="s">
+        <v>99</v>
+      </c>
+      <c r="K253">
+        <v>47</v>
+      </c>
+      <c r="L253" t="s">
+        <v>151</v>
+      </c>
+      <c r="M253" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1829</v>
+      </c>
+      <c r="B254">
+        <v>46</v>
+      </c>
+      <c r="C254" t="s">
+        <v>255</v>
+      </c>
+      <c r="J254" t="s">
+        <v>99</v>
+      </c>
+      <c r="K254">
+        <v>47</v>
+      </c>
+      <c r="L254" t="s">
+        <v>151</v>
+      </c>
+      <c r="M254" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1829</v>
+      </c>
+      <c r="B255">
+        <v>46</v>
+      </c>
+      <c r="C255" t="s">
+        <v>256</v>
+      </c>
+      <c r="J255" t="s">
+        <v>99</v>
+      </c>
+      <c r="K255">
+        <v>47</v>
+      </c>
+      <c r="L255" t="s">
+        <v>151</v>
+      </c>
+      <c r="M255" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1829</v>
+      </c>
+      <c r="B256">
+        <v>46</v>
+      </c>
+      <c r="C256" t="s">
+        <v>171</v>
+      </c>
+      <c r="J256" t="s">
+        <v>99</v>
+      </c>
+      <c r="K256">
+        <v>47</v>
+      </c>
+      <c r="L256" t="s">
+        <v>151</v>
+      </c>
+      <c r="M256" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1829</v>
+      </c>
+      <c r="B257">
+        <v>47</v>
+      </c>
+      <c r="C257" t="s">
+        <v>257</v>
+      </c>
+      <c r="J257" t="s">
+        <v>99</v>
+      </c>
+      <c r="K257">
+        <v>47</v>
+      </c>
+      <c r="L257" t="s">
+        <v>151</v>
+      </c>
+      <c r="M257" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1829</v>
+      </c>
+      <c r="B258">
+        <v>47</v>
+      </c>
+      <c r="C258" t="s">
+        <v>258</v>
+      </c>
+      <c r="J258" t="s">
+        <v>99</v>
+      </c>
+      <c r="K258">
+        <v>47</v>
+      </c>
+      <c r="L258" t="s">
+        <v>151</v>
+      </c>
+      <c r="M258" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1829</v>
+      </c>
+      <c r="B259">
+        <v>47</v>
+      </c>
+      <c r="C259" t="s">
+        <v>259</v>
+      </c>
+      <c r="J259" t="s">
+        <v>99</v>
+      </c>
+      <c r="K259">
+        <v>47</v>
+      </c>
+      <c r="L259" t="s">
+        <v>151</v>
+      </c>
+      <c r="M259" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1829</v>
+      </c>
+      <c r="B260">
+        <v>48</v>
+      </c>
+      <c r="C260" t="s">
+        <v>260</v>
+      </c>
+      <c r="J260" t="s">
+        <v>99</v>
+      </c>
+      <c r="K260">
+        <v>47</v>
+      </c>
+      <c r="L260" t="s">
+        <v>151</v>
+      </c>
+      <c r="M260" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1829</v>
+      </c>
+      <c r="B261">
+        <v>48</v>
+      </c>
+      <c r="C261" t="s">
+        <v>261</v>
+      </c>
+      <c r="J261" t="s">
+        <v>99</v>
+      </c>
+      <c r="K261">
+        <v>47</v>
+      </c>
+      <c r="L261" t="s">
+        <v>151</v>
+      </c>
+      <c r="M261" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1829</v>
+      </c>
+      <c r="B262">
+        <v>49</v>
+      </c>
+      <c r="C262" t="s">
+        <v>262</v>
+      </c>
+      <c r="J262" t="s">
+        <v>99</v>
+      </c>
+      <c r="K262">
+        <v>47</v>
+      </c>
+      <c r="L262" t="s">
+        <v>151</v>
+      </c>
+      <c r="M262" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1830</v>
+      </c>
+      <c r="B263">
+        <v>49</v>
+      </c>
+      <c r="C263" t="s">
+        <v>263</v>
+      </c>
+      <c r="J263" t="s">
+        <v>99</v>
+      </c>
+      <c r="K263">
+        <v>47</v>
+      </c>
+      <c r="L263" t="s">
+        <v>151</v>
+      </c>
+      <c r="M263" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1830</v>
+      </c>
+      <c r="B264">
+        <v>49</v>
+      </c>
+      <c r="C264" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" t="s">
+        <v>425</v>
+      </c>
+      <c r="E264" t="s">
+        <v>427</v>
+      </c>
+      <c r="F264" t="s">
+        <v>426</v>
+      </c>
+      <c r="G264" t="s">
+        <v>428</v>
+      </c>
+      <c r="H264" t="s">
+        <v>429</v>
+      </c>
+      <c r="I264" t="s">
+        <v>424</v>
+      </c>
+      <c r="J264" t="s">
+        <v>99</v>
+      </c>
+      <c r="K264">
+        <v>47</v>
+      </c>
+      <c r="L264" t="s">
+        <v>151</v>
+      </c>
+      <c r="M264" t="s">
+        <v>150</v>
+      </c>
+      <c r="N264" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1830</v>
+      </c>
+      <c r="B265">
+        <v>50</v>
+      </c>
+      <c r="C265" t="s">
+        <v>264</v>
+      </c>
+      <c r="J265" t="s">
+        <v>99</v>
+      </c>
+      <c r="K265">
+        <v>47</v>
+      </c>
+      <c r="L265" t="s">
+        <v>151</v>
+      </c>
+      <c r="M265" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1830</v>
+      </c>
+      <c r="B266">
+        <v>50</v>
+      </c>
+      <c r="C266" t="s">
+        <v>265</v>
+      </c>
+      <c r="J266" t="s">
+        <v>99</v>
+      </c>
+      <c r="K266">
+        <v>47</v>
+      </c>
+      <c r="L266" t="s">
+        <v>151</v>
+      </c>
+      <c r="M266" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1830</v>
+      </c>
+      <c r="B267">
+        <v>51</v>
+      </c>
+      <c r="C267" t="s">
+        <v>266</v>
+      </c>
+      <c r="J267" t="s">
+        <v>99</v>
+      </c>
+      <c r="K267">
+        <v>47</v>
+      </c>
+      <c r="L267" t="s">
+        <v>151</v>
+      </c>
+      <c r="M267" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1830</v>
+      </c>
+      <c r="B268">
+        <v>51</v>
+      </c>
+      <c r="C268" t="s">
+        <v>267</v>
+      </c>
+      <c r="J268" t="s">
+        <v>99</v>
+      </c>
+      <c r="K268">
+        <v>47</v>
+      </c>
+      <c r="L268" t="s">
+        <v>151</v>
+      </c>
+      <c r="M268" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1831</v>
+      </c>
+      <c r="B269">
+        <v>51</v>
+      </c>
+      <c r="C269" t="s">
+        <v>94</v>
+      </c>
+      <c r="J269" t="s">
+        <v>99</v>
+      </c>
+      <c r="K269">
+        <v>47</v>
+      </c>
+      <c r="L269" t="s">
+        <v>151</v>
+      </c>
+      <c r="M269" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1831</v>
+      </c>
+      <c r="B270">
+        <v>52</v>
+      </c>
+      <c r="C270" t="s">
+        <v>268</v>
+      </c>
+      <c r="J270" t="s">
+        <v>99</v>
+      </c>
+      <c r="K270">
+        <v>47</v>
+      </c>
+      <c r="L270" t="s">
+        <v>151</v>
+      </c>
+      <c r="M270" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1831</v>
+      </c>
+      <c r="B271">
+        <v>52</v>
+      </c>
+      <c r="C271" t="s">
+        <v>269</v>
+      </c>
+      <c r="J271" t="s">
+        <v>99</v>
+      </c>
+      <c r="K271">
+        <v>47</v>
+      </c>
+      <c r="L271" t="s">
+        <v>151</v>
+      </c>
+      <c r="M271" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1831</v>
+      </c>
+      <c r="B272">
+        <v>53</v>
+      </c>
+      <c r="C272" t="s">
+        <v>270</v>
+      </c>
+      <c r="J272" t="s">
+        <v>99</v>
+      </c>
+      <c r="K272">
+        <v>47</v>
+      </c>
+      <c r="L272" t="s">
+        <v>151</v>
+      </c>
+      <c r="M272" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1831</v>
+      </c>
+      <c r="B273">
+        <v>53</v>
+      </c>
+      <c r="C273" t="s">
+        <v>271</v>
+      </c>
+      <c r="J273" t="s">
+        <v>99</v>
+      </c>
+      <c r="K273">
+        <v>47</v>
+      </c>
+      <c r="L273" t="s">
+        <v>151</v>
+      </c>
+      <c r="M273" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1831</v>
+      </c>
+      <c r="B274">
+        <v>54</v>
+      </c>
+      <c r="C274" t="s">
+        <v>272</v>
+      </c>
+      <c r="J274" t="s">
+        <v>99</v>
+      </c>
+      <c r="K274">
+        <v>47</v>
+      </c>
+      <c r="L274" t="s">
+        <v>151</v>
+      </c>
+      <c r="M274" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1831</v>
+      </c>
+      <c r="B275">
+        <v>54</v>
+      </c>
+      <c r="C275" t="s">
+        <v>273</v>
+      </c>
+      <c r="J275" t="s">
+        <v>99</v>
+      </c>
+      <c r="K275">
+        <v>47</v>
+      </c>
+      <c r="L275" t="s">
+        <v>151</v>
+      </c>
+      <c r="M275" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1832</v>
+      </c>
+      <c r="B276">
+        <v>55</v>
+      </c>
+      <c r="C276" t="s">
+        <v>274</v>
+      </c>
+      <c r="J276" t="s">
+        <v>99</v>
+      </c>
+      <c r="K276">
+        <v>47</v>
+      </c>
+      <c r="L276" t="s">
+        <v>151</v>
+      </c>
+      <c r="M276" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1832</v>
+      </c>
+      <c r="B277">
+        <v>55</v>
+      </c>
+      <c r="C277" t="s">
+        <v>79</v>
+      </c>
+      <c r="J277" t="s">
+        <v>99</v>
+      </c>
+      <c r="K277">
+        <v>47</v>
+      </c>
+      <c r="L277" t="s">
+        <v>151</v>
+      </c>
+      <c r="M277" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1832</v>
+      </c>
+      <c r="B278">
+        <v>55</v>
+      </c>
+      <c r="C278" t="s">
+        <v>275</v>
+      </c>
+      <c r="J278" t="s">
+        <v>99</v>
+      </c>
+      <c r="K278">
+        <v>47</v>
+      </c>
+      <c r="L278" t="s">
+        <v>151</v>
+      </c>
+      <c r="M278" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1832</v>
+      </c>
+      <c r="B279">
+        <v>56</v>
+      </c>
+      <c r="C279" t="s">
+        <v>276</v>
+      </c>
+      <c r="J279" t="s">
+        <v>99</v>
+      </c>
+      <c r="K279">
+        <v>47</v>
+      </c>
+      <c r="L279" t="s">
+        <v>151</v>
+      </c>
+      <c r="M279" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1832</v>
+      </c>
+      <c r="B280">
+        <v>56</v>
+      </c>
+      <c r="C280" t="s">
+        <v>277</v>
+      </c>
+      <c r="J280" t="s">
+        <v>99</v>
+      </c>
+      <c r="K280">
+        <v>47</v>
+      </c>
+      <c r="L280" t="s">
+        <v>151</v>
+      </c>
+      <c r="M280" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1832</v>
+      </c>
+      <c r="B281">
+        <v>57</v>
+      </c>
+      <c r="C281" t="s">
+        <v>278</v>
+      </c>
+      <c r="J281" t="s">
+        <v>99</v>
+      </c>
+      <c r="K281">
+        <v>47</v>
+      </c>
+      <c r="L281" t="s">
+        <v>151</v>
+      </c>
+      <c r="M281" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1832</v>
+      </c>
+      <c r="B282">
+        <v>57</v>
+      </c>
+      <c r="C282" t="s">
+        <v>279</v>
+      </c>
+      <c r="J282" t="s">
+        <v>99</v>
+      </c>
+      <c r="K282">
+        <v>47</v>
+      </c>
+      <c r="L282" t="s">
+        <v>151</v>
+      </c>
+      <c r="M282" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1832</v>
+      </c>
+      <c r="B283">
+        <v>58</v>
+      </c>
+      <c r="C283" t="s">
+        <v>280</v>
+      </c>
+      <c r="J283" t="s">
+        <v>99</v>
+      </c>
+      <c r="K283">
+        <v>47</v>
+      </c>
+      <c r="L283" t="s">
+        <v>151</v>
+      </c>
+      <c r="M283" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1832</v>
+      </c>
+      <c r="B284">
+        <v>58</v>
+      </c>
+      <c r="C284" t="s">
+        <v>281</v>
+      </c>
+      <c r="J284" t="s">
+        <v>99</v>
+      </c>
+      <c r="K284">
+        <v>47</v>
+      </c>
+      <c r="L284" t="s">
+        <v>151</v>
+      </c>
+      <c r="M284" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1832</v>
+      </c>
+      <c r="B285">
+        <v>58</v>
+      </c>
+      <c r="C285" t="s">
+        <v>282</v>
+      </c>
+      <c r="J285" t="s">
+        <v>99</v>
+      </c>
+      <c r="K285">
+        <v>47</v>
+      </c>
+      <c r="L285" t="s">
+        <v>151</v>
+      </c>
+      <c r="M285" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1832</v>
+      </c>
+      <c r="B286">
+        <v>59</v>
+      </c>
+      <c r="C286" t="s">
+        <v>283</v>
+      </c>
+      <c r="J286" t="s">
+        <v>99</v>
+      </c>
+      <c r="K286">
+        <v>47</v>
+      </c>
+      <c r="L286" t="s">
+        <v>151</v>
+      </c>
+      <c r="M286" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1832</v>
+      </c>
+      <c r="B287">
+        <v>59</v>
+      </c>
+      <c r="C287" t="s">
+        <v>284</v>
+      </c>
+      <c r="J287" t="s">
+        <v>99</v>
+      </c>
+      <c r="K287">
+        <v>47</v>
+      </c>
+      <c r="L287" t="s">
+        <v>151</v>
+      </c>
+      <c r="M287" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1833</v>
+      </c>
+      <c r="B288">
+        <v>60</v>
+      </c>
+      <c r="C288" t="s">
+        <v>18</v>
+      </c>
+      <c r="D288" t="s">
+        <v>432</v>
+      </c>
+      <c r="E288" t="s">
+        <v>433</v>
+      </c>
+      <c r="F288" t="s">
+        <v>426</v>
+      </c>
+      <c r="G288" t="s">
+        <v>431</v>
+      </c>
+      <c r="H288" t="s">
+        <v>415</v>
+      </c>
+      <c r="I288" t="s">
+        <v>430</v>
+      </c>
+      <c r="J288" t="s">
+        <v>99</v>
+      </c>
+      <c r="K288">
+        <v>47</v>
+      </c>
+      <c r="L288" t="s">
+        <v>151</v>
+      </c>
+      <c r="M288" t="s">
+        <v>150</v>
+      </c>
+      <c r="N288" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1833</v>
+      </c>
+      <c r="B289">
+        <v>60</v>
+      </c>
+      <c r="C289" t="s">
+        <v>285</v>
+      </c>
+      <c r="J289" t="s">
+        <v>99</v>
+      </c>
+      <c r="K289">
+        <v>47</v>
+      </c>
+      <c r="L289" t="s">
+        <v>151</v>
+      </c>
+      <c r="M289" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1833</v>
+      </c>
+      <c r="B290">
+        <v>61</v>
+      </c>
+      <c r="C290" t="s">
+        <v>286</v>
+      </c>
+      <c r="J290" t="s">
+        <v>99</v>
+      </c>
+      <c r="K290">
+        <v>47</v>
+      </c>
+      <c r="L290" t="s">
+        <v>151</v>
+      </c>
+      <c r="M290" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1833</v>
+      </c>
+      <c r="B291">
+        <v>61</v>
+      </c>
+      <c r="C291" t="s">
+        <v>287</v>
+      </c>
+      <c r="J291" t="s">
+        <v>99</v>
+      </c>
+      <c r="K291">
+        <v>47</v>
+      </c>
+      <c r="L291" t="s">
+        <v>151</v>
+      </c>
+      <c r="M291" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1833</v>
+      </c>
+      <c r="B292">
+        <v>62</v>
+      </c>
+      <c r="C292" t="s">
+        <v>288</v>
+      </c>
+      <c r="J292" t="s">
+        <v>99</v>
+      </c>
+      <c r="K292">
+        <v>47</v>
+      </c>
+      <c r="L292" t="s">
+        <v>151</v>
+      </c>
+      <c r="M292" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1833</v>
+      </c>
+      <c r="B293">
+        <v>62</v>
+      </c>
+      <c r="C293" t="s">
+        <v>289</v>
+      </c>
+      <c r="J293" t="s">
+        <v>99</v>
+      </c>
+      <c r="K293">
+        <v>47</v>
+      </c>
+      <c r="L293" t="s">
+        <v>151</v>
+      </c>
+      <c r="M293" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1833</v>
+      </c>
+      <c r="B294">
+        <v>63</v>
+      </c>
+      <c r="C294" t="s">
+        <v>290</v>
+      </c>
+      <c r="J294" t="s">
+        <v>99</v>
+      </c>
+      <c r="K294">
+        <v>47</v>
+      </c>
+      <c r="L294" t="s">
+        <v>151</v>
+      </c>
+      <c r="M294" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1833</v>
+      </c>
+      <c r="B295">
+        <v>63</v>
+      </c>
+      <c r="C295" t="s">
+        <v>291</v>
+      </c>
+      <c r="J295" t="s">
+        <v>99</v>
+      </c>
+      <c r="K295">
+        <v>47</v>
+      </c>
+      <c r="L295" t="s">
+        <v>151</v>
+      </c>
+      <c r="M295" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1833</v>
+      </c>
+      <c r="B296">
+        <v>64</v>
+      </c>
+      <c r="C296" t="s">
+        <v>292</v>
+      </c>
+      <c r="J296" t="s">
+        <v>99</v>
+      </c>
+      <c r="K296">
+        <v>47</v>
+      </c>
+      <c r="L296" t="s">
+        <v>151</v>
+      </c>
+      <c r="M296" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1833</v>
+      </c>
+      <c r="B297">
+        <v>64</v>
+      </c>
+      <c r="C297" t="s">
+        <v>293</v>
+      </c>
+      <c r="J297" t="s">
+        <v>99</v>
+      </c>
+      <c r="K297">
+        <v>47</v>
+      </c>
+      <c r="L297" t="s">
+        <v>151</v>
+      </c>
+      <c r="M297" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1834</v>
+      </c>
+      <c r="B298">
+        <v>65</v>
+      </c>
+      <c r="C298" t="s">
+        <v>294</v>
+      </c>
+      <c r="J298" t="s">
+        <v>99</v>
+      </c>
+      <c r="K298">
+        <v>47</v>
+      </c>
+      <c r="L298" t="s">
+        <v>151</v>
+      </c>
+      <c r="M298" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1834</v>
+      </c>
+      <c r="B299">
+        <v>65</v>
+      </c>
+      <c r="C299" t="s">
+        <v>295</v>
+      </c>
+      <c r="J299" t="s">
+        <v>99</v>
+      </c>
+      <c r="K299">
+        <v>47</v>
+      </c>
+      <c r="L299" t="s">
+        <v>151</v>
+      </c>
+      <c r="M299" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1834</v>
+      </c>
+      <c r="B300">
+        <v>66</v>
+      </c>
+      <c r="C300" t="s">
+        <v>296</v>
+      </c>
+      <c r="J300" t="s">
+        <v>99</v>
+      </c>
+      <c r="K300">
+        <v>47</v>
+      </c>
+      <c r="L300" t="s">
+        <v>151</v>
+      </c>
+      <c r="M300" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1834</v>
+      </c>
+      <c r="B301">
+        <v>66</v>
+      </c>
+      <c r="C301" t="s">
+        <v>297</v>
+      </c>
+      <c r="J301" t="s">
+        <v>99</v>
+      </c>
+      <c r="K301">
+        <v>47</v>
+      </c>
+      <c r="L301" t="s">
+        <v>151</v>
+      </c>
+      <c r="M301" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1834</v>
+      </c>
+      <c r="B302">
+        <v>67</v>
+      </c>
+      <c r="C302" t="s">
+        <v>298</v>
+      </c>
+      <c r="J302" t="s">
+        <v>99</v>
+      </c>
+      <c r="K302">
+        <v>47</v>
+      </c>
+      <c r="L302" t="s">
+        <v>151</v>
+      </c>
+      <c r="M302" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1835</v>
+      </c>
+      <c r="B303">
+        <v>67</v>
+      </c>
+      <c r="C303" t="s">
+        <v>299</v>
+      </c>
+      <c r="J303" t="s">
+        <v>99</v>
+      </c>
+      <c r="K303">
+        <v>47</v>
+      </c>
+      <c r="L303" t="s">
+        <v>151</v>
+      </c>
+      <c r="M303" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1835</v>
+      </c>
+      <c r="B304">
+        <v>68</v>
+      </c>
+      <c r="C304" t="s">
+        <v>300</v>
+      </c>
+      <c r="J304" t="s">
+        <v>99</v>
+      </c>
+      <c r="K304">
+        <v>47</v>
+      </c>
+      <c r="L304" t="s">
+        <v>151</v>
+      </c>
+      <c r="M304" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1835</v>
+      </c>
+      <c r="B305">
+        <v>68</v>
+      </c>
+      <c r="C305" t="s">
+        <v>301</v>
+      </c>
+      <c r="J305" t="s">
+        <v>99</v>
+      </c>
+      <c r="K305">
+        <v>47</v>
+      </c>
+      <c r="L305" t="s">
+        <v>151</v>
+      </c>
+      <c r="M305" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1835</v>
+      </c>
+      <c r="B306">
+        <v>69</v>
+      </c>
+      <c r="C306" t="s">
+        <v>302</v>
+      </c>
+      <c r="J306" t="s">
+        <v>99</v>
+      </c>
+      <c r="K306">
+        <v>47</v>
+      </c>
+      <c r="L306" t="s">
+        <v>151</v>
+      </c>
+      <c r="M306" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1836</v>
+      </c>
+      <c r="B307">
+        <v>69</v>
+      </c>
+      <c r="C307" t="s">
+        <v>303</v>
+      </c>
+      <c r="J307" t="s">
+        <v>99</v>
+      </c>
+      <c r="K307">
+        <v>47</v>
+      </c>
+      <c r="L307" t="s">
+        <v>151</v>
+      </c>
+      <c r="M307" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1836</v>
+      </c>
+      <c r="B308">
+        <v>70</v>
+      </c>
+      <c r="C308" t="s">
+        <v>304</v>
+      </c>
+      <c r="J308" t="s">
+        <v>99</v>
+      </c>
+      <c r="K308">
+        <v>47</v>
+      </c>
+      <c r="L308" t="s">
+        <v>151</v>
+      </c>
+      <c r="M308" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1836</v>
+      </c>
+      <c r="B309">
+        <v>70</v>
+      </c>
+      <c r="C309" t="s">
+        <v>305</v>
+      </c>
+      <c r="J309" t="s">
+        <v>99</v>
+      </c>
+      <c r="K309">
+        <v>47</v>
+      </c>
+      <c r="L309" t="s">
+        <v>151</v>
+      </c>
+      <c r="M309" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1836</v>
+      </c>
+      <c r="B310">
+        <v>71</v>
+      </c>
+      <c r="C310" t="s">
+        <v>306</v>
+      </c>
+      <c r="J310" t="s">
+        <v>99</v>
+      </c>
+      <c r="K310">
+        <v>47</v>
+      </c>
+      <c r="L310" t="s">
+        <v>151</v>
+      </c>
+      <c r="M310" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1836</v>
+      </c>
+      <c r="B311">
+        <v>71</v>
+      </c>
+      <c r="C311" t="s">
+        <v>307</v>
+      </c>
+      <c r="J311" t="s">
+        <v>99</v>
+      </c>
+      <c r="K311">
+        <v>47</v>
+      </c>
+      <c r="L311" t="s">
+        <v>151</v>
+      </c>
+      <c r="M311" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1836</v>
+      </c>
+      <c r="B312">
+        <v>71</v>
+      </c>
+      <c r="C312" t="s">
+        <v>308</v>
+      </c>
+      <c r="J312" t="s">
+        <v>99</v>
+      </c>
+      <c r="K312">
+        <v>47</v>
+      </c>
+      <c r="L312" t="s">
+        <v>151</v>
+      </c>
+      <c r="M312" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1837</v>
+      </c>
+      <c r="B313">
+        <v>72</v>
+      </c>
+      <c r="C313" t="s">
+        <v>309</v>
+      </c>
+      <c r="J313" t="s">
+        <v>99</v>
+      </c>
+      <c r="K313">
+        <v>47</v>
+      </c>
+      <c r="L313" t="s">
+        <v>151</v>
+      </c>
+      <c r="M313" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1838</v>
+      </c>
+      <c r="B314">
+        <v>72</v>
+      </c>
+      <c r="C314" t="s">
+        <v>310</v>
+      </c>
+      <c r="J314" t="s">
+        <v>99</v>
+      </c>
+      <c r="K314">
+        <v>47</v>
+      </c>
+      <c r="L314" t="s">
+        <v>151</v>
+      </c>
+      <c r="M314" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1838</v>
+      </c>
+      <c r="B315">
+        <v>73</v>
+      </c>
+      <c r="C315" t="s">
+        <v>311</v>
+      </c>
+      <c r="J315" t="s">
+        <v>99</v>
+      </c>
+      <c r="K315">
+        <v>47</v>
+      </c>
+      <c r="L315" t="s">
+        <v>151</v>
+      </c>
+      <c r="M315" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1838</v>
+      </c>
+      <c r="B316">
+        <v>73</v>
+      </c>
+      <c r="C316" t="s">
+        <v>312</v>
+      </c>
+      <c r="J316" t="s">
+        <v>99</v>
+      </c>
+      <c r="K316">
+        <v>47</v>
+      </c>
+      <c r="L316" t="s">
+        <v>151</v>
+      </c>
+      <c r="M316" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1838</v>
+      </c>
+      <c r="B317">
+        <v>73</v>
+      </c>
+      <c r="C317" t="s">
+        <v>313</v>
+      </c>
+      <c r="J317" t="s">
+        <v>99</v>
+      </c>
+      <c r="K317">
+        <v>47</v>
+      </c>
+      <c r="L317" t="s">
+        <v>151</v>
+      </c>
+      <c r="M317" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1838</v>
+      </c>
+      <c r="B318">
+        <v>74</v>
+      </c>
+      <c r="C318" t="s">
+        <v>94</v>
+      </c>
+      <c r="J318" t="s">
+        <v>99</v>
+      </c>
+      <c r="K318">
+        <v>47</v>
+      </c>
+      <c r="L318" t="s">
+        <v>151</v>
+      </c>
+      <c r="M318" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1838</v>
+      </c>
+      <c r="B319">
+        <v>74</v>
+      </c>
+      <c r="C319" t="s">
+        <v>314</v>
+      </c>
+      <c r="J319" t="s">
+        <v>99</v>
+      </c>
+      <c r="K319">
+        <v>47</v>
+      </c>
+      <c r="L319" t="s">
+        <v>151</v>
+      </c>
+      <c r="M319" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1838</v>
+      </c>
+      <c r="B320">
+        <v>74</v>
+      </c>
+      <c r="C320" t="s">
+        <v>315</v>
+      </c>
+      <c r="J320" t="s">
+        <v>99</v>
+      </c>
+      <c r="K320">
+        <v>47</v>
+      </c>
+      <c r="L320" t="s">
+        <v>151</v>
+      </c>
+      <c r="M320" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1839</v>
+      </c>
+      <c r="B321">
+        <v>75</v>
+      </c>
+      <c r="C321" t="s">
+        <v>316</v>
+      </c>
+      <c r="J321" t="s">
+        <v>99</v>
+      </c>
+      <c r="K321">
+        <v>47</v>
+      </c>
+      <c r="L321" t="s">
+        <v>151</v>
+      </c>
+      <c r="M321" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1839</v>
+      </c>
+      <c r="B322">
+        <v>75</v>
+      </c>
+      <c r="C322" t="s">
+        <v>317</v>
+      </c>
+      <c r="J322" t="s">
+        <v>99</v>
+      </c>
+      <c r="K322">
+        <v>47</v>
+      </c>
+      <c r="L322" t="s">
+        <v>151</v>
+      </c>
+      <c r="M322" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1839</v>
+      </c>
+      <c r="B323">
+        <v>75</v>
+      </c>
+      <c r="C323" t="s">
+        <v>318</v>
+      </c>
+      <c r="J323" t="s">
+        <v>99</v>
+      </c>
+      <c r="K323">
+        <v>47</v>
+      </c>
+      <c r="L323" t="s">
+        <v>151</v>
+      </c>
+      <c r="M323" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1839</v>
+      </c>
+      <c r="B324">
+        <v>76</v>
+      </c>
+      <c r="C324" t="s">
+        <v>319</v>
+      </c>
+      <c r="J324" t="s">
+        <v>99</v>
+      </c>
+      <c r="K324">
+        <v>47</v>
+      </c>
+      <c r="L324" t="s">
+        <v>151</v>
+      </c>
+      <c r="M324" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1839</v>
+      </c>
+      <c r="B325">
+        <v>76</v>
+      </c>
+      <c r="C325" t="s">
+        <v>320</v>
+      </c>
+      <c r="J325" t="s">
+        <v>99</v>
+      </c>
+      <c r="K325">
+        <v>47</v>
+      </c>
+      <c r="L325" t="s">
+        <v>151</v>
+      </c>
+      <c r="M325" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1840</v>
+      </c>
+      <c r="B326">
+        <v>76</v>
+      </c>
+      <c r="C326" t="s">
+        <v>321</v>
+      </c>
+      <c r="J326" t="s">
+        <v>99</v>
+      </c>
+      <c r="K326">
+        <v>47</v>
+      </c>
+      <c r="L326" t="s">
+        <v>151</v>
+      </c>
+      <c r="M326" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1840</v>
+      </c>
+      <c r="B327">
+        <v>77</v>
+      </c>
+      <c r="C327" t="s">
+        <v>322</v>
+      </c>
+      <c r="J327" t="s">
+        <v>99</v>
+      </c>
+      <c r="K327">
+        <v>47</v>
+      </c>
+      <c r="L327" t="s">
+        <v>151</v>
+      </c>
+      <c r="M327" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1840</v>
+      </c>
+      <c r="B328">
+        <v>77</v>
+      </c>
+      <c r="C328" t="s">
+        <v>323</v>
+      </c>
+      <c r="J328" t="s">
+        <v>99</v>
+      </c>
+      <c r="K328">
+        <v>47</v>
+      </c>
+      <c r="L328" t="s">
+        <v>151</v>
+      </c>
+      <c r="M328" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1840</v>
+      </c>
+      <c r="B329">
+        <v>77</v>
+      </c>
+      <c r="C329" t="s">
+        <v>324</v>
+      </c>
+      <c r="J329" t="s">
+        <v>99</v>
+      </c>
+      <c r="K329">
+        <v>47</v>
+      </c>
+      <c r="L329" t="s">
+        <v>151</v>
+      </c>
+      <c r="M329" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1840</v>
+      </c>
+      <c r="B330">
+        <v>78</v>
+      </c>
+      <c r="C330" t="s">
+        <v>325</v>
+      </c>
+      <c r="J330" t="s">
+        <v>99</v>
+      </c>
+      <c r="K330">
+        <v>47</v>
+      </c>
+      <c r="L330" t="s">
+        <v>151</v>
+      </c>
+      <c r="M330" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1840</v>
+      </c>
+      <c r="B331">
+        <v>78</v>
+      </c>
+      <c r="C331" t="s">
+        <v>326</v>
+      </c>
+      <c r="J331" t="s">
+        <v>99</v>
+      </c>
+      <c r="K331">
+        <v>47</v>
+      </c>
+      <c r="L331" t="s">
+        <v>151</v>
+      </c>
+      <c r="M331" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1840</v>
+      </c>
+      <c r="B332">
+        <v>78</v>
+      </c>
+      <c r="C332" t="s">
+        <v>327</v>
+      </c>
+      <c r="J332" t="s">
+        <v>99</v>
+      </c>
+      <c r="K332">
+        <v>47</v>
+      </c>
+      <c r="L332" t="s">
+        <v>151</v>
+      </c>
+      <c r="M332" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1840</v>
+      </c>
+      <c r="B333">
+        <v>79</v>
+      </c>
+      <c r="C333" t="s">
+        <v>325</v>
+      </c>
+      <c r="J333" t="s">
+        <v>99</v>
+      </c>
+      <c r="K333">
+        <v>47</v>
+      </c>
+      <c r="L333" t="s">
+        <v>151</v>
+      </c>
+      <c r="M333" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1840</v>
+      </c>
+      <c r="B334">
+        <v>79</v>
+      </c>
+      <c r="C334" t="s">
+        <v>326</v>
+      </c>
+      <c r="J334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K334">
+        <v>47</v>
+      </c>
+      <c r="L334" t="s">
+        <v>151</v>
+      </c>
+      <c r="M334" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1840</v>
+      </c>
+      <c r="B335">
+        <v>79</v>
+      </c>
+      <c r="C335" t="s">
+        <v>327</v>
+      </c>
+      <c r="J335" t="s">
+        <v>99</v>
+      </c>
+      <c r="K335">
+        <v>47</v>
+      </c>
+      <c r="L335" t="s">
+        <v>151</v>
+      </c>
+      <c r="M335" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1840</v>
+      </c>
+      <c r="B336">
+        <v>80</v>
+      </c>
+      <c r="C336" t="s">
+        <v>328</v>
+      </c>
+      <c r="J336" t="s">
+        <v>99</v>
+      </c>
+      <c r="K336">
+        <v>47</v>
+      </c>
+      <c r="L336" t="s">
+        <v>151</v>
+      </c>
+      <c r="M336" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1840</v>
+      </c>
+      <c r="B337">
+        <v>80</v>
+      </c>
+      <c r="C337" t="s">
+        <v>329</v>
+      </c>
+      <c r="J337" t="s">
+        <v>99</v>
+      </c>
+      <c r="K337">
+        <v>47</v>
+      </c>
+      <c r="L337" t="s">
+        <v>151</v>
+      </c>
+      <c r="M337" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1840</v>
+      </c>
+      <c r="B338">
+        <v>80</v>
+      </c>
+      <c r="C338" t="s">
+        <v>330</v>
+      </c>
+      <c r="J338" t="s">
+        <v>99</v>
+      </c>
+      <c r="K338">
+        <v>47</v>
+      </c>
+      <c r="L338" t="s">
+        <v>151</v>
+      </c>
+      <c r="M338" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1841</v>
+      </c>
+      <c r="B339">
+        <v>81</v>
+      </c>
+      <c r="C339" t="s">
+        <v>331</v>
+      </c>
+      <c r="J339" t="s">
+        <v>99</v>
+      </c>
+      <c r="K339">
+        <v>47</v>
+      </c>
+      <c r="L339" t="s">
+        <v>151</v>
+      </c>
+      <c r="M339" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1841</v>
+      </c>
+      <c r="B340">
+        <v>81</v>
+      </c>
+      <c r="C340" t="s">
+        <v>332</v>
+      </c>
+      <c r="J340" t="s">
+        <v>99</v>
+      </c>
+      <c r="K340">
+        <v>47</v>
+      </c>
+      <c r="L340" t="s">
+        <v>151</v>
+      </c>
+      <c r="M340" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1841</v>
+      </c>
+      <c r="B341">
+        <v>81</v>
+      </c>
+      <c r="C341" t="s">
+        <v>333</v>
+      </c>
+      <c r="J341" t="s">
+        <v>99</v>
+      </c>
+      <c r="K341">
+        <v>47</v>
+      </c>
+      <c r="L341" t="s">
+        <v>151</v>
+      </c>
+      <c r="M341" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1841</v>
+      </c>
+      <c r="B342">
+        <v>82</v>
+      </c>
+      <c r="C342" t="s">
+        <v>334</v>
+      </c>
+      <c r="J342" t="s">
+        <v>99</v>
+      </c>
+      <c r="K342">
+        <v>47</v>
+      </c>
+      <c r="L342" t="s">
+        <v>151</v>
+      </c>
+      <c r="M342" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1841</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C343" t="s">
+        <v>335</v>
+      </c>
+      <c r="J343" t="s">
+        <v>99</v>
+      </c>
+      <c r="K343">
+        <v>47</v>
+      </c>
+      <c r="L343" t="s">
+        <v>151</v>
+      </c>
+      <c r="M343" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1841</v>
+      </c>
+      <c r="B344">
+        <v>85</v>
+      </c>
+      <c r="C344" t="s">
+        <v>335</v>
+      </c>
+      <c r="J344" t="s">
+        <v>99</v>
+      </c>
+      <c r="K344">
+        <v>47</v>
+      </c>
+      <c r="L344" t="s">
+        <v>151</v>
+      </c>
+      <c r="M344" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1841</v>
+      </c>
+      <c r="B345">
+        <v>85</v>
+      </c>
+      <c r="C345" t="s">
+        <v>337</v>
+      </c>
+      <c r="J345" t="s">
+        <v>99</v>
+      </c>
+      <c r="K345">
+        <v>47</v>
+      </c>
+      <c r="L345" t="s">
+        <v>151</v>
+      </c>
+      <c r="M345" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1841</v>
+      </c>
+      <c r="B346">
+        <v>86</v>
+      </c>
+      <c r="C346" t="s">
+        <v>338</v>
+      </c>
+      <c r="J346" t="s">
+        <v>99</v>
+      </c>
+      <c r="K346">
+        <v>47</v>
+      </c>
+      <c r="L346" t="s">
+        <v>151</v>
+      </c>
+      <c r="M346" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1841</v>
+      </c>
+      <c r="B347">
+        <v>86</v>
+      </c>
+      <c r="C347" t="s">
+        <v>339</v>
+      </c>
+      <c r="J347" t="s">
+        <v>99</v>
+      </c>
+      <c r="K347">
+        <v>47</v>
+      </c>
+      <c r="L347" t="s">
+        <v>151</v>
+      </c>
+      <c r="M347" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1842</v>
+      </c>
+      <c r="B348">
+        <v>86</v>
+      </c>
+      <c r="C348" t="s">
+        <v>340</v>
+      </c>
+      <c r="J348" t="s">
+        <v>99</v>
+      </c>
+      <c r="K348">
+        <v>47</v>
+      </c>
+      <c r="L348" t="s">
+        <v>151</v>
+      </c>
+      <c r="M348" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1842</v>
+      </c>
+      <c r="B349">
+        <v>87</v>
+      </c>
+      <c r="C349" t="s">
+        <v>341</v>
+      </c>
+      <c r="J349" t="s">
+        <v>99</v>
+      </c>
+      <c r="K349">
+        <v>47</v>
+      </c>
+      <c r="L349" t="s">
+        <v>151</v>
+      </c>
+      <c r="M349" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1842</v>
+      </c>
+      <c r="B350">
+        <v>87</v>
+      </c>
+      <c r="C350" t="s">
+        <v>342</v>
+      </c>
+      <c r="J350" t="s">
+        <v>99</v>
+      </c>
+      <c r="K350">
+        <v>47</v>
+      </c>
+      <c r="L350" t="s">
+        <v>151</v>
+      </c>
+      <c r="M350" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1842</v>
+      </c>
+      <c r="B351">
+        <v>87</v>
+      </c>
+      <c r="C351" t="s">
+        <v>343</v>
+      </c>
+      <c r="J351" t="s">
+        <v>99</v>
+      </c>
+      <c r="K351">
+        <v>47</v>
+      </c>
+      <c r="L351" t="s">
+        <v>151</v>
+      </c>
+      <c r="M351" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1842</v>
+      </c>
+      <c r="B352">
+        <v>88</v>
+      </c>
+      <c r="C352" t="s">
+        <v>344</v>
+      </c>
+      <c r="J352" t="s">
+        <v>99</v>
+      </c>
+      <c r="K352">
+        <v>47</v>
+      </c>
+      <c r="L352" t="s">
+        <v>151</v>
+      </c>
+      <c r="M352" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1843</v>
+      </c>
+      <c r="B353">
+        <v>88</v>
+      </c>
+      <c r="C353" t="s">
+        <v>345</v>
+      </c>
+      <c r="J353" t="s">
+        <v>99</v>
+      </c>
+      <c r="K353">
+        <v>47</v>
+      </c>
+      <c r="L353" t="s">
+        <v>151</v>
+      </c>
+      <c r="M353" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1843</v>
+      </c>
+      <c r="B354">
+        <v>88</v>
+      </c>
+      <c r="C354" t="s">
+        <v>346</v>
+      </c>
+      <c r="J354" t="s">
+        <v>99</v>
+      </c>
+      <c r="K354">
+        <v>47</v>
+      </c>
+      <c r="L354" t="s">
+        <v>151</v>
+      </c>
+      <c r="M354" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1843</v>
+      </c>
+      <c r="B355">
+        <v>89</v>
+      </c>
+      <c r="C355" t="s">
+        <v>347</v>
+      </c>
+      <c r="J355" t="s">
+        <v>99</v>
+      </c>
+      <c r="K355">
+        <v>47</v>
+      </c>
+      <c r="L355" t="s">
+        <v>151</v>
+      </c>
+      <c r="M355" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1843</v>
+      </c>
+      <c r="B356">
+        <v>89</v>
+      </c>
+      <c r="C356" t="s">
+        <v>348</v>
+      </c>
+      <c r="J356" t="s">
+        <v>99</v>
+      </c>
+      <c r="K356">
+        <v>47</v>
+      </c>
+      <c r="L356" t="s">
+        <v>151</v>
+      </c>
+      <c r="M356" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1844</v>
+      </c>
+      <c r="B357">
+        <v>89</v>
+      </c>
+      <c r="C357" t="s">
+        <v>349</v>
+      </c>
+      <c r="J357" t="s">
+        <v>99</v>
+      </c>
+      <c r="K357">
+        <v>47</v>
+      </c>
+      <c r="L357" t="s">
+        <v>151</v>
+      </c>
+      <c r="M357" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1844</v>
+      </c>
+      <c r="B358">
+        <v>90</v>
+      </c>
+      <c r="C358" t="s">
+        <v>350</v>
+      </c>
+      <c r="J358" t="s">
+        <v>99</v>
+      </c>
+      <c r="K358">
+        <v>47</v>
+      </c>
+      <c r="L358" t="s">
+        <v>151</v>
+      </c>
+      <c r="M358" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1844</v>
+      </c>
+      <c r="B359">
+        <v>90</v>
+      </c>
+      <c r="C359" t="s">
+        <v>351</v>
+      </c>
+      <c r="J359" t="s">
+        <v>99</v>
+      </c>
+      <c r="K359">
+        <v>47</v>
+      </c>
+      <c r="L359" t="s">
+        <v>151</v>
+      </c>
+      <c r="M359" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1844</v>
+      </c>
+      <c r="B360">
+        <v>91</v>
+      </c>
+      <c r="C360" t="s">
+        <v>352</v>
+      </c>
+      <c r="J360" t="s">
+        <v>99</v>
+      </c>
+      <c r="K360">
+        <v>47</v>
+      </c>
+      <c r="L360" t="s">
+        <v>151</v>
+      </c>
+      <c r="M360" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1844</v>
+      </c>
+      <c r="B361">
+        <v>91</v>
+      </c>
+      <c r="C361" t="s">
+        <v>353</v>
+      </c>
+      <c r="J361" t="s">
+        <v>99</v>
+      </c>
+      <c r="K361">
+        <v>47</v>
+      </c>
+      <c r="L361" t="s">
+        <v>151</v>
+      </c>
+      <c r="M361" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1844</v>
+      </c>
+      <c r="B362">
+        <v>91</v>
+      </c>
+      <c r="C362" t="s">
+        <v>354</v>
+      </c>
+      <c r="J362" t="s">
+        <v>99</v>
+      </c>
+      <c r="K362">
+        <v>47</v>
+      </c>
+      <c r="L362" t="s">
+        <v>151</v>
+      </c>
+      <c r="M362" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1844</v>
+      </c>
+      <c r="B363">
+        <v>92</v>
+      </c>
+      <c r="C363" t="s">
+        <v>355</v>
+      </c>
+      <c r="J363" t="s">
+        <v>99</v>
+      </c>
+      <c r="K363">
+        <v>47</v>
+      </c>
+      <c r="L363" t="s">
+        <v>151</v>
+      </c>
+      <c r="M363" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1844</v>
+      </c>
+      <c r="B364">
+        <v>92</v>
+      </c>
+      <c r="C364" t="s">
+        <v>356</v>
+      </c>
+      <c r="J364" t="s">
+        <v>99</v>
+      </c>
+      <c r="K364">
+        <v>47</v>
+      </c>
+      <c r="L364" t="s">
+        <v>151</v>
+      </c>
+      <c r="M364" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1845</v>
+      </c>
+      <c r="B365">
+        <v>92</v>
+      </c>
+      <c r="C365" t="s">
+        <v>357</v>
+      </c>
+      <c r="J365" t="s">
+        <v>99</v>
+      </c>
+      <c r="K365">
+        <v>47</v>
+      </c>
+      <c r="L365" t="s">
+        <v>151</v>
+      </c>
+      <c r="M365" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1845</v>
+      </c>
+      <c r="B366">
+        <v>93</v>
+      </c>
+      <c r="C366" t="s">
+        <v>358</v>
+      </c>
+      <c r="J366" t="s">
+        <v>99</v>
+      </c>
+      <c r="K366">
+        <v>47</v>
+      </c>
+      <c r="L366" t="s">
+        <v>151</v>
+      </c>
+      <c r="M366" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1845</v>
+      </c>
+      <c r="B367">
+        <v>93</v>
+      </c>
+      <c r="C367" t="s">
+        <v>359</v>
+      </c>
+      <c r="J367" t="s">
+        <v>99</v>
+      </c>
+      <c r="K367">
+        <v>47</v>
+      </c>
+      <c r="L367" t="s">
+        <v>151</v>
+      </c>
+      <c r="M367" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1845</v>
+      </c>
+      <c r="B368">
+        <v>93</v>
+      </c>
+      <c r="C368" t="s">
+        <v>360</v>
+      </c>
+      <c r="J368" t="s">
+        <v>99</v>
+      </c>
+      <c r="K368">
+        <v>47</v>
+      </c>
+      <c r="L368" t="s">
+        <v>151</v>
+      </c>
+      <c r="M368" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1845</v>
+      </c>
+      <c r="B369">
+        <v>94</v>
+      </c>
+      <c r="C369" t="s">
+        <v>361</v>
+      </c>
+      <c r="J369" t="s">
+        <v>99</v>
+      </c>
+      <c r="K369">
+        <v>47</v>
+      </c>
+      <c r="L369" t="s">
+        <v>151</v>
+      </c>
+      <c r="M369" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1845</v>
+      </c>
+      <c r="B370">
+        <v>94</v>
+      </c>
+      <c r="C370" t="s">
+        <v>362</v>
+      </c>
+      <c r="J370" t="s">
+        <v>99</v>
+      </c>
+      <c r="K370">
+        <v>47</v>
+      </c>
+      <c r="L370" t="s">
+        <v>151</v>
+      </c>
+      <c r="M370" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>1845</v>
+      </c>
+      <c r="B371">
+        <v>94</v>
+      </c>
+      <c r="C371" t="s">
+        <v>363</v>
+      </c>
+      <c r="J371" t="s">
+        <v>99</v>
+      </c>
+      <c r="K371">
+        <v>47</v>
+      </c>
+      <c r="L371" t="s">
+        <v>151</v>
+      </c>
+      <c r="M371" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1845</v>
+      </c>
+      <c r="B372">
+        <v>95</v>
+      </c>
+      <c r="C372" t="s">
+        <v>364</v>
+      </c>
+      <c r="J372" t="s">
+        <v>99</v>
+      </c>
+      <c r="K372">
+        <v>47</v>
+      </c>
+      <c r="L372" t="s">
+        <v>151</v>
+      </c>
+      <c r="M372" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>1845</v>
+      </c>
+      <c r="B373">
+        <v>95</v>
+      </c>
+      <c r="C373" t="s">
+        <v>365</v>
+      </c>
+      <c r="J373" t="s">
+        <v>99</v>
+      </c>
+      <c r="K373">
+        <v>47</v>
+      </c>
+      <c r="L373" t="s">
+        <v>151</v>
+      </c>
+      <c r="M373" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>1845</v>
+      </c>
+      <c r="B374">
+        <v>96</v>
+      </c>
+      <c r="C374" t="s">
+        <v>366</v>
+      </c>
+      <c r="J374" t="s">
+        <v>99</v>
+      </c>
+      <c r="K374">
+        <v>47</v>
+      </c>
+      <c r="L374" t="s">
+        <v>151</v>
+      </c>
+      <c r="M374" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>1845</v>
+      </c>
+      <c r="B375">
+        <v>96</v>
+      </c>
+      <c r="C375" t="s">
+        <v>367</v>
+      </c>
+      <c r="J375" t="s">
+        <v>99</v>
+      </c>
+      <c r="K375">
+        <v>47</v>
+      </c>
+      <c r="L375" t="s">
+        <v>151</v>
+      </c>
+      <c r="M375" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1845</v>
+      </c>
+      <c r="B376">
+        <v>97</v>
+      </c>
+      <c r="C376" t="s">
+        <v>368</v>
+      </c>
+      <c r="J376" t="s">
+        <v>99</v>
+      </c>
+      <c r="K376">
+        <v>47</v>
+      </c>
+      <c r="L376" t="s">
+        <v>151</v>
+      </c>
+      <c r="M376" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>1845</v>
+      </c>
+      <c r="B377">
+        <v>97</v>
+      </c>
+      <c r="C377" t="s">
+        <v>369</v>
+      </c>
+      <c r="J377" t="s">
+        <v>99</v>
+      </c>
+      <c r="K377">
+        <v>47</v>
+      </c>
+      <c r="L377" t="s">
+        <v>151</v>
+      </c>
+      <c r="M377" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1845</v>
+      </c>
+      <c r="B378">
+        <v>97</v>
+      </c>
+      <c r="C378" t="s">
+        <v>370</v>
+      </c>
+      <c r="J378" t="s">
+        <v>99</v>
+      </c>
+      <c r="K378">
+        <v>47</v>
+      </c>
+      <c r="L378" t="s">
+        <v>151</v>
+      </c>
+      <c r="M378" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1846</v>
+      </c>
+      <c r="B379">
+        <v>98</v>
+      </c>
+      <c r="C379" t="s">
+        <v>371</v>
+      </c>
+      <c r="J379" t="s">
+        <v>99</v>
+      </c>
+      <c r="K379">
+        <v>47</v>
+      </c>
+      <c r="L379" t="s">
+        <v>151</v>
+      </c>
+      <c r="M379" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1846</v>
+      </c>
+      <c r="B380">
+        <v>98</v>
+      </c>
+      <c r="C380" t="s">
+        <v>372</v>
+      </c>
+      <c r="J380" t="s">
+        <v>99</v>
+      </c>
+      <c r="K380">
+        <v>47</v>
+      </c>
+      <c r="L380" t="s">
+        <v>151</v>
+      </c>
+      <c r="M380" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>1846</v>
+      </c>
+      <c r="B381">
+        <v>98</v>
+      </c>
+      <c r="C381" t="s">
+        <v>373</v>
+      </c>
+      <c r="J381" t="s">
+        <v>99</v>
+      </c>
+      <c r="K381">
+        <v>47</v>
+      </c>
+      <c r="L381" t="s">
+        <v>151</v>
+      </c>
+      <c r="M381" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1846</v>
+      </c>
+      <c r="B382">
+        <v>99</v>
+      </c>
+      <c r="C382" t="s">
+        <v>374</v>
+      </c>
+      <c r="J382" t="s">
+        <v>99</v>
+      </c>
+      <c r="K382">
+        <v>47</v>
+      </c>
+      <c r="L382" t="s">
+        <v>151</v>
+      </c>
+      <c r="M382" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>1847</v>
+      </c>
+      <c r="B383">
+        <v>99</v>
+      </c>
+      <c r="C383" t="s">
+        <v>375</v>
+      </c>
+      <c r="J383" t="s">
+        <v>99</v>
+      </c>
+      <c r="K383">
+        <v>47</v>
+      </c>
+      <c r="L383" t="s">
+        <v>151</v>
+      </c>
+      <c r="M383" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>1847</v>
+      </c>
+      <c r="B384">
+        <v>100</v>
+      </c>
+      <c r="C384" t="s">
+        <v>376</v>
+      </c>
+      <c r="J384" t="s">
+        <v>99</v>
+      </c>
+      <c r="K384">
+        <v>47</v>
+      </c>
+      <c r="L384" t="s">
+        <v>151</v>
+      </c>
+      <c r="M384" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>1847</v>
+      </c>
+      <c r="B385">
+        <v>101</v>
+      </c>
+      <c r="C385" t="s">
+        <v>377</v>
+      </c>
+      <c r="J385" t="s">
+        <v>99</v>
+      </c>
+      <c r="K385">
+        <v>47</v>
+      </c>
+      <c r="L385" t="s">
+        <v>151</v>
+      </c>
+      <c r="M385" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1847</v>
+      </c>
+      <c r="B386">
+        <v>101</v>
+      </c>
+      <c r="C386" t="s">
+        <v>378</v>
+      </c>
+      <c r="J386" t="s">
+        <v>99</v>
+      </c>
+      <c r="K386">
+        <v>47</v>
+      </c>
+      <c r="L386" t="s">
+        <v>151</v>
+      </c>
+      <c r="M386" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1847</v>
+      </c>
+      <c r="B387">
+        <v>101</v>
+      </c>
+      <c r="C387" t="s">
+        <v>379</v>
+      </c>
+      <c r="J387" t="s">
+        <v>99</v>
+      </c>
+      <c r="K387">
+        <v>47</v>
+      </c>
+      <c r="L387" t="s">
+        <v>151</v>
+      </c>
+      <c r="M387" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1847</v>
+      </c>
+      <c r="B388">
+        <v>102</v>
+      </c>
+      <c r="C388" t="s">
+        <v>380</v>
+      </c>
+      <c r="J388" t="s">
+        <v>99</v>
+      </c>
+      <c r="K388">
+        <v>47</v>
+      </c>
+      <c r="L388" t="s">
+        <v>151</v>
+      </c>
+      <c r="M388" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1847</v>
+      </c>
+      <c r="B389">
+        <v>102</v>
+      </c>
+      <c r="C389" t="s">
+        <v>381</v>
+      </c>
+      <c r="J389" t="s">
+        <v>99</v>
+      </c>
+      <c r="K389">
+        <v>47</v>
+      </c>
+      <c r="L389" t="s">
+        <v>151</v>
+      </c>
+      <c r="M389" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>1848</v>
+      </c>
+      <c r="B390">
+        <v>102</v>
+      </c>
+      <c r="C390" t="s">
+        <v>382</v>
+      </c>
+      <c r="J390" t="s">
+        <v>99</v>
+      </c>
+      <c r="K390">
+        <v>47</v>
+      </c>
+      <c r="L390" t="s">
+        <v>151</v>
+      </c>
+      <c r="M390" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>1848</v>
+      </c>
+      <c r="B391">
+        <v>102</v>
+      </c>
+      <c r="C391" t="s">
+        <v>383</v>
+      </c>
+      <c r="J391" t="s">
+        <v>99</v>
+      </c>
+      <c r="K391">
+        <v>47</v>
+      </c>
+      <c r="L391" t="s">
+        <v>151</v>
+      </c>
+      <c r="M391" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1848</v>
+      </c>
+      <c r="B392">
+        <v>103</v>
+      </c>
+      <c r="C392" t="s">
+        <v>384</v>
+      </c>
+      <c r="J392" t="s">
+        <v>99</v>
+      </c>
+      <c r="K392">
+        <v>47</v>
+      </c>
+      <c r="L392" t="s">
+        <v>151</v>
+      </c>
+      <c r="M392" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1848</v>
+      </c>
+      <c r="B393">
+        <v>103</v>
+      </c>
+      <c r="C393" t="s">
+        <v>385</v>
+      </c>
+      <c r="J393" t="s">
+        <v>99</v>
+      </c>
+      <c r="K393">
+        <v>47</v>
+      </c>
+      <c r="L393" t="s">
+        <v>151</v>
+      </c>
+      <c r="M393" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1848</v>
+      </c>
+      <c r="B394">
+        <v>103</v>
+      </c>
+      <c r="C394" t="s">
+        <v>20</v>
+      </c>
+      <c r="J394" t="s">
+        <v>99</v>
+      </c>
+      <c r="K394">
+        <v>47</v>
+      </c>
+      <c r="L394" t="s">
+        <v>151</v>
+      </c>
+      <c r="M394" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1848</v>
+      </c>
+      <c r="B395">
+        <v>104</v>
+      </c>
+      <c r="C395" t="s">
+        <v>386</v>
+      </c>
+      <c r="J395" t="s">
+        <v>99</v>
+      </c>
+      <c r="K395">
+        <v>47</v>
+      </c>
+      <c r="L395" t="s">
+        <v>151</v>
+      </c>
+      <c r="M395" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1848</v>
+      </c>
+      <c r="B396">
+        <v>104</v>
+      </c>
+      <c r="C396" t="s">
+        <v>387</v>
+      </c>
+      <c r="J396" t="s">
+        <v>99</v>
+      </c>
+      <c r="K396">
+        <v>47</v>
+      </c>
+      <c r="L396" t="s">
+        <v>151</v>
+      </c>
+      <c r="M396" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1849</v>
+      </c>
+      <c r="B397">
+        <v>104</v>
+      </c>
+      <c r="C397" t="s">
+        <v>288</v>
+      </c>
+      <c r="J397" t="s">
+        <v>99</v>
+      </c>
+      <c r="K397">
+        <v>47</v>
+      </c>
+      <c r="L397" t="s">
+        <v>151</v>
+      </c>
+      <c r="M397" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1849</v>
+      </c>
+      <c r="B398">
+        <v>105</v>
+      </c>
+      <c r="C398" t="s">
+        <v>108</v>
+      </c>
+      <c r="J398" t="s">
+        <v>99</v>
+      </c>
+      <c r="K398">
+        <v>47</v>
+      </c>
+      <c r="L398" t="s">
+        <v>151</v>
+      </c>
+      <c r="M398" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1849</v>
+      </c>
+      <c r="B399">
+        <v>105</v>
+      </c>
+      <c r="C399" t="s">
+        <v>388</v>
+      </c>
+      <c r="J399" t="s">
+        <v>99</v>
+      </c>
+      <c r="K399">
+        <v>47</v>
+      </c>
+      <c r="L399" t="s">
+        <v>151</v>
+      </c>
+      <c r="M399" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1849</v>
+      </c>
+      <c r="B400">
+        <v>105</v>
+      </c>
+      <c r="C400" t="s">
+        <v>389</v>
+      </c>
+      <c r="J400" t="s">
+        <v>99</v>
+      </c>
+      <c r="K400">
+        <v>47</v>
+      </c>
+      <c r="L400" t="s">
+        <v>151</v>
+      </c>
+      <c r="M400" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>1849</v>
+      </c>
+      <c r="B401">
+        <v>105</v>
+      </c>
+      <c r="C401" t="s">
+        <v>197</v>
+      </c>
+      <c r="J401" t="s">
+        <v>99</v>
+      </c>
+      <c r="K401">
+        <v>47</v>
+      </c>
+      <c r="L401" t="s">
+        <v>151</v>
+      </c>
+      <c r="M401" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>1849</v>
+      </c>
+      <c r="B402">
+        <v>106</v>
+      </c>
+      <c r="C402" t="s">
+        <v>390</v>
+      </c>
+      <c r="J402" t="s">
+        <v>99</v>
+      </c>
+      <c r="K402">
+        <v>47</v>
+      </c>
+      <c r="L402" t="s">
+        <v>151</v>
+      </c>
+      <c r="M402" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1849</v>
+      </c>
+      <c r="B403">
+        <v>106</v>
+      </c>
+      <c r="C403" t="s">
+        <v>391</v>
+      </c>
+      <c r="J403" t="s">
+        <v>99</v>
+      </c>
+      <c r="K403">
+        <v>47</v>
+      </c>
+      <c r="L403" t="s">
+        <v>151</v>
+      </c>
+      <c r="M403" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1850</v>
+      </c>
+      <c r="B404">
+        <v>106</v>
+      </c>
+      <c r="C404" t="s">
+        <v>392</v>
+      </c>
+      <c r="J404" t="s">
+        <v>99</v>
+      </c>
+      <c r="K404">
+        <v>47</v>
+      </c>
+      <c r="L404" t="s">
+        <v>151</v>
+      </c>
+      <c r="M404" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1851</v>
+      </c>
+      <c r="B405">
+        <v>107</v>
+      </c>
+      <c r="C405" t="s">
+        <v>393</v>
+      </c>
+      <c r="J405" t="s">
+        <v>99</v>
+      </c>
+      <c r="K405">
+        <v>47</v>
+      </c>
+      <c r="L405" t="s">
+        <v>151</v>
+      </c>
+      <c r="M405" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1851</v>
+      </c>
+      <c r="B406">
+        <v>107</v>
+      </c>
+      <c r="C406" t="s">
+        <v>394</v>
+      </c>
+      <c r="J406" t="s">
+        <v>99</v>
+      </c>
+      <c r="K406">
+        <v>47</v>
+      </c>
+      <c r="L406" t="s">
+        <v>151</v>
+      </c>
+      <c r="M406" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1851</v>
+      </c>
+      <c r="B407">
+        <v>107</v>
+      </c>
+      <c r="C407" t="s">
+        <v>395</v>
+      </c>
+      <c r="J407" t="s">
+        <v>99</v>
+      </c>
+      <c r="K407">
+        <v>47</v>
+      </c>
+      <c r="L407" t="s">
+        <v>151</v>
+      </c>
+      <c r="M407" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1851</v>
+      </c>
+      <c r="B408">
+        <v>108</v>
+      </c>
+      <c r="C408" t="s">
+        <v>396</v>
+      </c>
+      <c r="J408" t="s">
+        <v>99</v>
+      </c>
+      <c r="K408">
+        <v>47</v>
+      </c>
+      <c r="L408" t="s">
+        <v>151</v>
+      </c>
+      <c r="M408" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1851</v>
+      </c>
+      <c r="B409">
+        <v>108</v>
+      </c>
+      <c r="C409" t="s">
+        <v>397</v>
+      </c>
+      <c r="J409" t="s">
+        <v>99</v>
+      </c>
+      <c r="K409">
+        <v>47</v>
+      </c>
+      <c r="L409" t="s">
+        <v>151</v>
+      </c>
+      <c r="M409" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1771</v>
+      </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
+      <c r="C410" t="s">
+        <v>400</v>
+      </c>
+      <c r="J410" t="s">
+        <v>99</v>
+      </c>
+      <c r="K410">
+        <v>47</v>
+      </c>
+      <c r="L410" t="s">
+        <v>399</v>
+      </c>
+      <c r="M410" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1771</v>
+      </c>
+      <c r="B411">
+        <v>4</v>
+      </c>
+      <c r="C411" t="s">
+        <v>401</v>
+      </c>
+      <c r="J411" t="s">
+        <v>99</v>
+      </c>
+      <c r="K411">
+        <v>47</v>
+      </c>
+      <c r="L411" t="s">
+        <v>399</v>
+      </c>
+      <c r="M411" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1771</v>
+      </c>
+      <c r="B412">
+        <v>4</v>
+      </c>
+      <c r="C412" t="s">
+        <v>402</v>
+      </c>
+      <c r="J412" t="s">
+        <v>99</v>
+      </c>
+      <c r="K412">
+        <v>47</v>
+      </c>
+      <c r="L412" t="s">
+        <v>399</v>
+      </c>
+      <c r="M412" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1772</v>
+      </c>
+      <c r="B413">
+        <v>4</v>
+      </c>
+      <c r="C413" t="s">
+        <v>403</v>
+      </c>
+      <c r="J413" t="s">
+        <v>99</v>
+      </c>
+      <c r="K413">
+        <v>47</v>
+      </c>
+      <c r="L413" t="s">
+        <v>399</v>
+      </c>
+      <c r="M413" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1772</v>
+      </c>
+      <c r="B414">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>404</v>
+      </c>
+      <c r="J414" t="s">
+        <v>99</v>
+      </c>
+      <c r="K414">
+        <v>47</v>
+      </c>
+      <c r="L414" t="s">
+        <v>399</v>
+      </c>
+      <c r="M414" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1772</v>
+      </c>
+      <c r="B415">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>405</v>
+      </c>
+      <c r="J415" t="s">
+        <v>99</v>
+      </c>
+      <c r="K415">
+        <v>47</v>
+      </c>
+      <c r="L415" t="s">
+        <v>399</v>
+      </c>
+      <c r="M415" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1772</v>
+      </c>
+      <c r="B416">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>406</v>
+      </c>
+      <c r="J416" t="s">
+        <v>99</v>
+      </c>
+      <c r="K416">
+        <v>47</v>
+      </c>
+      <c r="L416" t="s">
+        <v>399</v>
+      </c>
+      <c r="M416" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>1773</v>
+      </c>
+      <c r="B417">
+        <v>6</v>
+      </c>
+      <c r="C417" t="s">
+        <v>407</v>
+      </c>
+      <c r="J417" t="s">
+        <v>99</v>
+      </c>
+      <c r="K417">
+        <v>47</v>
+      </c>
+      <c r="L417" t="s">
+        <v>399</v>
+      </c>
+      <c r="M417" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1773</v>
+      </c>
+      <c r="B418">
+        <v>6</v>
+      </c>
+      <c r="C418" t="s">
+        <v>408</v>
+      </c>
+      <c r="J418" t="s">
+        <v>99</v>
+      </c>
+      <c r="K418">
+        <v>47</v>
+      </c>
+      <c r="L418" t="s">
+        <v>399</v>
+      </c>
+      <c r="M418" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1773</v>
+      </c>
+      <c r="B419">
+        <v>7</v>
+      </c>
+      <c r="C419" t="s">
+        <v>434</v>
+      </c>
+      <c r="J419" t="s">
+        <v>99</v>
+      </c>
+      <c r="K419">
+        <v>47</v>
+      </c>
+      <c r="L419" t="s">
+        <v>399</v>
+      </c>
+      <c r="M419" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1773</v>
+      </c>
+      <c r="B420">
+        <v>7</v>
+      </c>
+      <c r="C420" t="s">
+        <v>435</v>
+      </c>
+      <c r="J420" t="s">
+        <v>99</v>
+      </c>
+      <c r="K420">
+        <v>47</v>
+      </c>
+      <c r="L420" t="s">
+        <v>399</v>
+      </c>
+      <c r="M420" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>1773</v>
+      </c>
+      <c r="B421">
+        <v>7</v>
+      </c>
+      <c r="C421" t="s">
+        <v>436</v>
+      </c>
+      <c r="J421" t="s">
+        <v>99</v>
+      </c>
+      <c r="K421">
+        <v>47</v>
+      </c>
+      <c r="L421" t="s">
+        <v>399</v>
+      </c>
+      <c r="M421" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1773</v>
+      </c>
+      <c r="B422">
+        <v>8</v>
+      </c>
+      <c r="C422" t="s">
+        <v>437</v>
+      </c>
+      <c r="J422" t="s">
+        <v>99</v>
+      </c>
+      <c r="K422">
+        <v>47</v>
+      </c>
+      <c r="L422" t="s">
+        <v>399</v>
+      </c>
+      <c r="M422" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1773</v>
+      </c>
+      <c r="B423">
+        <v>8</v>
+      </c>
+      <c r="C423" t="s">
+        <v>438</v>
+      </c>
+      <c r="J423" t="s">
+        <v>99</v>
+      </c>
+      <c r="K423">
+        <v>47</v>
+      </c>
+      <c r="L423" t="s">
+        <v>399</v>
+      </c>
+      <c r="M423" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1773</v>
+      </c>
+      <c r="B424">
+        <v>8</v>
+      </c>
+      <c r="C424" t="s">
+        <v>439</v>
+      </c>
+      <c r="J424" t="s">
+        <v>99</v>
+      </c>
+      <c r="K424">
+        <v>47</v>
+      </c>
+      <c r="L424" t="s">
+        <v>399</v>
+      </c>
+      <c r="M424" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1774</v>
+      </c>
+      <c r="B425">
+        <v>9</v>
+      </c>
+      <c r="C425" t="s">
+        <v>440</v>
+      </c>
+      <c r="J425" t="s">
+        <v>99</v>
+      </c>
+      <c r="K425">
+        <v>47</v>
+      </c>
+      <c r="L425" t="s">
+        <v>399</v>
+      </c>
+      <c r="M425" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1774</v>
+      </c>
+      <c r="B426">
+        <v>9</v>
+      </c>
+      <c r="C426" t="s">
+        <v>441</v>
+      </c>
+      <c r="J426" t="s">
+        <v>99</v>
+      </c>
+      <c r="K426">
+        <v>47</v>
+      </c>
+      <c r="L426" t="s">
+        <v>399</v>
+      </c>
+      <c r="M426" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1774</v>
+      </c>
+      <c r="B427">
+        <v>9</v>
+      </c>
+      <c r="C427" t="s">
+        <v>442</v>
+      </c>
+      <c r="J427" t="s">
+        <v>99</v>
+      </c>
+      <c r="K427">
+        <v>47</v>
+      </c>
+      <c r="L427" t="s">
+        <v>399</v>
+      </c>
+      <c r="M427" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>1774</v>
+      </c>
+      <c r="B428">
+        <v>10</v>
+      </c>
+      <c r="C428" t="s">
+        <v>443</v>
+      </c>
+      <c r="J428" t="s">
+        <v>99</v>
+      </c>
+      <c r="K428">
+        <v>47</v>
+      </c>
+      <c r="L428" t="s">
+        <v>399</v>
+      </c>
+      <c r="M428" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>1774</v>
+      </c>
+      <c r="B429">
+        <v>10</v>
+      </c>
+      <c r="C429" t="s">
+        <v>444</v>
+      </c>
+      <c r="J429" t="s">
+        <v>99</v>
+      </c>
+      <c r="K429">
+        <v>47</v>
+      </c>
+      <c r="L429" t="s">
+        <v>399</v>
+      </c>
+      <c r="M429" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>1774</v>
+      </c>
+      <c r="B430">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>445</v>
+      </c>
+      <c r="J430" t="s">
+        <v>99</v>
+      </c>
+      <c r="K430">
+        <v>47</v>
+      </c>
+      <c r="L430" t="s">
+        <v>399</v>
+      </c>
+      <c r="M430" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1774</v>
+      </c>
+      <c r="B431">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>446</v>
+      </c>
+      <c r="J431" t="s">
+        <v>99</v>
+      </c>
+      <c r="K431">
+        <v>47</v>
+      </c>
+      <c r="L431" t="s">
+        <v>399</v>
+      </c>
+      <c r="M431" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1774</v>
+      </c>
+      <c r="B432">
+        <v>11</v>
+      </c>
+      <c r="C432" t="s">
+        <v>447</v>
+      </c>
+      <c r="J432" t="s">
+        <v>99</v>
+      </c>
+      <c r="K432">
+        <v>47</v>
+      </c>
+      <c r="L432" t="s">
+        <v>399</v>
+      </c>
+      <c r="M432" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>1774</v>
+      </c>
+      <c r="B433">
+        <v>12</v>
+      </c>
+      <c r="C433" t="s">
+        <v>448</v>
+      </c>
+      <c r="J433" t="s">
+        <v>99</v>
+      </c>
+      <c r="K433">
+        <v>47</v>
+      </c>
+      <c r="L433" t="s">
+        <v>399</v>
+      </c>
+      <c r="M433" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1775</v>
+      </c>
+      <c r="B434">
+        <v>12</v>
+      </c>
+      <c r="C434" t="s">
+        <v>449</v>
+      </c>
+      <c r="J434" t="s">
+        <v>99</v>
+      </c>
+      <c r="K434">
+        <v>47</v>
+      </c>
+      <c r="L434" t="s">
+        <v>399</v>
+      </c>
+      <c r="M434" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1775</v>
+      </c>
+      <c r="B435">
+        <v>12</v>
+      </c>
+      <c r="C435" t="s">
+        <v>450</v>
+      </c>
+      <c r="J435" t="s">
+        <v>99</v>
+      </c>
+      <c r="K435">
+        <v>47</v>
+      </c>
+      <c r="L435" t="s">
+        <v>399</v>
+      </c>
+      <c r="M435" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1775</v>
+      </c>
+      <c r="B436">
+        <v>13</v>
+      </c>
+      <c r="C436" t="s">
+        <v>451</v>
+      </c>
+      <c r="J436" t="s">
+        <v>99</v>
+      </c>
+      <c r="K436">
+        <v>47</v>
+      </c>
+      <c r="L436" t="s">
+        <v>399</v>
+      </c>
+      <c r="M436" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1776</v>
+      </c>
+      <c r="B437">
+        <v>13</v>
+      </c>
+      <c r="C437" t="s">
+        <v>452</v>
+      </c>
+      <c r="J437" t="s">
+        <v>99</v>
+      </c>
+      <c r="K437">
+        <v>47</v>
+      </c>
+      <c r="L437" t="s">
+        <v>399</v>
+      </c>
+      <c r="M437" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>1776</v>
+      </c>
+      <c r="B438">
+        <v>14</v>
+      </c>
+      <c r="C438" t="s">
+        <v>453</v>
+      </c>
+      <c r="J438" t="s">
+        <v>99</v>
+      </c>
+      <c r="K438">
+        <v>47</v>
+      </c>
+      <c r="L438" t="s">
+        <v>399</v>
+      </c>
+      <c r="M438" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1776</v>
+      </c>
+      <c r="B439">
+        <v>14</v>
+      </c>
+      <c r="C439" t="s">
+        <v>454</v>
+      </c>
+      <c r="J439" t="s">
+        <v>99</v>
+      </c>
+      <c r="K439">
+        <v>47</v>
+      </c>
+      <c r="L439" t="s">
+        <v>399</v>
+      </c>
+      <c r="M439" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1776</v>
+      </c>
+      <c r="B440">
+        <v>14</v>
+      </c>
+      <c r="C440" t="s">
+        <v>455</v>
+      </c>
+      <c r="J440" t="s">
+        <v>99</v>
+      </c>
+      <c r="K440">
+        <v>47</v>
+      </c>
+      <c r="L440" t="s">
+        <v>399</v>
+      </c>
+      <c r="M440" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1776</v>
+      </c>
+      <c r="B441">
+        <v>15</v>
+      </c>
+      <c r="C441" t="s">
+        <v>456</v>
+      </c>
+      <c r="J441" t="s">
+        <v>99</v>
+      </c>
+      <c r="K441">
+        <v>47</v>
+      </c>
+      <c r="L441" t="s">
+        <v>399</v>
+      </c>
+      <c r="M441" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1776</v>
+      </c>
+      <c r="B442">
+        <v>15</v>
+      </c>
+      <c r="C442" t="s">
+        <v>457</v>
+      </c>
+      <c r="J442" t="s">
+        <v>99</v>
+      </c>
+      <c r="K442">
+        <v>47</v>
+      </c>
+      <c r="L442" t="s">
+        <v>399</v>
+      </c>
+      <c r="M442" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1777</v>
+      </c>
+      <c r="B443">
+        <v>15</v>
+      </c>
+      <c r="C443" t="s">
+        <v>458</v>
+      </c>
+      <c r="J443" t="s">
+        <v>99</v>
+      </c>
+      <c r="K443">
+        <v>47</v>
+      </c>
+      <c r="L443" t="s">
+        <v>399</v>
+      </c>
+      <c r="M443" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1777</v>
+      </c>
+      <c r="B444">
+        <v>16</v>
+      </c>
+      <c r="C444" t="s">
+        <v>459</v>
+      </c>
+      <c r="J444" t="s">
+        <v>99</v>
+      </c>
+      <c r="K444">
+        <v>47</v>
+      </c>
+      <c r="L444" t="s">
+        <v>399</v>
+      </c>
+      <c r="M444" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1777</v>
+      </c>
+      <c r="B445">
+        <v>16</v>
+      </c>
+      <c r="C445" t="s">
+        <v>460</v>
+      </c>
+      <c r="J445" t="s">
+        <v>99</v>
+      </c>
+      <c r="K445">
+        <v>47</v>
+      </c>
+      <c r="L445" t="s">
+        <v>399</v>
+      </c>
+      <c r="M445" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1777</v>
+      </c>
+      <c r="B446">
+        <v>17</v>
+      </c>
+      <c r="C446" t="s">
+        <v>177</v>
+      </c>
+      <c r="J446" t="s">
+        <v>99</v>
+      </c>
+      <c r="K446">
+        <v>47</v>
+      </c>
+      <c r="L446" t="s">
+        <v>399</v>
+      </c>
+      <c r="M446" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1777</v>
+      </c>
+      <c r="B447">
+        <v>17</v>
+      </c>
+      <c r="C447" t="s">
+        <v>461</v>
+      </c>
+      <c r="J447" t="s">
+        <v>99</v>
+      </c>
+      <c r="K447">
+        <v>47</v>
+      </c>
+      <c r="L447" t="s">
+        <v>399</v>
+      </c>
+      <c r="M447" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1777</v>
+      </c>
+      <c r="B448">
+        <v>17</v>
+      </c>
+      <c r="C448" t="s">
+        <v>462</v>
+      </c>
+      <c r="J448" t="s">
+        <v>99</v>
+      </c>
+      <c r="K448">
+        <v>47</v>
+      </c>
+      <c r="L448" t="s">
+        <v>399</v>
+      </c>
+      <c r="M448" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1777</v>
+      </c>
+      <c r="B449">
+        <v>18</v>
+      </c>
+      <c r="C449" t="s">
+        <v>463</v>
+      </c>
+      <c r="J449" t="s">
+        <v>99</v>
+      </c>
+      <c r="K449">
+        <v>47</v>
+      </c>
+      <c r="L449" t="s">
+        <v>399</v>
+      </c>
+      <c r="M449" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1777</v>
+      </c>
+      <c r="B450">
+        <v>18</v>
+      </c>
+      <c r="C450" t="s">
+        <v>464</v>
+      </c>
+      <c r="J450" t="s">
+        <v>99</v>
+      </c>
+      <c r="K450">
+        <v>47</v>
+      </c>
+      <c r="L450" t="s">
+        <v>399</v>
+      </c>
+      <c r="M450" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1778</v>
+      </c>
+      <c r="B451">
+        <v>18</v>
+      </c>
+      <c r="C451" t="s">
+        <v>465</v>
+      </c>
+      <c r="J451" t="s">
+        <v>99</v>
+      </c>
+      <c r="K451">
+        <v>47</v>
+      </c>
+      <c r="L451" t="s">
+        <v>399</v>
+      </c>
+      <c r="M451" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1778</v>
+      </c>
+      <c r="B452">
+        <v>19</v>
+      </c>
+      <c r="C452" t="s">
+        <v>466</v>
+      </c>
+      <c r="J452" t="s">
+        <v>99</v>
+      </c>
+      <c r="K452">
+        <v>47</v>
+      </c>
+      <c r="L452" t="s">
+        <v>399</v>
+      </c>
+      <c r="M452" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1778</v>
+      </c>
+      <c r="B453">
+        <v>19</v>
+      </c>
+      <c r="C453" t="s">
+        <v>468</v>
+      </c>
+      <c r="J453" t="s">
+        <v>99</v>
+      </c>
+      <c r="K453">
+        <v>47</v>
+      </c>
+      <c r="L453" t="s">
+        <v>399</v>
+      </c>
+      <c r="M453" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>1778</v>
+      </c>
+      <c r="B454">
+        <v>19</v>
+      </c>
+      <c r="C454" t="s">
+        <v>467</v>
+      </c>
+      <c r="J454" t="s">
+        <v>99</v>
+      </c>
+      <c r="K454">
+        <v>47</v>
+      </c>
+      <c r="L454" t="s">
+        <v>399</v>
+      </c>
+      <c r="M454" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1778</v>
+      </c>
+      <c r="B455">
+        <v>20</v>
+      </c>
+      <c r="C455" t="s">
+        <v>469</v>
+      </c>
+      <c r="J455" t="s">
+        <v>99</v>
+      </c>
+      <c r="K455">
+        <v>47</v>
+      </c>
+      <c r="L455" t="s">
+        <v>399</v>
+      </c>
+      <c r="M455" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>1778</v>
+      </c>
+      <c r="B456">
+        <v>20</v>
+      </c>
+      <c r="C456" t="s">
+        <v>470</v>
+      </c>
+      <c r="J456" t="s">
+        <v>99</v>
+      </c>
+      <c r="K456">
+        <v>47</v>
+      </c>
+      <c r="L456" t="s">
+        <v>399</v>
+      </c>
+      <c r="M456" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>1778</v>
+      </c>
+      <c r="B457">
+        <v>21</v>
+      </c>
+      <c r="C457" t="s">
+        <v>471</v>
+      </c>
+      <c r="J457" t="s">
+        <v>99</v>
+      </c>
+      <c r="K457">
+        <v>47</v>
+      </c>
+      <c r="L457" t="s">
+        <v>399</v>
+      </c>
+      <c r="M457" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>1779</v>
+      </c>
+      <c r="B458">
+        <v>21</v>
+      </c>
+      <c r="C458" t="s">
+        <v>472</v>
+      </c>
+      <c r="J458" t="s">
+        <v>99</v>
+      </c>
+      <c r="K458">
+        <v>47</v>
+      </c>
+      <c r="L458" t="s">
+        <v>399</v>
+      </c>
+      <c r="M458" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1779</v>
+      </c>
+      <c r="B459">
+        <v>21</v>
+      </c>
+      <c r="C459" t="s">
+        <v>473</v>
+      </c>
+      <c r="J459" t="s">
+        <v>99</v>
+      </c>
+      <c r="K459">
+        <v>47</v>
+      </c>
+      <c r="L459" t="s">
+        <v>399</v>
+      </c>
+      <c r="M459" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1779</v>
+      </c>
+      <c r="B460">
+        <v>22</v>
+      </c>
+      <c r="C460" t="s">
+        <v>474</v>
+      </c>
+      <c r="J460" t="s">
+        <v>99</v>
+      </c>
+      <c r="K460">
+        <v>47</v>
+      </c>
+      <c r="L460" t="s">
+        <v>399</v>
+      </c>
+      <c r="M460" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1779</v>
+      </c>
+      <c r="B461">
+        <v>22</v>
+      </c>
+      <c r="C461" t="s">
+        <v>475</v>
+      </c>
+      <c r="J461" t="s">
+        <v>99</v>
+      </c>
+      <c r="K461">
+        <v>47</v>
+      </c>
+      <c r="L461" t="s">
+        <v>399</v>
+      </c>
+      <c r="M461" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>1779</v>
+      </c>
+      <c r="B462">
+        <v>22</v>
+      </c>
+      <c r="C462" t="s">
+        <v>476</v>
+      </c>
+      <c r="J462" t="s">
+        <v>99</v>
+      </c>
+      <c r="K462">
+        <v>47</v>
+      </c>
+      <c r="L462" t="s">
+        <v>399</v>
+      </c>
+      <c r="M462" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>1779</v>
+      </c>
+      <c r="B463">
+        <v>23</v>
+      </c>
+      <c r="C463" t="s">
+        <v>477</v>
+      </c>
+      <c r="J463" t="s">
+        <v>99</v>
+      </c>
+      <c r="K463">
+        <v>47</v>
+      </c>
+      <c r="L463" t="s">
+        <v>399</v>
+      </c>
+      <c r="M463" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1780</v>
+      </c>
+      <c r="B464">
+        <v>23</v>
+      </c>
+      <c r="C464" t="s">
+        <v>478</v>
+      </c>
+      <c r="J464" t="s">
+        <v>99</v>
+      </c>
+      <c r="K464">
+        <v>47</v>
+      </c>
+      <c r="L464" t="s">
+        <v>399</v>
+      </c>
+      <c r="M464" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>1780</v>
+      </c>
+      <c r="B465">
+        <v>23</v>
+      </c>
+      <c r="C465" t="s">
+        <v>479</v>
+      </c>
+      <c r="J465" t="s">
+        <v>99</v>
+      </c>
+      <c r="K465">
+        <v>47</v>
+      </c>
+      <c r="L465" t="s">
+        <v>399</v>
+      </c>
+      <c r="M465" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>1780</v>
+      </c>
+      <c r="B466">
+        <v>24</v>
+      </c>
+      <c r="C466" t="s">
+        <v>480</v>
+      </c>
+      <c r="J466" t="s">
+        <v>99</v>
+      </c>
+      <c r="K466">
+        <v>47</v>
+      </c>
+      <c r="L466" t="s">
+        <v>399</v>
+      </c>
+      <c r="M466" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>1780</v>
+      </c>
+      <c r="B467">
+        <v>24</v>
+      </c>
+      <c r="C467" t="s">
+        <v>481</v>
+      </c>
+      <c r="J467" t="s">
+        <v>99</v>
+      </c>
+      <c r="K467">
+        <v>47</v>
+      </c>
+      <c r="L467" t="s">
+        <v>399</v>
+      </c>
+      <c r="M467" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>1780</v>
+      </c>
+      <c r="B468">
+        <v>24</v>
+      </c>
+      <c r="C468" t="s">
+        <v>482</v>
+      </c>
+      <c r="J468" t="s">
+        <v>99</v>
+      </c>
+      <c r="K468">
+        <v>47</v>
+      </c>
+      <c r="L468" t="s">
+        <v>399</v>
+      </c>
+      <c r="M468" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>1780</v>
+      </c>
+      <c r="B469">
+        <v>25</v>
+      </c>
+      <c r="C469" t="s">
+        <v>483</v>
+      </c>
+      <c r="J469" t="s">
+        <v>99</v>
+      </c>
+      <c r="K469">
+        <v>47</v>
+      </c>
+      <c r="L469" t="s">
+        <v>399</v>
+      </c>
+      <c r="M469" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1780</v>
+      </c>
+      <c r="B470">
+        <v>25</v>
+      </c>
+      <c r="C470" t="s">
+        <v>484</v>
+      </c>
+      <c r="J470" t="s">
+        <v>99</v>
+      </c>
+      <c r="K470">
+        <v>47</v>
+      </c>
+      <c r="L470" t="s">
+        <v>399</v>
+      </c>
+      <c r="M470" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1781</v>
+      </c>
+      <c r="B471">
+        <v>25</v>
+      </c>
+      <c r="C471" t="s">
+        <v>485</v>
+      </c>
+      <c r="J471" t="s">
+        <v>99</v>
+      </c>
+      <c r="K471">
+        <v>47</v>
+      </c>
+      <c r="L471" t="s">
+        <v>399</v>
+      </c>
+      <c r="M471" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>1781</v>
+      </c>
+      <c r="B472">
+        <v>26</v>
+      </c>
+      <c r="C472" t="s">
+        <v>486</v>
+      </c>
+      <c r="J472" t="s">
+        <v>99</v>
+      </c>
+      <c r="K472">
+        <v>47</v>
+      </c>
+      <c r="L472" t="s">
+        <v>399</v>
+      </c>
+      <c r="M472" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1781</v>
+      </c>
+      <c r="B473">
+        <v>26</v>
+      </c>
+      <c r="C473" t="s">
+        <v>487</v>
+      </c>
+      <c r="J473" t="s">
+        <v>99</v>
+      </c>
+      <c r="K473">
+        <v>47</v>
+      </c>
+      <c r="L473" t="s">
+        <v>399</v>
+      </c>
+      <c r="M473" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1781</v>
+      </c>
+      <c r="B474">
+        <v>26</v>
+      </c>
+      <c r="C474" t="s">
+        <v>488</v>
+      </c>
+      <c r="J474" t="s">
+        <v>99</v>
+      </c>
+      <c r="K474">
+        <v>47</v>
+      </c>
+      <c r="L474" t="s">
+        <v>399</v>
+      </c>
+      <c r="M474" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>1781</v>
+      </c>
+      <c r="B475">
+        <v>27</v>
+      </c>
+      <c r="C475" t="s">
+        <v>489</v>
+      </c>
+      <c r="J475" t="s">
+        <v>99</v>
+      </c>
+      <c r="K475">
+        <v>47</v>
+      </c>
+      <c r="L475" t="s">
+        <v>399</v>
+      </c>
+      <c r="M475" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>1781</v>
+      </c>
+      <c r="B476">
+        <v>27</v>
+      </c>
+      <c r="C476" t="s">
+        <v>490</v>
+      </c>
+      <c r="J476" t="s">
+        <v>99</v>
+      </c>
+      <c r="K476">
+        <v>47</v>
+      </c>
+      <c r="L476" t="s">
+        <v>399</v>
+      </c>
+      <c r="M476" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>1781</v>
+      </c>
+      <c r="B477">
+        <v>27</v>
+      </c>
+      <c r="C477" t="s">
+        <v>491</v>
+      </c>
+      <c r="J477" t="s">
+        <v>99</v>
+      </c>
+      <c r="K477">
+        <v>47</v>
+      </c>
+      <c r="L477" t="s">
+        <v>399</v>
+      </c>
+      <c r="M477" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>1782</v>
+      </c>
+      <c r="B478">
+        <v>28</v>
+      </c>
+      <c r="C478" t="s">
+        <v>492</v>
+      </c>
+      <c r="J478" t="s">
+        <v>99</v>
+      </c>
+      <c r="K478">
+        <v>47</v>
+      </c>
+      <c r="L478" t="s">
+        <v>399</v>
+      </c>
+      <c r="M478" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1782</v>
+      </c>
+      <c r="B479">
+        <v>28</v>
+      </c>
+      <c r="C479" t="s">
+        <v>493</v>
+      </c>
+      <c r="J479" t="s">
+        <v>99</v>
+      </c>
+      <c r="K479">
+        <v>47</v>
+      </c>
+      <c r="L479" t="s">
+        <v>399</v>
+      </c>
+      <c r="M479" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>1782</v>
+      </c>
+      <c r="B480">
+        <v>28</v>
+      </c>
+      <c r="C480" t="s">
+        <v>494</v>
+      </c>
+      <c r="J480" t="s">
+        <v>99</v>
+      </c>
+      <c r="K480">
+        <v>47</v>
+      </c>
+      <c r="L480" t="s">
+        <v>399</v>
+      </c>
+      <c r="M480" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>1782</v>
+      </c>
+      <c r="B481">
+        <v>29</v>
+      </c>
+      <c r="C481" t="s">
+        <v>495</v>
+      </c>
+      <c r="J481" t="s">
+        <v>99</v>
+      </c>
+      <c r="K481">
+        <v>47</v>
+      </c>
+      <c r="L481" t="s">
+        <v>399</v>
+      </c>
+      <c r="M481" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>1782</v>
+      </c>
+      <c r="B482">
+        <v>29</v>
+      </c>
+      <c r="C482" t="s">
+        <v>496</v>
+      </c>
+      <c r="J482" t="s">
+        <v>99</v>
+      </c>
+      <c r="K482">
+        <v>47</v>
+      </c>
+      <c r="L482" t="s">
+        <v>399</v>
+      </c>
+      <c r="M482" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>1783</v>
+      </c>
+      <c r="B483">
+        <v>29</v>
+      </c>
+      <c r="C483" t="s">
+        <v>497</v>
+      </c>
+      <c r="J483" t="s">
+        <v>99</v>
+      </c>
+      <c r="K483">
+        <v>47</v>
+      </c>
+      <c r="L483" t="s">
+        <v>399</v>
+      </c>
+      <c r="M483" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>1784</v>
+      </c>
+      <c r="B484">
+        <v>30</v>
+      </c>
+      <c r="C484" t="s">
+        <v>498</v>
+      </c>
+      <c r="J484" t="s">
+        <v>99</v>
+      </c>
+      <c r="K484">
+        <v>47</v>
+      </c>
+      <c r="L484" t="s">
+        <v>399</v>
+      </c>
+      <c r="M484" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>1784</v>
+      </c>
+      <c r="B485">
+        <v>30</v>
+      </c>
+      <c r="C485" t="s">
+        <v>499</v>
+      </c>
+      <c r="J485" t="s">
+        <v>99</v>
+      </c>
+      <c r="K485">
+        <v>47</v>
+      </c>
+      <c r="L485" t="s">
+        <v>399</v>
+      </c>
+      <c r="M485" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>1784</v>
+      </c>
+      <c r="B486">
+        <v>30</v>
+      </c>
+      <c r="C486" t="s">
+        <v>500</v>
+      </c>
+      <c r="J486" t="s">
+        <v>99</v>
+      </c>
+      <c r="K486">
+        <v>47</v>
+      </c>
+      <c r="L486" t="s">
+        <v>399</v>
+      </c>
+      <c r="M486" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
+  <autoFilter ref="A1:M418" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874738D9-B703-478A-A5FC-8F5914EC1E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925F9D1-2D61-455C-9867-2F7D198529FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$418</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$646</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="714">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -1542,6 +1542,645 @@
   </si>
   <si>
     <t>Roig Pallàs</t>
+  </si>
+  <si>
+    <t>Sarries Vila</t>
+  </si>
+  <si>
+    <t>Marti Senallosa</t>
+  </si>
+  <si>
+    <t>Niubó Roma</t>
+  </si>
+  <si>
+    <t>Batlle Niubó</t>
+  </si>
+  <si>
+    <t>Bové Folguera</t>
+  </si>
+  <si>
+    <t>Cahelles Ganyet</t>
+  </si>
+  <si>
+    <t>Ganyet Serra</t>
+  </si>
+  <si>
+    <t>Roigé Torrent</t>
+  </si>
+  <si>
+    <t>Roige Gassó</t>
+  </si>
+  <si>
+    <t>Torra Granyó</t>
+  </si>
+  <si>
+    <t>Olivé Marti</t>
+  </si>
+  <si>
+    <t>Castellà Pujol</t>
+  </si>
+  <si>
+    <t>Carrera Agulló</t>
+  </si>
+  <si>
+    <t>Agulló Carrera</t>
+  </si>
+  <si>
+    <t>Colell Carrera</t>
+  </si>
+  <si>
+    <t>Giné Novell</t>
+  </si>
+  <si>
+    <t>Regué Jove</t>
+  </si>
+  <si>
+    <t>Espervé Aranyó</t>
+  </si>
+  <si>
+    <t>Mas Cascalló</t>
+  </si>
+  <si>
+    <t>Sellart Mosset</t>
+  </si>
+  <si>
+    <t>Gilabert Roma</t>
+  </si>
+  <si>
+    <t>Not Serra</t>
+  </si>
+  <si>
+    <t>Niubó Bonjorn</t>
+  </si>
+  <si>
+    <t>Batalla Bosch</t>
+  </si>
+  <si>
+    <t>Mas Ribes</t>
+  </si>
+  <si>
+    <t>Pujol Torres</t>
+  </si>
+  <si>
+    <t>Rotés Giné</t>
+  </si>
+  <si>
+    <t>Gili Cascalló</t>
+  </si>
+  <si>
+    <t>Rius Torrent</t>
+  </si>
+  <si>
+    <t>Majoral Torrent</t>
+  </si>
+  <si>
+    <t>Pujol Coll</t>
+  </si>
+  <si>
+    <t>Novell Vergé</t>
+  </si>
+  <si>
+    <t>Ribes Vergé</t>
+  </si>
+  <si>
+    <t>Mangela Torres</t>
+  </si>
+  <si>
+    <t>Ricart Mosset</t>
+  </si>
+  <si>
+    <t>Novell Queralt</t>
+  </si>
+  <si>
+    <t>Mata Cascalló</t>
+  </si>
+  <si>
+    <t>Mosset Serra</t>
+  </si>
+  <si>
+    <t>Arau Falcó</t>
+  </si>
+  <si>
+    <t>Cascalló Mas</t>
+  </si>
+  <si>
+    <t>Batlle Renyé</t>
+  </si>
+  <si>
+    <t>Cisteré Roigé</t>
+  </si>
+  <si>
+    <t>Civit Gispert</t>
+  </si>
+  <si>
+    <t>Fortuny Folguera</t>
+  </si>
+  <si>
+    <t>Violan Torrent</t>
+  </si>
+  <si>
+    <t>Agulló Vergé</t>
+  </si>
+  <si>
+    <t>Roig Tarragó</t>
+  </si>
+  <si>
+    <t>Folguera Nabau</t>
+  </si>
+  <si>
+    <t>Cascalló Falcó</t>
+  </si>
+  <si>
+    <t>¿? Trepat</t>
+  </si>
+  <si>
+    <t>Bages Martí</t>
+  </si>
+  <si>
+    <t>Bressoli Pujol</t>
+  </si>
+  <si>
+    <t>Mosset Druet</t>
+  </si>
+  <si>
+    <t>Vallés Sunyé</t>
+  </si>
+  <si>
+    <t>Batlle Cascalló</t>
+  </si>
+  <si>
+    <t>Serret Vergé</t>
+  </si>
+  <si>
+    <t>Gine Nabau</t>
+  </si>
+  <si>
+    <t>Coll Mas</t>
+  </si>
+  <si>
+    <t>Huguet Solà</t>
+  </si>
+  <si>
+    <t>Torrent Tarragó</t>
+  </si>
+  <si>
+    <t>Espervé Civit</t>
+  </si>
+  <si>
+    <t>Pedrós Duart</t>
+  </si>
+  <si>
+    <t>Altisent Pons</t>
+  </si>
+  <si>
+    <t>Pasqual Agulló</t>
+  </si>
+  <si>
+    <t>Bergadà Civit</t>
+  </si>
+  <si>
+    <t>Roige Planes</t>
+  </si>
+  <si>
+    <t>Roige Mas</t>
+  </si>
+  <si>
+    <t>Mas Jové</t>
+  </si>
+  <si>
+    <t>Socarrat Torrent</t>
+  </si>
+  <si>
+    <t>Martí Mosset</t>
+  </si>
+  <si>
+    <t>Gavernet Vilaltella</t>
+  </si>
+  <si>
+    <t>Mosset Martí</t>
+  </si>
+  <si>
+    <t>Gelonch Inglés</t>
+  </si>
+  <si>
+    <t>Trepat Bonjorn</t>
+  </si>
+  <si>
+    <t>Giné Martí</t>
+  </si>
+  <si>
+    <t>Vilaltella Bonjorn</t>
+  </si>
+  <si>
+    <t>Rauret Mosset</t>
+  </si>
+  <si>
+    <t>Vallés Roma</t>
+  </si>
+  <si>
+    <t>Valles Serengana</t>
+  </si>
+  <si>
+    <t>Sucarrat Thomàs</t>
+  </si>
+  <si>
+    <t>Codina Civit</t>
+  </si>
+  <si>
+    <t>Garcia Garriga</t>
+  </si>
+  <si>
+    <t>Civit Renyé</t>
+  </si>
+  <si>
+    <t>Vallés Mirassó</t>
+  </si>
+  <si>
+    <t>Falcó Nabau</t>
+  </si>
+  <si>
+    <t>Cascalló Manyach</t>
+  </si>
+  <si>
+    <t>Senella Duart</t>
+  </si>
+  <si>
+    <t>Niubó Soldevila</t>
+  </si>
+  <si>
+    <t>Torrent Bonjorn</t>
+  </si>
+  <si>
+    <t>Torra Plassa</t>
+  </si>
+  <si>
+    <t>Pedrós Biosca</t>
+  </si>
+  <si>
+    <t>Biosca Pedrós</t>
+  </si>
+  <si>
+    <t>Pedrós Torrent</t>
+  </si>
+  <si>
+    <t>Bergonyós Sunyé</t>
+  </si>
+  <si>
+    <t>Fuster Niubó</t>
+  </si>
+  <si>
+    <t>Carbonell Galceran</t>
+  </si>
+  <si>
+    <t>Corberó Novell</t>
+  </si>
+  <si>
+    <t>Martí Pou</t>
+  </si>
+  <si>
+    <t>Jovell Martí</t>
+  </si>
+  <si>
+    <t>Pedrós Boldú</t>
+  </si>
+  <si>
+    <t>Mosset Savanes</t>
+  </si>
+  <si>
+    <t>Pallàs Vergé</t>
+  </si>
+  <si>
+    <t>Druet Mas</t>
+  </si>
+  <si>
+    <t>Redon Roige</t>
+  </si>
+  <si>
+    <t>Pedrós Gené</t>
+  </si>
+  <si>
+    <t>Seranyena Lopez</t>
+  </si>
+  <si>
+    <t>Giné Serra</t>
+  </si>
+  <si>
+    <t>Solsona Roma</t>
+  </si>
+  <si>
+    <t>Pujades Martí</t>
+  </si>
+  <si>
+    <t>Torres Simón</t>
+  </si>
+  <si>
+    <t>Curcó Oliva</t>
+  </si>
+  <si>
+    <t>Jové Farré</t>
+  </si>
+  <si>
+    <t>Caumons Torrent</t>
+  </si>
+  <si>
+    <t>Manyach Torrents</t>
+  </si>
+  <si>
+    <t>Martí Tarragó</t>
+  </si>
+  <si>
+    <t>Cascalló Figuera</t>
+  </si>
+  <si>
+    <t>Falcó Peraire</t>
+  </si>
+  <si>
+    <t>Vilamajó Cadena</t>
+  </si>
+  <si>
+    <t>Ginestà Folguera</t>
+  </si>
+  <si>
+    <t>Serra Duart</t>
+  </si>
+  <si>
+    <t>Joval Tuca</t>
+  </si>
+  <si>
+    <t>Plasa Droguet</t>
+  </si>
+  <si>
+    <t>Boldú Serra</t>
+  </si>
+  <si>
+    <t>Planes Roigé</t>
+  </si>
+  <si>
+    <t>Mata Ramon</t>
+  </si>
+  <si>
+    <t>Plasa Mata</t>
+  </si>
+  <si>
+    <t>Gispert Roiger</t>
+  </si>
+  <si>
+    <t>Falcó Fabregat</t>
+  </si>
+  <si>
+    <t>Bové Vila</t>
+  </si>
+  <si>
+    <t>Figuera Oriola</t>
+  </si>
+  <si>
+    <t>Roig Vergé</t>
+  </si>
+  <si>
+    <t>Pedrós Civit</t>
+  </si>
+  <si>
+    <t>Roiger Pont</t>
+  </si>
+  <si>
+    <t>Pelpont Soler</t>
+  </si>
+  <si>
+    <t>Vergé Solé</t>
+  </si>
+  <si>
+    <t>Batlle Alexandre</t>
+  </si>
+  <si>
+    <t>Bonjorn Sucarrat</t>
+  </si>
+  <si>
+    <t>Giné Margall</t>
+  </si>
+  <si>
+    <t>Serra Roiger</t>
+  </si>
+  <si>
+    <t>Casadellà Coll</t>
+  </si>
+  <si>
+    <t>Ros Cascalló</t>
+  </si>
+  <si>
+    <t>Casteràs Coll</t>
+  </si>
+  <si>
+    <t>Soler Falcó</t>
+  </si>
+  <si>
+    <t>Fabregat Cuberes</t>
+  </si>
+  <si>
+    <t>Vilaplana Mas</t>
+  </si>
+  <si>
+    <t>Vilaplana Novau</t>
+  </si>
+  <si>
+    <t>Gorberó Gou</t>
+  </si>
+  <si>
+    <t>Batlle Lamarca</t>
+  </si>
+  <si>
+    <t>Serra Folguera</t>
+  </si>
+  <si>
+    <t>Palou Lamarca</t>
+  </si>
+  <si>
+    <t>Vila Coll</t>
+  </si>
+  <si>
+    <t>Pujol Palou</t>
+  </si>
+  <si>
+    <t>Moré Fabregat</t>
+  </si>
+  <si>
+    <t>Margall Palou</t>
+  </si>
+  <si>
+    <t>Nabau Torrent</t>
+  </si>
+  <si>
+    <t>Duart Roma</t>
+  </si>
+  <si>
+    <t>Torres Carrera</t>
+  </si>
+  <si>
+    <t>Burci Robira</t>
+  </si>
+  <si>
+    <t>Cases Corberó</t>
+  </si>
+  <si>
+    <t>Civit Ganyet</t>
+  </si>
+  <si>
+    <t>Borrell Esteve</t>
+  </si>
+  <si>
+    <t>Pons Gine</t>
+  </si>
+  <si>
+    <t>Plasa Soberà</t>
+  </si>
+  <si>
+    <t>Pons Giné</t>
+  </si>
+  <si>
+    <t>80/81</t>
+  </si>
+  <si>
+    <t>Monyarch Batalla</t>
+  </si>
+  <si>
+    <t>Coll Solsona</t>
+  </si>
+  <si>
+    <t>Corbero Busquets</t>
+  </si>
+  <si>
+    <t>Bonjorn Cervera</t>
+  </si>
+  <si>
+    <t>Marti Planes</t>
+  </si>
+  <si>
+    <t>Ros Mas</t>
+  </si>
+  <si>
+    <t>Ganyet Mascó</t>
+  </si>
+  <si>
+    <t>Tarrago Mas</t>
+  </si>
+  <si>
+    <t>Gimenos Niubo</t>
+  </si>
+  <si>
+    <t>Ferrer Bertran</t>
+  </si>
+  <si>
+    <t>Valles Galceran</t>
+  </si>
+  <si>
+    <t>Civit Tarragó</t>
+  </si>
+  <si>
+    <t>Torrens Droguet</t>
+  </si>
+  <si>
+    <t>Cireret Cava</t>
+  </si>
+  <si>
+    <t>Mosset Galceran</t>
+  </si>
+  <si>
+    <t>Roma Giné</t>
+  </si>
+  <si>
+    <t>Oriola Carrera</t>
+  </si>
+  <si>
+    <t>Carulla Novell</t>
+  </si>
+  <si>
+    <t>Civit Giné</t>
+  </si>
+  <si>
+    <t>Solé Cascalló</t>
+  </si>
+  <si>
+    <t>Torné Ribes</t>
+  </si>
+  <si>
+    <t>Giné Cascalló</t>
+  </si>
+  <si>
+    <t>Fabregat Torrent</t>
+  </si>
+  <si>
+    <t>Serra Monfort</t>
+  </si>
+  <si>
+    <t>Mata Novell</t>
+  </si>
+  <si>
+    <t>Gispert Majoral</t>
+  </si>
+  <si>
+    <t>Mas Porta</t>
+  </si>
+  <si>
+    <t>Margall Clop</t>
+  </si>
+  <si>
+    <t>Oliva Senallosa</t>
+  </si>
+  <si>
+    <t>Ginesta Serra</t>
+  </si>
+  <si>
+    <t>Teixidor Mosset</t>
+  </si>
+  <si>
+    <t>Forés Vergadà</t>
+  </si>
+  <si>
+    <t>Batlle Giné</t>
+  </si>
+  <si>
+    <t>Civit Palou</t>
+  </si>
+  <si>
+    <t>Salvany Monfort</t>
+  </si>
+  <si>
+    <t>Forés Pujol</t>
+  </si>
+  <si>
+    <t>Giné Giné</t>
+  </si>
+  <si>
+    <t>Solé Giné</t>
+  </si>
+  <si>
+    <t>Granyó Mas</t>
+  </si>
+  <si>
+    <t>Colell Novell</t>
+  </si>
+  <si>
+    <t>Bosch Colell</t>
+  </si>
+  <si>
+    <t>Ambrós Civit</t>
+  </si>
+  <si>
+    <t>Codina Batlle</t>
+  </si>
+  <si>
+    <t>Sellart Rossell</t>
+  </si>
+  <si>
+    <t>Bosch Ginestà</t>
+  </si>
+  <si>
+    <t>Rosselló Franquesa</t>
+  </si>
+  <si>
+    <t>Coll Oliva</t>
+  </si>
+  <si>
+    <t>Llorens Pujol</t>
   </si>
 </sst>
 </file>
@@ -1896,11 +2535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:N486"/>
+  <dimension ref="A1:N713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A487" sqref="A487"/>
+      <pane ySplit="1" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A714" sqref="A714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13195,8 +13834,5229 @@
         <v>398</v>
       </c>
     </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>1785</v>
+      </c>
+      <c r="B487">
+        <v>31</v>
+      </c>
+      <c r="C487" t="s">
+        <v>501</v>
+      </c>
+      <c r="J487" t="s">
+        <v>99</v>
+      </c>
+      <c r="K487">
+        <v>47</v>
+      </c>
+      <c r="L487" t="s">
+        <v>399</v>
+      </c>
+      <c r="M487" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1785</v>
+      </c>
+      <c r="B488">
+        <v>31</v>
+      </c>
+      <c r="C488" t="s">
+        <v>502</v>
+      </c>
+      <c r="J488" t="s">
+        <v>99</v>
+      </c>
+      <c r="K488">
+        <v>47</v>
+      </c>
+      <c r="L488" t="s">
+        <v>399</v>
+      </c>
+      <c r="M488" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>1785</v>
+      </c>
+      <c r="B489">
+        <v>32</v>
+      </c>
+      <c r="C489" t="s">
+        <v>503</v>
+      </c>
+      <c r="J489" t="s">
+        <v>99</v>
+      </c>
+      <c r="K489">
+        <v>47</v>
+      </c>
+      <c r="L489" t="s">
+        <v>399</v>
+      </c>
+      <c r="M489" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>1785</v>
+      </c>
+      <c r="B490">
+        <v>32</v>
+      </c>
+      <c r="C490" t="s">
+        <v>504</v>
+      </c>
+      <c r="J490" t="s">
+        <v>99</v>
+      </c>
+      <c r="K490">
+        <v>47</v>
+      </c>
+      <c r="L490" t="s">
+        <v>399</v>
+      </c>
+      <c r="M490" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>1785</v>
+      </c>
+      <c r="B491">
+        <v>32</v>
+      </c>
+      <c r="C491" t="s">
+        <v>505</v>
+      </c>
+      <c r="J491" t="s">
+        <v>99</v>
+      </c>
+      <c r="K491">
+        <v>47</v>
+      </c>
+      <c r="L491" t="s">
+        <v>399</v>
+      </c>
+      <c r="M491" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>1785</v>
+      </c>
+      <c r="B492">
+        <v>33</v>
+      </c>
+      <c r="C492" t="s">
+        <v>506</v>
+      </c>
+      <c r="J492" t="s">
+        <v>99</v>
+      </c>
+      <c r="K492">
+        <v>47</v>
+      </c>
+      <c r="L492" t="s">
+        <v>399</v>
+      </c>
+      <c r="M492" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>1785</v>
+      </c>
+      <c r="B493">
+        <v>33</v>
+      </c>
+      <c r="C493" t="s">
+        <v>507</v>
+      </c>
+      <c r="J493" t="s">
+        <v>99</v>
+      </c>
+      <c r="K493">
+        <v>47</v>
+      </c>
+      <c r="L493" t="s">
+        <v>399</v>
+      </c>
+      <c r="M493" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>1785</v>
+      </c>
+      <c r="B494">
+        <v>33</v>
+      </c>
+      <c r="C494" t="s">
+        <v>508</v>
+      </c>
+      <c r="J494" t="s">
+        <v>99</v>
+      </c>
+      <c r="K494">
+        <v>47</v>
+      </c>
+      <c r="L494" t="s">
+        <v>399</v>
+      </c>
+      <c r="M494" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>1785</v>
+      </c>
+      <c r="B495">
+        <v>34</v>
+      </c>
+      <c r="C495" t="s">
+        <v>509</v>
+      </c>
+      <c r="J495" t="s">
+        <v>99</v>
+      </c>
+      <c r="K495">
+        <v>47</v>
+      </c>
+      <c r="L495" t="s">
+        <v>399</v>
+      </c>
+      <c r="M495" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>1785</v>
+      </c>
+      <c r="B496">
+        <v>34</v>
+      </c>
+      <c r="C496" t="s">
+        <v>510</v>
+      </c>
+      <c r="J496" t="s">
+        <v>99</v>
+      </c>
+      <c r="K496">
+        <v>47</v>
+      </c>
+      <c r="L496" t="s">
+        <v>399</v>
+      </c>
+      <c r="M496" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>1786</v>
+      </c>
+      <c r="B497">
+        <v>34</v>
+      </c>
+      <c r="C497" t="s">
+        <v>511</v>
+      </c>
+      <c r="J497" t="s">
+        <v>99</v>
+      </c>
+      <c r="K497">
+        <v>47</v>
+      </c>
+      <c r="L497" t="s">
+        <v>399</v>
+      </c>
+      <c r="M497" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>1786</v>
+      </c>
+      <c r="B498">
+        <v>35</v>
+      </c>
+      <c r="C498" t="s">
+        <v>512</v>
+      </c>
+      <c r="J498" t="s">
+        <v>99</v>
+      </c>
+      <c r="K498">
+        <v>47</v>
+      </c>
+      <c r="L498" t="s">
+        <v>399</v>
+      </c>
+      <c r="M498" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>1786</v>
+      </c>
+      <c r="B499">
+        <v>35</v>
+      </c>
+      <c r="C499" t="s">
+        <v>513</v>
+      </c>
+      <c r="J499" t="s">
+        <v>99</v>
+      </c>
+      <c r="K499">
+        <v>47</v>
+      </c>
+      <c r="L499" t="s">
+        <v>399</v>
+      </c>
+      <c r="M499" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>1786</v>
+      </c>
+      <c r="B500">
+        <v>35</v>
+      </c>
+      <c r="C500" t="s">
+        <v>514</v>
+      </c>
+      <c r="J500" t="s">
+        <v>99</v>
+      </c>
+      <c r="K500">
+        <v>47</v>
+      </c>
+      <c r="L500" t="s">
+        <v>399</v>
+      </c>
+      <c r="M500" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>1786</v>
+      </c>
+      <c r="B501">
+        <v>35</v>
+      </c>
+      <c r="C501" t="s">
+        <v>515</v>
+      </c>
+      <c r="J501" t="s">
+        <v>99</v>
+      </c>
+      <c r="K501">
+        <v>47</v>
+      </c>
+      <c r="L501" t="s">
+        <v>399</v>
+      </c>
+      <c r="M501" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>1787</v>
+      </c>
+      <c r="B502">
+        <v>36</v>
+      </c>
+      <c r="C502" t="s">
+        <v>516</v>
+      </c>
+      <c r="J502" t="s">
+        <v>99</v>
+      </c>
+      <c r="K502">
+        <v>47</v>
+      </c>
+      <c r="L502" t="s">
+        <v>399</v>
+      </c>
+      <c r="M502" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>1787</v>
+      </c>
+      <c r="B503">
+        <v>36</v>
+      </c>
+      <c r="C503" t="s">
+        <v>517</v>
+      </c>
+      <c r="J503" t="s">
+        <v>99</v>
+      </c>
+      <c r="K503">
+        <v>47</v>
+      </c>
+      <c r="L503" t="s">
+        <v>399</v>
+      </c>
+      <c r="M503" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>1787</v>
+      </c>
+      <c r="B504">
+        <v>37</v>
+      </c>
+      <c r="C504" t="s">
+        <v>518</v>
+      </c>
+      <c r="J504" t="s">
+        <v>99</v>
+      </c>
+      <c r="K504">
+        <v>47</v>
+      </c>
+      <c r="L504" t="s">
+        <v>399</v>
+      </c>
+      <c r="M504" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>1787</v>
+      </c>
+      <c r="B505">
+        <v>37</v>
+      </c>
+      <c r="C505" t="s">
+        <v>519</v>
+      </c>
+      <c r="J505" t="s">
+        <v>99</v>
+      </c>
+      <c r="K505">
+        <v>47</v>
+      </c>
+      <c r="L505" t="s">
+        <v>399</v>
+      </c>
+      <c r="M505" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>1787</v>
+      </c>
+      <c r="B506">
+        <v>37</v>
+      </c>
+      <c r="C506" t="s">
+        <v>520</v>
+      </c>
+      <c r="J506" t="s">
+        <v>99</v>
+      </c>
+      <c r="K506">
+        <v>47</v>
+      </c>
+      <c r="L506" t="s">
+        <v>399</v>
+      </c>
+      <c r="M506" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>1787</v>
+      </c>
+      <c r="B507">
+        <v>37</v>
+      </c>
+      <c r="C507" t="s">
+        <v>521</v>
+      </c>
+      <c r="J507" t="s">
+        <v>99</v>
+      </c>
+      <c r="K507">
+        <v>47</v>
+      </c>
+      <c r="L507" t="s">
+        <v>399</v>
+      </c>
+      <c r="M507" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>1787</v>
+      </c>
+      <c r="B508">
+        <v>38</v>
+      </c>
+      <c r="C508" t="s">
+        <v>522</v>
+      </c>
+      <c r="J508" t="s">
+        <v>99</v>
+      </c>
+      <c r="K508">
+        <v>47</v>
+      </c>
+      <c r="L508" t="s">
+        <v>399</v>
+      </c>
+      <c r="M508" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>1787</v>
+      </c>
+      <c r="B509">
+        <v>38</v>
+      </c>
+      <c r="C509" t="s">
+        <v>523</v>
+      </c>
+      <c r="J509" t="s">
+        <v>99</v>
+      </c>
+      <c r="K509">
+        <v>47</v>
+      </c>
+      <c r="L509" t="s">
+        <v>399</v>
+      </c>
+      <c r="M509" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>1788</v>
+      </c>
+      <c r="B510">
+        <v>38</v>
+      </c>
+      <c r="C510" t="s">
+        <v>524</v>
+      </c>
+      <c r="J510" t="s">
+        <v>99</v>
+      </c>
+      <c r="K510">
+        <v>47</v>
+      </c>
+      <c r="L510" t="s">
+        <v>399</v>
+      </c>
+      <c r="M510" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>1788</v>
+      </c>
+      <c r="B511">
+        <v>39</v>
+      </c>
+      <c r="C511" t="s">
+        <v>525</v>
+      </c>
+      <c r="J511" t="s">
+        <v>99</v>
+      </c>
+      <c r="K511">
+        <v>47</v>
+      </c>
+      <c r="L511" t="s">
+        <v>399</v>
+      </c>
+      <c r="M511" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>1788</v>
+      </c>
+      <c r="B512">
+        <v>39</v>
+      </c>
+      <c r="C512" t="s">
+        <v>526</v>
+      </c>
+      <c r="J512" t="s">
+        <v>99</v>
+      </c>
+      <c r="K512">
+        <v>47</v>
+      </c>
+      <c r="L512" t="s">
+        <v>399</v>
+      </c>
+      <c r="M512" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>1788</v>
+      </c>
+      <c r="B513">
+        <v>39</v>
+      </c>
+      <c r="C513" t="s">
+        <v>527</v>
+      </c>
+      <c r="J513" t="s">
+        <v>99</v>
+      </c>
+      <c r="K513">
+        <v>47</v>
+      </c>
+      <c r="L513" t="s">
+        <v>399</v>
+      </c>
+      <c r="M513" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>1788</v>
+      </c>
+      <c r="B514">
+        <v>40</v>
+      </c>
+      <c r="C514" t="s">
+        <v>528</v>
+      </c>
+      <c r="J514" t="s">
+        <v>99</v>
+      </c>
+      <c r="K514">
+        <v>47</v>
+      </c>
+      <c r="L514" t="s">
+        <v>399</v>
+      </c>
+      <c r="M514" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>1788</v>
+      </c>
+      <c r="B515">
+        <v>40</v>
+      </c>
+      <c r="C515" t="s">
+        <v>529</v>
+      </c>
+      <c r="J515" t="s">
+        <v>99</v>
+      </c>
+      <c r="K515">
+        <v>47</v>
+      </c>
+      <c r="L515" t="s">
+        <v>399</v>
+      </c>
+      <c r="M515" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>1788</v>
+      </c>
+      <c r="B516">
+        <v>40</v>
+      </c>
+      <c r="C516" t="s">
+        <v>530</v>
+      </c>
+      <c r="J516" t="s">
+        <v>99</v>
+      </c>
+      <c r="K516">
+        <v>47</v>
+      </c>
+      <c r="L516" t="s">
+        <v>399</v>
+      </c>
+      <c r="M516" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>1788</v>
+      </c>
+      <c r="B517">
+        <v>41</v>
+      </c>
+      <c r="C517" t="s">
+        <v>531</v>
+      </c>
+      <c r="J517" t="s">
+        <v>99</v>
+      </c>
+      <c r="K517">
+        <v>47</v>
+      </c>
+      <c r="L517" t="s">
+        <v>399</v>
+      </c>
+      <c r="M517" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>1788</v>
+      </c>
+      <c r="B518">
+        <v>41</v>
+      </c>
+      <c r="C518" t="s">
+        <v>532</v>
+      </c>
+      <c r="J518" t="s">
+        <v>99</v>
+      </c>
+      <c r="K518">
+        <v>47</v>
+      </c>
+      <c r="L518" t="s">
+        <v>399</v>
+      </c>
+      <c r="M518" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>1788</v>
+      </c>
+      <c r="B519">
+        <v>41</v>
+      </c>
+      <c r="C519" t="s">
+        <v>533</v>
+      </c>
+      <c r="J519" t="s">
+        <v>99</v>
+      </c>
+      <c r="K519">
+        <v>47</v>
+      </c>
+      <c r="L519" t="s">
+        <v>399</v>
+      </c>
+      <c r="M519" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>1788</v>
+      </c>
+      <c r="B520">
+        <v>42</v>
+      </c>
+      <c r="C520" t="s">
+        <v>534</v>
+      </c>
+      <c r="J520" t="s">
+        <v>99</v>
+      </c>
+      <c r="K520">
+        <v>47</v>
+      </c>
+      <c r="L520" t="s">
+        <v>399</v>
+      </c>
+      <c r="M520" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>1788</v>
+      </c>
+      <c r="B521">
+        <v>42</v>
+      </c>
+      <c r="C521" t="s">
+        <v>473</v>
+      </c>
+      <c r="J521" t="s">
+        <v>99</v>
+      </c>
+      <c r="K521">
+        <v>47</v>
+      </c>
+      <c r="L521" t="s">
+        <v>399</v>
+      </c>
+      <c r="M521" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>1788</v>
+      </c>
+      <c r="B522">
+        <v>42</v>
+      </c>
+      <c r="C522" t="s">
+        <v>535</v>
+      </c>
+      <c r="J522" t="s">
+        <v>99</v>
+      </c>
+      <c r="K522">
+        <v>47</v>
+      </c>
+      <c r="L522" t="s">
+        <v>399</v>
+      </c>
+      <c r="M522" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>1789</v>
+      </c>
+      <c r="B523">
+        <v>43</v>
+      </c>
+      <c r="C523" t="s">
+        <v>536</v>
+      </c>
+      <c r="J523" t="s">
+        <v>99</v>
+      </c>
+      <c r="K523">
+        <v>47</v>
+      </c>
+      <c r="L523" t="s">
+        <v>399</v>
+      </c>
+      <c r="M523" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>1789</v>
+      </c>
+      <c r="B524">
+        <v>43</v>
+      </c>
+      <c r="C524" t="s">
+        <v>537</v>
+      </c>
+      <c r="J524" t="s">
+        <v>99</v>
+      </c>
+      <c r="K524">
+        <v>47</v>
+      </c>
+      <c r="L524" t="s">
+        <v>399</v>
+      </c>
+      <c r="M524" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>1789</v>
+      </c>
+      <c r="B525">
+        <v>43</v>
+      </c>
+      <c r="C525" t="s">
+        <v>538</v>
+      </c>
+      <c r="J525" t="s">
+        <v>99</v>
+      </c>
+      <c r="K525">
+        <v>47</v>
+      </c>
+      <c r="L525" t="s">
+        <v>399</v>
+      </c>
+      <c r="M525" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>1789</v>
+      </c>
+      <c r="B526">
+        <v>43</v>
+      </c>
+      <c r="C526" t="s">
+        <v>539</v>
+      </c>
+      <c r="J526" t="s">
+        <v>99</v>
+      </c>
+      <c r="K526">
+        <v>47</v>
+      </c>
+      <c r="L526" t="s">
+        <v>399</v>
+      </c>
+      <c r="M526" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>1789</v>
+      </c>
+      <c r="B527">
+        <v>44</v>
+      </c>
+      <c r="C527" t="s">
+        <v>540</v>
+      </c>
+      <c r="J527" t="s">
+        <v>99</v>
+      </c>
+      <c r="K527">
+        <v>47</v>
+      </c>
+      <c r="L527" t="s">
+        <v>399</v>
+      </c>
+      <c r="M527" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>1789</v>
+      </c>
+      <c r="B528">
+        <v>44</v>
+      </c>
+      <c r="C528" t="s">
+        <v>541</v>
+      </c>
+      <c r="J528" t="s">
+        <v>99</v>
+      </c>
+      <c r="K528">
+        <v>47</v>
+      </c>
+      <c r="L528" t="s">
+        <v>399</v>
+      </c>
+      <c r="M528" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>1789</v>
+      </c>
+      <c r="B529">
+        <v>44</v>
+      </c>
+      <c r="C529" t="s">
+        <v>542</v>
+      </c>
+      <c r="J529" t="s">
+        <v>99</v>
+      </c>
+      <c r="K529">
+        <v>47</v>
+      </c>
+      <c r="L529" t="s">
+        <v>399</v>
+      </c>
+      <c r="M529" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>1789</v>
+      </c>
+      <c r="B530">
+        <v>44</v>
+      </c>
+      <c r="C530" t="s">
+        <v>543</v>
+      </c>
+      <c r="J530" t="s">
+        <v>99</v>
+      </c>
+      <c r="K530">
+        <v>47</v>
+      </c>
+      <c r="L530" t="s">
+        <v>399</v>
+      </c>
+      <c r="M530" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>1789</v>
+      </c>
+      <c r="B531">
+        <v>45</v>
+      </c>
+      <c r="C531" t="s">
+        <v>544</v>
+      </c>
+      <c r="J531" t="s">
+        <v>99</v>
+      </c>
+      <c r="K531">
+        <v>47</v>
+      </c>
+      <c r="L531" t="s">
+        <v>399</v>
+      </c>
+      <c r="M531" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>1790</v>
+      </c>
+      <c r="B532">
+        <v>45</v>
+      </c>
+      <c r="C532" t="s">
+        <v>545</v>
+      </c>
+      <c r="J532" t="s">
+        <v>99</v>
+      </c>
+      <c r="K532">
+        <v>47</v>
+      </c>
+      <c r="L532" t="s">
+        <v>399</v>
+      </c>
+      <c r="M532" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>1790</v>
+      </c>
+      <c r="B533">
+        <v>45</v>
+      </c>
+      <c r="C533" t="s">
+        <v>546</v>
+      </c>
+      <c r="J533" t="s">
+        <v>99</v>
+      </c>
+      <c r="K533">
+        <v>47</v>
+      </c>
+      <c r="L533" t="s">
+        <v>399</v>
+      </c>
+      <c r="M533" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>1790</v>
+      </c>
+      <c r="B534">
+        <v>46</v>
+      </c>
+      <c r="C534" t="s">
+        <v>547</v>
+      </c>
+      <c r="J534" t="s">
+        <v>99</v>
+      </c>
+      <c r="K534">
+        <v>47</v>
+      </c>
+      <c r="L534" t="s">
+        <v>399</v>
+      </c>
+      <c r="M534" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>1790</v>
+      </c>
+      <c r="B535">
+        <v>46</v>
+      </c>
+      <c r="C535" t="s">
+        <v>548</v>
+      </c>
+      <c r="J535" t="s">
+        <v>99</v>
+      </c>
+      <c r="K535">
+        <v>47</v>
+      </c>
+      <c r="L535" t="s">
+        <v>399</v>
+      </c>
+      <c r="M535" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>1790</v>
+      </c>
+      <c r="B536">
+        <v>46</v>
+      </c>
+      <c r="C536" t="s">
+        <v>549</v>
+      </c>
+      <c r="J536" t="s">
+        <v>99</v>
+      </c>
+      <c r="K536">
+        <v>47</v>
+      </c>
+      <c r="L536" t="s">
+        <v>399</v>
+      </c>
+      <c r="M536" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>1790</v>
+      </c>
+      <c r="B537">
+        <v>46</v>
+      </c>
+      <c r="C537" t="s">
+        <v>550</v>
+      </c>
+      <c r="J537" t="s">
+        <v>99</v>
+      </c>
+      <c r="K537">
+        <v>47</v>
+      </c>
+      <c r="L537" t="s">
+        <v>399</v>
+      </c>
+      <c r="M537" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>1790</v>
+      </c>
+      <c r="B538">
+        <v>47</v>
+      </c>
+      <c r="C538" t="s">
+        <v>551</v>
+      </c>
+      <c r="J538" t="s">
+        <v>99</v>
+      </c>
+      <c r="K538">
+        <v>47</v>
+      </c>
+      <c r="L538" t="s">
+        <v>399</v>
+      </c>
+      <c r="M538" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>1790</v>
+      </c>
+      <c r="B539">
+        <v>47</v>
+      </c>
+      <c r="C539" t="s">
+        <v>552</v>
+      </c>
+      <c r="J539" t="s">
+        <v>99</v>
+      </c>
+      <c r="K539">
+        <v>47</v>
+      </c>
+      <c r="L539" t="s">
+        <v>399</v>
+      </c>
+      <c r="M539" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>1790</v>
+      </c>
+      <c r="B540">
+        <v>47</v>
+      </c>
+      <c r="C540" t="s">
+        <v>553</v>
+      </c>
+      <c r="J540" t="s">
+        <v>99</v>
+      </c>
+      <c r="K540">
+        <v>47</v>
+      </c>
+      <c r="L540" t="s">
+        <v>399</v>
+      </c>
+      <c r="M540" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>1790</v>
+      </c>
+      <c r="B541">
+        <v>47</v>
+      </c>
+      <c r="C541" t="s">
+        <v>554</v>
+      </c>
+      <c r="J541" t="s">
+        <v>99</v>
+      </c>
+      <c r="K541">
+        <v>47</v>
+      </c>
+      <c r="L541" t="s">
+        <v>399</v>
+      </c>
+      <c r="M541" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>1790</v>
+      </c>
+      <c r="B542">
+        <v>48</v>
+      </c>
+      <c r="C542" t="s">
+        <v>555</v>
+      </c>
+      <c r="J542" t="s">
+        <v>99</v>
+      </c>
+      <c r="K542">
+        <v>47</v>
+      </c>
+      <c r="L542" t="s">
+        <v>399</v>
+      </c>
+      <c r="M542" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>1791</v>
+      </c>
+      <c r="B543">
+        <v>48</v>
+      </c>
+      <c r="C543" t="s">
+        <v>556</v>
+      </c>
+      <c r="J543" t="s">
+        <v>99</v>
+      </c>
+      <c r="K543">
+        <v>47</v>
+      </c>
+      <c r="L543" t="s">
+        <v>399</v>
+      </c>
+      <c r="M543" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>1791</v>
+      </c>
+      <c r="B544">
+        <v>48</v>
+      </c>
+      <c r="C544" t="s">
+        <v>557</v>
+      </c>
+      <c r="J544" t="s">
+        <v>99</v>
+      </c>
+      <c r="K544">
+        <v>47</v>
+      </c>
+      <c r="L544" t="s">
+        <v>399</v>
+      </c>
+      <c r="M544" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>1791</v>
+      </c>
+      <c r="B545">
+        <v>49</v>
+      </c>
+      <c r="C545" t="s">
+        <v>558</v>
+      </c>
+      <c r="J545" t="s">
+        <v>99</v>
+      </c>
+      <c r="K545">
+        <v>47</v>
+      </c>
+      <c r="L545" t="s">
+        <v>399</v>
+      </c>
+      <c r="M545" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>1791</v>
+      </c>
+      <c r="B546">
+        <v>49</v>
+      </c>
+      <c r="C546" t="s">
+        <v>559</v>
+      </c>
+      <c r="J546" t="s">
+        <v>99</v>
+      </c>
+      <c r="K546">
+        <v>47</v>
+      </c>
+      <c r="L546" t="s">
+        <v>399</v>
+      </c>
+      <c r="M546" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>1791</v>
+      </c>
+      <c r="B547">
+        <v>49</v>
+      </c>
+      <c r="C547" t="s">
+        <v>560</v>
+      </c>
+      <c r="J547" t="s">
+        <v>99</v>
+      </c>
+      <c r="K547">
+        <v>47</v>
+      </c>
+      <c r="L547" t="s">
+        <v>399</v>
+      </c>
+      <c r="M547" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>1791</v>
+      </c>
+      <c r="B548">
+        <v>49</v>
+      </c>
+      <c r="C548" t="s">
+        <v>237</v>
+      </c>
+      <c r="J548" t="s">
+        <v>99</v>
+      </c>
+      <c r="K548">
+        <v>47</v>
+      </c>
+      <c r="L548" t="s">
+        <v>399</v>
+      </c>
+      <c r="M548" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>1791</v>
+      </c>
+      <c r="B549">
+        <v>50</v>
+      </c>
+      <c r="C549" t="s">
+        <v>561</v>
+      </c>
+      <c r="J549" t="s">
+        <v>99</v>
+      </c>
+      <c r="K549">
+        <v>47</v>
+      </c>
+      <c r="L549" t="s">
+        <v>399</v>
+      </c>
+      <c r="M549" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>1791</v>
+      </c>
+      <c r="B550">
+        <v>50</v>
+      </c>
+      <c r="C550" t="s">
+        <v>562</v>
+      </c>
+      <c r="J550" t="s">
+        <v>99</v>
+      </c>
+      <c r="K550">
+        <v>47</v>
+      </c>
+      <c r="L550" t="s">
+        <v>399</v>
+      </c>
+      <c r="M550" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>1792</v>
+      </c>
+      <c r="B551">
+        <v>50</v>
+      </c>
+      <c r="C551" t="s">
+        <v>563</v>
+      </c>
+      <c r="J551" t="s">
+        <v>99</v>
+      </c>
+      <c r="K551">
+        <v>47</v>
+      </c>
+      <c r="L551" t="s">
+        <v>399</v>
+      </c>
+      <c r="M551" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>1792</v>
+      </c>
+      <c r="B552">
+        <v>51</v>
+      </c>
+      <c r="C552" t="s">
+        <v>564</v>
+      </c>
+      <c r="J552" t="s">
+        <v>99</v>
+      </c>
+      <c r="K552">
+        <v>47</v>
+      </c>
+      <c r="L552" t="s">
+        <v>399</v>
+      </c>
+      <c r="M552" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>1792</v>
+      </c>
+      <c r="B553">
+        <v>51</v>
+      </c>
+      <c r="C553" t="s">
+        <v>565</v>
+      </c>
+      <c r="J553" t="s">
+        <v>99</v>
+      </c>
+      <c r="K553">
+        <v>47</v>
+      </c>
+      <c r="L553" t="s">
+        <v>399</v>
+      </c>
+      <c r="M553" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>1792</v>
+      </c>
+      <c r="B554">
+        <v>51</v>
+      </c>
+      <c r="C554" t="s">
+        <v>566</v>
+      </c>
+      <c r="J554" t="s">
+        <v>99</v>
+      </c>
+      <c r="K554">
+        <v>47</v>
+      </c>
+      <c r="L554" t="s">
+        <v>399</v>
+      </c>
+      <c r="M554" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>1792</v>
+      </c>
+      <c r="B555">
+        <v>51</v>
+      </c>
+      <c r="C555" t="s">
+        <v>567</v>
+      </c>
+      <c r="J555" t="s">
+        <v>99</v>
+      </c>
+      <c r="K555">
+        <v>47</v>
+      </c>
+      <c r="L555" t="s">
+        <v>399</v>
+      </c>
+      <c r="M555" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>1792</v>
+      </c>
+      <c r="B556">
+        <v>52</v>
+      </c>
+      <c r="C556" t="s">
+        <v>568</v>
+      </c>
+      <c r="J556" t="s">
+        <v>99</v>
+      </c>
+      <c r="K556">
+        <v>47</v>
+      </c>
+      <c r="L556" t="s">
+        <v>399</v>
+      </c>
+      <c r="M556" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>1792</v>
+      </c>
+      <c r="B557">
+        <v>52</v>
+      </c>
+      <c r="C557" t="s">
+        <v>569</v>
+      </c>
+      <c r="J557" t="s">
+        <v>99</v>
+      </c>
+      <c r="K557">
+        <v>47</v>
+      </c>
+      <c r="L557" t="s">
+        <v>399</v>
+      </c>
+      <c r="M557" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>1792</v>
+      </c>
+      <c r="B558">
+        <v>52</v>
+      </c>
+      <c r="C558" t="s">
+        <v>570</v>
+      </c>
+      <c r="J558" t="s">
+        <v>99</v>
+      </c>
+      <c r="K558">
+        <v>47</v>
+      </c>
+      <c r="L558" t="s">
+        <v>399</v>
+      </c>
+      <c r="M558" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>1792</v>
+      </c>
+      <c r="B559">
+        <v>52</v>
+      </c>
+      <c r="C559" t="s">
+        <v>571</v>
+      </c>
+      <c r="J559" t="s">
+        <v>99</v>
+      </c>
+      <c r="K559">
+        <v>47</v>
+      </c>
+      <c r="L559" t="s">
+        <v>399</v>
+      </c>
+      <c r="M559" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>1792</v>
+      </c>
+      <c r="B560">
+        <v>53</v>
+      </c>
+      <c r="C560" t="s">
+        <v>572</v>
+      </c>
+      <c r="J560" t="s">
+        <v>99</v>
+      </c>
+      <c r="K560">
+        <v>47</v>
+      </c>
+      <c r="L560" t="s">
+        <v>399</v>
+      </c>
+      <c r="M560" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>1792</v>
+      </c>
+      <c r="B561">
+        <v>53</v>
+      </c>
+      <c r="C561" t="s">
+        <v>573</v>
+      </c>
+      <c r="J561" t="s">
+        <v>99</v>
+      </c>
+      <c r="K561">
+        <v>47</v>
+      </c>
+      <c r="L561" t="s">
+        <v>399</v>
+      </c>
+      <c r="M561" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>1792</v>
+      </c>
+      <c r="B562">
+        <v>53</v>
+      </c>
+      <c r="C562" t="s">
+        <v>523</v>
+      </c>
+      <c r="J562" t="s">
+        <v>99</v>
+      </c>
+      <c r="K562">
+        <v>47</v>
+      </c>
+      <c r="L562" t="s">
+        <v>399</v>
+      </c>
+      <c r="M562" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>1792</v>
+      </c>
+      <c r="B563">
+        <v>53</v>
+      </c>
+      <c r="C563" t="s">
+        <v>574</v>
+      </c>
+      <c r="J563" t="s">
+        <v>99</v>
+      </c>
+      <c r="K563">
+        <v>47</v>
+      </c>
+      <c r="L563" t="s">
+        <v>399</v>
+      </c>
+      <c r="M563" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>1793</v>
+      </c>
+      <c r="B564">
+        <v>54</v>
+      </c>
+      <c r="C564" t="s">
+        <v>575</v>
+      </c>
+      <c r="J564" t="s">
+        <v>99</v>
+      </c>
+      <c r="K564">
+        <v>47</v>
+      </c>
+      <c r="L564" t="s">
+        <v>399</v>
+      </c>
+      <c r="M564" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>1793</v>
+      </c>
+      <c r="B565">
+        <v>54</v>
+      </c>
+      <c r="C565" t="s">
+        <v>576</v>
+      </c>
+      <c r="J565" t="s">
+        <v>99</v>
+      </c>
+      <c r="K565">
+        <v>47</v>
+      </c>
+      <c r="L565" t="s">
+        <v>399</v>
+      </c>
+      <c r="M565" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>1793</v>
+      </c>
+      <c r="B566">
+        <v>54</v>
+      </c>
+      <c r="C566" t="s">
+        <v>577</v>
+      </c>
+      <c r="J566" t="s">
+        <v>99</v>
+      </c>
+      <c r="K566">
+        <v>47</v>
+      </c>
+      <c r="L566" t="s">
+        <v>399</v>
+      </c>
+      <c r="M566" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>1793</v>
+      </c>
+      <c r="B567">
+        <v>54</v>
+      </c>
+      <c r="C567" t="s">
+        <v>578</v>
+      </c>
+      <c r="J567" t="s">
+        <v>99</v>
+      </c>
+      <c r="K567">
+        <v>47</v>
+      </c>
+      <c r="L567" t="s">
+        <v>399</v>
+      </c>
+      <c r="M567" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>1793</v>
+      </c>
+      <c r="B568">
+        <v>54</v>
+      </c>
+      <c r="C568" t="s">
+        <v>579</v>
+      </c>
+      <c r="J568" t="s">
+        <v>99</v>
+      </c>
+      <c r="K568">
+        <v>47</v>
+      </c>
+      <c r="L568" t="s">
+        <v>399</v>
+      </c>
+      <c r="M568" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>1793</v>
+      </c>
+      <c r="B569">
+        <v>55</v>
+      </c>
+      <c r="C569" t="s">
+        <v>580</v>
+      </c>
+      <c r="J569" t="s">
+        <v>99</v>
+      </c>
+      <c r="K569">
+        <v>47</v>
+      </c>
+      <c r="L569" t="s">
+        <v>399</v>
+      </c>
+      <c r="M569" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>1794</v>
+      </c>
+      <c r="B570">
+        <v>55</v>
+      </c>
+      <c r="C570" t="s">
+        <v>581</v>
+      </c>
+      <c r="J570" t="s">
+        <v>99</v>
+      </c>
+      <c r="K570">
+        <v>47</v>
+      </c>
+      <c r="L570" t="s">
+        <v>399</v>
+      </c>
+      <c r="M570" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>1794</v>
+      </c>
+      <c r="B571">
+        <v>55</v>
+      </c>
+      <c r="C571" t="s">
+        <v>582</v>
+      </c>
+      <c r="J571" t="s">
+        <v>99</v>
+      </c>
+      <c r="K571">
+        <v>47</v>
+      </c>
+      <c r="L571" t="s">
+        <v>399</v>
+      </c>
+      <c r="M571" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>1794</v>
+      </c>
+      <c r="B572">
+        <v>55</v>
+      </c>
+      <c r="C572" t="s">
+        <v>583</v>
+      </c>
+      <c r="J572" t="s">
+        <v>99</v>
+      </c>
+      <c r="K572">
+        <v>47</v>
+      </c>
+      <c r="L572" t="s">
+        <v>399</v>
+      </c>
+      <c r="M572" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>1794</v>
+      </c>
+      <c r="B573">
+        <v>56</v>
+      </c>
+      <c r="C573" t="s">
+        <v>546</v>
+      </c>
+      <c r="J573" t="s">
+        <v>99</v>
+      </c>
+      <c r="K573">
+        <v>47</v>
+      </c>
+      <c r="L573" t="s">
+        <v>399</v>
+      </c>
+      <c r="M573" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>1794</v>
+      </c>
+      <c r="B574">
+        <v>56</v>
+      </c>
+      <c r="C574" t="s">
+        <v>584</v>
+      </c>
+      <c r="J574" t="s">
+        <v>99</v>
+      </c>
+      <c r="K574">
+        <v>47</v>
+      </c>
+      <c r="L574" t="s">
+        <v>399</v>
+      </c>
+      <c r="M574" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>1794</v>
+      </c>
+      <c r="B575">
+        <v>56</v>
+      </c>
+      <c r="C575" t="s">
+        <v>585</v>
+      </c>
+      <c r="J575" t="s">
+        <v>99</v>
+      </c>
+      <c r="K575">
+        <v>47</v>
+      </c>
+      <c r="L575" t="s">
+        <v>399</v>
+      </c>
+      <c r="M575" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>1794</v>
+      </c>
+      <c r="B576">
+        <v>56</v>
+      </c>
+      <c r="C576" t="s">
+        <v>586</v>
+      </c>
+      <c r="J576" t="s">
+        <v>99</v>
+      </c>
+      <c r="K576">
+        <v>47</v>
+      </c>
+      <c r="L576" t="s">
+        <v>399</v>
+      </c>
+      <c r="M576" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>1794</v>
+      </c>
+      <c r="B577">
+        <v>57</v>
+      </c>
+      <c r="C577" t="s">
+        <v>587</v>
+      </c>
+      <c r="J577" t="s">
+        <v>99</v>
+      </c>
+      <c r="K577">
+        <v>47</v>
+      </c>
+      <c r="L577" t="s">
+        <v>399</v>
+      </c>
+      <c r="M577" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>1794</v>
+      </c>
+      <c r="B578">
+        <v>57</v>
+      </c>
+      <c r="C578" t="s">
+        <v>588</v>
+      </c>
+      <c r="J578" t="s">
+        <v>99</v>
+      </c>
+      <c r="K578">
+        <v>47</v>
+      </c>
+      <c r="L578" t="s">
+        <v>399</v>
+      </c>
+      <c r="M578" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>1794</v>
+      </c>
+      <c r="B579">
+        <v>57</v>
+      </c>
+      <c r="C579" t="s">
+        <v>589</v>
+      </c>
+      <c r="J579" t="s">
+        <v>99</v>
+      </c>
+      <c r="K579">
+        <v>47</v>
+      </c>
+      <c r="L579" t="s">
+        <v>399</v>
+      </c>
+      <c r="M579" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>1795</v>
+      </c>
+      <c r="B580">
+        <v>57</v>
+      </c>
+      <c r="C580" t="s">
+        <v>590</v>
+      </c>
+      <c r="J580" t="s">
+        <v>99</v>
+      </c>
+      <c r="K580">
+        <v>47</v>
+      </c>
+      <c r="L580" t="s">
+        <v>399</v>
+      </c>
+      <c r="M580" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>1795</v>
+      </c>
+      <c r="B581">
+        <v>58</v>
+      </c>
+      <c r="C581" t="s">
+        <v>591</v>
+      </c>
+      <c r="J581" t="s">
+        <v>99</v>
+      </c>
+      <c r="K581">
+        <v>47</v>
+      </c>
+      <c r="L581" t="s">
+        <v>399</v>
+      </c>
+      <c r="M581" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>1795</v>
+      </c>
+      <c r="B582">
+        <v>58</v>
+      </c>
+      <c r="C582" t="s">
+        <v>592</v>
+      </c>
+      <c r="J582" t="s">
+        <v>99</v>
+      </c>
+      <c r="K582">
+        <v>47</v>
+      </c>
+      <c r="L582" t="s">
+        <v>399</v>
+      </c>
+      <c r="M582" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>1795</v>
+      </c>
+      <c r="B583">
+        <v>58</v>
+      </c>
+      <c r="C583" t="s">
+        <v>593</v>
+      </c>
+      <c r="J583" t="s">
+        <v>99</v>
+      </c>
+      <c r="K583">
+        <v>47</v>
+      </c>
+      <c r="L583" t="s">
+        <v>399</v>
+      </c>
+      <c r="M583" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>1795</v>
+      </c>
+      <c r="B584">
+        <v>58</v>
+      </c>
+      <c r="C584" t="s">
+        <v>594</v>
+      </c>
+      <c r="J584" t="s">
+        <v>99</v>
+      </c>
+      <c r="K584">
+        <v>47</v>
+      </c>
+      <c r="L584" t="s">
+        <v>399</v>
+      </c>
+      <c r="M584" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>1795</v>
+      </c>
+      <c r="B585">
+        <v>59</v>
+      </c>
+      <c r="C585" t="s">
+        <v>595</v>
+      </c>
+      <c r="J585" t="s">
+        <v>99</v>
+      </c>
+      <c r="K585">
+        <v>47</v>
+      </c>
+      <c r="L585" t="s">
+        <v>399</v>
+      </c>
+      <c r="M585" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>1795</v>
+      </c>
+      <c r="B586">
+        <v>59</v>
+      </c>
+      <c r="C586" t="s">
+        <v>596</v>
+      </c>
+      <c r="J586" t="s">
+        <v>99</v>
+      </c>
+      <c r="K586">
+        <v>47</v>
+      </c>
+      <c r="L586" t="s">
+        <v>399</v>
+      </c>
+      <c r="M586" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>1795</v>
+      </c>
+      <c r="B587">
+        <v>59</v>
+      </c>
+      <c r="C587" t="s">
+        <v>597</v>
+      </c>
+      <c r="J587" t="s">
+        <v>99</v>
+      </c>
+      <c r="K587">
+        <v>47</v>
+      </c>
+      <c r="L587" t="s">
+        <v>399</v>
+      </c>
+      <c r="M587" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>1795</v>
+      </c>
+      <c r="B588">
+        <v>59</v>
+      </c>
+      <c r="C588" t="s">
+        <v>598</v>
+      </c>
+      <c r="J588" t="s">
+        <v>99</v>
+      </c>
+      <c r="K588">
+        <v>47</v>
+      </c>
+      <c r="L588" t="s">
+        <v>399</v>
+      </c>
+      <c r="M588" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>1795</v>
+      </c>
+      <c r="B589">
+        <v>60</v>
+      </c>
+      <c r="C589" t="s">
+        <v>599</v>
+      </c>
+      <c r="J589" t="s">
+        <v>99</v>
+      </c>
+      <c r="K589">
+        <v>47</v>
+      </c>
+      <c r="L589" t="s">
+        <v>399</v>
+      </c>
+      <c r="M589" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>1796</v>
+      </c>
+      <c r="B590">
+        <v>60</v>
+      </c>
+      <c r="C590" t="s">
+        <v>600</v>
+      </c>
+      <c r="J590" t="s">
+        <v>99</v>
+      </c>
+      <c r="K590">
+        <v>47</v>
+      </c>
+      <c r="L590" t="s">
+        <v>399</v>
+      </c>
+      <c r="M590" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>1796</v>
+      </c>
+      <c r="B591">
+        <v>60</v>
+      </c>
+      <c r="C591" t="s">
+        <v>537</v>
+      </c>
+      <c r="J591" t="s">
+        <v>99</v>
+      </c>
+      <c r="K591">
+        <v>47</v>
+      </c>
+      <c r="L591" t="s">
+        <v>399</v>
+      </c>
+      <c r="M591" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>1796</v>
+      </c>
+      <c r="B592">
+        <v>60</v>
+      </c>
+      <c r="C592" t="s">
+        <v>601</v>
+      </c>
+      <c r="J592" t="s">
+        <v>99</v>
+      </c>
+      <c r="K592">
+        <v>47</v>
+      </c>
+      <c r="L592" t="s">
+        <v>399</v>
+      </c>
+      <c r="M592" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>1796</v>
+      </c>
+      <c r="B593">
+        <v>61</v>
+      </c>
+      <c r="C593" t="s">
+        <v>602</v>
+      </c>
+      <c r="J593" t="s">
+        <v>99</v>
+      </c>
+      <c r="K593">
+        <v>47</v>
+      </c>
+      <c r="L593" t="s">
+        <v>399</v>
+      </c>
+      <c r="M593" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>1796</v>
+      </c>
+      <c r="B594">
+        <v>61</v>
+      </c>
+      <c r="C594" t="s">
+        <v>603</v>
+      </c>
+      <c r="J594" t="s">
+        <v>99</v>
+      </c>
+      <c r="K594">
+        <v>47</v>
+      </c>
+      <c r="L594" t="s">
+        <v>399</v>
+      </c>
+      <c r="M594" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>1796</v>
+      </c>
+      <c r="B595">
+        <v>61</v>
+      </c>
+      <c r="C595" t="s">
+        <v>604</v>
+      </c>
+      <c r="J595" t="s">
+        <v>99</v>
+      </c>
+      <c r="K595">
+        <v>47</v>
+      </c>
+      <c r="L595" t="s">
+        <v>399</v>
+      </c>
+      <c r="M595" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>1796</v>
+      </c>
+      <c r="B596">
+        <v>61</v>
+      </c>
+      <c r="C596" t="s">
+        <v>605</v>
+      </c>
+      <c r="J596" t="s">
+        <v>99</v>
+      </c>
+      <c r="K596">
+        <v>47</v>
+      </c>
+      <c r="L596" t="s">
+        <v>399</v>
+      </c>
+      <c r="M596" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>1797</v>
+      </c>
+      <c r="B597">
+        <v>62</v>
+      </c>
+      <c r="C597" t="s">
+        <v>606</v>
+      </c>
+      <c r="J597" t="s">
+        <v>99</v>
+      </c>
+      <c r="K597">
+        <v>47</v>
+      </c>
+      <c r="L597" t="s">
+        <v>399</v>
+      </c>
+      <c r="M597" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>1797</v>
+      </c>
+      <c r="B598">
+        <v>62</v>
+      </c>
+      <c r="C598" t="s">
+        <v>607</v>
+      </c>
+      <c r="J598" t="s">
+        <v>99</v>
+      </c>
+      <c r="K598">
+        <v>47</v>
+      </c>
+      <c r="L598" t="s">
+        <v>399</v>
+      </c>
+      <c r="M598" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>1797</v>
+      </c>
+      <c r="B599">
+        <v>62</v>
+      </c>
+      <c r="C599" t="s">
+        <v>608</v>
+      </c>
+      <c r="J599" t="s">
+        <v>99</v>
+      </c>
+      <c r="K599">
+        <v>47</v>
+      </c>
+      <c r="L599" t="s">
+        <v>399</v>
+      </c>
+      <c r="M599" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>1797</v>
+      </c>
+      <c r="B600">
+        <v>62</v>
+      </c>
+      <c r="C600" t="s">
+        <v>609</v>
+      </c>
+      <c r="J600" t="s">
+        <v>99</v>
+      </c>
+      <c r="K600">
+        <v>47</v>
+      </c>
+      <c r="L600" t="s">
+        <v>399</v>
+      </c>
+      <c r="M600" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>1797</v>
+      </c>
+      <c r="B601">
+        <v>63</v>
+      </c>
+      <c r="C601" t="s">
+        <v>610</v>
+      </c>
+      <c r="J601" t="s">
+        <v>99</v>
+      </c>
+      <c r="K601">
+        <v>47</v>
+      </c>
+      <c r="L601" t="s">
+        <v>399</v>
+      </c>
+      <c r="M601" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>1797</v>
+      </c>
+      <c r="B602">
+        <v>63</v>
+      </c>
+      <c r="C602" t="s">
+        <v>611</v>
+      </c>
+      <c r="J602" t="s">
+        <v>99</v>
+      </c>
+      <c r="K602">
+        <v>47</v>
+      </c>
+      <c r="L602" t="s">
+        <v>399</v>
+      </c>
+      <c r="M602" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>1797</v>
+      </c>
+      <c r="B603">
+        <v>63</v>
+      </c>
+      <c r="C603" t="s">
+        <v>612</v>
+      </c>
+      <c r="J603" t="s">
+        <v>99</v>
+      </c>
+      <c r="K603">
+        <v>47</v>
+      </c>
+      <c r="L603" t="s">
+        <v>399</v>
+      </c>
+      <c r="M603" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>1797</v>
+      </c>
+      <c r="B604">
+        <v>64</v>
+      </c>
+      <c r="C604" t="s">
+        <v>613</v>
+      </c>
+      <c r="J604" t="s">
+        <v>99</v>
+      </c>
+      <c r="K604">
+        <v>47</v>
+      </c>
+      <c r="L604" t="s">
+        <v>399</v>
+      </c>
+      <c r="M604" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>1797</v>
+      </c>
+      <c r="B605">
+        <v>64</v>
+      </c>
+      <c r="C605" t="s">
+        <v>614</v>
+      </c>
+      <c r="J605" t="s">
+        <v>99</v>
+      </c>
+      <c r="K605">
+        <v>47</v>
+      </c>
+      <c r="L605" t="s">
+        <v>399</v>
+      </c>
+      <c r="M605" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>1797</v>
+      </c>
+      <c r="B606">
+        <v>64</v>
+      </c>
+      <c r="C606" t="s">
+        <v>615</v>
+      </c>
+      <c r="J606" t="s">
+        <v>99</v>
+      </c>
+      <c r="K606">
+        <v>47</v>
+      </c>
+      <c r="L606" t="s">
+        <v>399</v>
+      </c>
+      <c r="M606" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>1797</v>
+      </c>
+      <c r="B607">
+        <v>65</v>
+      </c>
+      <c r="C607" t="s">
+        <v>616</v>
+      </c>
+      <c r="J607" t="s">
+        <v>99</v>
+      </c>
+      <c r="K607">
+        <v>47</v>
+      </c>
+      <c r="L607" t="s">
+        <v>399</v>
+      </c>
+      <c r="M607" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>1797</v>
+      </c>
+      <c r="B608">
+        <v>65</v>
+      </c>
+      <c r="C608" t="s">
+        <v>617</v>
+      </c>
+      <c r="J608" t="s">
+        <v>99</v>
+      </c>
+      <c r="K608">
+        <v>47</v>
+      </c>
+      <c r="L608" t="s">
+        <v>399</v>
+      </c>
+      <c r="M608" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>1797</v>
+      </c>
+      <c r="B609">
+        <v>65</v>
+      </c>
+      <c r="C609" t="s">
+        <v>578</v>
+      </c>
+      <c r="J609" t="s">
+        <v>99</v>
+      </c>
+      <c r="K609">
+        <v>47</v>
+      </c>
+      <c r="L609" t="s">
+        <v>399</v>
+      </c>
+      <c r="M609" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>1797</v>
+      </c>
+      <c r="B610">
+        <v>66</v>
+      </c>
+      <c r="C610" t="s">
+        <v>618</v>
+      </c>
+      <c r="J610" t="s">
+        <v>99</v>
+      </c>
+      <c r="K610">
+        <v>47</v>
+      </c>
+      <c r="L610" t="s">
+        <v>399</v>
+      </c>
+      <c r="M610" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>1797</v>
+      </c>
+      <c r="B611">
+        <v>66</v>
+      </c>
+      <c r="C611" t="s">
+        <v>619</v>
+      </c>
+      <c r="J611" t="s">
+        <v>99</v>
+      </c>
+      <c r="K611">
+        <v>47</v>
+      </c>
+      <c r="L611" t="s">
+        <v>399</v>
+      </c>
+      <c r="M611" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>1798</v>
+      </c>
+      <c r="B612">
+        <v>66</v>
+      </c>
+      <c r="C612" t="s">
+        <v>620</v>
+      </c>
+      <c r="J612" t="s">
+        <v>99</v>
+      </c>
+      <c r="K612">
+        <v>47</v>
+      </c>
+      <c r="L612" t="s">
+        <v>399</v>
+      </c>
+      <c r="M612" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>1798</v>
+      </c>
+      <c r="B613">
+        <v>67</v>
+      </c>
+      <c r="C613" t="s">
+        <v>621</v>
+      </c>
+      <c r="J613" t="s">
+        <v>99</v>
+      </c>
+      <c r="K613">
+        <v>47</v>
+      </c>
+      <c r="L613" t="s">
+        <v>399</v>
+      </c>
+      <c r="M613" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>1798</v>
+      </c>
+      <c r="B614">
+        <v>67</v>
+      </c>
+      <c r="C614" t="s">
+        <v>622</v>
+      </c>
+      <c r="J614" t="s">
+        <v>99</v>
+      </c>
+      <c r="K614">
+        <v>47</v>
+      </c>
+      <c r="L614" t="s">
+        <v>399</v>
+      </c>
+      <c r="M614" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>1798</v>
+      </c>
+      <c r="B615">
+        <v>67</v>
+      </c>
+      <c r="C615" t="s">
+        <v>623</v>
+      </c>
+      <c r="J615" t="s">
+        <v>99</v>
+      </c>
+      <c r="K615">
+        <v>47</v>
+      </c>
+      <c r="L615" t="s">
+        <v>399</v>
+      </c>
+      <c r="M615" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>1798</v>
+      </c>
+      <c r="B616">
+        <v>67</v>
+      </c>
+      <c r="C616" t="s">
+        <v>532</v>
+      </c>
+      <c r="J616" t="s">
+        <v>99</v>
+      </c>
+      <c r="K616">
+        <v>47</v>
+      </c>
+      <c r="L616" t="s">
+        <v>399</v>
+      </c>
+      <c r="M616" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>1798</v>
+      </c>
+      <c r="B617">
+        <v>68</v>
+      </c>
+      <c r="C617" t="s">
+        <v>624</v>
+      </c>
+      <c r="J617" t="s">
+        <v>99</v>
+      </c>
+      <c r="K617">
+        <v>47</v>
+      </c>
+      <c r="L617" t="s">
+        <v>399</v>
+      </c>
+      <c r="M617" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>1799</v>
+      </c>
+      <c r="B618">
+        <v>68</v>
+      </c>
+      <c r="C618" t="s">
+        <v>625</v>
+      </c>
+      <c r="J618" t="s">
+        <v>99</v>
+      </c>
+      <c r="K618">
+        <v>47</v>
+      </c>
+      <c r="L618" t="s">
+        <v>399</v>
+      </c>
+      <c r="M618" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>1799</v>
+      </c>
+      <c r="B619">
+        <v>68</v>
+      </c>
+      <c r="C619" t="s">
+        <v>626</v>
+      </c>
+      <c r="J619" t="s">
+        <v>99</v>
+      </c>
+      <c r="K619">
+        <v>47</v>
+      </c>
+      <c r="L619" t="s">
+        <v>399</v>
+      </c>
+      <c r="M619" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>1799</v>
+      </c>
+      <c r="B620">
+        <v>69</v>
+      </c>
+      <c r="C620" t="s">
+        <v>627</v>
+      </c>
+      <c r="J620" t="s">
+        <v>99</v>
+      </c>
+      <c r="K620">
+        <v>47</v>
+      </c>
+      <c r="L620" t="s">
+        <v>399</v>
+      </c>
+      <c r="M620" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>1800</v>
+      </c>
+      <c r="B621">
+        <v>69</v>
+      </c>
+      <c r="C621" t="s">
+        <v>628</v>
+      </c>
+      <c r="J621" t="s">
+        <v>99</v>
+      </c>
+      <c r="K621">
+        <v>47</v>
+      </c>
+      <c r="L621" t="s">
+        <v>399</v>
+      </c>
+      <c r="M621" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>1800</v>
+      </c>
+      <c r="B622">
+        <v>69</v>
+      </c>
+      <c r="C622" t="s">
+        <v>629</v>
+      </c>
+      <c r="J622" t="s">
+        <v>99</v>
+      </c>
+      <c r="K622">
+        <v>47</v>
+      </c>
+      <c r="L622" t="s">
+        <v>399</v>
+      </c>
+      <c r="M622" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>1800</v>
+      </c>
+      <c r="B623">
+        <v>70</v>
+      </c>
+      <c r="C623" t="s">
+        <v>630</v>
+      </c>
+      <c r="J623" t="s">
+        <v>99</v>
+      </c>
+      <c r="K623">
+        <v>47</v>
+      </c>
+      <c r="L623" t="s">
+        <v>399</v>
+      </c>
+      <c r="M623" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>1800</v>
+      </c>
+      <c r="B624">
+        <v>70</v>
+      </c>
+      <c r="C624" t="s">
+        <v>631</v>
+      </c>
+      <c r="J624" t="s">
+        <v>99</v>
+      </c>
+      <c r="K624">
+        <v>47</v>
+      </c>
+      <c r="L624" t="s">
+        <v>399</v>
+      </c>
+      <c r="M624" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>1800</v>
+      </c>
+      <c r="B625">
+        <v>70</v>
+      </c>
+      <c r="C625" t="s">
+        <v>632</v>
+      </c>
+      <c r="J625" t="s">
+        <v>99</v>
+      </c>
+      <c r="K625">
+        <v>47</v>
+      </c>
+      <c r="L625" t="s">
+        <v>399</v>
+      </c>
+      <c r="M625" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>1800</v>
+      </c>
+      <c r="B626">
+        <v>71</v>
+      </c>
+      <c r="C626" t="s">
+        <v>633</v>
+      </c>
+      <c r="J626" t="s">
+        <v>99</v>
+      </c>
+      <c r="K626">
+        <v>47</v>
+      </c>
+      <c r="L626" t="s">
+        <v>399</v>
+      </c>
+      <c r="M626" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>1801</v>
+      </c>
+      <c r="B627">
+        <v>71</v>
+      </c>
+      <c r="C627" t="s">
+        <v>634</v>
+      </c>
+      <c r="J627" t="s">
+        <v>99</v>
+      </c>
+      <c r="K627">
+        <v>47</v>
+      </c>
+      <c r="L627" t="s">
+        <v>399</v>
+      </c>
+      <c r="M627" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>1802</v>
+      </c>
+      <c r="B628">
+        <v>72</v>
+      </c>
+      <c r="C628" t="s">
+        <v>635</v>
+      </c>
+      <c r="J628" t="s">
+        <v>99</v>
+      </c>
+      <c r="K628">
+        <v>47</v>
+      </c>
+      <c r="L628" t="s">
+        <v>399</v>
+      </c>
+      <c r="M628" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>1802</v>
+      </c>
+      <c r="B629">
+        <v>72</v>
+      </c>
+      <c r="C629" t="s">
+        <v>636</v>
+      </c>
+      <c r="J629" t="s">
+        <v>99</v>
+      </c>
+      <c r="K629">
+        <v>47</v>
+      </c>
+      <c r="L629" t="s">
+        <v>399</v>
+      </c>
+      <c r="M629" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>1802</v>
+      </c>
+      <c r="B630">
+        <v>72</v>
+      </c>
+      <c r="C630" t="s">
+        <v>637</v>
+      </c>
+      <c r="J630" t="s">
+        <v>99</v>
+      </c>
+      <c r="K630">
+        <v>47</v>
+      </c>
+      <c r="L630" t="s">
+        <v>399</v>
+      </c>
+      <c r="M630" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>1802</v>
+      </c>
+      <c r="B631">
+        <v>72</v>
+      </c>
+      <c r="C631" t="s">
+        <v>638</v>
+      </c>
+      <c r="J631" t="s">
+        <v>99</v>
+      </c>
+      <c r="K631">
+        <v>47</v>
+      </c>
+      <c r="L631" t="s">
+        <v>399</v>
+      </c>
+      <c r="M631" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>1802</v>
+      </c>
+      <c r="B632">
+        <v>73</v>
+      </c>
+      <c r="C632" t="s">
+        <v>639</v>
+      </c>
+      <c r="J632" t="s">
+        <v>99</v>
+      </c>
+      <c r="K632">
+        <v>47</v>
+      </c>
+      <c r="L632" t="s">
+        <v>399</v>
+      </c>
+      <c r="M632" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>1803</v>
+      </c>
+      <c r="B633">
+        <v>73</v>
+      </c>
+      <c r="C633" t="s">
+        <v>640</v>
+      </c>
+      <c r="J633" t="s">
+        <v>99</v>
+      </c>
+      <c r="K633">
+        <v>47</v>
+      </c>
+      <c r="L633" t="s">
+        <v>399</v>
+      </c>
+      <c r="M633" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>1803</v>
+      </c>
+      <c r="B634">
+        <v>73</v>
+      </c>
+      <c r="C634" t="s">
+        <v>641</v>
+      </c>
+      <c r="J634" t="s">
+        <v>99</v>
+      </c>
+      <c r="K634">
+        <v>47</v>
+      </c>
+      <c r="L634" t="s">
+        <v>399</v>
+      </c>
+      <c r="M634" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>1803</v>
+      </c>
+      <c r="B635">
+        <v>73</v>
+      </c>
+      <c r="C635" t="s">
+        <v>642</v>
+      </c>
+      <c r="J635" t="s">
+        <v>99</v>
+      </c>
+      <c r="K635">
+        <v>47</v>
+      </c>
+      <c r="L635" t="s">
+        <v>399</v>
+      </c>
+      <c r="M635" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>1803</v>
+      </c>
+      <c r="B636">
+        <v>74</v>
+      </c>
+      <c r="C636" t="s">
+        <v>643</v>
+      </c>
+      <c r="J636" t="s">
+        <v>99</v>
+      </c>
+      <c r="K636">
+        <v>47</v>
+      </c>
+      <c r="L636" t="s">
+        <v>399</v>
+      </c>
+      <c r="M636" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>1804</v>
+      </c>
+      <c r="B637">
+        <v>74</v>
+      </c>
+      <c r="C637" t="s">
+        <v>644</v>
+      </c>
+      <c r="J637" t="s">
+        <v>99</v>
+      </c>
+      <c r="K637">
+        <v>47</v>
+      </c>
+      <c r="L637" t="s">
+        <v>399</v>
+      </c>
+      <c r="M637" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>1804</v>
+      </c>
+      <c r="B638">
+        <v>74</v>
+      </c>
+      <c r="C638" t="s">
+        <v>645</v>
+      </c>
+      <c r="J638" t="s">
+        <v>99</v>
+      </c>
+      <c r="K638">
+        <v>47</v>
+      </c>
+      <c r="L638" t="s">
+        <v>399</v>
+      </c>
+      <c r="M638" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>1804</v>
+      </c>
+      <c r="B639">
+        <v>75</v>
+      </c>
+      <c r="C639" t="s">
+        <v>646</v>
+      </c>
+      <c r="J639" t="s">
+        <v>99</v>
+      </c>
+      <c r="K639">
+        <v>47</v>
+      </c>
+      <c r="L639" t="s">
+        <v>399</v>
+      </c>
+      <c r="M639" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>1804</v>
+      </c>
+      <c r="B640">
+        <v>75</v>
+      </c>
+      <c r="C640" t="s">
+        <v>647</v>
+      </c>
+      <c r="J640" t="s">
+        <v>99</v>
+      </c>
+      <c r="K640">
+        <v>47</v>
+      </c>
+      <c r="L640" t="s">
+        <v>399</v>
+      </c>
+      <c r="M640" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>1804</v>
+      </c>
+      <c r="B641">
+        <v>75</v>
+      </c>
+      <c r="C641" t="s">
+        <v>648</v>
+      </c>
+      <c r="J641" t="s">
+        <v>99</v>
+      </c>
+      <c r="K641">
+        <v>47</v>
+      </c>
+      <c r="L641" t="s">
+        <v>399</v>
+      </c>
+      <c r="M641" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>1804</v>
+      </c>
+      <c r="B642">
+        <v>75</v>
+      </c>
+      <c r="C642" t="s">
+        <v>649</v>
+      </c>
+      <c r="J642" t="s">
+        <v>99</v>
+      </c>
+      <c r="K642">
+        <v>47</v>
+      </c>
+      <c r="L642" t="s">
+        <v>399</v>
+      </c>
+      <c r="M642" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>1804</v>
+      </c>
+      <c r="B643">
+        <v>76</v>
+      </c>
+      <c r="C643" t="s">
+        <v>650</v>
+      </c>
+      <c r="J643" t="s">
+        <v>99</v>
+      </c>
+      <c r="K643">
+        <v>47</v>
+      </c>
+      <c r="L643" t="s">
+        <v>399</v>
+      </c>
+      <c r="M643" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>1804</v>
+      </c>
+      <c r="B644">
+        <v>76</v>
+      </c>
+      <c r="C644" t="s">
+        <v>651</v>
+      </c>
+      <c r="J644" t="s">
+        <v>99</v>
+      </c>
+      <c r="K644">
+        <v>47</v>
+      </c>
+      <c r="L644" t="s">
+        <v>399</v>
+      </c>
+      <c r="M644" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>1804</v>
+      </c>
+      <c r="B645">
+        <v>76</v>
+      </c>
+      <c r="C645" t="s">
+        <v>652</v>
+      </c>
+      <c r="J645" t="s">
+        <v>99</v>
+      </c>
+      <c r="K645">
+        <v>47</v>
+      </c>
+      <c r="L645" t="s">
+        <v>399</v>
+      </c>
+      <c r="M645" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>1805</v>
+      </c>
+      <c r="B646">
+        <v>76</v>
+      </c>
+      <c r="C646" t="s">
+        <v>653</v>
+      </c>
+      <c r="J646" t="s">
+        <v>99</v>
+      </c>
+      <c r="K646">
+        <v>47</v>
+      </c>
+      <c r="L646" t="s">
+        <v>399</v>
+      </c>
+      <c r="M646" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>1805</v>
+      </c>
+      <c r="B647">
+        <v>77</v>
+      </c>
+      <c r="C647" t="s">
+        <v>654</v>
+      </c>
+      <c r="J647" t="s">
+        <v>99</v>
+      </c>
+      <c r="K647">
+        <v>47</v>
+      </c>
+      <c r="L647" t="s">
+        <v>399</v>
+      </c>
+      <c r="M647" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>1805</v>
+      </c>
+      <c r="B648">
+        <v>77</v>
+      </c>
+      <c r="C648" t="s">
+        <v>655</v>
+      </c>
+      <c r="J648" t="s">
+        <v>99</v>
+      </c>
+      <c r="K648">
+        <v>47</v>
+      </c>
+      <c r="L648" t="s">
+        <v>399</v>
+      </c>
+      <c r="M648" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>1805</v>
+      </c>
+      <c r="B649">
+        <v>77</v>
+      </c>
+      <c r="C649" t="s">
+        <v>656</v>
+      </c>
+      <c r="J649" t="s">
+        <v>99</v>
+      </c>
+      <c r="K649">
+        <v>47</v>
+      </c>
+      <c r="L649" t="s">
+        <v>399</v>
+      </c>
+      <c r="M649" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>1805</v>
+      </c>
+      <c r="B650">
+        <v>77</v>
+      </c>
+      <c r="C650" t="s">
+        <v>657</v>
+      </c>
+      <c r="J650" t="s">
+        <v>99</v>
+      </c>
+      <c r="K650">
+        <v>47</v>
+      </c>
+      <c r="L650" t="s">
+        <v>399</v>
+      </c>
+      <c r="M650" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>1805</v>
+      </c>
+      <c r="B651">
+        <v>78</v>
+      </c>
+      <c r="C651" t="s">
+        <v>658</v>
+      </c>
+      <c r="J651" t="s">
+        <v>99</v>
+      </c>
+      <c r="K651">
+        <v>47</v>
+      </c>
+      <c r="L651" t="s">
+        <v>399</v>
+      </c>
+      <c r="M651" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>1805</v>
+      </c>
+      <c r="B652">
+        <v>78</v>
+      </c>
+      <c r="C652" t="s">
+        <v>659</v>
+      </c>
+      <c r="J652" t="s">
+        <v>99</v>
+      </c>
+      <c r="K652">
+        <v>47</v>
+      </c>
+      <c r="L652" t="s">
+        <v>399</v>
+      </c>
+      <c r="M652" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>1805</v>
+      </c>
+      <c r="B653">
+        <v>78</v>
+      </c>
+      <c r="C653" t="s">
+        <v>660</v>
+      </c>
+      <c r="J653" t="s">
+        <v>99</v>
+      </c>
+      <c r="K653">
+        <v>47</v>
+      </c>
+      <c r="L653" t="s">
+        <v>399</v>
+      </c>
+      <c r="M653" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>1805</v>
+      </c>
+      <c r="B654">
+        <v>79</v>
+      </c>
+      <c r="C654" t="s">
+        <v>661</v>
+      </c>
+      <c r="J654" t="s">
+        <v>99</v>
+      </c>
+      <c r="K654">
+        <v>47</v>
+      </c>
+      <c r="L654" t="s">
+        <v>399</v>
+      </c>
+      <c r="M654" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>1805</v>
+      </c>
+      <c r="B655">
+        <v>80</v>
+      </c>
+      <c r="C655" t="s">
+        <v>662</v>
+      </c>
+      <c r="J655" t="s">
+        <v>99</v>
+      </c>
+      <c r="K655">
+        <v>47</v>
+      </c>
+      <c r="L655" t="s">
+        <v>399</v>
+      </c>
+      <c r="M655" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>1805</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C656" t="s">
+        <v>663</v>
+      </c>
+      <c r="J656" t="s">
+        <v>99</v>
+      </c>
+      <c r="K656">
+        <v>47</v>
+      </c>
+      <c r="L656" t="s">
+        <v>399</v>
+      </c>
+      <c r="M656" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>1805</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C657" t="s">
+        <v>664</v>
+      </c>
+      <c r="J657" t="s">
+        <v>99</v>
+      </c>
+      <c r="K657">
+        <v>47</v>
+      </c>
+      <c r="L657" t="s">
+        <v>399</v>
+      </c>
+      <c r="M657" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>1806</v>
+      </c>
+      <c r="B658">
+        <v>82</v>
+      </c>
+      <c r="C658" t="s">
+        <v>666</v>
+      </c>
+      <c r="J658" t="s">
+        <v>99</v>
+      </c>
+      <c r="K658">
+        <v>47</v>
+      </c>
+      <c r="L658" t="s">
+        <v>399</v>
+      </c>
+      <c r="M658" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>1806</v>
+      </c>
+      <c r="B659">
+        <v>84</v>
+      </c>
+      <c r="C659" t="s">
+        <v>667</v>
+      </c>
+      <c r="J659" t="s">
+        <v>99</v>
+      </c>
+      <c r="K659">
+        <v>47</v>
+      </c>
+      <c r="L659" t="s">
+        <v>399</v>
+      </c>
+      <c r="M659" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>1806</v>
+      </c>
+      <c r="B660">
+        <v>85</v>
+      </c>
+      <c r="C660" t="s">
+        <v>668</v>
+      </c>
+      <c r="J660" t="s">
+        <v>99</v>
+      </c>
+      <c r="K660">
+        <v>47</v>
+      </c>
+      <c r="L660" t="s">
+        <v>399</v>
+      </c>
+      <c r="M660" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>1807</v>
+      </c>
+      <c r="B661">
+        <v>85</v>
+      </c>
+      <c r="C661" t="s">
+        <v>669</v>
+      </c>
+      <c r="J661" t="s">
+        <v>99</v>
+      </c>
+      <c r="K661">
+        <v>47</v>
+      </c>
+      <c r="L661" t="s">
+        <v>399</v>
+      </c>
+      <c r="M661" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>1807</v>
+      </c>
+      <c r="B662">
+        <v>85</v>
+      </c>
+      <c r="C662" t="s">
+        <v>670</v>
+      </c>
+      <c r="J662" t="s">
+        <v>99</v>
+      </c>
+      <c r="K662">
+        <v>47</v>
+      </c>
+      <c r="L662" t="s">
+        <v>399</v>
+      </c>
+      <c r="M662" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>1807</v>
+      </c>
+      <c r="B663">
+        <v>86</v>
+      </c>
+      <c r="C663" t="s">
+        <v>218</v>
+      </c>
+      <c r="J663" t="s">
+        <v>99</v>
+      </c>
+      <c r="K663">
+        <v>47</v>
+      </c>
+      <c r="L663" t="s">
+        <v>399</v>
+      </c>
+      <c r="M663" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>1807</v>
+      </c>
+      <c r="B664">
+        <v>86</v>
+      </c>
+      <c r="C664" t="s">
+        <v>670</v>
+      </c>
+      <c r="J664" t="s">
+        <v>99</v>
+      </c>
+      <c r="K664">
+        <v>47</v>
+      </c>
+      <c r="L664" t="s">
+        <v>399</v>
+      </c>
+      <c r="M664" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>1807</v>
+      </c>
+      <c r="B665">
+        <v>86</v>
+      </c>
+      <c r="C665" t="s">
+        <v>671</v>
+      </c>
+      <c r="J665" t="s">
+        <v>99</v>
+      </c>
+      <c r="K665">
+        <v>47</v>
+      </c>
+      <c r="L665" t="s">
+        <v>399</v>
+      </c>
+      <c r="M665" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>1807</v>
+      </c>
+      <c r="B666">
+        <v>87</v>
+      </c>
+      <c r="C666" t="s">
+        <v>672</v>
+      </c>
+      <c r="J666" t="s">
+        <v>99</v>
+      </c>
+      <c r="K666">
+        <v>47</v>
+      </c>
+      <c r="L666" t="s">
+        <v>399</v>
+      </c>
+      <c r="M666" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>1807</v>
+      </c>
+      <c r="B667">
+        <v>87</v>
+      </c>
+      <c r="C667" t="s">
+        <v>645</v>
+      </c>
+      <c r="J667" t="s">
+        <v>99</v>
+      </c>
+      <c r="K667">
+        <v>47</v>
+      </c>
+      <c r="L667" t="s">
+        <v>399</v>
+      </c>
+      <c r="M667" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>1807</v>
+      </c>
+      <c r="B668">
+        <v>87</v>
+      </c>
+      <c r="C668" t="s">
+        <v>673</v>
+      </c>
+      <c r="J668" t="s">
+        <v>99</v>
+      </c>
+      <c r="K668">
+        <v>47</v>
+      </c>
+      <c r="L668" t="s">
+        <v>399</v>
+      </c>
+      <c r="M668" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>1807</v>
+      </c>
+      <c r="B669">
+        <v>87</v>
+      </c>
+      <c r="C669" t="s">
+        <v>674</v>
+      </c>
+      <c r="J669" t="s">
+        <v>99</v>
+      </c>
+      <c r="K669">
+        <v>47</v>
+      </c>
+      <c r="L669" t="s">
+        <v>399</v>
+      </c>
+      <c r="M669" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>1808</v>
+      </c>
+      <c r="B670">
+        <v>87</v>
+      </c>
+      <c r="C670" t="s">
+        <v>675</v>
+      </c>
+      <c r="J670" t="s">
+        <v>99</v>
+      </c>
+      <c r="K670">
+        <v>47</v>
+      </c>
+      <c r="L670" t="s">
+        <v>399</v>
+      </c>
+      <c r="M670" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>1808</v>
+      </c>
+      <c r="B671">
+        <v>88</v>
+      </c>
+      <c r="C671" t="s">
+        <v>676</v>
+      </c>
+      <c r="J671" t="s">
+        <v>99</v>
+      </c>
+      <c r="K671">
+        <v>47</v>
+      </c>
+      <c r="L671" t="s">
+        <v>399</v>
+      </c>
+      <c r="M671" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>1808</v>
+      </c>
+      <c r="B672">
+        <v>88</v>
+      </c>
+      <c r="C672" t="s">
+        <v>352</v>
+      </c>
+      <c r="J672" t="s">
+        <v>99</v>
+      </c>
+      <c r="K672">
+        <v>47</v>
+      </c>
+      <c r="L672" t="s">
+        <v>399</v>
+      </c>
+      <c r="M672" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>1808</v>
+      </c>
+      <c r="B673">
+        <v>88</v>
+      </c>
+      <c r="C673" t="s">
+        <v>357</v>
+      </c>
+      <c r="J673" t="s">
+        <v>99</v>
+      </c>
+      <c r="K673">
+        <v>47</v>
+      </c>
+      <c r="L673" t="s">
+        <v>399</v>
+      </c>
+      <c r="M673" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>1808</v>
+      </c>
+      <c r="B674">
+        <v>88</v>
+      </c>
+      <c r="C674" t="s">
+        <v>677</v>
+      </c>
+      <c r="J674" t="s">
+        <v>99</v>
+      </c>
+      <c r="K674">
+        <v>47</v>
+      </c>
+      <c r="L674" t="s">
+        <v>399</v>
+      </c>
+      <c r="M674" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>1808</v>
+      </c>
+      <c r="B675">
+        <v>88</v>
+      </c>
+      <c r="C675" t="s">
+        <v>678</v>
+      </c>
+      <c r="J675" t="s">
+        <v>99</v>
+      </c>
+      <c r="K675">
+        <v>47</v>
+      </c>
+      <c r="L675" t="s">
+        <v>399</v>
+      </c>
+      <c r="M675" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>1808</v>
+      </c>
+      <c r="B676">
+        <v>89</v>
+      </c>
+      <c r="C676" t="s">
+        <v>679</v>
+      </c>
+      <c r="J676" t="s">
+        <v>99</v>
+      </c>
+      <c r="K676">
+        <v>47</v>
+      </c>
+      <c r="L676" t="s">
+        <v>399</v>
+      </c>
+      <c r="M676" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>1809</v>
+      </c>
+      <c r="B677">
+        <v>89</v>
+      </c>
+      <c r="C677" t="s">
+        <v>505</v>
+      </c>
+      <c r="J677" t="s">
+        <v>99</v>
+      </c>
+      <c r="K677">
+        <v>47</v>
+      </c>
+      <c r="L677" t="s">
+        <v>399</v>
+      </c>
+      <c r="M677" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>1809</v>
+      </c>
+      <c r="B678">
+        <v>89</v>
+      </c>
+      <c r="C678" t="s">
+        <v>680</v>
+      </c>
+      <c r="J678" t="s">
+        <v>99</v>
+      </c>
+      <c r="K678">
+        <v>47</v>
+      </c>
+      <c r="L678" t="s">
+        <v>399</v>
+      </c>
+      <c r="M678" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>1809</v>
+      </c>
+      <c r="B679">
+        <v>89</v>
+      </c>
+      <c r="C679" t="s">
+        <v>681</v>
+      </c>
+      <c r="J679" t="s">
+        <v>99</v>
+      </c>
+      <c r="K679">
+        <v>47</v>
+      </c>
+      <c r="L679" t="s">
+        <v>399</v>
+      </c>
+      <c r="M679" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>1809</v>
+      </c>
+      <c r="B680">
+        <v>90</v>
+      </c>
+      <c r="C680" t="s">
+        <v>682</v>
+      </c>
+      <c r="J680" t="s">
+        <v>99</v>
+      </c>
+      <c r="K680">
+        <v>47</v>
+      </c>
+      <c r="L680" t="s">
+        <v>399</v>
+      </c>
+      <c r="M680" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>1809</v>
+      </c>
+      <c r="B681">
+        <v>90</v>
+      </c>
+      <c r="C681" t="s">
+        <v>683</v>
+      </c>
+      <c r="J681" t="s">
+        <v>99</v>
+      </c>
+      <c r="K681">
+        <v>47</v>
+      </c>
+      <c r="L681" t="s">
+        <v>399</v>
+      </c>
+      <c r="M681" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>1809</v>
+      </c>
+      <c r="B682">
+        <v>90</v>
+      </c>
+      <c r="C682" t="s">
+        <v>684</v>
+      </c>
+      <c r="J682" t="s">
+        <v>99</v>
+      </c>
+      <c r="K682">
+        <v>47</v>
+      </c>
+      <c r="L682" t="s">
+        <v>399</v>
+      </c>
+      <c r="M682" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>1809</v>
+      </c>
+      <c r="B683">
+        <v>90</v>
+      </c>
+      <c r="C683" t="s">
+        <v>685</v>
+      </c>
+      <c r="J683" t="s">
+        <v>99</v>
+      </c>
+      <c r="K683">
+        <v>47</v>
+      </c>
+      <c r="L683" t="s">
+        <v>399</v>
+      </c>
+      <c r="M683" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>1809</v>
+      </c>
+      <c r="B684">
+        <v>91</v>
+      </c>
+      <c r="C684" t="s">
+        <v>686</v>
+      </c>
+      <c r="J684" t="s">
+        <v>99</v>
+      </c>
+      <c r="K684">
+        <v>47</v>
+      </c>
+      <c r="L684" t="s">
+        <v>399</v>
+      </c>
+      <c r="M684" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>1810</v>
+      </c>
+      <c r="B685">
+        <v>91</v>
+      </c>
+      <c r="C685" t="s">
+        <v>687</v>
+      </c>
+      <c r="J685" t="s">
+        <v>99</v>
+      </c>
+      <c r="K685">
+        <v>47</v>
+      </c>
+      <c r="L685" t="s">
+        <v>399</v>
+      </c>
+      <c r="M685" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>1810</v>
+      </c>
+      <c r="B686">
+        <v>91</v>
+      </c>
+      <c r="C686" t="s">
+        <v>688</v>
+      </c>
+      <c r="J686" t="s">
+        <v>99</v>
+      </c>
+      <c r="K686">
+        <v>47</v>
+      </c>
+      <c r="L686" t="s">
+        <v>399</v>
+      </c>
+      <c r="M686" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>1810</v>
+      </c>
+      <c r="B687">
+        <v>91</v>
+      </c>
+      <c r="C687" t="s">
+        <v>689</v>
+      </c>
+      <c r="J687" t="s">
+        <v>99</v>
+      </c>
+      <c r="K687">
+        <v>47</v>
+      </c>
+      <c r="L687" t="s">
+        <v>399</v>
+      </c>
+      <c r="M687" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>1810</v>
+      </c>
+      <c r="B688">
+        <v>91</v>
+      </c>
+      <c r="C688" t="s">
+        <v>690</v>
+      </c>
+      <c r="J688" t="s">
+        <v>99</v>
+      </c>
+      <c r="K688">
+        <v>47</v>
+      </c>
+      <c r="L688" t="s">
+        <v>399</v>
+      </c>
+      <c r="M688" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>1810</v>
+      </c>
+      <c r="B689">
+        <v>92</v>
+      </c>
+      <c r="C689" t="s">
+        <v>177</v>
+      </c>
+      <c r="J689" t="s">
+        <v>99</v>
+      </c>
+      <c r="K689">
+        <v>47</v>
+      </c>
+      <c r="L689" t="s">
+        <v>399</v>
+      </c>
+      <c r="M689" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>1810</v>
+      </c>
+      <c r="B690">
+        <v>92</v>
+      </c>
+      <c r="C690" t="s">
+        <v>691</v>
+      </c>
+      <c r="J690" t="s">
+        <v>99</v>
+      </c>
+      <c r="K690">
+        <v>47</v>
+      </c>
+      <c r="L690" t="s">
+        <v>399</v>
+      </c>
+      <c r="M690" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>1810</v>
+      </c>
+      <c r="B691">
+        <v>92</v>
+      </c>
+      <c r="C691" t="s">
+        <v>692</v>
+      </c>
+      <c r="J691" t="s">
+        <v>99</v>
+      </c>
+      <c r="K691">
+        <v>47</v>
+      </c>
+      <c r="L691" t="s">
+        <v>399</v>
+      </c>
+      <c r="M691" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>1810</v>
+      </c>
+      <c r="B692">
+        <v>92</v>
+      </c>
+      <c r="C692" t="s">
+        <v>693</v>
+      </c>
+      <c r="J692" t="s">
+        <v>99</v>
+      </c>
+      <c r="K692">
+        <v>47</v>
+      </c>
+      <c r="L692" t="s">
+        <v>399</v>
+      </c>
+      <c r="M692" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>1810</v>
+      </c>
+      <c r="B693">
+        <v>92</v>
+      </c>
+      <c r="C693" t="s">
+        <v>694</v>
+      </c>
+      <c r="J693" t="s">
+        <v>99</v>
+      </c>
+      <c r="K693">
+        <v>47</v>
+      </c>
+      <c r="L693" t="s">
+        <v>399</v>
+      </c>
+      <c r="M693" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>1811</v>
+      </c>
+      <c r="B694">
+        <v>93</v>
+      </c>
+      <c r="C694" t="s">
+        <v>695</v>
+      </c>
+      <c r="J694" t="s">
+        <v>99</v>
+      </c>
+      <c r="K694">
+        <v>47</v>
+      </c>
+      <c r="L694" t="s">
+        <v>399</v>
+      </c>
+      <c r="M694" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>1811</v>
+      </c>
+      <c r="B695">
+        <v>93</v>
+      </c>
+      <c r="C695" t="s">
+        <v>696</v>
+      </c>
+      <c r="J695" t="s">
+        <v>99</v>
+      </c>
+      <c r="K695">
+        <v>47</v>
+      </c>
+      <c r="L695" t="s">
+        <v>399</v>
+      </c>
+      <c r="M695" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>1811</v>
+      </c>
+      <c r="B696">
+        <v>93</v>
+      </c>
+      <c r="C696" t="s">
+        <v>697</v>
+      </c>
+      <c r="J696" t="s">
+        <v>99</v>
+      </c>
+      <c r="K696">
+        <v>47</v>
+      </c>
+      <c r="L696" t="s">
+        <v>399</v>
+      </c>
+      <c r="M696" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>1811</v>
+      </c>
+      <c r="B697">
+        <v>93</v>
+      </c>
+      <c r="C697" t="s">
+        <v>698</v>
+      </c>
+      <c r="J697" t="s">
+        <v>99</v>
+      </c>
+      <c r="K697">
+        <v>47</v>
+      </c>
+      <c r="L697" t="s">
+        <v>399</v>
+      </c>
+      <c r="M697" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>1811</v>
+      </c>
+      <c r="B698">
+        <v>93</v>
+      </c>
+      <c r="C698" t="s">
+        <v>699</v>
+      </c>
+      <c r="J698" t="s">
+        <v>99</v>
+      </c>
+      <c r="K698">
+        <v>47</v>
+      </c>
+      <c r="L698" t="s">
+        <v>399</v>
+      </c>
+      <c r="M698" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>1811</v>
+      </c>
+      <c r="B699">
+        <v>94</v>
+      </c>
+      <c r="C699" t="s">
+        <v>700</v>
+      </c>
+      <c r="J699" t="s">
+        <v>99</v>
+      </c>
+      <c r="K699">
+        <v>47</v>
+      </c>
+      <c r="L699" t="s">
+        <v>399</v>
+      </c>
+      <c r="M699" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>1811</v>
+      </c>
+      <c r="B700">
+        <v>94</v>
+      </c>
+      <c r="C700" t="s">
+        <v>701</v>
+      </c>
+      <c r="J700" t="s">
+        <v>99</v>
+      </c>
+      <c r="K700">
+        <v>47</v>
+      </c>
+      <c r="L700" t="s">
+        <v>399</v>
+      </c>
+      <c r="M700" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>1811</v>
+      </c>
+      <c r="B701">
+        <v>94</v>
+      </c>
+      <c r="C701" t="s">
+        <v>702</v>
+      </c>
+      <c r="J701" t="s">
+        <v>99</v>
+      </c>
+      <c r="K701">
+        <v>47</v>
+      </c>
+      <c r="L701" t="s">
+        <v>399</v>
+      </c>
+      <c r="M701" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>1811</v>
+      </c>
+      <c r="B702">
+        <v>94</v>
+      </c>
+      <c r="C702" t="s">
+        <v>703</v>
+      </c>
+      <c r="J702" t="s">
+        <v>99</v>
+      </c>
+      <c r="K702">
+        <v>47</v>
+      </c>
+      <c r="L702" t="s">
+        <v>399</v>
+      </c>
+      <c r="M702" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>1811</v>
+      </c>
+      <c r="B703">
+        <v>95</v>
+      </c>
+      <c r="C703" t="s">
+        <v>704</v>
+      </c>
+      <c r="J703" t="s">
+        <v>99</v>
+      </c>
+      <c r="K703">
+        <v>47</v>
+      </c>
+      <c r="L703" t="s">
+        <v>399</v>
+      </c>
+      <c r="M703" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>1811</v>
+      </c>
+      <c r="B704">
+        <v>95</v>
+      </c>
+      <c r="C704" t="s">
+        <v>705</v>
+      </c>
+      <c r="J704" t="s">
+        <v>99</v>
+      </c>
+      <c r="K704">
+        <v>47</v>
+      </c>
+      <c r="L704" t="s">
+        <v>399</v>
+      </c>
+      <c r="M704" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>1811</v>
+      </c>
+      <c r="B705">
+        <v>95</v>
+      </c>
+      <c r="C705" t="s">
+        <v>706</v>
+      </c>
+      <c r="J705" t="s">
+        <v>99</v>
+      </c>
+      <c r="K705">
+        <v>47</v>
+      </c>
+      <c r="L705" t="s">
+        <v>399</v>
+      </c>
+      <c r="M705" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>1812</v>
+      </c>
+      <c r="B706">
+        <v>95</v>
+      </c>
+      <c r="C706" t="s">
+        <v>707</v>
+      </c>
+      <c r="J706" t="s">
+        <v>99</v>
+      </c>
+      <c r="K706">
+        <v>47</v>
+      </c>
+      <c r="L706" t="s">
+        <v>399</v>
+      </c>
+      <c r="M706" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>1812</v>
+      </c>
+      <c r="B707">
+        <v>95</v>
+      </c>
+      <c r="C707" t="s">
+        <v>708</v>
+      </c>
+      <c r="J707" t="s">
+        <v>99</v>
+      </c>
+      <c r="K707">
+        <v>47</v>
+      </c>
+      <c r="L707" t="s">
+        <v>399</v>
+      </c>
+      <c r="M707" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>1812</v>
+      </c>
+      <c r="B708">
+        <v>96</v>
+      </c>
+      <c r="C708" t="s">
+        <v>709</v>
+      </c>
+      <c r="J708" t="s">
+        <v>99</v>
+      </c>
+      <c r="K708">
+        <v>47</v>
+      </c>
+      <c r="L708" t="s">
+        <v>399</v>
+      </c>
+      <c r="M708" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>1812</v>
+      </c>
+      <c r="B709">
+        <v>96</v>
+      </c>
+      <c r="C709" t="s">
+        <v>641</v>
+      </c>
+      <c r="J709" t="s">
+        <v>99</v>
+      </c>
+      <c r="K709">
+        <v>47</v>
+      </c>
+      <c r="L709" t="s">
+        <v>399</v>
+      </c>
+      <c r="M709" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>1812</v>
+      </c>
+      <c r="B710">
+        <v>96</v>
+      </c>
+      <c r="C710" t="s">
+        <v>710</v>
+      </c>
+      <c r="J710" t="s">
+        <v>99</v>
+      </c>
+      <c r="K710">
+        <v>47</v>
+      </c>
+      <c r="L710" t="s">
+        <v>399</v>
+      </c>
+      <c r="M710" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>1812</v>
+      </c>
+      <c r="B711">
+        <v>97</v>
+      </c>
+      <c r="C711" t="s">
+        <v>711</v>
+      </c>
+      <c r="J711" t="s">
+        <v>99</v>
+      </c>
+      <c r="K711">
+        <v>47</v>
+      </c>
+      <c r="L711" t="s">
+        <v>399</v>
+      </c>
+      <c r="M711" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>1812</v>
+      </c>
+      <c r="B712">
+        <v>97</v>
+      </c>
+      <c r="C712" t="s">
+        <v>712</v>
+      </c>
+      <c r="J712" t="s">
+        <v>99</v>
+      </c>
+      <c r="K712">
+        <v>47</v>
+      </c>
+      <c r="L712" t="s">
+        <v>399</v>
+      </c>
+      <c r="M712" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>1812</v>
+      </c>
+      <c r="B713">
+        <v>97</v>
+      </c>
+      <c r="C713" t="s">
+        <v>713</v>
+      </c>
+      <c r="J713" t="s">
+        <v>99</v>
+      </c>
+      <c r="K713">
+        <v>47</v>
+      </c>
+      <c r="L713" t="s">
+        <v>399</v>
+      </c>
+      <c r="M713" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M418" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
+  <autoFilter ref="A1:M646" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925F9D1-2D61-455C-9867-2F7D198529FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F52D168-28E9-47C2-B92B-E40790628FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$715</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="769">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -2181,6 +2181,171 @@
   </si>
   <si>
     <t>Llorens Pujol</t>
+  </si>
+  <si>
+    <t>1749-1770</t>
+  </si>
+  <si>
+    <t>A,2</t>
+  </si>
+  <si>
+    <t>Mas Martí</t>
+  </si>
+  <si>
+    <t>Incognit Planes</t>
+  </si>
+  <si>
+    <t>Civit Incognit</t>
+  </si>
+  <si>
+    <t>Marti Ginesta</t>
+  </si>
+  <si>
+    <t>Pedrós Rey</t>
+  </si>
+  <si>
+    <t>Puig Valles</t>
+  </si>
+  <si>
+    <t>Martí Solé</t>
+  </si>
+  <si>
+    <t>Corberó Thomas</t>
+  </si>
+  <si>
+    <t>Mas Planes</t>
+  </si>
+  <si>
+    <t>Tarragó Solà</t>
+  </si>
+  <si>
+    <t>Gene Arrufat</t>
+  </si>
+  <si>
+    <t>Martí Mas</t>
+  </si>
+  <si>
+    <t>Batlle Vergè</t>
+  </si>
+  <si>
+    <t>Civit Rossell</t>
+  </si>
+  <si>
+    <t>Senallosa Domingo</t>
+  </si>
+  <si>
+    <t>Vilaplana Vergé</t>
+  </si>
+  <si>
+    <t>Solà Mas</t>
+  </si>
+  <si>
+    <t>Cascalló Corberó</t>
+  </si>
+  <si>
+    <t>Duch Sucarrat</t>
+  </si>
+  <si>
+    <t>Gene Palou</t>
+  </si>
+  <si>
+    <t>Pedrós Felip</t>
+  </si>
+  <si>
+    <t>Trepat Valles</t>
+  </si>
+  <si>
+    <t>Martí Roma</t>
+  </si>
+  <si>
+    <t>Agulló Cases</t>
+  </si>
+  <si>
+    <t>Font Fortuny</t>
+  </si>
+  <si>
+    <t>Cascalló Ribes</t>
+  </si>
+  <si>
+    <t>Queral Vergé</t>
+  </si>
+  <si>
+    <t>Mata Senallosa</t>
+  </si>
+  <si>
+    <t>Cuberes Solsona</t>
+  </si>
+  <si>
+    <t>Tarroja Pujades</t>
+  </si>
+  <si>
+    <t>Falcó Mas</t>
+  </si>
+  <si>
+    <t>Falcó Torruella</t>
+  </si>
+  <si>
+    <t>Vergé Galceran</t>
+  </si>
+  <si>
+    <t>Pallas Pujal</t>
+  </si>
+  <si>
+    <t>Mas Torren</t>
+  </si>
+  <si>
+    <t>Dalmau Vallés</t>
+  </si>
+  <si>
+    <t>Coll Fabregat</t>
+  </si>
+  <si>
+    <t>Mosset Rubiol</t>
+  </si>
+  <si>
+    <t>Vergé Tapies</t>
+  </si>
+  <si>
+    <t>Civit Serra</t>
+  </si>
+  <si>
+    <t>Vergé Mas</t>
+  </si>
+  <si>
+    <t>Curcó Pujol</t>
+  </si>
+  <si>
+    <t>Pujol Roigé</t>
+  </si>
+  <si>
+    <t>Cascalló Druet</t>
+  </si>
+  <si>
+    <t>Mas Roige</t>
+  </si>
+  <si>
+    <t>Pujol Prats</t>
+  </si>
+  <si>
+    <t>Salvat Bonjorn</t>
+  </si>
+  <si>
+    <t>Torra Balagué</t>
+  </si>
+  <si>
+    <t>Sucarrat Pera</t>
+  </si>
+  <si>
+    <t>Mosset Codina</t>
+  </si>
+  <si>
+    <t>Ponsarnau Palou</t>
+  </si>
+  <si>
+    <t>Batalla Tarroja</t>
+  </si>
+  <si>
+    <t>vergé Mas</t>
   </si>
 </sst>
 </file>
@@ -2535,11 +2700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:N713"/>
+  <dimension ref="A1:N767"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A714" sqref="A714"/>
+      <pane ySplit="1" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A768" sqref="A768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19055,8 +19220,1250 @@
         <v>398</v>
       </c>
     </row>
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>1749</v>
+      </c>
+      <c r="B714">
+        <v>3</v>
+      </c>
+      <c r="C714" t="s">
+        <v>716</v>
+      </c>
+      <c r="J714" t="s">
+        <v>99</v>
+      </c>
+      <c r="K714">
+        <v>47</v>
+      </c>
+      <c r="L714" t="s">
+        <v>715</v>
+      </c>
+      <c r="M714" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>1750</v>
+      </c>
+      <c r="B715">
+        <v>3</v>
+      </c>
+      <c r="C715" t="s">
+        <v>717</v>
+      </c>
+      <c r="J715" t="s">
+        <v>99</v>
+      </c>
+      <c r="K715">
+        <v>47</v>
+      </c>
+      <c r="L715" t="s">
+        <v>715</v>
+      </c>
+      <c r="M715" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>1750</v>
+      </c>
+      <c r="B716">
+        <v>4</v>
+      </c>
+      <c r="C716" t="s">
+        <v>718</v>
+      </c>
+      <c r="J716" t="s">
+        <v>99</v>
+      </c>
+      <c r="K716">
+        <v>47</v>
+      </c>
+      <c r="L716" t="s">
+        <v>715</v>
+      </c>
+      <c r="M716" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>1750</v>
+      </c>
+      <c r="B717">
+        <v>4</v>
+      </c>
+      <c r="C717" t="s">
+        <v>719</v>
+      </c>
+      <c r="J717" t="s">
+        <v>99</v>
+      </c>
+      <c r="K717">
+        <v>47</v>
+      </c>
+      <c r="L717" t="s">
+        <v>715</v>
+      </c>
+      <c r="M717" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>1751</v>
+      </c>
+      <c r="B718">
+        <v>5</v>
+      </c>
+      <c r="C718" t="s">
+        <v>720</v>
+      </c>
+      <c r="J718" t="s">
+        <v>99</v>
+      </c>
+      <c r="K718">
+        <v>47</v>
+      </c>
+      <c r="L718" t="s">
+        <v>715</v>
+      </c>
+      <c r="M718" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>1751</v>
+      </c>
+      <c r="B719">
+        <v>5</v>
+      </c>
+      <c r="C719" t="s">
+        <v>724</v>
+      </c>
+      <c r="J719" t="s">
+        <v>99</v>
+      </c>
+      <c r="K719">
+        <v>47</v>
+      </c>
+      <c r="L719" t="s">
+        <v>715</v>
+      </c>
+      <c r="M719" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>1751</v>
+      </c>
+      <c r="B720">
+        <v>5</v>
+      </c>
+      <c r="C720" t="s">
+        <v>721</v>
+      </c>
+      <c r="J720" t="s">
+        <v>99</v>
+      </c>
+      <c r="K720">
+        <v>47</v>
+      </c>
+      <c r="L720" t="s">
+        <v>715</v>
+      </c>
+      <c r="M720" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>1753</v>
+      </c>
+      <c r="B721">
+        <v>6</v>
+      </c>
+      <c r="C721" t="s">
+        <v>722</v>
+      </c>
+      <c r="J721" t="s">
+        <v>99</v>
+      </c>
+      <c r="K721">
+        <v>47</v>
+      </c>
+      <c r="L721" t="s">
+        <v>715</v>
+      </c>
+      <c r="M721" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>1753</v>
+      </c>
+      <c r="B722">
+        <v>6</v>
+      </c>
+      <c r="C722" t="s">
+        <v>723</v>
+      </c>
+      <c r="J722" t="s">
+        <v>99</v>
+      </c>
+      <c r="K722">
+        <v>47</v>
+      </c>
+      <c r="L722" t="s">
+        <v>715</v>
+      </c>
+      <c r="M722" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>1753</v>
+      </c>
+      <c r="B723">
+        <v>7</v>
+      </c>
+      <c r="C723" t="s">
+        <v>725</v>
+      </c>
+      <c r="J723" t="s">
+        <v>99</v>
+      </c>
+      <c r="K723">
+        <v>47</v>
+      </c>
+      <c r="L723" t="s">
+        <v>715</v>
+      </c>
+      <c r="M723" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>1753</v>
+      </c>
+      <c r="B724">
+        <v>7</v>
+      </c>
+      <c r="C724" t="s">
+        <v>726</v>
+      </c>
+      <c r="J724" t="s">
+        <v>99</v>
+      </c>
+      <c r="K724">
+        <v>47</v>
+      </c>
+      <c r="L724" t="s">
+        <v>715</v>
+      </c>
+      <c r="M724" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>1754</v>
+      </c>
+      <c r="B725">
+        <v>7</v>
+      </c>
+      <c r="C725" t="s">
+        <v>727</v>
+      </c>
+      <c r="J725" t="s">
+        <v>99</v>
+      </c>
+      <c r="K725">
+        <v>47</v>
+      </c>
+      <c r="L725" t="s">
+        <v>715</v>
+      </c>
+      <c r="M725" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>1754</v>
+      </c>
+      <c r="B726">
+        <v>8</v>
+      </c>
+      <c r="C726" t="s">
+        <v>728</v>
+      </c>
+      <c r="J726" t="s">
+        <v>99</v>
+      </c>
+      <c r="K726">
+        <v>47</v>
+      </c>
+      <c r="L726" t="s">
+        <v>715</v>
+      </c>
+      <c r="M726" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>1755</v>
+      </c>
+      <c r="B727">
+        <v>9</v>
+      </c>
+      <c r="C727" t="s">
+        <v>729</v>
+      </c>
+      <c r="J727" t="s">
+        <v>99</v>
+      </c>
+      <c r="K727">
+        <v>47</v>
+      </c>
+      <c r="L727" t="s">
+        <v>715</v>
+      </c>
+      <c r="M727" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>1755</v>
+      </c>
+      <c r="B728">
+        <v>9</v>
+      </c>
+      <c r="C728" t="s">
+        <v>730</v>
+      </c>
+      <c r="J728" t="s">
+        <v>99</v>
+      </c>
+      <c r="K728">
+        <v>47</v>
+      </c>
+      <c r="L728" t="s">
+        <v>715</v>
+      </c>
+      <c r="M728" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>1755</v>
+      </c>
+      <c r="B729">
+        <v>9</v>
+      </c>
+      <c r="C729" t="s">
+        <v>731</v>
+      </c>
+      <c r="J729" t="s">
+        <v>99</v>
+      </c>
+      <c r="K729">
+        <v>47</v>
+      </c>
+      <c r="L729" t="s">
+        <v>715</v>
+      </c>
+      <c r="M729" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>1755</v>
+      </c>
+      <c r="B730">
+        <v>10</v>
+      </c>
+      <c r="C730" t="s">
+        <v>732</v>
+      </c>
+      <c r="J730" t="s">
+        <v>99</v>
+      </c>
+      <c r="K730">
+        <v>47</v>
+      </c>
+      <c r="L730" t="s">
+        <v>715</v>
+      </c>
+      <c r="M730" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>1755</v>
+      </c>
+      <c r="B731">
+        <v>10</v>
+      </c>
+      <c r="C731" t="s">
+        <v>733</v>
+      </c>
+      <c r="J731" t="s">
+        <v>99</v>
+      </c>
+      <c r="K731">
+        <v>47</v>
+      </c>
+      <c r="L731" t="s">
+        <v>715</v>
+      </c>
+      <c r="M731" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>1756</v>
+      </c>
+      <c r="B732">
+        <v>10</v>
+      </c>
+      <c r="C732" t="s">
+        <v>734</v>
+      </c>
+      <c r="J732" t="s">
+        <v>99</v>
+      </c>
+      <c r="K732">
+        <v>47</v>
+      </c>
+      <c r="L732" t="s">
+        <v>715</v>
+      </c>
+      <c r="M732" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>1756</v>
+      </c>
+      <c r="B733">
+        <v>11</v>
+      </c>
+      <c r="C733" t="s">
+        <v>735</v>
+      </c>
+      <c r="J733" t="s">
+        <v>99</v>
+      </c>
+      <c r="K733">
+        <v>47</v>
+      </c>
+      <c r="L733" t="s">
+        <v>715</v>
+      </c>
+      <c r="M733" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>1756</v>
+      </c>
+      <c r="B734">
+        <v>11</v>
+      </c>
+      <c r="C734" t="s">
+        <v>736</v>
+      </c>
+      <c r="J734" t="s">
+        <v>99</v>
+      </c>
+      <c r="K734">
+        <v>47</v>
+      </c>
+      <c r="L734" t="s">
+        <v>715</v>
+      </c>
+      <c r="M734" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>1756</v>
+      </c>
+      <c r="B735">
+        <v>12</v>
+      </c>
+      <c r="C735" t="s">
+        <v>737</v>
+      </c>
+      <c r="J735" t="s">
+        <v>99</v>
+      </c>
+      <c r="K735">
+        <v>47</v>
+      </c>
+      <c r="L735" t="s">
+        <v>715</v>
+      </c>
+      <c r="M735" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>1756</v>
+      </c>
+      <c r="B736">
+        <v>12</v>
+      </c>
+      <c r="C736" t="s">
+        <v>738</v>
+      </c>
+      <c r="J736" t="s">
+        <v>99</v>
+      </c>
+      <c r="K736">
+        <v>47</v>
+      </c>
+      <c r="L736" t="s">
+        <v>715</v>
+      </c>
+      <c r="M736" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>1756</v>
+      </c>
+      <c r="B737">
+        <v>13</v>
+      </c>
+      <c r="C737" t="s">
+        <v>739</v>
+      </c>
+      <c r="J737" t="s">
+        <v>99</v>
+      </c>
+      <c r="K737">
+        <v>47</v>
+      </c>
+      <c r="L737" t="s">
+        <v>715</v>
+      </c>
+      <c r="M737" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>1756</v>
+      </c>
+      <c r="B738">
+        <v>13</v>
+      </c>
+      <c r="C738" t="s">
+        <v>740</v>
+      </c>
+      <c r="J738" t="s">
+        <v>99</v>
+      </c>
+      <c r="K738">
+        <v>47</v>
+      </c>
+      <c r="L738" t="s">
+        <v>715</v>
+      </c>
+      <c r="M738" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>1756</v>
+      </c>
+      <c r="B739">
+        <v>14</v>
+      </c>
+      <c r="C739" t="s">
+        <v>741</v>
+      </c>
+      <c r="J739" t="s">
+        <v>99</v>
+      </c>
+      <c r="K739">
+        <v>47</v>
+      </c>
+      <c r="L739" t="s">
+        <v>715</v>
+      </c>
+      <c r="M739" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>1757</v>
+      </c>
+      <c r="B740">
+        <v>14</v>
+      </c>
+      <c r="C740" t="s">
+        <v>742</v>
+      </c>
+      <c r="J740" t="s">
+        <v>99</v>
+      </c>
+      <c r="K740">
+        <v>47</v>
+      </c>
+      <c r="L740" t="s">
+        <v>715</v>
+      </c>
+      <c r="M740" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>1757</v>
+      </c>
+      <c r="B741">
+        <v>15</v>
+      </c>
+      <c r="C741" t="s">
+        <v>743</v>
+      </c>
+      <c r="J741" t="s">
+        <v>99</v>
+      </c>
+      <c r="K741">
+        <v>47</v>
+      </c>
+      <c r="L741" t="s">
+        <v>715</v>
+      </c>
+      <c r="M741" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>1757</v>
+      </c>
+      <c r="B742">
+        <v>15</v>
+      </c>
+      <c r="C742" t="s">
+        <v>744</v>
+      </c>
+      <c r="J742" t="s">
+        <v>99</v>
+      </c>
+      <c r="K742">
+        <v>47</v>
+      </c>
+      <c r="L742" t="s">
+        <v>715</v>
+      </c>
+      <c r="M742" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>1757</v>
+      </c>
+      <c r="B743">
+        <v>16</v>
+      </c>
+      <c r="C743" t="s">
+        <v>745</v>
+      </c>
+      <c r="J743" t="s">
+        <v>99</v>
+      </c>
+      <c r="K743">
+        <v>47</v>
+      </c>
+      <c r="L743" t="s">
+        <v>715</v>
+      </c>
+      <c r="M743" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>1757</v>
+      </c>
+      <c r="B744">
+        <v>16</v>
+      </c>
+      <c r="C744" t="s">
+        <v>746</v>
+      </c>
+      <c r="J744" t="s">
+        <v>99</v>
+      </c>
+      <c r="K744">
+        <v>47</v>
+      </c>
+      <c r="L744" t="s">
+        <v>715</v>
+      </c>
+      <c r="M744" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>1758</v>
+      </c>
+      <c r="B745">
+        <v>17</v>
+      </c>
+      <c r="C745" t="s">
+        <v>747</v>
+      </c>
+      <c r="J745" t="s">
+        <v>99</v>
+      </c>
+      <c r="K745">
+        <v>47</v>
+      </c>
+      <c r="L745" t="s">
+        <v>715</v>
+      </c>
+      <c r="M745" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>1758</v>
+      </c>
+      <c r="B746">
+        <v>17</v>
+      </c>
+      <c r="C746" t="s">
+        <v>748</v>
+      </c>
+      <c r="J746" t="s">
+        <v>99</v>
+      </c>
+      <c r="K746">
+        <v>47</v>
+      </c>
+      <c r="L746" t="s">
+        <v>715</v>
+      </c>
+      <c r="M746" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>1758</v>
+      </c>
+      <c r="B747">
+        <v>18</v>
+      </c>
+      <c r="C747" t="s">
+        <v>135</v>
+      </c>
+      <c r="J747" t="s">
+        <v>99</v>
+      </c>
+      <c r="K747">
+        <v>47</v>
+      </c>
+      <c r="L747" t="s">
+        <v>715</v>
+      </c>
+      <c r="M747" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>1758</v>
+      </c>
+      <c r="B748">
+        <v>18</v>
+      </c>
+      <c r="C748" t="s">
+        <v>749</v>
+      </c>
+      <c r="J748" t="s">
+        <v>99</v>
+      </c>
+      <c r="K748">
+        <v>47</v>
+      </c>
+      <c r="L748" t="s">
+        <v>715</v>
+      </c>
+      <c r="M748" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>1758</v>
+      </c>
+      <c r="B749">
+        <v>19</v>
+      </c>
+      <c r="C749" t="s">
+        <v>750</v>
+      </c>
+      <c r="J749" t="s">
+        <v>99</v>
+      </c>
+      <c r="K749">
+        <v>47</v>
+      </c>
+      <c r="L749" t="s">
+        <v>715</v>
+      </c>
+      <c r="M749" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>1758</v>
+      </c>
+      <c r="B750">
+        <v>19</v>
+      </c>
+      <c r="C750" t="s">
+        <v>751</v>
+      </c>
+      <c r="J750" t="s">
+        <v>99</v>
+      </c>
+      <c r="K750">
+        <v>47</v>
+      </c>
+      <c r="L750" t="s">
+        <v>715</v>
+      </c>
+      <c r="M750" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>1758</v>
+      </c>
+      <c r="B751">
+        <v>20</v>
+      </c>
+      <c r="C751" t="s">
+        <v>752</v>
+      </c>
+      <c r="J751" t="s">
+        <v>99</v>
+      </c>
+      <c r="K751">
+        <v>47</v>
+      </c>
+      <c r="L751" t="s">
+        <v>715</v>
+      </c>
+      <c r="M751" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>1758</v>
+      </c>
+      <c r="B752">
+        <v>20</v>
+      </c>
+      <c r="C752" t="s">
+        <v>753</v>
+      </c>
+      <c r="J752" t="s">
+        <v>99</v>
+      </c>
+      <c r="K752">
+        <v>47</v>
+      </c>
+      <c r="L752" t="s">
+        <v>715</v>
+      </c>
+      <c r="M752" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>1758</v>
+      </c>
+      <c r="B753">
+        <v>21</v>
+      </c>
+      <c r="C753" t="s">
+        <v>754</v>
+      </c>
+      <c r="J753" t="s">
+        <v>99</v>
+      </c>
+      <c r="K753">
+        <v>47</v>
+      </c>
+      <c r="L753" t="s">
+        <v>715</v>
+      </c>
+      <c r="M753" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>1759</v>
+      </c>
+      <c r="B754">
+        <v>22</v>
+      </c>
+      <c r="C754" t="s">
+        <v>755</v>
+      </c>
+      <c r="J754" t="s">
+        <v>99</v>
+      </c>
+      <c r="K754">
+        <v>47</v>
+      </c>
+      <c r="L754" t="s">
+        <v>715</v>
+      </c>
+      <c r="M754" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>1759</v>
+      </c>
+      <c r="B755">
+        <v>22</v>
+      </c>
+      <c r="C755" t="s">
+        <v>756</v>
+      </c>
+      <c r="J755" t="s">
+        <v>99</v>
+      </c>
+      <c r="K755">
+        <v>47</v>
+      </c>
+      <c r="L755" t="s">
+        <v>715</v>
+      </c>
+      <c r="M755" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>1759</v>
+      </c>
+      <c r="B756">
+        <v>23</v>
+      </c>
+      <c r="C756" t="s">
+        <v>757</v>
+      </c>
+      <c r="J756" t="s">
+        <v>99</v>
+      </c>
+      <c r="K756">
+        <v>47</v>
+      </c>
+      <c r="L756" t="s">
+        <v>715</v>
+      </c>
+      <c r="M756" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>1759</v>
+      </c>
+      <c r="B757">
+        <v>23</v>
+      </c>
+      <c r="C757" t="s">
+        <v>758</v>
+      </c>
+      <c r="J757" t="s">
+        <v>99</v>
+      </c>
+      <c r="K757">
+        <v>47</v>
+      </c>
+      <c r="L757" t="s">
+        <v>715</v>
+      </c>
+      <c r="M757" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>1759</v>
+      </c>
+      <c r="B758">
+        <v>24</v>
+      </c>
+      <c r="C758" t="s">
+        <v>759</v>
+      </c>
+      <c r="J758" t="s">
+        <v>99</v>
+      </c>
+      <c r="K758">
+        <v>47</v>
+      </c>
+      <c r="L758" t="s">
+        <v>715</v>
+      </c>
+      <c r="M758" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>1759</v>
+      </c>
+      <c r="B759">
+        <v>24</v>
+      </c>
+      <c r="C759" t="s">
+        <v>760</v>
+      </c>
+      <c r="J759" t="s">
+        <v>99</v>
+      </c>
+      <c r="K759">
+        <v>47</v>
+      </c>
+      <c r="L759" t="s">
+        <v>715</v>
+      </c>
+      <c r="M759" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>1759</v>
+      </c>
+      <c r="B760">
+        <v>25</v>
+      </c>
+      <c r="C760" t="s">
+        <v>761</v>
+      </c>
+      <c r="J760" t="s">
+        <v>99</v>
+      </c>
+      <c r="K760">
+        <v>47</v>
+      </c>
+      <c r="L760" t="s">
+        <v>715</v>
+      </c>
+      <c r="M760" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>1759</v>
+      </c>
+      <c r="B761">
+        <v>25</v>
+      </c>
+      <c r="C761" t="s">
+        <v>762</v>
+      </c>
+      <c r="J761" t="s">
+        <v>99</v>
+      </c>
+      <c r="K761">
+        <v>47</v>
+      </c>
+      <c r="L761" t="s">
+        <v>715</v>
+      </c>
+      <c r="M761" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>1760</v>
+      </c>
+      <c r="B762">
+        <v>26</v>
+      </c>
+      <c r="C762" t="s">
+        <v>763</v>
+      </c>
+      <c r="J762" t="s">
+        <v>99</v>
+      </c>
+      <c r="K762">
+        <v>47</v>
+      </c>
+      <c r="L762" t="s">
+        <v>715</v>
+      </c>
+      <c r="M762" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>1761</v>
+      </c>
+      <c r="B763">
+        <v>28</v>
+      </c>
+      <c r="C763" t="s">
+        <v>764</v>
+      </c>
+      <c r="J763" t="s">
+        <v>99</v>
+      </c>
+      <c r="K763">
+        <v>47</v>
+      </c>
+      <c r="L763" t="s">
+        <v>715</v>
+      </c>
+      <c r="M763" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>1761</v>
+      </c>
+      <c r="B764">
+        <v>28</v>
+      </c>
+      <c r="C764" t="s">
+        <v>765</v>
+      </c>
+      <c r="J764" t="s">
+        <v>99</v>
+      </c>
+      <c r="K764">
+        <v>47</v>
+      </c>
+      <c r="L764" t="s">
+        <v>715</v>
+      </c>
+      <c r="M764" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>1761</v>
+      </c>
+      <c r="B765">
+        <v>29</v>
+      </c>
+      <c r="C765" t="s">
+        <v>766</v>
+      </c>
+      <c r="J765" t="s">
+        <v>99</v>
+      </c>
+      <c r="K765">
+        <v>47</v>
+      </c>
+      <c r="L765" t="s">
+        <v>715</v>
+      </c>
+      <c r="M765" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>1761</v>
+      </c>
+      <c r="B766">
+        <v>29</v>
+      </c>
+      <c r="C766" t="s">
+        <v>767</v>
+      </c>
+      <c r="J766" t="s">
+        <v>99</v>
+      </c>
+      <c r="K766">
+        <v>47</v>
+      </c>
+      <c r="L766" t="s">
+        <v>715</v>
+      </c>
+      <c r="M766" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>1761</v>
+      </c>
+      <c r="B767">
+        <v>30</v>
+      </c>
+      <c r="C767" t="s">
+        <v>768</v>
+      </c>
+      <c r="J767" t="s">
+        <v>99</v>
+      </c>
+      <c r="K767">
+        <v>47</v>
+      </c>
+      <c r="L767" t="s">
+        <v>715</v>
+      </c>
+      <c r="M767" t="s">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M646" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
+  <autoFilter ref="A1:M715" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F52D168-28E9-47C2-B92B-E40790628FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C876939-D1A2-46E3-B291-769FF02088BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="807">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -2346,6 +2346,120 @@
   </si>
   <si>
     <t>vergé Mas</t>
+  </si>
+  <si>
+    <t>Roige Pons</t>
+  </si>
+  <si>
+    <t>Repetit</t>
+  </si>
+  <si>
+    <t>Valles Massot</t>
+  </si>
+  <si>
+    <t>Segura Palou</t>
+  </si>
+  <si>
+    <t>Druet Pujades</t>
+  </si>
+  <si>
+    <t>Domingo Pera</t>
+  </si>
+  <si>
+    <t>Solsona Melé</t>
+  </si>
+  <si>
+    <t>Roma Redon</t>
+  </si>
+  <si>
+    <t>Vallés Fabregat</t>
+  </si>
+  <si>
+    <t>Pujol Pedrós</t>
+  </si>
+  <si>
+    <t>Batalla Margall</t>
+  </si>
+  <si>
+    <t>Cascalló Pujades</t>
+  </si>
+  <si>
+    <t>Manyach Mas</t>
+  </si>
+  <si>
+    <t>Torrà Eroles</t>
+  </si>
+  <si>
+    <t>Vergé Codina</t>
+  </si>
+  <si>
+    <t>Viladebaix Solà</t>
+  </si>
+  <si>
+    <t>Claverol Siriols</t>
+  </si>
+  <si>
+    <t>Palou Vergé</t>
+  </si>
+  <si>
+    <t>Sabater Valles</t>
+  </si>
+  <si>
+    <t>Mas Thomas</t>
+  </si>
+  <si>
+    <t>Roma Oriola</t>
+  </si>
+  <si>
+    <t>Duart Alexandre</t>
+  </si>
+  <si>
+    <t>Homs Cascalló</t>
+  </si>
+  <si>
+    <t>Navau Santesmases</t>
+  </si>
+  <si>
+    <t>Galceran Rodon</t>
+  </si>
+  <si>
+    <t>Vergé Thomas</t>
+  </si>
+  <si>
+    <t>Roma Vallés</t>
+  </si>
+  <si>
+    <t>Bonjorn Domenech</t>
+  </si>
+  <si>
+    <t>Gine Serra</t>
+  </si>
+  <si>
+    <t>Claverol Roca</t>
+  </si>
+  <si>
+    <t>Carrera Galceran</t>
+  </si>
+  <si>
+    <t>Cases Mas</t>
+  </si>
+  <si>
+    <t>Gispert Agulló</t>
+  </si>
+  <si>
+    <t>Pilfort Teixidó</t>
+  </si>
+  <si>
+    <t>Sunyé Fabregat</t>
+  </si>
+  <si>
+    <t>Mas Giné</t>
+  </si>
+  <si>
+    <t>Pujades Porta</t>
+  </si>
+  <si>
+    <t>Codol ?</t>
   </si>
 </sst>
 </file>
@@ -2700,11 +2814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:N767"/>
+  <dimension ref="A1:N810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A768" sqref="A768"/>
+      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A811" sqref="A811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20462,6 +20576,995 @@
         <v>714</v>
       </c>
     </row>
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>1761</v>
+      </c>
+      <c r="B768">
+        <v>31</v>
+      </c>
+      <c r="C768" t="s">
+        <v>769</v>
+      </c>
+      <c r="J768" t="s">
+        <v>99</v>
+      </c>
+      <c r="K768">
+        <v>47</v>
+      </c>
+      <c r="L768" t="s">
+        <v>715</v>
+      </c>
+      <c r="M768" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>1761</v>
+      </c>
+      <c r="B769">
+        <v>31</v>
+      </c>
+      <c r="C769" t="s">
+        <v>724</v>
+      </c>
+      <c r="J769" t="s">
+        <v>99</v>
+      </c>
+      <c r="K769">
+        <v>47</v>
+      </c>
+      <c r="L769" t="s">
+        <v>715</v>
+      </c>
+      <c r="M769" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>1761</v>
+      </c>
+      <c r="B770">
+        <v>32</v>
+      </c>
+      <c r="C770" t="s">
+        <v>770</v>
+      </c>
+      <c r="J770" t="s">
+        <v>99</v>
+      </c>
+      <c r="K770">
+        <v>47</v>
+      </c>
+      <c r="L770" t="s">
+        <v>715</v>
+      </c>
+      <c r="M770" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>1761</v>
+      </c>
+      <c r="B771">
+        <v>33</v>
+      </c>
+      <c r="C771" t="s">
+        <v>771</v>
+      </c>
+      <c r="J771" t="s">
+        <v>99</v>
+      </c>
+      <c r="K771">
+        <v>47</v>
+      </c>
+      <c r="L771" t="s">
+        <v>715</v>
+      </c>
+      <c r="M771" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>1761</v>
+      </c>
+      <c r="B772">
+        <v>33</v>
+      </c>
+      <c r="C772" t="s">
+        <v>772</v>
+      </c>
+      <c r="J772" t="s">
+        <v>99</v>
+      </c>
+      <c r="K772">
+        <v>47</v>
+      </c>
+      <c r="L772" t="s">
+        <v>715</v>
+      </c>
+      <c r="M772" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>1761</v>
+      </c>
+      <c r="B773">
+        <v>34</v>
+      </c>
+      <c r="C773" t="s">
+        <v>773</v>
+      </c>
+      <c r="J773" t="s">
+        <v>99</v>
+      </c>
+      <c r="K773">
+        <v>47</v>
+      </c>
+      <c r="L773" t="s">
+        <v>715</v>
+      </c>
+      <c r="M773" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>1762</v>
+      </c>
+      <c r="B774">
+        <v>34</v>
+      </c>
+      <c r="C774" t="s">
+        <v>774</v>
+      </c>
+      <c r="J774" t="s">
+        <v>99</v>
+      </c>
+      <c r="K774">
+        <v>47</v>
+      </c>
+      <c r="L774" t="s">
+        <v>715</v>
+      </c>
+      <c r="M774" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>1762</v>
+      </c>
+      <c r="B775">
+        <v>35</v>
+      </c>
+      <c r="C775" t="s">
+        <v>775</v>
+      </c>
+      <c r="J775" t="s">
+        <v>99</v>
+      </c>
+      <c r="K775">
+        <v>47</v>
+      </c>
+      <c r="L775" t="s">
+        <v>715</v>
+      </c>
+      <c r="M775" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>1762</v>
+      </c>
+      <c r="B776">
+        <v>35</v>
+      </c>
+      <c r="C776" t="s">
+        <v>776</v>
+      </c>
+      <c r="J776" t="s">
+        <v>99</v>
+      </c>
+      <c r="K776">
+        <v>47</v>
+      </c>
+      <c r="L776" t="s">
+        <v>715</v>
+      </c>
+      <c r="M776" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>1762</v>
+      </c>
+      <c r="B777">
+        <v>35</v>
+      </c>
+      <c r="C777" t="s">
+        <v>777</v>
+      </c>
+      <c r="J777" t="s">
+        <v>99</v>
+      </c>
+      <c r="K777">
+        <v>47</v>
+      </c>
+      <c r="L777" t="s">
+        <v>715</v>
+      </c>
+      <c r="M777" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>1763</v>
+      </c>
+      <c r="B778">
+        <v>36</v>
+      </c>
+      <c r="C778" t="s">
+        <v>778</v>
+      </c>
+      <c r="J778" t="s">
+        <v>99</v>
+      </c>
+      <c r="K778">
+        <v>47</v>
+      </c>
+      <c r="L778" t="s">
+        <v>715</v>
+      </c>
+      <c r="M778" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>1763</v>
+      </c>
+      <c r="B779">
+        <v>36</v>
+      </c>
+      <c r="C779" t="s">
+        <v>779</v>
+      </c>
+      <c r="J779" t="s">
+        <v>99</v>
+      </c>
+      <c r="K779">
+        <v>47</v>
+      </c>
+      <c r="L779" t="s">
+        <v>715</v>
+      </c>
+      <c r="M779" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>1763</v>
+      </c>
+      <c r="B780">
+        <v>37</v>
+      </c>
+      <c r="C780" t="s">
+        <v>780</v>
+      </c>
+      <c r="J780" t="s">
+        <v>99</v>
+      </c>
+      <c r="K780">
+        <v>47</v>
+      </c>
+      <c r="L780" t="s">
+        <v>715</v>
+      </c>
+      <c r="M780" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>1763</v>
+      </c>
+      <c r="B781">
+        <v>37</v>
+      </c>
+      <c r="C781" t="s">
+        <v>781</v>
+      </c>
+      <c r="J781" t="s">
+        <v>99</v>
+      </c>
+      <c r="K781">
+        <v>47</v>
+      </c>
+      <c r="L781" t="s">
+        <v>715</v>
+      </c>
+      <c r="M781" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>1763</v>
+      </c>
+      <c r="B782">
+        <v>38</v>
+      </c>
+      <c r="C782" t="s">
+        <v>782</v>
+      </c>
+      <c r="J782" t="s">
+        <v>99</v>
+      </c>
+      <c r="K782">
+        <v>47</v>
+      </c>
+      <c r="L782" t="s">
+        <v>715</v>
+      </c>
+      <c r="M782" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>1763</v>
+      </c>
+      <c r="B783">
+        <v>38</v>
+      </c>
+      <c r="C783" t="s">
+        <v>783</v>
+      </c>
+      <c r="J783" t="s">
+        <v>99</v>
+      </c>
+      <c r="K783">
+        <v>47</v>
+      </c>
+      <c r="L783" t="s">
+        <v>715</v>
+      </c>
+      <c r="M783" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>1763</v>
+      </c>
+      <c r="B784">
+        <v>39</v>
+      </c>
+      <c r="C784" t="s">
+        <v>784</v>
+      </c>
+      <c r="J784" t="s">
+        <v>99</v>
+      </c>
+      <c r="K784">
+        <v>47</v>
+      </c>
+      <c r="L784" t="s">
+        <v>715</v>
+      </c>
+      <c r="M784" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>1763</v>
+      </c>
+      <c r="B785">
+        <v>39</v>
+      </c>
+      <c r="C785" t="s">
+        <v>783</v>
+      </c>
+      <c r="J785" t="s">
+        <v>99</v>
+      </c>
+      <c r="K785">
+        <v>47</v>
+      </c>
+      <c r="L785" t="s">
+        <v>715</v>
+      </c>
+      <c r="M785" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>1764</v>
+      </c>
+      <c r="B786">
+        <v>40</v>
+      </c>
+      <c r="C786" t="s">
+        <v>785</v>
+      </c>
+      <c r="J786" t="s">
+        <v>99</v>
+      </c>
+      <c r="K786">
+        <v>47</v>
+      </c>
+      <c r="L786" t="s">
+        <v>715</v>
+      </c>
+      <c r="M786" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>1764</v>
+      </c>
+      <c r="B787">
+        <v>40</v>
+      </c>
+      <c r="C787" t="s">
+        <v>725</v>
+      </c>
+      <c r="J787" t="s">
+        <v>99</v>
+      </c>
+      <c r="K787">
+        <v>47</v>
+      </c>
+      <c r="L787" t="s">
+        <v>715</v>
+      </c>
+      <c r="M787" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>1764</v>
+      </c>
+      <c r="B788">
+        <v>40</v>
+      </c>
+      <c r="C788" t="s">
+        <v>786</v>
+      </c>
+      <c r="J788" t="s">
+        <v>99</v>
+      </c>
+      <c r="K788">
+        <v>47</v>
+      </c>
+      <c r="L788" t="s">
+        <v>715</v>
+      </c>
+      <c r="M788" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>1764</v>
+      </c>
+      <c r="B789">
+        <v>41</v>
+      </c>
+      <c r="C789" t="s">
+        <v>787</v>
+      </c>
+      <c r="J789" t="s">
+        <v>99</v>
+      </c>
+      <c r="K789">
+        <v>47</v>
+      </c>
+      <c r="L789" t="s">
+        <v>715</v>
+      </c>
+      <c r="M789" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>1764</v>
+      </c>
+      <c r="B790">
+        <v>41</v>
+      </c>
+      <c r="C790" t="s">
+        <v>788</v>
+      </c>
+      <c r="J790" t="s">
+        <v>99</v>
+      </c>
+      <c r="K790">
+        <v>47</v>
+      </c>
+      <c r="L790" t="s">
+        <v>715</v>
+      </c>
+      <c r="M790" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>1764</v>
+      </c>
+      <c r="B791">
+        <v>42</v>
+      </c>
+      <c r="C791" t="s">
+        <v>789</v>
+      </c>
+      <c r="J791" t="s">
+        <v>99</v>
+      </c>
+      <c r="K791">
+        <v>47</v>
+      </c>
+      <c r="L791" t="s">
+        <v>715</v>
+      </c>
+      <c r="M791" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>1764</v>
+      </c>
+      <c r="B792">
+        <v>42</v>
+      </c>
+      <c r="C792" t="s">
+        <v>327</v>
+      </c>
+      <c r="J792" t="s">
+        <v>99</v>
+      </c>
+      <c r="K792">
+        <v>47</v>
+      </c>
+      <c r="L792" t="s">
+        <v>715</v>
+      </c>
+      <c r="M792" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>1764</v>
+      </c>
+      <c r="B793">
+        <v>43</v>
+      </c>
+      <c r="C793" t="s">
+        <v>790</v>
+      </c>
+      <c r="J793" t="s">
+        <v>99</v>
+      </c>
+      <c r="K793">
+        <v>47</v>
+      </c>
+      <c r="L793" t="s">
+        <v>715</v>
+      </c>
+      <c r="M793" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>1764</v>
+      </c>
+      <c r="B794">
+        <v>43</v>
+      </c>
+      <c r="C794" t="s">
+        <v>791</v>
+      </c>
+      <c r="J794" t="s">
+        <v>99</v>
+      </c>
+      <c r="K794">
+        <v>47</v>
+      </c>
+      <c r="L794" t="s">
+        <v>715</v>
+      </c>
+      <c r="M794" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>1764</v>
+      </c>
+      <c r="B795">
+        <v>44</v>
+      </c>
+      <c r="C795" t="s">
+        <v>76</v>
+      </c>
+      <c r="J795" t="s">
+        <v>99</v>
+      </c>
+      <c r="K795">
+        <v>47</v>
+      </c>
+      <c r="L795" t="s">
+        <v>715</v>
+      </c>
+      <c r="M795" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>1765</v>
+      </c>
+      <c r="B796">
+        <v>44</v>
+      </c>
+      <c r="C796" t="s">
+        <v>792</v>
+      </c>
+      <c r="J796" t="s">
+        <v>99</v>
+      </c>
+      <c r="K796">
+        <v>47</v>
+      </c>
+      <c r="L796" t="s">
+        <v>715</v>
+      </c>
+      <c r="M796" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>1765</v>
+      </c>
+      <c r="B797">
+        <v>44</v>
+      </c>
+      <c r="C797" t="s">
+        <v>793</v>
+      </c>
+      <c r="J797" t="s">
+        <v>99</v>
+      </c>
+      <c r="K797">
+        <v>47</v>
+      </c>
+      <c r="L797" t="s">
+        <v>715</v>
+      </c>
+      <c r="M797" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>1765</v>
+      </c>
+      <c r="B798">
+        <v>45</v>
+      </c>
+      <c r="C798" t="s">
+        <v>794</v>
+      </c>
+      <c r="J798" t="s">
+        <v>99</v>
+      </c>
+      <c r="K798">
+        <v>47</v>
+      </c>
+      <c r="L798" t="s">
+        <v>715</v>
+      </c>
+      <c r="M798" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>1765</v>
+      </c>
+      <c r="B799">
+        <v>45</v>
+      </c>
+      <c r="C799" t="s">
+        <v>795</v>
+      </c>
+      <c r="J799" t="s">
+        <v>99</v>
+      </c>
+      <c r="K799">
+        <v>47</v>
+      </c>
+      <c r="L799" t="s">
+        <v>715</v>
+      </c>
+      <c r="M799" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>1765</v>
+      </c>
+      <c r="B800">
+        <v>46</v>
+      </c>
+      <c r="C800" t="s">
+        <v>796</v>
+      </c>
+      <c r="J800" t="s">
+        <v>99</v>
+      </c>
+      <c r="K800">
+        <v>47</v>
+      </c>
+      <c r="L800" t="s">
+        <v>715</v>
+      </c>
+      <c r="M800" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>1765</v>
+      </c>
+      <c r="B801">
+        <v>46</v>
+      </c>
+      <c r="C801" t="s">
+        <v>797</v>
+      </c>
+      <c r="J801" t="s">
+        <v>99</v>
+      </c>
+      <c r="K801">
+        <v>47</v>
+      </c>
+      <c r="L801" t="s">
+        <v>715</v>
+      </c>
+      <c r="M801" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>1765</v>
+      </c>
+      <c r="B802">
+        <v>46</v>
+      </c>
+      <c r="C802" t="s">
+        <v>798</v>
+      </c>
+      <c r="J802" t="s">
+        <v>99</v>
+      </c>
+      <c r="K802">
+        <v>47</v>
+      </c>
+      <c r="L802" t="s">
+        <v>715</v>
+      </c>
+      <c r="M802" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>1765</v>
+      </c>
+      <c r="B803">
+        <v>47</v>
+      </c>
+      <c r="C803" t="s">
+        <v>799</v>
+      </c>
+      <c r="J803" t="s">
+        <v>99</v>
+      </c>
+      <c r="K803">
+        <v>47</v>
+      </c>
+      <c r="L803" t="s">
+        <v>715</v>
+      </c>
+      <c r="M803" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>1765</v>
+      </c>
+      <c r="B804">
+        <v>47</v>
+      </c>
+      <c r="C804" t="s">
+        <v>800</v>
+      </c>
+      <c r="J804" t="s">
+        <v>99</v>
+      </c>
+      <c r="K804">
+        <v>47</v>
+      </c>
+      <c r="L804" t="s">
+        <v>715</v>
+      </c>
+      <c r="M804" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>1765</v>
+      </c>
+      <c r="B805">
+        <v>48</v>
+      </c>
+      <c r="C805" t="s">
+        <v>801</v>
+      </c>
+      <c r="J805" t="s">
+        <v>99</v>
+      </c>
+      <c r="K805">
+        <v>47</v>
+      </c>
+      <c r="L805" t="s">
+        <v>715</v>
+      </c>
+      <c r="M805" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>1761</v>
+      </c>
+      <c r="B806">
+        <v>48</v>
+      </c>
+      <c r="C806" t="s">
+        <v>802</v>
+      </c>
+      <c r="J806" t="s">
+        <v>99</v>
+      </c>
+      <c r="K806">
+        <v>47</v>
+      </c>
+      <c r="L806" t="s">
+        <v>715</v>
+      </c>
+      <c r="M806" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>1761</v>
+      </c>
+      <c r="B807">
+        <v>48</v>
+      </c>
+      <c r="C807" t="s">
+        <v>803</v>
+      </c>
+      <c r="J807" t="s">
+        <v>99</v>
+      </c>
+      <c r="K807">
+        <v>47</v>
+      </c>
+      <c r="L807" t="s">
+        <v>715</v>
+      </c>
+      <c r="M807" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>1761</v>
+      </c>
+      <c r="B808">
+        <v>49</v>
+      </c>
+      <c r="C808" t="s">
+        <v>804</v>
+      </c>
+      <c r="J808" t="s">
+        <v>99</v>
+      </c>
+      <c r="K808">
+        <v>47</v>
+      </c>
+      <c r="L808" t="s">
+        <v>715</v>
+      </c>
+      <c r="M808" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>1761</v>
+      </c>
+      <c r="B809">
+        <v>49</v>
+      </c>
+      <c r="C809" t="s">
+        <v>805</v>
+      </c>
+      <c r="J809" t="s">
+        <v>99</v>
+      </c>
+      <c r="K809">
+        <v>47</v>
+      </c>
+      <c r="L809" t="s">
+        <v>715</v>
+      </c>
+      <c r="M809" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>1761</v>
+      </c>
+      <c r="B810">
+        <v>49</v>
+      </c>
+      <c r="C810" t="s">
+        <v>806</v>
+      </c>
+      <c r="J810" t="s">
+        <v>99</v>
+      </c>
+      <c r="K810">
+        <v>47</v>
+      </c>
+      <c r="L810" t="s">
+        <v>715</v>
+      </c>
+      <c r="M810" t="s">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M715" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C876939-D1A2-46E3-B291-769FF02088BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5004A1-8031-4D3D-AF1D-F057D16B394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="890">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -2459,7 +2459,256 @@
     <t>Pujades Porta</t>
   </si>
   <si>
-    <t>Codol ?</t>
+    <t>Codol Esquius</t>
+  </si>
+  <si>
+    <t>Margall Mas</t>
+  </si>
+  <si>
+    <t>Batlle Sunyé</t>
+  </si>
+  <si>
+    <t>Cadena Agulló</t>
+  </si>
+  <si>
+    <t>Civit Boladeres</t>
+  </si>
+  <si>
+    <t>Gine Cascallo</t>
+  </si>
+  <si>
+    <t>Fabregat Roige</t>
+  </si>
+  <si>
+    <t>Torra Duch</t>
+  </si>
+  <si>
+    <t>Falcó Sunyé</t>
+  </si>
+  <si>
+    <t>Roige Massana</t>
+  </si>
+  <si>
+    <t>Gassó Torrent</t>
+  </si>
+  <si>
+    <t>Duart Bosch</t>
+  </si>
+  <si>
+    <t>Pedrós Carles</t>
+  </si>
+  <si>
+    <t>Boldú Badia</t>
+  </si>
+  <si>
+    <t>Serra Tarragó</t>
+  </si>
+  <si>
+    <t>1693-1749</t>
+  </si>
+  <si>
+    <t>A, 1</t>
+  </si>
+  <si>
+    <t>Ortiz Muntaner</t>
+  </si>
+  <si>
+    <t>Castelló Roma</t>
+  </si>
+  <si>
+    <t>Aldabo Borràs</t>
+  </si>
+  <si>
+    <t>Barrill Boria</t>
+  </si>
+  <si>
+    <t>Mirassó Balaguer</t>
+  </si>
+  <si>
+    <t>Cuberes Mirassó</t>
+  </si>
+  <si>
+    <t>Amargall Codina</t>
+  </si>
+  <si>
+    <t>Fabrigues Fontanals</t>
+  </si>
+  <si>
+    <t>Mas Mata</t>
+  </si>
+  <si>
+    <t>Roiger Capdevila</t>
+  </si>
+  <si>
+    <t>Castellà Bosch</t>
+  </si>
+  <si>
+    <t>Figat Monserrat</t>
+  </si>
+  <si>
+    <t>Martí Agulló</t>
+  </si>
+  <si>
+    <t>Lamarca Montaner</t>
+  </si>
+  <si>
+    <t>Batlle Paris</t>
+  </si>
+  <si>
+    <t>Corbi Claret</t>
+  </si>
+  <si>
+    <t>Niubó Gine</t>
+  </si>
+  <si>
+    <t>Casadella Berga</t>
+  </si>
+  <si>
+    <t>Torres Cases</t>
+  </si>
+  <si>
+    <t>Capdevila Agulló</t>
+  </si>
+  <si>
+    <t>Pinies Bosch</t>
+  </si>
+  <si>
+    <t>Farrerich Giné</t>
+  </si>
+  <si>
+    <t>Torruella Alies</t>
+  </si>
+  <si>
+    <t>Fa Amargall</t>
+  </si>
+  <si>
+    <t>Serra Garcia</t>
+  </si>
+  <si>
+    <t>Galitó Cuberes</t>
+  </si>
+  <si>
+    <t>Pallàs Giné</t>
+  </si>
+  <si>
+    <t>Capdevila Borràs</t>
+  </si>
+  <si>
+    <t>Fontalans Farrerich</t>
+  </si>
+  <si>
+    <t>Balaguer Farrer</t>
+  </si>
+  <si>
+    <t>Cava Borràs</t>
+  </si>
+  <si>
+    <t>Verni Pollina</t>
+  </si>
+  <si>
+    <t>Colell Agulló</t>
+  </si>
+  <si>
+    <t>Botet Ganyet</t>
+  </si>
+  <si>
+    <t>Martí Pons</t>
+  </si>
+  <si>
+    <t>Carbonell Cava</t>
+  </si>
+  <si>
+    <t>Serra Casals</t>
+  </si>
+  <si>
+    <t>Ricart Calbis</t>
+  </si>
+  <si>
+    <t>Mora Agulló</t>
+  </si>
+  <si>
+    <t>Martí Soler</t>
+  </si>
+  <si>
+    <t>Agulló Pedrós</t>
+  </si>
+  <si>
+    <t>Giné Moset</t>
+  </si>
+  <si>
+    <t>Mor Marti</t>
+  </si>
+  <si>
+    <t>Oriola Fenoll</t>
+  </si>
+  <si>
+    <t>Curcó Gasol</t>
+  </si>
+  <si>
+    <t>Torres Capdevila</t>
+  </si>
+  <si>
+    <t>Corberó Torrent</t>
+  </si>
+  <si>
+    <t>Folguera Mirassó</t>
+  </si>
+  <si>
+    <t>Balaguer Mas</t>
+  </si>
+  <si>
+    <t>Amargall Formiguera</t>
+  </si>
+  <si>
+    <t>Cluet Mata</t>
+  </si>
+  <si>
+    <t>Capdevila Vilagines</t>
+  </si>
+  <si>
+    <t>Civit Ballverdú</t>
+  </si>
+  <si>
+    <t>Tarabes Cases</t>
+  </si>
+  <si>
+    <t>Bonjorn Rodon</t>
+  </si>
+  <si>
+    <t>Lapera Farrer</t>
+  </si>
+  <si>
+    <t>Roma Gila</t>
+  </si>
+  <si>
+    <t>Novell Galceran</t>
+  </si>
+  <si>
+    <t>Larroja Huguet</t>
+  </si>
+  <si>
+    <t>Torrent Forés</t>
+  </si>
+  <si>
+    <t>Fontanals Palou</t>
+  </si>
+  <si>
+    <t>Serra Cahueres</t>
+  </si>
+  <si>
+    <t>Roiger Fenoll</t>
+  </si>
+  <si>
+    <t>Riuvert Ortiz</t>
+  </si>
+  <si>
+    <t>Morell Fleis</t>
+  </si>
+  <si>
+    <t>Mosset Vergé</t>
+  </si>
+  <si>
+    <t>Capdevila Bondal</t>
   </si>
 </sst>
 </file>
@@ -2814,11 +3063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:N810"/>
+  <dimension ref="A1:N894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A811" sqref="A811"/>
+      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A895" sqref="A895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21429,7 +21678,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B805">
         <v>48</v>
@@ -21452,7 +21701,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="B806">
         <v>48</v>
@@ -21475,7 +21724,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="B807">
         <v>48</v>
@@ -21498,7 +21747,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="B808">
         <v>49</v>
@@ -21521,7 +21770,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="B809">
         <v>49</v>
@@ -21544,7 +21793,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="B810">
         <v>49</v>
@@ -21563,6 +21812,1938 @@
       </c>
       <c r="M810" t="s">
         <v>714</v>
+      </c>
+    </row>
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>1767</v>
+      </c>
+      <c r="B811">
+        <v>50</v>
+      </c>
+      <c r="C811" t="s">
+        <v>807</v>
+      </c>
+      <c r="J811" t="s">
+        <v>99</v>
+      </c>
+      <c r="K811">
+        <v>47</v>
+      </c>
+      <c r="L811" t="s">
+        <v>715</v>
+      </c>
+      <c r="M811" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>1767</v>
+      </c>
+      <c r="B812">
+        <v>50</v>
+      </c>
+      <c r="C812" t="s">
+        <v>808</v>
+      </c>
+      <c r="J812" t="s">
+        <v>99</v>
+      </c>
+      <c r="K812">
+        <v>47</v>
+      </c>
+      <c r="L812" t="s">
+        <v>715</v>
+      </c>
+      <c r="M812" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>1767</v>
+      </c>
+      <c r="B813">
+        <v>50</v>
+      </c>
+      <c r="C813" t="s">
+        <v>809</v>
+      </c>
+      <c r="J813" t="s">
+        <v>99</v>
+      </c>
+      <c r="K813">
+        <v>47</v>
+      </c>
+      <c r="L813" t="s">
+        <v>715</v>
+      </c>
+      <c r="M813" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>1767</v>
+      </c>
+      <c r="B814">
+        <v>51</v>
+      </c>
+      <c r="C814" t="s">
+        <v>810</v>
+      </c>
+      <c r="J814" t="s">
+        <v>99</v>
+      </c>
+      <c r="K814">
+        <v>47</v>
+      </c>
+      <c r="L814" t="s">
+        <v>715</v>
+      </c>
+      <c r="M814" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>1768</v>
+      </c>
+      <c r="B815">
+        <v>51</v>
+      </c>
+      <c r="C815" t="s">
+        <v>525</v>
+      </c>
+      <c r="J815" t="s">
+        <v>99</v>
+      </c>
+      <c r="K815">
+        <v>47</v>
+      </c>
+      <c r="L815" t="s">
+        <v>715</v>
+      </c>
+      <c r="M815" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>1768</v>
+      </c>
+      <c r="B816">
+        <v>51</v>
+      </c>
+      <c r="C816" t="s">
+        <v>811</v>
+      </c>
+      <c r="J816" t="s">
+        <v>99</v>
+      </c>
+      <c r="K816">
+        <v>47</v>
+      </c>
+      <c r="L816" t="s">
+        <v>715</v>
+      </c>
+      <c r="M816" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>1768</v>
+      </c>
+      <c r="B817">
+        <v>52</v>
+      </c>
+      <c r="C817" t="s">
+        <v>812</v>
+      </c>
+      <c r="J817" t="s">
+        <v>99</v>
+      </c>
+      <c r="K817">
+        <v>47</v>
+      </c>
+      <c r="L817" t="s">
+        <v>715</v>
+      </c>
+      <c r="M817" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>1768</v>
+      </c>
+      <c r="B818">
+        <v>52</v>
+      </c>
+      <c r="C818" t="s">
+        <v>813</v>
+      </c>
+      <c r="J818" t="s">
+        <v>99</v>
+      </c>
+      <c r="K818">
+        <v>47</v>
+      </c>
+      <c r="L818" t="s">
+        <v>715</v>
+      </c>
+      <c r="M818" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>1768</v>
+      </c>
+      <c r="B819">
+        <v>53</v>
+      </c>
+      <c r="C819" t="s">
+        <v>814</v>
+      </c>
+      <c r="J819" t="s">
+        <v>99</v>
+      </c>
+      <c r="K819">
+        <v>47</v>
+      </c>
+      <c r="L819" t="s">
+        <v>715</v>
+      </c>
+      <c r="M819" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>1768</v>
+      </c>
+      <c r="B820">
+        <v>53</v>
+      </c>
+      <c r="C820" t="s">
+        <v>815</v>
+      </c>
+      <c r="J820" t="s">
+        <v>99</v>
+      </c>
+      <c r="K820">
+        <v>47</v>
+      </c>
+      <c r="L820" t="s">
+        <v>715</v>
+      </c>
+      <c r="M820" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>1768</v>
+      </c>
+      <c r="B821">
+        <v>54</v>
+      </c>
+      <c r="C821" t="s">
+        <v>816</v>
+      </c>
+      <c r="J821" t="s">
+        <v>99</v>
+      </c>
+      <c r="K821">
+        <v>47</v>
+      </c>
+      <c r="L821" t="s">
+        <v>715</v>
+      </c>
+      <c r="M821" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>1768</v>
+      </c>
+      <c r="B822">
+        <v>54</v>
+      </c>
+      <c r="C822" t="s">
+        <v>817</v>
+      </c>
+      <c r="J822" t="s">
+        <v>99</v>
+      </c>
+      <c r="K822">
+        <v>47</v>
+      </c>
+      <c r="L822" t="s">
+        <v>715</v>
+      </c>
+      <c r="M822" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>1769</v>
+      </c>
+      <c r="B823">
+        <v>55</v>
+      </c>
+      <c r="C823" t="s">
+        <v>818</v>
+      </c>
+      <c r="J823" t="s">
+        <v>99</v>
+      </c>
+      <c r="K823">
+        <v>47</v>
+      </c>
+      <c r="L823" t="s">
+        <v>715</v>
+      </c>
+      <c r="M823" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>1769</v>
+      </c>
+      <c r="B824">
+        <v>55</v>
+      </c>
+      <c r="C824" t="s">
+        <v>819</v>
+      </c>
+      <c r="J824" t="s">
+        <v>99</v>
+      </c>
+      <c r="K824">
+        <v>47</v>
+      </c>
+      <c r="L824" t="s">
+        <v>715</v>
+      </c>
+      <c r="M824" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>1769</v>
+      </c>
+      <c r="B825">
+        <v>56</v>
+      </c>
+      <c r="C825" t="s">
+        <v>820</v>
+      </c>
+      <c r="J825" t="s">
+        <v>99</v>
+      </c>
+      <c r="K825">
+        <v>47</v>
+      </c>
+      <c r="L825" t="s">
+        <v>715</v>
+      </c>
+      <c r="M825" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>1693</v>
+      </c>
+      <c r="B826">
+        <v>3</v>
+      </c>
+      <c r="C826" t="s">
+        <v>823</v>
+      </c>
+      <c r="J826" t="s">
+        <v>99</v>
+      </c>
+      <c r="K826">
+        <v>47</v>
+      </c>
+      <c r="L826" t="s">
+        <v>822</v>
+      </c>
+      <c r="M826" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>1693</v>
+      </c>
+      <c r="B827">
+        <v>3</v>
+      </c>
+      <c r="C827" t="s">
+        <v>824</v>
+      </c>
+      <c r="J827" t="s">
+        <v>99</v>
+      </c>
+      <c r="K827">
+        <v>47</v>
+      </c>
+      <c r="L827" t="s">
+        <v>822</v>
+      </c>
+      <c r="M827" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>1693</v>
+      </c>
+      <c r="B828">
+        <v>3</v>
+      </c>
+      <c r="C828" t="s">
+        <v>825</v>
+      </c>
+      <c r="J828" t="s">
+        <v>99</v>
+      </c>
+      <c r="K828">
+        <v>47</v>
+      </c>
+      <c r="L828" t="s">
+        <v>822</v>
+      </c>
+      <c r="M828" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>1694</v>
+      </c>
+      <c r="B829">
+        <v>4</v>
+      </c>
+      <c r="C829" t="s">
+        <v>826</v>
+      </c>
+      <c r="J829" t="s">
+        <v>99</v>
+      </c>
+      <c r="K829">
+        <v>47</v>
+      </c>
+      <c r="L829" t="s">
+        <v>822</v>
+      </c>
+      <c r="M829" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>1694</v>
+      </c>
+      <c r="B830">
+        <v>4</v>
+      </c>
+      <c r="C830" t="s">
+        <v>827</v>
+      </c>
+      <c r="J830" t="s">
+        <v>99</v>
+      </c>
+      <c r="K830">
+        <v>47</v>
+      </c>
+      <c r="L830" t="s">
+        <v>822</v>
+      </c>
+      <c r="M830" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>1694</v>
+      </c>
+      <c r="B831">
+        <v>4</v>
+      </c>
+      <c r="C831" t="s">
+        <v>828</v>
+      </c>
+      <c r="J831" t="s">
+        <v>99</v>
+      </c>
+      <c r="K831">
+        <v>47</v>
+      </c>
+      <c r="L831" t="s">
+        <v>822</v>
+      </c>
+      <c r="M831" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>1694</v>
+      </c>
+      <c r="B832">
+        <v>4</v>
+      </c>
+      <c r="C832" t="s">
+        <v>829</v>
+      </c>
+      <c r="J832" t="s">
+        <v>99</v>
+      </c>
+      <c r="K832">
+        <v>47</v>
+      </c>
+      <c r="L832" t="s">
+        <v>822</v>
+      </c>
+      <c r="M832" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>1694</v>
+      </c>
+      <c r="B833">
+        <v>4</v>
+      </c>
+      <c r="C833" t="s">
+        <v>830</v>
+      </c>
+      <c r="J833" t="s">
+        <v>99</v>
+      </c>
+      <c r="K833">
+        <v>47</v>
+      </c>
+      <c r="L833" t="s">
+        <v>822</v>
+      </c>
+      <c r="M833" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>1694</v>
+      </c>
+      <c r="B834">
+        <v>4</v>
+      </c>
+      <c r="C834" t="s">
+        <v>831</v>
+      </c>
+      <c r="J834" t="s">
+        <v>99</v>
+      </c>
+      <c r="K834">
+        <v>47</v>
+      </c>
+      <c r="L834" t="s">
+        <v>822</v>
+      </c>
+      <c r="M834" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>1694</v>
+      </c>
+      <c r="B835">
+        <v>5</v>
+      </c>
+      <c r="C835" t="s">
+        <v>832</v>
+      </c>
+      <c r="J835" t="s">
+        <v>99</v>
+      </c>
+      <c r="K835">
+        <v>47</v>
+      </c>
+      <c r="L835" t="s">
+        <v>822</v>
+      </c>
+      <c r="M835" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>1694</v>
+      </c>
+      <c r="B836">
+        <v>5</v>
+      </c>
+      <c r="C836" t="s">
+        <v>833</v>
+      </c>
+      <c r="J836" t="s">
+        <v>99</v>
+      </c>
+      <c r="K836">
+        <v>47</v>
+      </c>
+      <c r="L836" t="s">
+        <v>822</v>
+      </c>
+      <c r="M836" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>1694</v>
+      </c>
+      <c r="B837">
+        <v>5</v>
+      </c>
+      <c r="C837" t="s">
+        <v>834</v>
+      </c>
+      <c r="J837" t="s">
+        <v>99</v>
+      </c>
+      <c r="K837">
+        <v>47</v>
+      </c>
+      <c r="L837" t="s">
+        <v>822</v>
+      </c>
+      <c r="M837" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>1694</v>
+      </c>
+      <c r="B838">
+        <v>5</v>
+      </c>
+      <c r="C838" t="s">
+        <v>835</v>
+      </c>
+      <c r="J838" t="s">
+        <v>99</v>
+      </c>
+      <c r="K838">
+        <v>47</v>
+      </c>
+      <c r="L838" t="s">
+        <v>822</v>
+      </c>
+      <c r="M838" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>1694</v>
+      </c>
+      <c r="B839">
+        <v>5</v>
+      </c>
+      <c r="C839" t="s">
+        <v>836</v>
+      </c>
+      <c r="J839" t="s">
+        <v>99</v>
+      </c>
+      <c r="K839">
+        <v>47</v>
+      </c>
+      <c r="L839" t="s">
+        <v>822</v>
+      </c>
+      <c r="M839" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>1694</v>
+      </c>
+      <c r="B840">
+        <v>5</v>
+      </c>
+      <c r="C840" t="s">
+        <v>837</v>
+      </c>
+      <c r="J840" t="s">
+        <v>99</v>
+      </c>
+      <c r="K840">
+        <v>47</v>
+      </c>
+      <c r="L840" t="s">
+        <v>822</v>
+      </c>
+      <c r="M840" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>1695</v>
+      </c>
+      <c r="B841">
+        <v>6</v>
+      </c>
+      <c r="C841" t="s">
+        <v>838</v>
+      </c>
+      <c r="J841" t="s">
+        <v>99</v>
+      </c>
+      <c r="K841">
+        <v>47</v>
+      </c>
+      <c r="L841" t="s">
+        <v>822</v>
+      </c>
+      <c r="M841" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>1695</v>
+      </c>
+      <c r="B842">
+        <v>6</v>
+      </c>
+      <c r="C842" t="s">
+        <v>839</v>
+      </c>
+      <c r="J842" t="s">
+        <v>99</v>
+      </c>
+      <c r="K842">
+        <v>47</v>
+      </c>
+      <c r="L842" t="s">
+        <v>822</v>
+      </c>
+      <c r="M842" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>1696</v>
+      </c>
+      <c r="B843">
+        <v>6</v>
+      </c>
+      <c r="C843" t="s">
+        <v>840</v>
+      </c>
+      <c r="J843" t="s">
+        <v>99</v>
+      </c>
+      <c r="K843">
+        <v>47</v>
+      </c>
+      <c r="L843" t="s">
+        <v>822</v>
+      </c>
+      <c r="M843" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>1696</v>
+      </c>
+      <c r="B844">
+        <v>6</v>
+      </c>
+      <c r="C844" t="s">
+        <v>841</v>
+      </c>
+      <c r="J844" t="s">
+        <v>99</v>
+      </c>
+      <c r="K844">
+        <v>47</v>
+      </c>
+      <c r="L844" t="s">
+        <v>822</v>
+      </c>
+      <c r="M844" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>1696</v>
+      </c>
+      <c r="B845">
+        <v>6</v>
+      </c>
+      <c r="C845" t="s">
+        <v>842</v>
+      </c>
+      <c r="J845" t="s">
+        <v>99</v>
+      </c>
+      <c r="K845">
+        <v>47</v>
+      </c>
+      <c r="L845" t="s">
+        <v>822</v>
+      </c>
+      <c r="M845" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>1696</v>
+      </c>
+      <c r="B846">
+        <v>6</v>
+      </c>
+      <c r="C846" t="s">
+        <v>843</v>
+      </c>
+      <c r="J846" t="s">
+        <v>99</v>
+      </c>
+      <c r="K846">
+        <v>47</v>
+      </c>
+      <c r="L846" t="s">
+        <v>822</v>
+      </c>
+      <c r="M846" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>1697</v>
+      </c>
+      <c r="B847">
+        <v>7</v>
+      </c>
+      <c r="C847" t="s">
+        <v>844</v>
+      </c>
+      <c r="J847" t="s">
+        <v>99</v>
+      </c>
+      <c r="K847">
+        <v>47</v>
+      </c>
+      <c r="L847" t="s">
+        <v>822</v>
+      </c>
+      <c r="M847" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>1697</v>
+      </c>
+      <c r="B848">
+        <v>7</v>
+      </c>
+      <c r="C848" t="s">
+        <v>845</v>
+      </c>
+      <c r="J848" t="s">
+        <v>99</v>
+      </c>
+      <c r="K848">
+        <v>47</v>
+      </c>
+      <c r="L848" t="s">
+        <v>822</v>
+      </c>
+      <c r="M848" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>1697</v>
+      </c>
+      <c r="B849">
+        <v>7</v>
+      </c>
+      <c r="C849" t="s">
+        <v>846</v>
+      </c>
+      <c r="J849" t="s">
+        <v>99</v>
+      </c>
+      <c r="K849">
+        <v>47</v>
+      </c>
+      <c r="L849" t="s">
+        <v>822</v>
+      </c>
+      <c r="M849" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>1697</v>
+      </c>
+      <c r="B850">
+        <v>7</v>
+      </c>
+      <c r="C850" t="s">
+        <v>847</v>
+      </c>
+      <c r="J850" t="s">
+        <v>99</v>
+      </c>
+      <c r="K850">
+        <v>47</v>
+      </c>
+      <c r="L850" t="s">
+        <v>822</v>
+      </c>
+      <c r="M850" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>1697</v>
+      </c>
+      <c r="B851">
+        <v>7</v>
+      </c>
+      <c r="C851" t="s">
+        <v>848</v>
+      </c>
+      <c r="J851" t="s">
+        <v>99</v>
+      </c>
+      <c r="K851">
+        <v>47</v>
+      </c>
+      <c r="L851" t="s">
+        <v>822</v>
+      </c>
+      <c r="M851" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>1697</v>
+      </c>
+      <c r="B852">
+        <v>7</v>
+      </c>
+      <c r="C852" t="s">
+        <v>849</v>
+      </c>
+      <c r="J852" t="s">
+        <v>99</v>
+      </c>
+      <c r="K852">
+        <v>47</v>
+      </c>
+      <c r="L852" t="s">
+        <v>822</v>
+      </c>
+      <c r="M852" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>1697</v>
+      </c>
+      <c r="B853">
+        <v>8</v>
+      </c>
+      <c r="C853" t="s">
+        <v>850</v>
+      </c>
+      <c r="J853" t="s">
+        <v>99</v>
+      </c>
+      <c r="K853">
+        <v>47</v>
+      </c>
+      <c r="L853" t="s">
+        <v>822</v>
+      </c>
+      <c r="M853" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>1698</v>
+      </c>
+      <c r="B854">
+        <v>8</v>
+      </c>
+      <c r="C854" t="s">
+        <v>851</v>
+      </c>
+      <c r="J854" t="s">
+        <v>99</v>
+      </c>
+      <c r="K854">
+        <v>47</v>
+      </c>
+      <c r="L854" t="s">
+        <v>822</v>
+      </c>
+      <c r="M854" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>1698</v>
+      </c>
+      <c r="B855">
+        <v>8</v>
+      </c>
+      <c r="C855" t="s">
+        <v>852</v>
+      </c>
+      <c r="J855" t="s">
+        <v>99</v>
+      </c>
+      <c r="K855">
+        <v>47</v>
+      </c>
+      <c r="L855" t="s">
+        <v>822</v>
+      </c>
+      <c r="M855" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>1698</v>
+      </c>
+      <c r="B856">
+        <v>8</v>
+      </c>
+      <c r="C856" t="s">
+        <v>853</v>
+      </c>
+      <c r="J856" t="s">
+        <v>99</v>
+      </c>
+      <c r="K856">
+        <v>47</v>
+      </c>
+      <c r="L856" t="s">
+        <v>822</v>
+      </c>
+      <c r="M856" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>1699</v>
+      </c>
+      <c r="B857">
+        <v>8</v>
+      </c>
+      <c r="C857" t="s">
+        <v>854</v>
+      </c>
+      <c r="J857" t="s">
+        <v>99</v>
+      </c>
+      <c r="K857">
+        <v>47</v>
+      </c>
+      <c r="L857" t="s">
+        <v>822</v>
+      </c>
+      <c r="M857" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>1699</v>
+      </c>
+      <c r="B858">
+        <v>8</v>
+      </c>
+      <c r="C858" t="s">
+        <v>797</v>
+      </c>
+      <c r="J858" t="s">
+        <v>99</v>
+      </c>
+      <c r="K858">
+        <v>47</v>
+      </c>
+      <c r="L858" t="s">
+        <v>822</v>
+      </c>
+      <c r="M858" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>1699</v>
+      </c>
+      <c r="B859">
+        <v>9</v>
+      </c>
+      <c r="C859" t="s">
+        <v>855</v>
+      </c>
+      <c r="J859" t="s">
+        <v>99</v>
+      </c>
+      <c r="K859">
+        <v>47</v>
+      </c>
+      <c r="L859" t="s">
+        <v>822</v>
+      </c>
+      <c r="M859" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>1700</v>
+      </c>
+      <c r="B860">
+        <v>9</v>
+      </c>
+      <c r="C860" t="s">
+        <v>856</v>
+      </c>
+      <c r="J860" t="s">
+        <v>99</v>
+      </c>
+      <c r="K860">
+        <v>47</v>
+      </c>
+      <c r="L860" t="s">
+        <v>822</v>
+      </c>
+      <c r="M860" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>1700</v>
+      </c>
+      <c r="B861">
+        <v>9</v>
+      </c>
+      <c r="C861" t="s">
+        <v>857</v>
+      </c>
+      <c r="J861" t="s">
+        <v>99</v>
+      </c>
+      <c r="K861">
+        <v>47</v>
+      </c>
+      <c r="L861" t="s">
+        <v>822</v>
+      </c>
+      <c r="M861" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>1700</v>
+      </c>
+      <c r="B862">
+        <v>9</v>
+      </c>
+      <c r="C862" t="s">
+        <v>858</v>
+      </c>
+      <c r="J862" t="s">
+        <v>99</v>
+      </c>
+      <c r="K862">
+        <v>47</v>
+      </c>
+      <c r="L862" t="s">
+        <v>822</v>
+      </c>
+      <c r="M862" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>1702</v>
+      </c>
+      <c r="B863">
+        <v>9</v>
+      </c>
+      <c r="C863" t="s">
+        <v>859</v>
+      </c>
+      <c r="J863" t="s">
+        <v>99</v>
+      </c>
+      <c r="K863">
+        <v>47</v>
+      </c>
+      <c r="L863" t="s">
+        <v>822</v>
+      </c>
+      <c r="M863" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>1702</v>
+      </c>
+      <c r="B864">
+        <v>9</v>
+      </c>
+      <c r="C864" t="s">
+        <v>860</v>
+      </c>
+      <c r="J864" t="s">
+        <v>99</v>
+      </c>
+      <c r="K864">
+        <v>47</v>
+      </c>
+      <c r="L864" t="s">
+        <v>822</v>
+      </c>
+      <c r="M864" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>1703</v>
+      </c>
+      <c r="B865">
+        <v>10</v>
+      </c>
+      <c r="C865" t="s">
+        <v>861</v>
+      </c>
+      <c r="J865" t="s">
+        <v>99</v>
+      </c>
+      <c r="K865">
+        <v>47</v>
+      </c>
+      <c r="L865" t="s">
+        <v>822</v>
+      </c>
+      <c r="M865" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>1703</v>
+      </c>
+      <c r="B866">
+        <v>10</v>
+      </c>
+      <c r="C866" t="s">
+        <v>862</v>
+      </c>
+      <c r="J866" t="s">
+        <v>99</v>
+      </c>
+      <c r="K866">
+        <v>47</v>
+      </c>
+      <c r="L866" t="s">
+        <v>822</v>
+      </c>
+      <c r="M866" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>1704</v>
+      </c>
+      <c r="B867">
+        <v>10</v>
+      </c>
+      <c r="C867" t="s">
+        <v>664</v>
+      </c>
+      <c r="J867" t="s">
+        <v>99</v>
+      </c>
+      <c r="K867">
+        <v>47</v>
+      </c>
+      <c r="L867" t="s">
+        <v>822</v>
+      </c>
+      <c r="M867" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>1704</v>
+      </c>
+      <c r="B868">
+        <v>10</v>
+      </c>
+      <c r="C868" t="s">
+        <v>863</v>
+      </c>
+      <c r="J868" t="s">
+        <v>99</v>
+      </c>
+      <c r="K868">
+        <v>47</v>
+      </c>
+      <c r="L868" t="s">
+        <v>822</v>
+      </c>
+      <c r="M868" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>1704</v>
+      </c>
+      <c r="B869">
+        <v>10</v>
+      </c>
+      <c r="C869" t="s">
+        <v>864</v>
+      </c>
+      <c r="J869" t="s">
+        <v>99</v>
+      </c>
+      <c r="K869">
+        <v>47</v>
+      </c>
+      <c r="L869" t="s">
+        <v>822</v>
+      </c>
+      <c r="M869" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>1704</v>
+      </c>
+      <c r="B870">
+        <v>10</v>
+      </c>
+      <c r="C870" t="s">
+        <v>865</v>
+      </c>
+      <c r="J870" t="s">
+        <v>99</v>
+      </c>
+      <c r="K870">
+        <v>47</v>
+      </c>
+      <c r="L870" t="s">
+        <v>822</v>
+      </c>
+      <c r="M870" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>1704</v>
+      </c>
+      <c r="B871">
+        <v>11</v>
+      </c>
+      <c r="C871" t="s">
+        <v>866</v>
+      </c>
+      <c r="J871" t="s">
+        <v>99</v>
+      </c>
+      <c r="K871">
+        <v>47</v>
+      </c>
+      <c r="L871" t="s">
+        <v>822</v>
+      </c>
+      <c r="M871" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>1704</v>
+      </c>
+      <c r="B872">
+        <v>11</v>
+      </c>
+      <c r="C872" t="s">
+        <v>867</v>
+      </c>
+      <c r="J872" t="s">
+        <v>99</v>
+      </c>
+      <c r="K872">
+        <v>47</v>
+      </c>
+      <c r="L872" t="s">
+        <v>822</v>
+      </c>
+      <c r="M872" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>1704</v>
+      </c>
+      <c r="B873">
+        <v>11</v>
+      </c>
+      <c r="C873" t="s">
+        <v>868</v>
+      </c>
+      <c r="J873" t="s">
+        <v>99</v>
+      </c>
+      <c r="K873">
+        <v>47</v>
+      </c>
+      <c r="L873" t="s">
+        <v>822</v>
+      </c>
+      <c r="M873" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>1705</v>
+      </c>
+      <c r="B874">
+        <v>11</v>
+      </c>
+      <c r="C874" t="s">
+        <v>869</v>
+      </c>
+      <c r="J874" t="s">
+        <v>99</v>
+      </c>
+      <c r="K874">
+        <v>47</v>
+      </c>
+      <c r="L874" t="s">
+        <v>822</v>
+      </c>
+      <c r="M874" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>1705</v>
+      </c>
+      <c r="B875">
+        <v>11</v>
+      </c>
+      <c r="C875" t="s">
+        <v>870</v>
+      </c>
+      <c r="J875" t="s">
+        <v>99</v>
+      </c>
+      <c r="K875">
+        <v>47</v>
+      </c>
+      <c r="L875" t="s">
+        <v>822</v>
+      </c>
+      <c r="M875" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>1705</v>
+      </c>
+      <c r="B876">
+        <v>11</v>
+      </c>
+      <c r="C876" t="s">
+        <v>871</v>
+      </c>
+      <c r="J876" t="s">
+        <v>99</v>
+      </c>
+      <c r="K876">
+        <v>47</v>
+      </c>
+      <c r="L876" t="s">
+        <v>822</v>
+      </c>
+      <c r="M876" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>1705</v>
+      </c>
+      <c r="B877">
+        <v>12</v>
+      </c>
+      <c r="C877" t="s">
+        <v>872</v>
+      </c>
+      <c r="J877" t="s">
+        <v>99</v>
+      </c>
+      <c r="K877">
+        <v>47</v>
+      </c>
+      <c r="L877" t="s">
+        <v>822</v>
+      </c>
+      <c r="M877" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>1705</v>
+      </c>
+      <c r="B878">
+        <v>12</v>
+      </c>
+      <c r="C878" t="s">
+        <v>873</v>
+      </c>
+      <c r="J878" t="s">
+        <v>99</v>
+      </c>
+      <c r="K878">
+        <v>47</v>
+      </c>
+      <c r="L878" t="s">
+        <v>822</v>
+      </c>
+      <c r="M878" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>1706</v>
+      </c>
+      <c r="B879">
+        <v>12</v>
+      </c>
+      <c r="C879" t="s">
+        <v>874</v>
+      </c>
+      <c r="J879" t="s">
+        <v>99</v>
+      </c>
+      <c r="K879">
+        <v>47</v>
+      </c>
+      <c r="L879" t="s">
+        <v>822</v>
+      </c>
+      <c r="M879" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>1707</v>
+      </c>
+      <c r="B880">
+        <v>12</v>
+      </c>
+      <c r="C880" t="s">
+        <v>875</v>
+      </c>
+      <c r="J880" t="s">
+        <v>99</v>
+      </c>
+      <c r="K880">
+        <v>47</v>
+      </c>
+      <c r="L880" t="s">
+        <v>822</v>
+      </c>
+      <c r="M880" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>1707</v>
+      </c>
+      <c r="B881">
+        <v>12</v>
+      </c>
+      <c r="C881" t="s">
+        <v>876</v>
+      </c>
+      <c r="J881" t="s">
+        <v>99</v>
+      </c>
+      <c r="K881">
+        <v>47</v>
+      </c>
+      <c r="L881" t="s">
+        <v>822</v>
+      </c>
+      <c r="M881" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>1707</v>
+      </c>
+      <c r="B882">
+        <v>12</v>
+      </c>
+      <c r="C882" t="s">
+        <v>877</v>
+      </c>
+      <c r="J882" t="s">
+        <v>99</v>
+      </c>
+      <c r="K882">
+        <v>47</v>
+      </c>
+      <c r="L882" t="s">
+        <v>822</v>
+      </c>
+      <c r="M882" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>1707</v>
+      </c>
+      <c r="B883">
+        <v>13</v>
+      </c>
+      <c r="C883" t="s">
+        <v>878</v>
+      </c>
+      <c r="J883" t="s">
+        <v>99</v>
+      </c>
+      <c r="K883">
+        <v>47</v>
+      </c>
+      <c r="L883" t="s">
+        <v>822</v>
+      </c>
+      <c r="M883" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>1707</v>
+      </c>
+      <c r="B884">
+        <v>13</v>
+      </c>
+      <c r="C884" t="s">
+        <v>879</v>
+      </c>
+      <c r="J884" t="s">
+        <v>99</v>
+      </c>
+      <c r="K884">
+        <v>47</v>
+      </c>
+      <c r="L884" t="s">
+        <v>822</v>
+      </c>
+      <c r="M884" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>1707</v>
+      </c>
+      <c r="B885">
+        <v>13</v>
+      </c>
+      <c r="C885" t="s">
+        <v>880</v>
+      </c>
+      <c r="J885" t="s">
+        <v>99</v>
+      </c>
+      <c r="K885">
+        <v>47</v>
+      </c>
+      <c r="L885" t="s">
+        <v>822</v>
+      </c>
+      <c r="M885" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>1707</v>
+      </c>
+      <c r="B886">
+        <v>13</v>
+      </c>
+      <c r="C886" t="s">
+        <v>881</v>
+      </c>
+      <c r="J886" t="s">
+        <v>99</v>
+      </c>
+      <c r="K886">
+        <v>47</v>
+      </c>
+      <c r="L886" t="s">
+        <v>822</v>
+      </c>
+      <c r="M886" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>1707</v>
+      </c>
+      <c r="B887">
+        <v>13</v>
+      </c>
+      <c r="C887" t="s">
+        <v>882</v>
+      </c>
+      <c r="J887" t="s">
+        <v>99</v>
+      </c>
+      <c r="K887">
+        <v>47</v>
+      </c>
+      <c r="L887" t="s">
+        <v>822</v>
+      </c>
+      <c r="M887" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>1707</v>
+      </c>
+      <c r="B888">
+        <v>13</v>
+      </c>
+      <c r="C888" t="s">
+        <v>883</v>
+      </c>
+      <c r="J888" t="s">
+        <v>99</v>
+      </c>
+      <c r="K888">
+        <v>47</v>
+      </c>
+      <c r="L888" t="s">
+        <v>822</v>
+      </c>
+      <c r="M888" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>1707</v>
+      </c>
+      <c r="B889">
+        <v>14</v>
+      </c>
+      <c r="C889" t="s">
+        <v>884</v>
+      </c>
+      <c r="J889" t="s">
+        <v>99</v>
+      </c>
+      <c r="K889">
+        <v>47</v>
+      </c>
+      <c r="L889" t="s">
+        <v>822</v>
+      </c>
+      <c r="M889" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>1708</v>
+      </c>
+      <c r="B890">
+        <v>14</v>
+      </c>
+      <c r="C890" t="s">
+        <v>885</v>
+      </c>
+      <c r="J890" t="s">
+        <v>99</v>
+      </c>
+      <c r="K890">
+        <v>47</v>
+      </c>
+      <c r="L890" t="s">
+        <v>822</v>
+      </c>
+      <c r="M890" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>1709</v>
+      </c>
+      <c r="B891">
+        <v>14</v>
+      </c>
+      <c r="C891" t="s">
+        <v>886</v>
+      </c>
+      <c r="J891" t="s">
+        <v>99</v>
+      </c>
+      <c r="K891">
+        <v>47</v>
+      </c>
+      <c r="L891" t="s">
+        <v>822</v>
+      </c>
+      <c r="M891" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>1709</v>
+      </c>
+      <c r="B892">
+        <v>14</v>
+      </c>
+      <c r="C892" t="s">
+        <v>887</v>
+      </c>
+      <c r="J892" t="s">
+        <v>99</v>
+      </c>
+      <c r="K892">
+        <v>47</v>
+      </c>
+      <c r="L892" t="s">
+        <v>822</v>
+      </c>
+      <c r="M892" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>1709</v>
+      </c>
+      <c r="B893">
+        <v>14</v>
+      </c>
+      <c r="C893" t="s">
+        <v>888</v>
+      </c>
+      <c r="J893" t="s">
+        <v>99</v>
+      </c>
+      <c r="K893">
+        <v>47</v>
+      </c>
+      <c r="L893" t="s">
+        <v>822</v>
+      </c>
+      <c r="M893" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>1709</v>
+      </c>
+      <c r="B894">
+        <v>14</v>
+      </c>
+      <c r="C894" t="s">
+        <v>889</v>
+      </c>
+      <c r="J894" t="s">
+        <v>99</v>
+      </c>
+      <c r="K894">
+        <v>47</v>
+      </c>
+      <c r="L894" t="s">
+        <v>822</v>
+      </c>
+      <c r="M894" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5004A1-8031-4D3D-AF1D-F057D16B394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2356D6E-6883-49EF-A620-F6D9DCB91930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="1014">
   <si>
     <t>Cognoms Familia</t>
   </si>
@@ -2709,6 +2709,378 @@
   </si>
   <si>
     <t>Capdevila Bondal</t>
+  </si>
+  <si>
+    <t>Mosset Rialp</t>
+  </si>
+  <si>
+    <t>Torres Ballverdu</t>
+  </si>
+  <si>
+    <t>Guasch Macia</t>
+  </si>
+  <si>
+    <t>Batlle Mosset</t>
+  </si>
+  <si>
+    <t>Vallés Bonjorn</t>
+  </si>
+  <si>
+    <t>Curcó Giné</t>
+  </si>
+  <si>
+    <t>Trepat Martí</t>
+  </si>
+  <si>
+    <t>Domingo Mas</t>
+  </si>
+  <si>
+    <t>Palou Calaf</t>
+  </si>
+  <si>
+    <t>París Gene</t>
+  </si>
+  <si>
+    <t>Balaguer Martí</t>
+  </si>
+  <si>
+    <t>Pedrós Fabregat</t>
+  </si>
+  <si>
+    <t>Baga Fabregat</t>
+  </si>
+  <si>
+    <t>Pallas Pujades</t>
+  </si>
+  <si>
+    <t>Ques Carbí</t>
+  </si>
+  <si>
+    <t>Solà Vergé</t>
+  </si>
+  <si>
+    <t>Martí Torres</t>
+  </si>
+  <si>
+    <t>Tort Planes</t>
+  </si>
+  <si>
+    <t>Tarragó Roiger</t>
+  </si>
+  <si>
+    <t>Lluch Revert</t>
+  </si>
+  <si>
+    <t>Duch Capdevila</t>
+  </si>
+  <si>
+    <t>Felip Hospital</t>
+  </si>
+  <si>
+    <t>Queralt Agulló</t>
+  </si>
+  <si>
+    <t>Ganyet Fenoll</t>
+  </si>
+  <si>
+    <t>vidal Fontanals</t>
+  </si>
+  <si>
+    <t>Estruch Calaf</t>
+  </si>
+  <si>
+    <t>Saltó Solà</t>
+  </si>
+  <si>
+    <t>Valls Mas</t>
+  </si>
+  <si>
+    <t>Carrera Mosset</t>
+  </si>
+  <si>
+    <t>Ginestà Pallàs</t>
+  </si>
+  <si>
+    <t>Estradé Mosset</t>
+  </si>
+  <si>
+    <t>Batlle Mirassó</t>
+  </si>
+  <si>
+    <t>Mas Roma</t>
+  </si>
+  <si>
+    <t>Rubiol Cors</t>
+  </si>
+  <si>
+    <t>Bellet Roiger</t>
+  </si>
+  <si>
+    <t>Pujades Mas</t>
+  </si>
+  <si>
+    <t>Mata Mosset</t>
+  </si>
+  <si>
+    <t>Cuberes Pujades</t>
+  </si>
+  <si>
+    <t>Fenoll Planes</t>
+  </si>
+  <si>
+    <t>Mas Serra</t>
+  </si>
+  <si>
+    <t>Pujol Druet</t>
+  </si>
+  <si>
+    <t>Giné Mercé</t>
+  </si>
+  <si>
+    <t>Soler Martí</t>
+  </si>
+  <si>
+    <t>Mas Mas</t>
+  </si>
+  <si>
+    <t>Feres Cluet</t>
+  </si>
+  <si>
+    <t>Eroles Roigé</t>
+  </si>
+  <si>
+    <t>Miró Galceran</t>
+  </si>
+  <si>
+    <t>Vidal Lamarca</t>
+  </si>
+  <si>
+    <t>Mas Coll</t>
+  </si>
+  <si>
+    <t>Rosell Gasol</t>
+  </si>
+  <si>
+    <t>Cluet Cluet</t>
+  </si>
+  <si>
+    <t>Planes Roiger</t>
+  </si>
+  <si>
+    <t>Martí Civit</t>
+  </si>
+  <si>
+    <t>Roma Martí</t>
+  </si>
+  <si>
+    <t>Llaudet Marí</t>
+  </si>
+  <si>
+    <t>Mata Tonijoan</t>
+  </si>
+  <si>
+    <t>Fabregat Miraso</t>
+  </si>
+  <si>
+    <t>Roig Farrerich</t>
+  </si>
+  <si>
+    <t>Camrubí Pera</t>
+  </si>
+  <si>
+    <t>Mas Agulló</t>
+  </si>
+  <si>
+    <t>Gavarró Martí</t>
+  </si>
+  <si>
+    <t>Novell Solà</t>
+  </si>
+  <si>
+    <t>Solé Margall</t>
+  </si>
+  <si>
+    <t>Galceran Colell</t>
+  </si>
+  <si>
+    <t>Casals Pedrós</t>
+  </si>
+  <si>
+    <t>Agulló Arqullol</t>
+  </si>
+  <si>
+    <t>Mosset Agulló</t>
+  </si>
+  <si>
+    <t>Arrufat Monfà</t>
+  </si>
+  <si>
+    <t>Farrerich Plà</t>
+  </si>
+  <si>
+    <t>Mata Vinyes</t>
+  </si>
+  <si>
+    <t>Fabregat Soler</t>
+  </si>
+  <si>
+    <t>Torrent Fabregat</t>
+  </si>
+  <si>
+    <t>Oriola Mosset</t>
+  </si>
+  <si>
+    <t>Agulló Domingo</t>
+  </si>
+  <si>
+    <t>Almenar Gine</t>
+  </si>
+  <si>
+    <t>Torres Roma</t>
+  </si>
+  <si>
+    <t>Torrelles Corberó</t>
+  </si>
+  <si>
+    <t>Curcó Moragues</t>
+  </si>
+  <si>
+    <t>Xandre Pedrós</t>
+  </si>
+  <si>
+    <t>Pedrós Serra</t>
+  </si>
+  <si>
+    <t>Giné Mosset</t>
+  </si>
+  <si>
+    <t>Carulla Cuberes</t>
+  </si>
+  <si>
+    <t>Planes Giné</t>
+  </si>
+  <si>
+    <t>Rodón Graells</t>
+  </si>
+  <si>
+    <t>Vallés Serra</t>
+  </si>
+  <si>
+    <t>Farré Pallàs</t>
+  </si>
+  <si>
+    <t>Boladeres Trilla</t>
+  </si>
+  <si>
+    <t>Renyé Bagà</t>
+  </si>
+  <si>
+    <t>Planes Palou</t>
+  </si>
+  <si>
+    <t>Curcó Aspa</t>
+  </si>
+  <si>
+    <t>Folguera Feliu</t>
+  </si>
+  <si>
+    <t>Folguera Cuberes</t>
+  </si>
+  <si>
+    <t>Giné Faiges</t>
+  </si>
+  <si>
+    <t>Teixidó Palou</t>
+  </si>
+  <si>
+    <t>Guasch Bonjorn</t>
+  </si>
+  <si>
+    <t>Violant Vilaplana</t>
+  </si>
+  <si>
+    <t>Novell Huguet</t>
+  </si>
+  <si>
+    <t>Combes Mosset</t>
+  </si>
+  <si>
+    <t>Farreny Mas</t>
+  </si>
+  <si>
+    <t>Mir Solanes</t>
+  </si>
+  <si>
+    <t>Torrent Domingo</t>
+  </si>
+  <si>
+    <t>Fontich Mó</t>
+  </si>
+  <si>
+    <t>Mirassó Druet</t>
+  </si>
+  <si>
+    <t>Civit Torrent</t>
+  </si>
+  <si>
+    <t>Agulló Mó</t>
+  </si>
+  <si>
+    <t>Lluch Pujol</t>
+  </si>
+  <si>
+    <t>Ganyet Agulló</t>
+  </si>
+  <si>
+    <t>Perera Novell</t>
+  </si>
+  <si>
+    <t>Fontanals Camps</t>
+  </si>
+  <si>
+    <t>Garcia Gerené</t>
+  </si>
+  <si>
+    <t>Coll Bosch</t>
+  </si>
+  <si>
+    <t>Planes Amargall</t>
+  </si>
+  <si>
+    <t>Ganyet Soler</t>
+  </si>
+  <si>
+    <t>Oriola Fortuny</t>
+  </si>
+  <si>
+    <t>Gasol Partella</t>
+  </si>
+  <si>
+    <t>Mas Gené</t>
+  </si>
+  <si>
+    <t>Margall Bonjorn</t>
+  </si>
+  <si>
+    <t>Argilés Agulló</t>
+  </si>
+  <si>
+    <t>Torrent Mas</t>
+  </si>
+  <si>
+    <t>Eloi Amargall</t>
+  </si>
+  <si>
+    <t>Roig Pallás</t>
+  </si>
+  <si>
+    <t>Aldosa Roca</t>
+  </si>
+  <si>
+    <t>Martí Pedrós</t>
+  </si>
+  <si>
+    <t>Bellet Colell</t>
   </si>
 </sst>
 </file>
@@ -3063,11 +3435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}">
-  <dimension ref="A1:N894"/>
+  <dimension ref="A1:N1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A895" sqref="A895"/>
+      <pane ySplit="1" topLeftCell="A808" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E984" sqref="E984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23746,6 +24118,3134 @@
         <v>821</v>
       </c>
     </row>
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>1710</v>
+      </c>
+      <c r="B895">
+        <v>15</v>
+      </c>
+      <c r="C895" t="s">
+        <v>890</v>
+      </c>
+      <c r="J895" t="s">
+        <v>99</v>
+      </c>
+      <c r="K895">
+        <v>47</v>
+      </c>
+      <c r="L895" t="s">
+        <v>822</v>
+      </c>
+      <c r="M895" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>1711</v>
+      </c>
+      <c r="B896">
+        <v>15</v>
+      </c>
+      <c r="C896" t="s">
+        <v>891</v>
+      </c>
+      <c r="J896" t="s">
+        <v>99</v>
+      </c>
+      <c r="K896">
+        <v>47</v>
+      </c>
+      <c r="L896" t="s">
+        <v>822</v>
+      </c>
+      <c r="M896" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>1712</v>
+      </c>
+      <c r="B897">
+        <v>15</v>
+      </c>
+      <c r="C897" t="s">
+        <v>892</v>
+      </c>
+      <c r="J897" t="s">
+        <v>99</v>
+      </c>
+      <c r="K897">
+        <v>47</v>
+      </c>
+      <c r="L897" t="s">
+        <v>822</v>
+      </c>
+      <c r="M897" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>1712</v>
+      </c>
+      <c r="B898">
+        <v>15</v>
+      </c>
+      <c r="C898" t="s">
+        <v>125</v>
+      </c>
+      <c r="J898" t="s">
+        <v>99</v>
+      </c>
+      <c r="K898">
+        <v>47</v>
+      </c>
+      <c r="L898" t="s">
+        <v>822</v>
+      </c>
+      <c r="M898" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>1713</v>
+      </c>
+      <c r="B899">
+        <v>16</v>
+      </c>
+      <c r="C899" t="s">
+        <v>893</v>
+      </c>
+      <c r="J899" t="s">
+        <v>99</v>
+      </c>
+      <c r="K899">
+        <v>47</v>
+      </c>
+      <c r="L899" t="s">
+        <v>822</v>
+      </c>
+      <c r="M899" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>1713</v>
+      </c>
+      <c r="B900">
+        <v>16</v>
+      </c>
+      <c r="C900" t="s">
+        <v>894</v>
+      </c>
+      <c r="J900" t="s">
+        <v>99</v>
+      </c>
+      <c r="K900">
+        <v>47</v>
+      </c>
+      <c r="L900" t="s">
+        <v>822</v>
+      </c>
+      <c r="M900" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>1713</v>
+      </c>
+      <c r="B901">
+        <v>16</v>
+      </c>
+      <c r="C901" t="s">
+        <v>895</v>
+      </c>
+      <c r="J901" t="s">
+        <v>99</v>
+      </c>
+      <c r="K901">
+        <v>47</v>
+      </c>
+      <c r="L901" t="s">
+        <v>822</v>
+      </c>
+      <c r="M901" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>1713</v>
+      </c>
+      <c r="B902">
+        <v>17</v>
+      </c>
+      <c r="C902" t="s">
+        <v>896</v>
+      </c>
+      <c r="J902" t="s">
+        <v>99</v>
+      </c>
+      <c r="K902">
+        <v>47</v>
+      </c>
+      <c r="L902" t="s">
+        <v>822</v>
+      </c>
+      <c r="M902" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>1713</v>
+      </c>
+      <c r="B903">
+        <v>17</v>
+      </c>
+      <c r="C903" t="s">
+        <v>897</v>
+      </c>
+      <c r="J903" t="s">
+        <v>99</v>
+      </c>
+      <c r="K903">
+        <v>47</v>
+      </c>
+      <c r="L903" t="s">
+        <v>822</v>
+      </c>
+      <c r="M903" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>1714</v>
+      </c>
+      <c r="B904">
+        <v>17</v>
+      </c>
+      <c r="C904" t="s">
+        <v>898</v>
+      </c>
+      <c r="J904" t="s">
+        <v>99</v>
+      </c>
+      <c r="K904">
+        <v>47</v>
+      </c>
+      <c r="L904" t="s">
+        <v>822</v>
+      </c>
+      <c r="M904" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>1714</v>
+      </c>
+      <c r="B905">
+        <v>18</v>
+      </c>
+      <c r="C905" t="s">
+        <v>899</v>
+      </c>
+      <c r="J905" t="s">
+        <v>99</v>
+      </c>
+      <c r="K905">
+        <v>47</v>
+      </c>
+      <c r="L905" t="s">
+        <v>822</v>
+      </c>
+      <c r="M905" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>1714</v>
+      </c>
+      <c r="B906">
+        <v>18</v>
+      </c>
+      <c r="C906" t="s">
+        <v>900</v>
+      </c>
+      <c r="J906" t="s">
+        <v>99</v>
+      </c>
+      <c r="K906">
+        <v>47</v>
+      </c>
+      <c r="L906" t="s">
+        <v>822</v>
+      </c>
+      <c r="M906" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>1715</v>
+      </c>
+      <c r="B907">
+        <v>18</v>
+      </c>
+      <c r="C907" t="s">
+        <v>901</v>
+      </c>
+      <c r="J907" t="s">
+        <v>99</v>
+      </c>
+      <c r="K907">
+        <v>47</v>
+      </c>
+      <c r="L907" t="s">
+        <v>822</v>
+      </c>
+      <c r="M907" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>1715</v>
+      </c>
+      <c r="B908">
+        <v>18</v>
+      </c>
+      <c r="C908" t="s">
+        <v>902</v>
+      </c>
+      <c r="J908" t="s">
+        <v>99</v>
+      </c>
+      <c r="K908">
+        <v>47</v>
+      </c>
+      <c r="L908" t="s">
+        <v>822</v>
+      </c>
+      <c r="M908" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>1715</v>
+      </c>
+      <c r="B909">
+        <v>19</v>
+      </c>
+      <c r="C909" t="s">
+        <v>903</v>
+      </c>
+      <c r="J909" t="s">
+        <v>99</v>
+      </c>
+      <c r="K909">
+        <v>47</v>
+      </c>
+      <c r="L909" t="s">
+        <v>822</v>
+      </c>
+      <c r="M909" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>1716</v>
+      </c>
+      <c r="B910">
+        <v>19</v>
+      </c>
+      <c r="C910" t="s">
+        <v>904</v>
+      </c>
+      <c r="J910" t="s">
+        <v>99</v>
+      </c>
+      <c r="K910">
+        <v>47</v>
+      </c>
+      <c r="L910" t="s">
+        <v>822</v>
+      </c>
+      <c r="M910" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>1716</v>
+      </c>
+      <c r="B911">
+        <v>19</v>
+      </c>
+      <c r="C911" t="s">
+        <v>333</v>
+      </c>
+      <c r="J911" t="s">
+        <v>99</v>
+      </c>
+      <c r="K911">
+        <v>47</v>
+      </c>
+      <c r="L911" t="s">
+        <v>822</v>
+      </c>
+      <c r="M911" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>1716</v>
+      </c>
+      <c r="B912">
+        <v>19</v>
+      </c>
+      <c r="C912" t="s">
+        <v>905</v>
+      </c>
+      <c r="J912" t="s">
+        <v>99</v>
+      </c>
+      <c r="K912">
+        <v>47</v>
+      </c>
+      <c r="L912" t="s">
+        <v>822</v>
+      </c>
+      <c r="M912" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>1716</v>
+      </c>
+      <c r="B913">
+        <v>20</v>
+      </c>
+      <c r="C913" t="s">
+        <v>906</v>
+      </c>
+      <c r="J913" t="s">
+        <v>99</v>
+      </c>
+      <c r="K913">
+        <v>47</v>
+      </c>
+      <c r="L913" t="s">
+        <v>822</v>
+      </c>
+      <c r="M913" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>1716</v>
+      </c>
+      <c r="B914">
+        <v>20</v>
+      </c>
+      <c r="C914" t="s">
+        <v>907</v>
+      </c>
+      <c r="J914" t="s">
+        <v>99</v>
+      </c>
+      <c r="K914">
+        <v>47</v>
+      </c>
+      <c r="L914" t="s">
+        <v>822</v>
+      </c>
+      <c r="M914" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>1717</v>
+      </c>
+      <c r="B915">
+        <v>20</v>
+      </c>
+      <c r="C915" t="s">
+        <v>908</v>
+      </c>
+      <c r="J915" t="s">
+        <v>99</v>
+      </c>
+      <c r="K915">
+        <v>47</v>
+      </c>
+      <c r="L915" t="s">
+        <v>822</v>
+      </c>
+      <c r="M915" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>1717</v>
+      </c>
+      <c r="B916">
+        <v>21</v>
+      </c>
+      <c r="C916" t="s">
+        <v>909</v>
+      </c>
+      <c r="J916" t="s">
+        <v>99</v>
+      </c>
+      <c r="K916">
+        <v>47</v>
+      </c>
+      <c r="L916" t="s">
+        <v>822</v>
+      </c>
+      <c r="M916" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>1717</v>
+      </c>
+      <c r="B917">
+        <v>21</v>
+      </c>
+      <c r="C917" t="s">
+        <v>570</v>
+      </c>
+      <c r="J917" t="s">
+        <v>99</v>
+      </c>
+      <c r="K917">
+        <v>47</v>
+      </c>
+      <c r="L917" t="s">
+        <v>822</v>
+      </c>
+      <c r="M917" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>1717</v>
+      </c>
+      <c r="B918">
+        <v>21</v>
+      </c>
+      <c r="C918" t="s">
+        <v>910</v>
+      </c>
+      <c r="J918" t="s">
+        <v>99</v>
+      </c>
+      <c r="K918">
+        <v>47</v>
+      </c>
+      <c r="L918" t="s">
+        <v>822</v>
+      </c>
+      <c r="M918" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>1718</v>
+      </c>
+      <c r="B919">
+        <v>22</v>
+      </c>
+      <c r="C919" t="s">
+        <v>911</v>
+      </c>
+      <c r="J919" t="s">
+        <v>99</v>
+      </c>
+      <c r="K919">
+        <v>47</v>
+      </c>
+      <c r="L919" t="s">
+        <v>822</v>
+      </c>
+      <c r="M919" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>1718</v>
+      </c>
+      <c r="B920">
+        <v>22</v>
+      </c>
+      <c r="C920" t="s">
+        <v>912</v>
+      </c>
+      <c r="J920" t="s">
+        <v>99</v>
+      </c>
+      <c r="K920">
+        <v>47</v>
+      </c>
+      <c r="L920" t="s">
+        <v>822</v>
+      </c>
+      <c r="M920" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>1718</v>
+      </c>
+      <c r="B921">
+        <v>22</v>
+      </c>
+      <c r="C921" t="s">
+        <v>913</v>
+      </c>
+      <c r="J921" t="s">
+        <v>99</v>
+      </c>
+      <c r="K921">
+        <v>47</v>
+      </c>
+      <c r="L921" t="s">
+        <v>822</v>
+      </c>
+      <c r="M921" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>1718</v>
+      </c>
+      <c r="B922">
+        <v>22</v>
+      </c>
+      <c r="C922" t="s">
+        <v>914</v>
+      </c>
+      <c r="J922" t="s">
+        <v>99</v>
+      </c>
+      <c r="K922">
+        <v>47</v>
+      </c>
+      <c r="L922" t="s">
+        <v>822</v>
+      </c>
+      <c r="M922" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>1719</v>
+      </c>
+      <c r="B923">
+        <v>23</v>
+      </c>
+      <c r="C923" t="s">
+        <v>915</v>
+      </c>
+      <c r="J923" t="s">
+        <v>99</v>
+      </c>
+      <c r="K923">
+        <v>47</v>
+      </c>
+      <c r="L923" t="s">
+        <v>822</v>
+      </c>
+      <c r="M923" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>1719</v>
+      </c>
+      <c r="B924">
+        <v>23</v>
+      </c>
+      <c r="C924" t="s">
+        <v>916</v>
+      </c>
+      <c r="J924" t="s">
+        <v>99</v>
+      </c>
+      <c r="K924">
+        <v>47</v>
+      </c>
+      <c r="L924" t="s">
+        <v>822</v>
+      </c>
+      <c r="M924" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>1719</v>
+      </c>
+      <c r="B925">
+        <v>23</v>
+      </c>
+      <c r="C925" t="s">
+        <v>917</v>
+      </c>
+      <c r="J925" t="s">
+        <v>99</v>
+      </c>
+      <c r="K925">
+        <v>47</v>
+      </c>
+      <c r="L925" t="s">
+        <v>822</v>
+      </c>
+      <c r="M925" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>1720</v>
+      </c>
+      <c r="B926">
+        <v>24</v>
+      </c>
+      <c r="C926" t="s">
+        <v>918</v>
+      </c>
+      <c r="J926" t="s">
+        <v>99</v>
+      </c>
+      <c r="K926">
+        <v>47</v>
+      </c>
+      <c r="L926" t="s">
+        <v>822</v>
+      </c>
+      <c r="M926" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>1720</v>
+      </c>
+      <c r="B927">
+        <v>24</v>
+      </c>
+      <c r="C927" t="s">
+        <v>919</v>
+      </c>
+      <c r="J927" t="s">
+        <v>99</v>
+      </c>
+      <c r="K927">
+        <v>47</v>
+      </c>
+      <c r="L927" t="s">
+        <v>822</v>
+      </c>
+      <c r="M927" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>1720</v>
+      </c>
+      <c r="B928">
+        <v>24</v>
+      </c>
+      <c r="C928" t="s">
+        <v>920</v>
+      </c>
+      <c r="J928" t="s">
+        <v>99</v>
+      </c>
+      <c r="K928">
+        <v>47</v>
+      </c>
+      <c r="L928" t="s">
+        <v>822</v>
+      </c>
+      <c r="M928" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>1720</v>
+      </c>
+      <c r="B929">
+        <v>24</v>
+      </c>
+      <c r="C929" t="s">
+        <v>921</v>
+      </c>
+      <c r="J929" t="s">
+        <v>99</v>
+      </c>
+      <c r="K929">
+        <v>47</v>
+      </c>
+      <c r="L929" t="s">
+        <v>822</v>
+      </c>
+      <c r="M929" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>1720</v>
+      </c>
+      <c r="B930">
+        <v>25</v>
+      </c>
+      <c r="C930" t="s">
+        <v>922</v>
+      </c>
+      <c r="J930" t="s">
+        <v>99</v>
+      </c>
+      <c r="K930">
+        <v>47</v>
+      </c>
+      <c r="L930" t="s">
+        <v>822</v>
+      </c>
+      <c r="M930" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>1721</v>
+      </c>
+      <c r="B931">
+        <v>25</v>
+      </c>
+      <c r="C931" t="s">
+        <v>923</v>
+      </c>
+      <c r="J931" t="s">
+        <v>99</v>
+      </c>
+      <c r="K931">
+        <v>47</v>
+      </c>
+      <c r="L931" t="s">
+        <v>822</v>
+      </c>
+      <c r="M931" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>1721</v>
+      </c>
+      <c r="B932">
+        <v>25</v>
+      </c>
+      <c r="C932" t="s">
+        <v>558</v>
+      </c>
+      <c r="J932" t="s">
+        <v>99</v>
+      </c>
+      <c r="K932">
+        <v>47</v>
+      </c>
+      <c r="L932" t="s">
+        <v>822</v>
+      </c>
+      <c r="M932" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>1721</v>
+      </c>
+      <c r="B933">
+        <v>26</v>
+      </c>
+      <c r="C933" t="s">
+        <v>924</v>
+      </c>
+      <c r="J933" t="s">
+        <v>99</v>
+      </c>
+      <c r="K933">
+        <v>47</v>
+      </c>
+      <c r="L933" t="s">
+        <v>822</v>
+      </c>
+      <c r="M933" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>1722</v>
+      </c>
+      <c r="B934">
+        <v>26</v>
+      </c>
+      <c r="C934" t="s">
+        <v>925</v>
+      </c>
+      <c r="J934" t="s">
+        <v>99</v>
+      </c>
+      <c r="K934">
+        <v>47</v>
+      </c>
+      <c r="L934" t="s">
+        <v>822</v>
+      </c>
+      <c r="M934" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>1723</v>
+      </c>
+      <c r="B935">
+        <v>26</v>
+      </c>
+      <c r="C935" t="s">
+        <v>926</v>
+      </c>
+      <c r="J935" t="s">
+        <v>99</v>
+      </c>
+      <c r="K935">
+        <v>47</v>
+      </c>
+      <c r="L935" t="s">
+        <v>822</v>
+      </c>
+      <c r="M935" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>1724</v>
+      </c>
+      <c r="B936">
+        <v>26</v>
+      </c>
+      <c r="C936" t="s">
+        <v>927</v>
+      </c>
+      <c r="J936" t="s">
+        <v>99</v>
+      </c>
+      <c r="K936">
+        <v>47</v>
+      </c>
+      <c r="L936" t="s">
+        <v>822</v>
+      </c>
+      <c r="M936" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>1724</v>
+      </c>
+      <c r="B937">
+        <v>26</v>
+      </c>
+      <c r="C937" t="s">
+        <v>928</v>
+      </c>
+      <c r="J937" t="s">
+        <v>99</v>
+      </c>
+      <c r="K937">
+        <v>47</v>
+      </c>
+      <c r="L937" t="s">
+        <v>822</v>
+      </c>
+      <c r="M937" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>1725</v>
+      </c>
+      <c r="B938">
+        <v>27</v>
+      </c>
+      <c r="C938" t="s">
+        <v>281</v>
+      </c>
+      <c r="J938" t="s">
+        <v>99</v>
+      </c>
+      <c r="K938">
+        <v>47</v>
+      </c>
+      <c r="L938" t="s">
+        <v>822</v>
+      </c>
+      <c r="M938" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>1725</v>
+      </c>
+      <c r="B939">
+        <v>27</v>
+      </c>
+      <c r="C939" t="s">
+        <v>179</v>
+      </c>
+      <c r="J939" t="s">
+        <v>99</v>
+      </c>
+      <c r="K939">
+        <v>47</v>
+      </c>
+      <c r="L939" t="s">
+        <v>822</v>
+      </c>
+      <c r="M939" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>1725</v>
+      </c>
+      <c r="B940">
+        <v>27</v>
+      </c>
+      <c r="C940" t="s">
+        <v>929</v>
+      </c>
+      <c r="J940" t="s">
+        <v>99</v>
+      </c>
+      <c r="K940">
+        <v>47</v>
+      </c>
+      <c r="L940" t="s">
+        <v>822</v>
+      </c>
+      <c r="M940" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>1725</v>
+      </c>
+      <c r="B941">
+        <v>27</v>
+      </c>
+      <c r="C941" t="s">
+        <v>930</v>
+      </c>
+      <c r="J941" t="s">
+        <v>99</v>
+      </c>
+      <c r="K941">
+        <v>47</v>
+      </c>
+      <c r="L941" t="s">
+        <v>822</v>
+      </c>
+      <c r="M941" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>1725</v>
+      </c>
+      <c r="B942">
+        <v>28</v>
+      </c>
+      <c r="C942" t="s">
+        <v>325</v>
+      </c>
+      <c r="J942" t="s">
+        <v>99</v>
+      </c>
+      <c r="K942">
+        <v>47</v>
+      </c>
+      <c r="L942" t="s">
+        <v>822</v>
+      </c>
+      <c r="M942" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>1726</v>
+      </c>
+      <c r="B943">
+        <v>28</v>
+      </c>
+      <c r="C943" t="s">
+        <v>931</v>
+      </c>
+      <c r="J943" t="s">
+        <v>99</v>
+      </c>
+      <c r="K943">
+        <v>47</v>
+      </c>
+      <c r="L943" t="s">
+        <v>822</v>
+      </c>
+      <c r="M943" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>1726</v>
+      </c>
+      <c r="B944">
+        <v>28</v>
+      </c>
+      <c r="C944" t="s">
+        <v>932</v>
+      </c>
+      <c r="J944" t="s">
+        <v>99</v>
+      </c>
+      <c r="K944">
+        <v>47</v>
+      </c>
+      <c r="L944" t="s">
+        <v>822</v>
+      </c>
+      <c r="M944" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>1726</v>
+      </c>
+      <c r="B945">
+        <v>28</v>
+      </c>
+      <c r="C945" t="s">
+        <v>365</v>
+      </c>
+      <c r="J945" t="s">
+        <v>99</v>
+      </c>
+      <c r="K945">
+        <v>47</v>
+      </c>
+      <c r="L945" t="s">
+        <v>822</v>
+      </c>
+      <c r="M945" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>1726</v>
+      </c>
+      <c r="B946">
+        <v>28</v>
+      </c>
+      <c r="C946" t="s">
+        <v>933</v>
+      </c>
+      <c r="J946" t="s">
+        <v>99</v>
+      </c>
+      <c r="K946">
+        <v>47</v>
+      </c>
+      <c r="L946" t="s">
+        <v>822</v>
+      </c>
+      <c r="M946" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>1727</v>
+      </c>
+      <c r="B947">
+        <v>29</v>
+      </c>
+      <c r="C947" t="s">
+        <v>934</v>
+      </c>
+      <c r="J947" t="s">
+        <v>99</v>
+      </c>
+      <c r="K947">
+        <v>47</v>
+      </c>
+      <c r="L947" t="s">
+        <v>822</v>
+      </c>
+      <c r="M947" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>1727</v>
+      </c>
+      <c r="B948">
+        <v>29</v>
+      </c>
+      <c r="C948" t="s">
+        <v>935</v>
+      </c>
+      <c r="J948" t="s">
+        <v>99</v>
+      </c>
+      <c r="K948">
+        <v>47</v>
+      </c>
+      <c r="L948" t="s">
+        <v>822</v>
+      </c>
+      <c r="M948" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>1727</v>
+      </c>
+      <c r="B949">
+        <v>29</v>
+      </c>
+      <c r="C949" t="s">
+        <v>936</v>
+      </c>
+      <c r="J949" t="s">
+        <v>99</v>
+      </c>
+      <c r="K949">
+        <v>47</v>
+      </c>
+      <c r="L949" t="s">
+        <v>822</v>
+      </c>
+      <c r="M949" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>1727</v>
+      </c>
+      <c r="B950">
+        <v>29</v>
+      </c>
+      <c r="C950" t="s">
+        <v>937</v>
+      </c>
+      <c r="J950" t="s">
+        <v>99</v>
+      </c>
+      <c r="K950">
+        <v>47</v>
+      </c>
+      <c r="L950" t="s">
+        <v>822</v>
+      </c>
+      <c r="M950" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>1727</v>
+      </c>
+      <c r="B951">
+        <v>29</v>
+      </c>
+      <c r="C951" t="s">
+        <v>937</v>
+      </c>
+      <c r="J951" t="s">
+        <v>99</v>
+      </c>
+      <c r="K951">
+        <v>47</v>
+      </c>
+      <c r="L951" t="s">
+        <v>822</v>
+      </c>
+      <c r="M951" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>1728</v>
+      </c>
+      <c r="B952">
+        <v>30</v>
+      </c>
+      <c r="C952" t="s">
+        <v>938</v>
+      </c>
+      <c r="J952" t="s">
+        <v>99</v>
+      </c>
+      <c r="K952">
+        <v>47</v>
+      </c>
+      <c r="L952" t="s">
+        <v>822</v>
+      </c>
+      <c r="M952" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>1728</v>
+      </c>
+      <c r="B953">
+        <v>30</v>
+      </c>
+      <c r="C953" t="s">
+        <v>756</v>
+      </c>
+      <c r="J953" t="s">
+        <v>99</v>
+      </c>
+      <c r="K953">
+        <v>47</v>
+      </c>
+      <c r="L953" t="s">
+        <v>822</v>
+      </c>
+      <c r="M953" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>1728</v>
+      </c>
+      <c r="B954">
+        <v>30</v>
+      </c>
+      <c r="C954" t="s">
+        <v>939</v>
+      </c>
+      <c r="J954" t="s">
+        <v>99</v>
+      </c>
+      <c r="K954">
+        <v>47</v>
+      </c>
+      <c r="L954" t="s">
+        <v>822</v>
+      </c>
+      <c r="M954" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>1729</v>
+      </c>
+      <c r="B955">
+        <v>30</v>
+      </c>
+      <c r="C955" t="s">
+        <v>940</v>
+      </c>
+      <c r="J955" t="s">
+        <v>99</v>
+      </c>
+      <c r="K955">
+        <v>47</v>
+      </c>
+      <c r="L955" t="s">
+        <v>822</v>
+      </c>
+      <c r="M955" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>1729</v>
+      </c>
+      <c r="B956">
+        <v>30</v>
+      </c>
+      <c r="C956" t="s">
+        <v>941</v>
+      </c>
+      <c r="J956" t="s">
+        <v>99</v>
+      </c>
+      <c r="K956">
+        <v>47</v>
+      </c>
+      <c r="L956" t="s">
+        <v>822</v>
+      </c>
+      <c r="M956" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>1729</v>
+      </c>
+      <c r="B957">
+        <v>30</v>
+      </c>
+      <c r="C957" t="s">
+        <v>942</v>
+      </c>
+      <c r="J957" t="s">
+        <v>99</v>
+      </c>
+      <c r="K957">
+        <v>47</v>
+      </c>
+      <c r="L957" t="s">
+        <v>822</v>
+      </c>
+      <c r="M957" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>1729</v>
+      </c>
+      <c r="B958">
+        <v>31</v>
+      </c>
+      <c r="C958" t="s">
+        <v>738</v>
+      </c>
+      <c r="J958" t="s">
+        <v>99</v>
+      </c>
+      <c r="K958">
+        <v>47</v>
+      </c>
+      <c r="L958" t="s">
+        <v>822</v>
+      </c>
+      <c r="M958" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>1729</v>
+      </c>
+      <c r="B959">
+        <v>31</v>
+      </c>
+      <c r="C959" t="s">
+        <v>943</v>
+      </c>
+      <c r="J959" t="s">
+        <v>99</v>
+      </c>
+      <c r="K959">
+        <v>47</v>
+      </c>
+      <c r="L959" t="s">
+        <v>822</v>
+      </c>
+      <c r="M959" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>1730</v>
+      </c>
+      <c r="B960">
+        <v>31</v>
+      </c>
+      <c r="C960" t="s">
+        <v>944</v>
+      </c>
+      <c r="J960" t="s">
+        <v>99</v>
+      </c>
+      <c r="K960">
+        <v>47</v>
+      </c>
+      <c r="L960" t="s">
+        <v>822</v>
+      </c>
+      <c r="M960" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>1730</v>
+      </c>
+      <c r="B961">
+        <v>31</v>
+      </c>
+      <c r="C961" t="s">
+        <v>897</v>
+      </c>
+      <c r="J961" t="s">
+        <v>99</v>
+      </c>
+      <c r="K961">
+        <v>47</v>
+      </c>
+      <c r="L961" t="s">
+        <v>822</v>
+      </c>
+      <c r="M961" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>1730</v>
+      </c>
+      <c r="B962">
+        <v>31</v>
+      </c>
+      <c r="C962" t="s">
+        <v>945</v>
+      </c>
+      <c r="J962" t="s">
+        <v>99</v>
+      </c>
+      <c r="K962">
+        <v>47</v>
+      </c>
+      <c r="L962" t="s">
+        <v>822</v>
+      </c>
+      <c r="M962" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>1731</v>
+      </c>
+      <c r="B963">
+        <v>32</v>
+      </c>
+      <c r="C963" t="s">
+        <v>946</v>
+      </c>
+      <c r="J963" t="s">
+        <v>99</v>
+      </c>
+      <c r="K963">
+        <v>47</v>
+      </c>
+      <c r="L963" t="s">
+        <v>822</v>
+      </c>
+      <c r="M963" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>1731</v>
+      </c>
+      <c r="B964">
+        <v>32</v>
+      </c>
+      <c r="C964" t="s">
+        <v>947</v>
+      </c>
+      <c r="J964" t="s">
+        <v>99</v>
+      </c>
+      <c r="K964">
+        <v>47</v>
+      </c>
+      <c r="L964" t="s">
+        <v>822</v>
+      </c>
+      <c r="M964" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>1731</v>
+      </c>
+      <c r="B965">
+        <v>32</v>
+      </c>
+      <c r="C965" t="s">
+        <v>948</v>
+      </c>
+      <c r="J965" t="s">
+        <v>99</v>
+      </c>
+      <c r="K965">
+        <v>47</v>
+      </c>
+      <c r="L965" t="s">
+        <v>822</v>
+      </c>
+      <c r="M965" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>1731</v>
+      </c>
+      <c r="B966">
+        <v>32</v>
+      </c>
+      <c r="C966" t="s">
+        <v>949</v>
+      </c>
+      <c r="J966" t="s">
+        <v>99</v>
+      </c>
+      <c r="K966">
+        <v>47</v>
+      </c>
+      <c r="L966" t="s">
+        <v>822</v>
+      </c>
+      <c r="M966" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>1732</v>
+      </c>
+      <c r="B967">
+        <v>33</v>
+      </c>
+      <c r="C967" t="s">
+        <v>950</v>
+      </c>
+      <c r="J967" t="s">
+        <v>99</v>
+      </c>
+      <c r="K967">
+        <v>47</v>
+      </c>
+      <c r="L967" t="s">
+        <v>822</v>
+      </c>
+      <c r="M967" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>1732</v>
+      </c>
+      <c r="B968">
+        <v>33</v>
+      </c>
+      <c r="C968" t="s">
+        <v>951</v>
+      </c>
+      <c r="J968" t="s">
+        <v>99</v>
+      </c>
+      <c r="K968">
+        <v>47</v>
+      </c>
+      <c r="L968" t="s">
+        <v>822</v>
+      </c>
+      <c r="M968" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>1732</v>
+      </c>
+      <c r="B969">
+        <v>33</v>
+      </c>
+      <c r="C969" t="s">
+        <v>952</v>
+      </c>
+      <c r="J969" t="s">
+        <v>99</v>
+      </c>
+      <c r="K969">
+        <v>47</v>
+      </c>
+      <c r="L969" t="s">
+        <v>822</v>
+      </c>
+      <c r="M969" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>1732</v>
+      </c>
+      <c r="B970">
+        <v>34</v>
+      </c>
+      <c r="C970" t="s">
+        <v>953</v>
+      </c>
+      <c r="J970" t="s">
+        <v>99</v>
+      </c>
+      <c r="K970">
+        <v>47</v>
+      </c>
+      <c r="L970" t="s">
+        <v>822</v>
+      </c>
+      <c r="M970" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>1732</v>
+      </c>
+      <c r="B971">
+        <v>34</v>
+      </c>
+      <c r="C971" t="s">
+        <v>954</v>
+      </c>
+      <c r="J971" t="s">
+        <v>99</v>
+      </c>
+      <c r="K971">
+        <v>47</v>
+      </c>
+      <c r="L971" t="s">
+        <v>822</v>
+      </c>
+      <c r="M971" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>1732</v>
+      </c>
+      <c r="B972">
+        <v>34</v>
+      </c>
+      <c r="C972" t="s">
+        <v>955</v>
+      </c>
+      <c r="J972" t="s">
+        <v>99</v>
+      </c>
+      <c r="K972">
+        <v>47</v>
+      </c>
+      <c r="L972" t="s">
+        <v>822</v>
+      </c>
+      <c r="M972" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>1733</v>
+      </c>
+      <c r="B973">
+        <v>35</v>
+      </c>
+      <c r="C973" t="s">
+        <v>956</v>
+      </c>
+      <c r="J973" t="s">
+        <v>99</v>
+      </c>
+      <c r="K973">
+        <v>47</v>
+      </c>
+      <c r="L973" t="s">
+        <v>822</v>
+      </c>
+      <c r="M973" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>1733</v>
+      </c>
+      <c r="B974">
+        <v>35</v>
+      </c>
+      <c r="C974" t="s">
+        <v>957</v>
+      </c>
+      <c r="J974" t="s">
+        <v>99</v>
+      </c>
+      <c r="K974">
+        <v>47</v>
+      </c>
+      <c r="L974" t="s">
+        <v>822</v>
+      </c>
+      <c r="M974" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>1733</v>
+      </c>
+      <c r="B975">
+        <v>35</v>
+      </c>
+      <c r="C975" t="s">
+        <v>958</v>
+      </c>
+      <c r="J975" t="s">
+        <v>99</v>
+      </c>
+      <c r="K975">
+        <v>47</v>
+      </c>
+      <c r="L975" t="s">
+        <v>822</v>
+      </c>
+      <c r="M975" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>1733</v>
+      </c>
+      <c r="B976">
+        <v>36</v>
+      </c>
+      <c r="C976" t="s">
+        <v>959</v>
+      </c>
+      <c r="J976" t="s">
+        <v>99</v>
+      </c>
+      <c r="K976">
+        <v>47</v>
+      </c>
+      <c r="L976" t="s">
+        <v>822</v>
+      </c>
+      <c r="M976" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>1734</v>
+      </c>
+      <c r="B977">
+        <v>36</v>
+      </c>
+      <c r="C977" t="s">
+        <v>960</v>
+      </c>
+      <c r="J977" t="s">
+        <v>99</v>
+      </c>
+      <c r="K977">
+        <v>47</v>
+      </c>
+      <c r="L977" t="s">
+        <v>822</v>
+      </c>
+      <c r="M977" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>1734</v>
+      </c>
+      <c r="B978">
+        <v>36</v>
+      </c>
+      <c r="C978" t="s">
+        <v>961</v>
+      </c>
+      <c r="J978" t="s">
+        <v>99</v>
+      </c>
+      <c r="K978">
+        <v>47</v>
+      </c>
+      <c r="L978" t="s">
+        <v>822</v>
+      </c>
+      <c r="M978" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>1734</v>
+      </c>
+      <c r="B979">
+        <v>36</v>
+      </c>
+      <c r="C979" t="s">
+        <v>962</v>
+      </c>
+      <c r="J979" t="s">
+        <v>99</v>
+      </c>
+      <c r="K979">
+        <v>47</v>
+      </c>
+      <c r="L979" t="s">
+        <v>822</v>
+      </c>
+      <c r="M979" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>1734</v>
+      </c>
+      <c r="B980">
+        <v>36</v>
+      </c>
+      <c r="C980" t="s">
+        <v>963</v>
+      </c>
+      <c r="J980" t="s">
+        <v>99</v>
+      </c>
+      <c r="K980">
+        <v>47</v>
+      </c>
+      <c r="L980" t="s">
+        <v>822</v>
+      </c>
+      <c r="M980" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>1734</v>
+      </c>
+      <c r="B981">
+        <v>37</v>
+      </c>
+      <c r="C981" t="s">
+        <v>964</v>
+      </c>
+      <c r="J981" t="s">
+        <v>99</v>
+      </c>
+      <c r="K981">
+        <v>47</v>
+      </c>
+      <c r="L981" t="s">
+        <v>822</v>
+      </c>
+      <c r="M981" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>1734</v>
+      </c>
+      <c r="B982">
+        <v>37</v>
+      </c>
+      <c r="C982" t="s">
+        <v>965</v>
+      </c>
+      <c r="J982" t="s">
+        <v>99</v>
+      </c>
+      <c r="K982">
+        <v>47</v>
+      </c>
+      <c r="L982" t="s">
+        <v>822</v>
+      </c>
+      <c r="M982" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>1734</v>
+      </c>
+      <c r="B983">
+        <v>37</v>
+      </c>
+      <c r="C983" t="s">
+        <v>966</v>
+      </c>
+      <c r="J983" t="s">
+        <v>99</v>
+      </c>
+      <c r="K983">
+        <v>47</v>
+      </c>
+      <c r="L983" t="s">
+        <v>822</v>
+      </c>
+      <c r="M983" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>1734</v>
+      </c>
+      <c r="B984">
+        <v>37</v>
+      </c>
+      <c r="C984" t="s">
+        <v>967</v>
+      </c>
+      <c r="J984" t="s">
+        <v>99</v>
+      </c>
+      <c r="K984">
+        <v>47</v>
+      </c>
+      <c r="L984" t="s">
+        <v>822</v>
+      </c>
+      <c r="M984" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>1734</v>
+      </c>
+      <c r="B985">
+        <v>38</v>
+      </c>
+      <c r="C985" t="s">
+        <v>968</v>
+      </c>
+      <c r="J985" t="s">
+        <v>99</v>
+      </c>
+      <c r="K985">
+        <v>47</v>
+      </c>
+      <c r="L985" t="s">
+        <v>822</v>
+      </c>
+      <c r="M985" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>1735</v>
+      </c>
+      <c r="B986">
+        <v>38</v>
+      </c>
+      <c r="C986" t="s">
+        <v>969</v>
+      </c>
+      <c r="J986" t="s">
+        <v>99</v>
+      </c>
+      <c r="K986">
+        <v>47</v>
+      </c>
+      <c r="L986" t="s">
+        <v>822</v>
+      </c>
+      <c r="M986" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>1735</v>
+      </c>
+      <c r="B987">
+        <v>38</v>
+      </c>
+      <c r="C987" t="s">
+        <v>970</v>
+      </c>
+      <c r="J987" t="s">
+        <v>99</v>
+      </c>
+      <c r="K987">
+        <v>47</v>
+      </c>
+      <c r="L987" t="s">
+        <v>822</v>
+      </c>
+      <c r="M987" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>1736</v>
+      </c>
+      <c r="B988">
+        <v>38</v>
+      </c>
+      <c r="C988" t="s">
+        <v>971</v>
+      </c>
+      <c r="J988" t="s">
+        <v>99</v>
+      </c>
+      <c r="K988">
+        <v>47</v>
+      </c>
+      <c r="L988" t="s">
+        <v>822</v>
+      </c>
+      <c r="M988" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>1736</v>
+      </c>
+      <c r="B989">
+        <v>39</v>
+      </c>
+      <c r="C989" t="s">
+        <v>972</v>
+      </c>
+      <c r="J989" t="s">
+        <v>99</v>
+      </c>
+      <c r="K989">
+        <v>47</v>
+      </c>
+      <c r="L989" t="s">
+        <v>822</v>
+      </c>
+      <c r="M989" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>1736</v>
+      </c>
+      <c r="B990">
+        <v>39</v>
+      </c>
+      <c r="C990" t="s">
+        <v>973</v>
+      </c>
+      <c r="J990" t="s">
+        <v>99</v>
+      </c>
+      <c r="K990">
+        <v>47</v>
+      </c>
+      <c r="L990" t="s">
+        <v>822</v>
+      </c>
+      <c r="M990" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>1737</v>
+      </c>
+      <c r="B991">
+        <v>39</v>
+      </c>
+      <c r="C991" t="s">
+        <v>974</v>
+      </c>
+      <c r="J991" t="s">
+        <v>99</v>
+      </c>
+      <c r="K991">
+        <v>47</v>
+      </c>
+      <c r="L991" t="s">
+        <v>822</v>
+      </c>
+      <c r="M991" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>1738</v>
+      </c>
+      <c r="B992">
+        <v>39</v>
+      </c>
+      <c r="C992" t="s">
+        <v>975</v>
+      </c>
+      <c r="J992" t="s">
+        <v>99</v>
+      </c>
+      <c r="K992">
+        <v>47</v>
+      </c>
+      <c r="L992" t="s">
+        <v>822</v>
+      </c>
+      <c r="M992" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>1738</v>
+      </c>
+      <c r="B993">
+        <v>40</v>
+      </c>
+      <c r="C993" t="s">
+        <v>976</v>
+      </c>
+      <c r="J993" t="s">
+        <v>99</v>
+      </c>
+      <c r="K993">
+        <v>47</v>
+      </c>
+      <c r="L993" t="s">
+        <v>822</v>
+      </c>
+      <c r="M993" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>1739</v>
+      </c>
+      <c r="B994">
+        <v>40</v>
+      </c>
+      <c r="C994" t="s">
+        <v>977</v>
+      </c>
+      <c r="J994" t="s">
+        <v>99</v>
+      </c>
+      <c r="K994">
+        <v>47</v>
+      </c>
+      <c r="L994" t="s">
+        <v>822</v>
+      </c>
+      <c r="M994" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>1739</v>
+      </c>
+      <c r="B995">
+        <v>40</v>
+      </c>
+      <c r="C995" t="s">
+        <v>978</v>
+      </c>
+      <c r="J995" t="s">
+        <v>99</v>
+      </c>
+      <c r="K995">
+        <v>47</v>
+      </c>
+      <c r="L995" t="s">
+        <v>822</v>
+      </c>
+      <c r="M995" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>1739</v>
+      </c>
+      <c r="B996">
+        <v>40</v>
+      </c>
+      <c r="C996" t="s">
+        <v>979</v>
+      </c>
+      <c r="J996" t="s">
+        <v>99</v>
+      </c>
+      <c r="K996">
+        <v>47</v>
+      </c>
+      <c r="L996" t="s">
+        <v>822</v>
+      </c>
+      <c r="M996" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>1739</v>
+      </c>
+      <c r="B997">
+        <v>40</v>
+      </c>
+      <c r="C997" t="s">
+        <v>980</v>
+      </c>
+      <c r="J997" t="s">
+        <v>99</v>
+      </c>
+      <c r="K997">
+        <v>47</v>
+      </c>
+      <c r="L997" t="s">
+        <v>822</v>
+      </c>
+      <c r="M997" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>1739</v>
+      </c>
+      <c r="B998">
+        <v>40</v>
+      </c>
+      <c r="C998" t="s">
+        <v>981</v>
+      </c>
+      <c r="J998" t="s">
+        <v>99</v>
+      </c>
+      <c r="K998">
+        <v>47</v>
+      </c>
+      <c r="L998" t="s">
+        <v>822</v>
+      </c>
+      <c r="M998" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>1740</v>
+      </c>
+      <c r="B999">
+        <v>41</v>
+      </c>
+      <c r="C999" t="s">
+        <v>982</v>
+      </c>
+      <c r="J999" t="s">
+        <v>99</v>
+      </c>
+      <c r="K999">
+        <v>47</v>
+      </c>
+      <c r="L999" t="s">
+        <v>822</v>
+      </c>
+      <c r="M999" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>1740</v>
+      </c>
+      <c r="B1000">
+        <v>41</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>983</v>
+      </c>
+      <c r="J1000" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1000">
+        <v>47</v>
+      </c>
+      <c r="L1000" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1000" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>1740</v>
+      </c>
+      <c r="B1001">
+        <v>41</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>984</v>
+      </c>
+      <c r="J1001" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1001">
+        <v>47</v>
+      </c>
+      <c r="L1001" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1001" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>1740</v>
+      </c>
+      <c r="B1002">
+        <v>42</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>985</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1002">
+        <v>47</v>
+      </c>
+      <c r="L1002" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1002" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>1741</v>
+      </c>
+      <c r="B1003">
+        <v>42</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>986</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1003">
+        <v>47</v>
+      </c>
+      <c r="L1003" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1003" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>1741</v>
+      </c>
+      <c r="B1004">
+        <v>42</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>987</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1004">
+        <v>47</v>
+      </c>
+      <c r="L1004" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1004" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>1741</v>
+      </c>
+      <c r="B1005">
+        <v>42</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>988</v>
+      </c>
+      <c r="J1005" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1005">
+        <v>47</v>
+      </c>
+      <c r="L1005" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1005" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>1742</v>
+      </c>
+      <c r="B1006">
+        <v>43</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>989</v>
+      </c>
+      <c r="J1006" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1006">
+        <v>47</v>
+      </c>
+      <c r="L1006" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1006" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>1742</v>
+      </c>
+      <c r="B1007">
+        <v>43</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>990</v>
+      </c>
+      <c r="J1007" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1007">
+        <v>47</v>
+      </c>
+      <c r="L1007" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1007" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>1743</v>
+      </c>
+      <c r="B1008">
+        <v>43</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>991</v>
+      </c>
+      <c r="J1008" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1008">
+        <v>47</v>
+      </c>
+      <c r="L1008" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1008" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>1743</v>
+      </c>
+      <c r="B1009">
+        <v>43</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>992</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1009">
+        <v>47</v>
+      </c>
+      <c r="L1009" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1009" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>1743</v>
+      </c>
+      <c r="B1010">
+        <v>44</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1010" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1010">
+        <v>47</v>
+      </c>
+      <c r="L1010" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1010" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>1743</v>
+      </c>
+      <c r="B1011">
+        <v>44</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>994</v>
+      </c>
+      <c r="J1011" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1011">
+        <v>47</v>
+      </c>
+      <c r="L1011" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1011" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>1744</v>
+      </c>
+      <c r="B1012">
+        <v>44</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>995</v>
+      </c>
+      <c r="J1012" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1012">
+        <v>47</v>
+      </c>
+      <c r="L1012" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1012" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>1745</v>
+      </c>
+      <c r="B1013">
+        <v>45</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>996</v>
+      </c>
+      <c r="J1013" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1013">
+        <v>47</v>
+      </c>
+      <c r="L1013" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1013" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>1745</v>
+      </c>
+      <c r="B1014">
+        <v>45</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>997</v>
+      </c>
+      <c r="J1014" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1014">
+        <v>47</v>
+      </c>
+      <c r="L1014" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1014" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>1745</v>
+      </c>
+      <c r="B1015">
+        <v>45</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>998</v>
+      </c>
+      <c r="J1015" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1015">
+        <v>47</v>
+      </c>
+      <c r="L1015" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1015" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>1745</v>
+      </c>
+      <c r="B1016">
+        <v>45</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>999</v>
+      </c>
+      <c r="J1016" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1016">
+        <v>47</v>
+      </c>
+      <c r="L1016" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1016" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>1746</v>
+      </c>
+      <c r="B1017">
+        <v>46</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J1017" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1017">
+        <v>47</v>
+      </c>
+      <c r="L1017" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1017" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>1746</v>
+      </c>
+      <c r="B1018">
+        <v>46</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J1018" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1018">
+        <v>47</v>
+      </c>
+      <c r="L1018" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1018" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>1746</v>
+      </c>
+      <c r="B1019">
+        <v>47</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J1019" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1019">
+        <v>47</v>
+      </c>
+      <c r="L1019" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1019" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>1746</v>
+      </c>
+      <c r="B1020">
+        <v>47</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J1020" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1020">
+        <v>47</v>
+      </c>
+      <c r="L1020" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1020" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>1747</v>
+      </c>
+      <c r="B1021">
+        <v>48</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J1021" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1021">
+        <v>47</v>
+      </c>
+      <c r="L1021" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1021" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>1747</v>
+      </c>
+      <c r="B1022">
+        <v>48</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J1022" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1022">
+        <v>47</v>
+      </c>
+      <c r="L1022" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1022" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>1747</v>
+      </c>
+      <c r="B1023">
+        <v>48</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J1023" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1023">
+        <v>47</v>
+      </c>
+      <c r="L1023" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1023" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>1747</v>
+      </c>
+      <c r="B1024">
+        <v>48</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1024">
+        <v>47</v>
+      </c>
+      <c r="L1024" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1024" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>1747</v>
+      </c>
+      <c r="B1025">
+        <v>49</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J1025" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1025">
+        <v>47</v>
+      </c>
+      <c r="L1025" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1025" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>1748</v>
+      </c>
+      <c r="B1026">
+        <v>49</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J1026" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1026">
+        <v>47</v>
+      </c>
+      <c r="L1026" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1026" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>1748</v>
+      </c>
+      <c r="B1027">
+        <v>49</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J1027" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1027">
+        <v>47</v>
+      </c>
+      <c r="L1027" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1027" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>1748</v>
+      </c>
+      <c r="B1028">
+        <v>49</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J1028" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1028">
+        <v>47</v>
+      </c>
+      <c r="L1028" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1028" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>1749</v>
+      </c>
+      <c r="B1029">
+        <v>50</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J1029" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1029">
+        <v>47</v>
+      </c>
+      <c r="L1029" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1029" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>1749</v>
+      </c>
+      <c r="B1030">
+        <v>50</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J1030" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1030">
+        <v>47</v>
+      </c>
+      <c r="L1030" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1030" t="s">
+        <v>821</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M715" xr:uid="{26F4E75F-C79D-4AC9-AFD8-C6AF1AD32317}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Matrimonis/Index_Llibres_Matrimonis_Linyola_Mormons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Matrimonis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2356D6E-6883-49EF-A620-F6D9DCB91930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C2F80-681B-4E43-A093-9F79EC51BFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34A0C26-324D-4E17-B7B1-6D7DB0FCFBF8}"/>
   </bookViews>
@@ -3438,8 +3438,8 @@
   <dimension ref="A1:N1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A808" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E984" sqref="E984"/>
+      <pane ySplit="1" topLeftCell="A1009" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1031" sqref="A1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
